--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1185">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <r>
@@ -191,6 +191,9 @@
     <t>EPO version</t>
   </si>
   <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1848,6 +1851,9 @@
     <t>?this epo:isProcurementDocumentRestricted true .</t>
   </si>
   <si>
+    <t>The procurement documents are available for unrestricted and full direct access, free of charge, at (URL)</t>
+  </si>
+  <si>
     <t>BT-15</t>
   </si>
   <si>
@@ -2436,7 +2442,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> / epo:isSubjectToProcedureSpecificTerm ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm ?</t>
     </r>
     <r>
       <rPr>
@@ -2458,7 +2464,7 @@
     <t>I.3.4.1</t>
   </si>
   <si>
-    <t>Electronically via: (URL)</t>
+    <t>Electronically via (URL)</t>
   </si>
   <si>
     <t>BT-17</t>
@@ -2487,7 +2493,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> / epo:isSubjectToProcedureSpecificTerm ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm ?</t>
     </r>
     <r>
       <rPr>
@@ -2521,7 +2527,7 @@
     <t>I.3.4.3</t>
   </si>
   <si>
-    <t>To the following address: (please provide another address)</t>
+    <t>To the following address (please provide another address)</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/CENTRAL_PURCHASING/ADDRESS_PARTICIPATION</t>
@@ -2530,8 +2536,7 @@
     <t>I.3.5</t>
   </si>
   <si>
-    <t>Electronic communication requires the use of tools and devices that are not generally available. Unrestricted and full direct access to these tools
-and devices is possible, free of charge, at: (URL)</t>
+    <t>Electronic communication requires the use of tools and devices that are not generally available. Unrestricted and full direct access to these tools and devices is possible free of charge, at (URL)</t>
   </si>
   <si>
     <t>BT-124</t>
@@ -9374,18 +9379,18 @@
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -9397,62 +9402,62 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -12412,7 +12417,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -12420,7 +12425,7 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
@@ -12444,37 +12449,37 @@
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
@@ -12494,20 +12499,20 @@
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -12522,10 +12527,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -12546,22 +12551,22 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -12576,26 +12581,26 @@
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -12610,26 +12615,26 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -12644,26 +12649,26 @@
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -12678,26 +12683,26 @@
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -12712,28 +12717,28 @@
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -12748,26 +12753,26 @@
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -12782,26 +12787,26 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -12816,26 +12821,26 @@
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -12850,26 +12855,26 @@
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -12884,26 +12889,26 @@
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -12918,26 +12923,26 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -12952,10 +12957,10 @@
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -12976,26 +12981,26 @@
     </row>
     <row r="18">
       <c r="A18" s="53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -13010,26 +13015,26 @@
     </row>
     <row r="19">
       <c r="A19" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -13044,10 +13049,10 @@
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -13068,20 +13073,20 @@
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -13096,22 +13101,22 @@
     </row>
     <row r="22">
       <c r="A22" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -13126,26 +13131,26 @@
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
@@ -13168,26 +13173,26 @@
     </row>
     <row r="24">
       <c r="A24" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
@@ -13210,26 +13215,26 @@
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -13244,26 +13249,26 @@
     </row>
     <row r="26">
       <c r="A26" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -13278,28 +13283,28 @@
     </row>
     <row r="27">
       <c r="A27" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -13314,26 +13319,26 @@
     </row>
     <row r="28">
       <c r="A28" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -13348,26 +13353,26 @@
     </row>
     <row r="29">
       <c r="A29" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -13390,26 +13395,26 @@
     </row>
     <row r="30">
       <c r="A30" s="50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -13424,26 +13429,26 @@
     </row>
     <row r="31">
       <c r="A31" s="50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -13458,26 +13463,26 @@
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -13492,26 +13497,26 @@
     </row>
     <row r="33">
       <c r="A33" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -13526,10 +13531,10 @@
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -13550,26 +13555,26 @@
     </row>
     <row r="35">
       <c r="A35" s="53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
@@ -13592,26 +13597,26 @@
     </row>
     <row r="36">
       <c r="A36" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -13626,10 +13631,10 @@
     </row>
     <row r="37">
       <c r="A37" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -13650,22 +13655,22 @@
     </row>
     <row r="38">
       <c r="A38" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -13680,26 +13685,26 @@
     </row>
     <row r="39">
       <c r="A39" s="56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -13714,22 +13719,22 @@
     </row>
     <row r="40">
       <c r="A40" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
       <c r="E40" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -13752,20 +13757,20 @@
     </row>
     <row r="41">
       <c r="A41" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
       <c r="E41" s="65"/>
       <c r="F41" s="65"/>
       <c r="G41" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -13780,24 +13785,24 @@
     </row>
     <row r="42">
       <c r="A42" s="48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42" s="66"/>
       <c r="E42" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -13812,24 +13817,24 @@
     </row>
     <row r="43">
       <c r="A43" s="48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43" s="66"/>
       <c r="E43" s="51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -13844,26 +13849,26 @@
     </row>
     <row r="44">
       <c r="A44" s="48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D44" s="66"/>
       <c r="E44" s="66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G44" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -13878,26 +13883,26 @@
     </row>
     <row r="45">
       <c r="A45" s="48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D45" s="66"/>
       <c r="E45" s="51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -13912,10 +13917,10 @@
     </row>
     <row r="46">
       <c r="A46" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
@@ -13936,17 +13941,17 @@
     </row>
     <row r="47">
       <c r="A47" s="56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F47" s="68"/>
       <c r="G47" s="68"/>
@@ -13964,24 +13969,24 @@
     </row>
     <row r="48">
       <c r="A48" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="64" t="s">
         <v>223</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>221</v>
       </c>
       <c r="D48" s="70"/>
       <c r="E48" s="70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F48" s="70"/>
       <c r="G48" s="71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -13996,26 +14001,26 @@
     </row>
     <row r="49">
       <c r="A49" s="72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H49" s="74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -14038,26 +14043,26 @@
     </row>
     <row r="50">
       <c r="A50" s="72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B50" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -14072,26 +14077,26 @@
     </row>
     <row r="51">
       <c r="A51" s="72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B51" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" s="75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -14106,26 +14111,26 @@
     </row>
     <row r="52">
       <c r="A52" s="72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B52" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" s="75" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -14140,28 +14145,28 @@
     </row>
     <row r="53">
       <c r="A53" s="72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B53" s="73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G53" s="71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" s="75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -14176,26 +14181,26 @@
     </row>
     <row r="54">
       <c r="A54" s="72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H54" s="75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -14210,26 +14215,26 @@
     </row>
     <row r="55">
       <c r="A55" s="72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55" s="75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -14244,26 +14249,26 @@
     </row>
     <row r="56">
       <c r="A56" s="72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B56" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H56" s="75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -14278,26 +14283,26 @@
     </row>
     <row r="57">
       <c r="A57" s="72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B57" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" s="75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -14312,26 +14317,26 @@
     </row>
     <row r="58">
       <c r="A58" s="72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H58" s="75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -14346,26 +14351,26 @@
     </row>
     <row r="59">
       <c r="A59" s="72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -14380,10 +14385,10 @@
     </row>
     <row r="60">
       <c r="A60" s="72" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B60" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14404,20 +14409,20 @@
     </row>
     <row r="61">
       <c r="A61" s="48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="68"/>
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H61" s="76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -14432,24 +14437,24 @@
     </row>
     <row r="62">
       <c r="A62" s="56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C62" s="64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D62" s="70"/>
       <c r="E62" s="77" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F62" s="77"/>
       <c r="G62" s="77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H62" s="57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -14464,17 +14469,17 @@
     </row>
     <row r="63">
       <c r="A63" s="56" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C63" s="64" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D63" s="77"/>
       <c r="E63" s="77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F63" s="77"/>
       <c r="G63" s="77"/>
@@ -14492,17 +14497,17 @@
     </row>
     <row r="64">
       <c r="A64" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="64" t="s">
         <v>276</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>274</v>
       </c>
       <c r="D64" s="77"/>
       <c r="E64" s="77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F64" s="77"/>
       <c r="G64" s="77"/>
@@ -14520,24 +14525,24 @@
     </row>
     <row r="65">
       <c r="A65" s="48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="51" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H65" s="51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -14552,26 +14557,26 @@
     </row>
     <row r="66">
       <c r="A66" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C66" s="78" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E66" s="79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F66" s="79"/>
       <c r="G66" s="79" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H66" s="79" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -14586,10 +14591,10 @@
     </row>
     <row r="67">
       <c r="A67" s="34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -14610,10 +14615,10 @@
     </row>
     <row r="68">
       <c r="A68" s="39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14634,32 +14639,32 @@
     </row>
     <row r="69">
       <c r="A69" s="48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B69" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="29"/>
@@ -14672,26 +14677,26 @@
     </row>
     <row r="70">
       <c r="A70" s="53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F70" s="47"/>
       <c r="G70" s="47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I70" s="58"/>
       <c r="J70" s="58"/>
@@ -14706,26 +14711,26 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -14740,26 +14745,26 @@
     </row>
     <row r="72">
       <c r="A72" s="56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -14774,26 +14779,26 @@
     </row>
     <row r="73">
       <c r="A73" s="48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -14808,26 +14813,26 @@
     </row>
     <row r="74">
       <c r="A74" s="48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D74" s="51" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -14842,10 +14847,10 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C75" s="81"/>
       <c r="D75" s="81"/>
@@ -14866,26 +14871,26 @@
     </row>
     <row r="76">
       <c r="A76" s="83" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C76" s="81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D76" s="81" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E76" s="81" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F76" s="81"/>
       <c r="G76" s="81" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H76" s="81" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -14900,22 +14905,22 @@
     </row>
     <row r="77">
       <c r="A77" s="83" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C77" s="81"/>
       <c r="D77" s="81"/>
       <c r="E77" s="81" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F77" s="81"/>
       <c r="G77" s="81" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H77" s="84" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -14930,10 +14935,10 @@
     </row>
     <row r="78">
       <c r="A78" s="83" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C78" s="64"/>
       <c r="D78" s="64"/>
@@ -14954,10 +14959,10 @@
     </row>
     <row r="79">
       <c r="A79" s="48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14978,10 +14983,10 @@
     </row>
     <row r="80">
       <c r="A80" s="56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C80" s="77"/>
       <c r="D80" s="77"/>
@@ -15002,24 +15007,24 @@
     </row>
     <row r="81">
       <c r="A81" s="72" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C81" s="64"/>
       <c r="D81" s="64" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E81" s="85" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F81" s="64"/>
       <c r="G81" s="64" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -15034,24 +15039,24 @@
     </row>
     <row r="82">
       <c r="A82" s="72" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C82" s="64"/>
       <c r="D82" s="86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E82" s="85" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="64" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -15066,24 +15071,24 @@
     </row>
     <row r="83">
       <c r="A83" s="72" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C83" s="87"/>
       <c r="D83" s="86" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E83" s="86" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="64" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -15098,24 +15103,24 @@
     </row>
     <row r="84">
       <c r="A84" s="56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B84" s="88" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C84" s="87" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D84" s="89"/>
       <c r="E84" s="90" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F84" s="77"/>
       <c r="G84" s="64" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -15130,24 +15135,24 @@
     </row>
     <row r="85">
       <c r="A85" s="56" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B85" s="88" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C85" s="91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="90" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F85" s="70"/>
       <c r="G85" s="64" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -15162,22 +15167,22 @@
     </row>
     <row r="86">
       <c r="A86" s="48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="41" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="37" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -15192,7 +15197,7 @@
     </row>
     <row r="87">
       <c r="A87" s="48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B87" s="49"/>
       <c r="C87" s="38"/>
@@ -15204,7 +15209,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -15216,10 +15221,10 @@
     </row>
     <row r="88">
       <c r="A88" s="83" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
@@ -15230,7 +15235,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
@@ -15242,26 +15247,26 @@
     </row>
     <row r="89">
       <c r="A89" s="56" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H89" s="37" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -15276,26 +15281,26 @@
     </row>
     <row r="90">
       <c r="A90" s="56" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H90" s="51" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -15310,26 +15315,26 @@
     </row>
     <row r="91">
       <c r="A91" s="56" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -15344,22 +15349,22 @@
     </row>
     <row r="92">
       <c r="A92" s="56" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H92" s="92" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -15374,7 +15379,7 @@
     </row>
     <row r="93">
       <c r="A93" s="39" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B93" s="40" t="s">
         <v>8</v>
@@ -15382,14 +15387,14 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="41" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -15404,7 +15409,7 @@
     </row>
     <row r="94">
       <c r="A94" s="93" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B94" s="94" t="s">
         <v>8</v>
@@ -15412,14 +15417,14 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="41" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="42" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -15434,26 +15439,26 @@
     </row>
     <row r="95">
       <c r="A95" s="48" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B95" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D95" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="51" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="37" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H95" s="51" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -15468,26 +15473,26 @@
     </row>
     <row r="96">
       <c r="A96" s="56" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E96" s="51" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H96" s="51" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -15502,10 +15507,10 @@
     </row>
     <row r="97">
       <c r="A97" s="48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -15519,26 +15524,26 @@
     </row>
     <row r="98">
       <c r="A98" s="56" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -15546,26 +15551,26 @@
     </row>
     <row r="99">
       <c r="A99" s="56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -15573,10 +15578,10 @@
     </row>
     <row r="100">
       <c r="A100" s="48" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -15590,28 +15595,28 @@
     </row>
     <row r="101">
       <c r="A101" s="56" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G101" s="37" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H101" s="92" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -15619,26 +15624,26 @@
     </row>
     <row r="102">
       <c r="A102" s="56" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C102" s="63" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D102" s="63" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="37" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -15646,26 +15651,26 @@
     </row>
     <row r="103">
       <c r="A103" s="48" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B103" s="49" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H103" s="95" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -15673,10 +15678,10 @@
     </row>
     <row r="104">
       <c r="A104" s="48" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="63"/>
@@ -15690,10 +15695,10 @@
     </row>
     <row r="105">
       <c r="A105" s="48" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C105" s="64"/>
       <c r="D105" s="64"/>
@@ -15707,26 +15712,26 @@
     </row>
     <row r="106">
       <c r="A106" s="56" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F106" s="57"/>
       <c r="G106" s="77" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H106" s="57" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
@@ -15734,24 +15739,24 @@
     </row>
     <row r="107">
       <c r="A107" s="56" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D107" s="57"/>
       <c r="E107" s="77" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F107" s="57"/>
       <c r="G107" s="77" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H107" s="77" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -15759,10 +15764,10 @@
     </row>
     <row r="108">
       <c r="A108" s="48" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B108" s="97" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C108" s="98"/>
       <c r="D108" s="98"/>
@@ -15776,26 +15781,26 @@
     </row>
     <row r="109">
       <c r="A109" s="83" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C109" s="99" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D109" s="81" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E109" s="81" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F109" s="81"/>
       <c r="G109" s="81" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H109" s="81" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I109" s="82"/>
       <c r="J109" s="82"/>
@@ -15803,22 +15808,22 @@
     </row>
     <row r="110">
       <c r="A110" s="100" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B110" s="101"/>
       <c r="C110" s="99"/>
       <c r="D110" s="81"/>
       <c r="E110" s="81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F110" s="81" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G110" s="81" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H110" s="81" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I110" s="82"/>
       <c r="J110" s="82"/>
@@ -15826,22 +15831,22 @@
     </row>
     <row r="111">
       <c r="A111" s="100" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B111" s="101"/>
       <c r="C111" s="99"/>
       <c r="D111" s="81"/>
       <c r="E111" s="81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F111" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="G111" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="G111" s="81" t="s">
-        <v>480</v>
-      </c>
       <c r="H111" s="81" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I111" s="82"/>
       <c r="J111" s="82"/>
@@ -15849,26 +15854,26 @@
     </row>
     <row r="112">
       <c r="A112" s="83" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C112" s="99" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D112" s="81" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E112" s="81" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F112" s="81"/>
       <c r="G112" s="81" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H112" s="81" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I112" s="82"/>
       <c r="J112" s="82"/>
@@ -15876,26 +15881,26 @@
     </row>
     <row r="113">
       <c r="A113" s="83" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C113" s="102" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D113" s="82" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E113" s="81" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F113" s="82"/>
       <c r="G113" s="81" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H113" s="81" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I113" s="82"/>
       <c r="J113" s="82"/>
@@ -15903,10 +15908,10 @@
     </row>
     <row r="114">
       <c r="A114" s="48" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C114" s="64"/>
       <c r="D114" s="77"/>
@@ -15920,24 +15925,24 @@
     </row>
     <row r="115">
       <c r="A115" s="56" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D115" s="77"/>
       <c r="E115" s="77" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H115" s="71" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -15945,24 +15950,24 @@
     </row>
     <row r="116">
       <c r="A116" s="56" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B116" s="57" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D116" s="77"/>
       <c r="E116" s="77" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="42" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H116" s="71" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -15970,24 +15975,24 @@
     </row>
     <row r="117">
       <c r="A117" s="56" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C117" s="68" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D117" s="70"/>
       <c r="E117" s="70" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="42" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H117" s="69" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -15995,15 +16000,15 @@
     </row>
     <row r="118">
       <c r="A118" s="56" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C118" s="64"/>
       <c r="D118" s="77"/>
       <c r="E118" s="77" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="71"/>
@@ -16014,22 +16019,22 @@
     </row>
     <row r="119">
       <c r="A119" s="56" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B119" s="103" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C119" s="68"/>
       <c r="D119" s="70"/>
       <c r="E119" s="70" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="104" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H119" s="105" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -16037,10 +16042,10 @@
     </row>
     <row r="120">
       <c r="A120" s="50" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -16054,26 +16059,26 @@
     </row>
     <row r="121">
       <c r="A121" s="83" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E121" s="51" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F121" s="41"/>
       <c r="G121" s="51" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -16081,26 +16086,26 @@
     </row>
     <row r="122">
       <c r="A122" s="106" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B122" s="107" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C122" s="108" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D122" s="109" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E122" s="51" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F122" s="41"/>
       <c r="G122" s="51" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H122" s="52" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -16108,26 +16113,26 @@
     </row>
     <row r="123">
       <c r="A123" s="83" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C123" s="63" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E123" s="51" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F123" s="51"/>
       <c r="G123" s="51" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H123" s="110" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -16135,26 +16140,26 @@
     </row>
     <row r="124">
       <c r="A124" s="50" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B124" s="49" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E124" s="111" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="42" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H124" s="112" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
@@ -16162,10 +16167,10 @@
     </row>
     <row r="125">
       <c r="A125" s="34" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B125" s="80" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
@@ -16179,10 +16184,10 @@
     </row>
     <row r="126">
       <c r="A126" s="39" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
@@ -16196,10 +16201,10 @@
     </row>
     <row r="127">
       <c r="A127" s="48" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B127" s="49" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
@@ -16213,24 +16218,24 @@
     </row>
     <row r="128">
       <c r="A128" s="56" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B128" s="57" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C128" s="113" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D128" s="63"/>
       <c r="E128" s="66" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="51" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H128" s="114" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -16238,10 +16243,10 @@
     </row>
     <row r="129">
       <c r="A129" s="48" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
@@ -16255,26 +16260,26 @@
     </row>
     <row r="130">
       <c r="A130" s="56" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D130" s="116"/>
       <c r="E130" s="117" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H130" s="118" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -16282,26 +16287,26 @@
     </row>
     <row r="131">
       <c r="A131" s="56" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B131" s="57" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C131" s="63" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D131" s="63"/>
       <c r="E131" s="115" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -16309,26 +16314,26 @@
     </row>
     <row r="132">
       <c r="A132" s="56" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C132" s="63" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D132" s="116"/>
       <c r="E132" s="119" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F132" s="63" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G132" s="66" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H132" s="120" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -16336,15 +16341,15 @@
     </row>
     <row r="133">
       <c r="A133" s="48" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B133" s="49" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C133" s="70"/>
       <c r="D133" s="68"/>
       <c r="E133" s="64" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -16355,22 +16360,22 @@
     </row>
     <row r="134">
       <c r="A134" s="56" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B134" s="57" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C134" s="77"/>
       <c r="D134" s="68"/>
       <c r="E134" s="64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="71" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H134" s="121" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -16378,22 +16383,22 @@
     </row>
     <row r="135">
       <c r="A135" s="56" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B135" s="57" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C135" s="70"/>
       <c r="D135" s="68"/>
       <c r="E135" s="64" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="71" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H135" s="71" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -16401,10 +16406,10 @@
     </row>
     <row r="136">
       <c r="A136" s="39" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
@@ -16418,10 +16423,10 @@
     </row>
     <row r="137">
       <c r="A137" s="48" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B137" s="49" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
@@ -16435,26 +16440,26 @@
     </row>
     <row r="138">
       <c r="A138" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B138" s="57" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C138" s="68" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D138" s="68"/>
       <c r="E138" s="64" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F138" s="64" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G138" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H138" s="122" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -16462,24 +16467,24 @@
     </row>
     <row r="139">
       <c r="A139" s="56" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B139" s="57" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C139" s="70" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D139" s="68"/>
       <c r="E139" s="64" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F139" s="64"/>
       <c r="G139" s="71" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H139" s="121" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -16487,24 +16492,24 @@
     </row>
     <row r="140">
       <c r="A140" s="48" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B140" s="49" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C140" s="70" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D140" s="68"/>
       <c r="E140" s="64" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F140" s="64"/>
       <c r="G140" s="64" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H140" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -16512,10 +16517,10 @@
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B141" s="49" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
@@ -16529,26 +16534,26 @@
     </row>
     <row r="142">
       <c r="A142" s="56" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B142" s="57" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C142" s="68" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D142" s="123"/>
       <c r="E142" s="86" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F142" s="64" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G142" s="64" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H142" s="124" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -16556,26 +16561,26 @@
     </row>
     <row r="143">
       <c r="A143" s="56" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B143" s="57" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C143" s="64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D143" s="123"/>
       <c r="E143" s="86" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F143" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="G143" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="G143" s="64" t="s">
-        <v>610</v>
-      </c>
       <c r="H143" s="124" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -16583,15 +16588,15 @@
     </row>
     <row r="144">
       <c r="A144" s="125" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B144" s="80" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="41" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="42"/>
@@ -16602,10 +16607,10 @@
     </row>
     <row r="145">
       <c r="A145" s="50" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B145" s="49" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C145" s="82"/>
       <c r="D145" s="82"/>
@@ -16619,26 +16624,26 @@
     </row>
     <row r="146">
       <c r="A146" s="83" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B146" s="57" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C146" s="63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D146" s="63" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E146" s="51" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F146" s="51"/>
       <c r="G146" s="37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H146" s="126" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -16646,26 +16651,26 @@
     </row>
     <row r="147">
       <c r="A147" s="83" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B147" s="57" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C147" s="63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D147" s="63" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E147" s="51" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F147" s="51"/>
       <c r="G147" s="37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -16673,26 +16678,26 @@
     </row>
     <row r="148">
       <c r="A148" s="83" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D148" s="63" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F148" s="42"/>
       <c r="G148" s="42" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H148" s="42" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -16700,26 +16705,26 @@
     </row>
     <row r="149">
       <c r="A149" s="83" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E149" s="51" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F149" s="51"/>
       <c r="G149" s="37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H149" s="126" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -16727,10 +16732,10 @@
     </row>
     <row r="150">
       <c r="A150" s="48" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B150" s="49" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
@@ -16744,26 +16749,26 @@
     </row>
     <row r="151">
       <c r="A151" s="83" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C151" s="63" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D151" s="63" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E151" s="51" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F151" s="51"/>
       <c r="G151" s="37" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H151" s="51" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -16771,24 +16776,24 @@
     </row>
     <row r="152">
       <c r="A152" s="56" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D152" s="68"/>
       <c r="E152" s="64" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F152" s="51"/>
       <c r="G152" s="51" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H152" s="51" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -16796,10 +16801,10 @@
     </row>
     <row r="153">
       <c r="A153" s="48" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B153" s="49" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C153" s="68"/>
       <c r="D153" s="68"/>
@@ -16813,24 +16818,24 @@
     </row>
     <row r="154">
       <c r="A154" s="56" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C154" s="127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D154" s="68"/>
       <c r="E154" s="64" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="71" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H154" s="128" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -16838,24 +16843,24 @@
     </row>
     <row r="155">
       <c r="A155" s="48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B155" s="49" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C155" s="68" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D155" s="68"/>
       <c r="E155" s="64" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H155" s="129" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -16863,24 +16868,24 @@
     </row>
     <row r="156">
       <c r="A156" s="48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B156" s="49" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C156" s="70" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D156" s="68"/>
       <c r="E156" s="64" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F156" s="71"/>
       <c r="G156" s="64" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H156" s="130" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -16888,24 +16893,24 @@
     </row>
     <row r="157">
       <c r="A157" s="56" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C157" s="68" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D157" s="68"/>
       <c r="E157" s="68" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F157" s="69"/>
       <c r="G157" s="71" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H157" s="130" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -16913,24 +16918,24 @@
     </row>
     <row r="158">
       <c r="A158" s="48" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B158" s="49" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C158" s="68" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D158" s="68"/>
       <c r="E158" s="64" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F158" s="64"/>
       <c r="G158" s="64" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H158" s="130" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -16938,17 +16943,17 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B159" s="49" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C159" s="68" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D159" s="68"/>
       <c r="E159" s="64" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -16959,10 +16964,10 @@
     </row>
     <row r="160">
       <c r="A160" s="50" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B160" s="49" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -16976,26 +16981,26 @@
     </row>
     <row r="161">
       <c r="A161" s="83" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C161" s="63" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D161" s="63" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E161" s="51" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F161" s="51"/>
       <c r="G161" s="37" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -17003,24 +17008,24 @@
     </row>
     <row r="162">
       <c r="A162" s="125" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="41" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F162" s="51" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -17028,24 +17033,24 @@
     </row>
     <row r="163">
       <c r="A163" s="131" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B163" s="132" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
       <c r="E163" s="51" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F163" s="51" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H163" s="95" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -17053,22 +17058,22 @@
     </row>
     <row r="164">
       <c r="A164" s="131" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B164" s="132" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
       <c r="E164" s="63" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F164" s="63"/>
       <c r="G164" s="63" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H164" s="63" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -17076,28 +17081,28 @@
     </row>
     <row r="165">
       <c r="A165" s="50" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B165" s="49" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D165" s="63" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E165" s="51" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F165" s="51" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -17105,28 +17110,28 @@
     </row>
     <row r="166">
       <c r="A166" s="50" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B166" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D166" s="63" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F166" s="66" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H166" s="95" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -17134,26 +17139,26 @@
     </row>
     <row r="167">
       <c r="A167" s="50" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B167" s="49" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H167" s="41" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -17161,26 +17166,26 @@
     </row>
     <row r="168">
       <c r="A168" s="133" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B168" s="134" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C168" s="109" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D168" s="109" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E168" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H168" s="41" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -17188,13 +17193,13 @@
     </row>
     <row r="169">
       <c r="A169" s="135" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C169" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D169" s="63"/>
       <c r="E169" s="4"/>
@@ -17207,13 +17212,13 @@
     </row>
     <row r="170">
       <c r="A170" s="50" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B170" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C170" s="136" t="s">
         <v>730</v>
-      </c>
-      <c r="C170" s="136" t="s">
-        <v>728</v>
       </c>
       <c r="D170" s="63"/>
       <c r="E170" s="37"/>
@@ -17226,26 +17231,26 @@
     </row>
     <row r="171">
       <c r="A171" s="83" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C171" s="63" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D171" s="63" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E171" s="66" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F171" s="66"/>
       <c r="G171" s="63" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H171" s="137" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -17253,26 +17258,26 @@
     </row>
     <row r="172">
       <c r="A172" s="83" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C172" s="63" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D172" s="37" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E172" s="138" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F172" s="138"/>
       <c r="G172" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H172" s="139" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -17280,24 +17285,24 @@
     </row>
     <row r="173">
       <c r="A173" s="83" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C173" s="140" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D173" s="63"/>
       <c r="E173" s="138" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F173" s="138"/>
       <c r="G173" s="63" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -17305,13 +17310,13 @@
     </row>
     <row r="174">
       <c r="A174" s="135" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C174" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D174" s="63"/>
       <c r="E174" s="37"/>
@@ -17324,20 +17329,20 @@
     </row>
     <row r="175">
       <c r="A175" s="83" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B175" s="57"/>
       <c r="C175" s="63"/>
       <c r="D175" s="7"/>
       <c r="E175" s="51" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F175" s="51"/>
       <c r="G175" s="37" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H175" s="51" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
@@ -17345,20 +17350,20 @@
     </row>
     <row r="176">
       <c r="A176" s="83" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B176" s="77"/>
       <c r="C176" s="63"/>
       <c r="D176" s="7"/>
       <c r="E176" s="51" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F176" s="51"/>
       <c r="G176" s="37" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H176" s="51" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -17366,26 +17371,26 @@
     </row>
     <row r="177">
       <c r="A177" s="50" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B177" s="49" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C177" s="63" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D177" s="63" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E177" s="51" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F177" s="51"/>
       <c r="G177" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -17393,22 +17398,22 @@
     </row>
     <row r="178">
       <c r="A178" s="50" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B178" s="49" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C178" s="141"/>
       <c r="D178" s="141"/>
       <c r="E178" s="42" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F178" s="142"/>
       <c r="G178" s="51" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H178" s="37" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -17416,26 +17421,26 @@
     </row>
     <row r="179">
       <c r="A179" s="83" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C179" s="63" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D179" s="63" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F179" s="51"/>
       <c r="G179" s="37" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H179" s="37" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -17443,22 +17448,22 @@
     </row>
     <row r="180">
       <c r="A180" s="83" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="63"/>
       <c r="E180" s="51" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F180" s="51"/>
       <c r="G180" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -17466,22 +17471,22 @@
     </row>
     <row r="181">
       <c r="A181" s="83" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C181" s="63"/>
       <c r="D181" s="63"/>
       <c r="E181" s="51" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F181" s="51"/>
       <c r="G181" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H181" s="41" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -17489,22 +17494,22 @@
     </row>
     <row r="182">
       <c r="A182" s="83" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B182" s="57" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C182" s="63"/>
       <c r="D182" s="63"/>
       <c r="E182" s="51" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F182" s="51"/>
       <c r="G182" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -17512,22 +17517,22 @@
     </row>
     <row r="183">
       <c r="A183" s="83" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C183" s="63"/>
       <c r="D183" s="63"/>
       <c r="E183" s="51" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F183" s="51"/>
       <c r="G183" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -17535,24 +17540,24 @@
     </row>
     <row r="184">
       <c r="A184" s="83" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B184" s="57" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C184" s="143" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D184" s="63"/>
       <c r="E184" s="51" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F184" s="96"/>
       <c r="G184" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H184" s="51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -17560,13 +17565,13 @@
     </row>
     <row r="185">
       <c r="A185" s="50" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B185" s="49" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C185" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D185" s="63"/>
       <c r="E185" s="41"/>
@@ -17579,26 +17584,26 @@
     </row>
     <row r="186">
       <c r="A186" s="83" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D186" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E186" s="51" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F186" s="51"/>
       <c r="G186" s="45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H186" s="45" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -17606,26 +17611,26 @@
     </row>
     <row r="187">
       <c r="A187" s="83" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D187" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E187" s="51" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F187" s="51"/>
       <c r="G187" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H187" s="47" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -17633,26 +17638,26 @@
     </row>
     <row r="188">
       <c r="A188" s="83" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B188" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D188" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E188" s="51" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F188" s="51"/>
       <c r="G188" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H188" s="139" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -17660,26 +17665,26 @@
     </row>
     <row r="189">
       <c r="A189" s="83" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B189" s="57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C189" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D189" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E189" s="51" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F189" s="51"/>
       <c r="G189" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H189" s="139" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -17687,28 +17692,28 @@
     </row>
     <row r="190">
       <c r="A190" s="83" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D190" s="63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E190" s="41" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F190" s="41" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G190" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H190" s="51" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -17716,26 +17721,26 @@
     </row>
     <row r="191">
       <c r="A191" s="83" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B191" s="57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C191" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D191" s="63" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E191" s="51" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F191" s="51"/>
       <c r="G191" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H191" s="41" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -17743,26 +17748,26 @@
     </row>
     <row r="192">
       <c r="A192" s="83" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B192" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D192" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E192" s="51" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F192" s="51"/>
       <c r="G192" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H192" s="45" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -17770,26 +17775,26 @@
     </row>
     <row r="193">
       <c r="A193" s="83" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B193" s="57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E193" s="51" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F193" s="51"/>
       <c r="G193" s="51" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H193" s="51" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -17797,26 +17802,26 @@
     </row>
     <row r="194">
       <c r="A194" s="83" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B194" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C194" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D194" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E194" s="51" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F194" s="51"/>
       <c r="G194" s="51" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H194" s="51" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -17824,26 +17829,26 @@
     </row>
     <row r="195">
       <c r="A195" s="83" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D195" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E195" s="51" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F195" s="66"/>
       <c r="G195" s="47" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H195" s="47" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -17851,26 +17856,26 @@
     </row>
     <row r="196">
       <c r="A196" s="83" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B196" s="57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C196" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D196" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E196" s="51" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F196" s="51"/>
       <c r="G196" s="51" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H196" s="144" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -17878,26 +17883,26 @@
     </row>
     <row r="197">
       <c r="A197" s="83" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D197" s="63" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E197" s="51" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F197" s="41"/>
       <c r="G197" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H197" s="145" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -17909,14 +17914,14 @@
       <c r="C198" s="63"/>
       <c r="D198" s="63"/>
       <c r="E198" s="51" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F198" s="41"/>
       <c r="G198" s="45" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H198" s="45" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -17924,13 +17929,13 @@
     </row>
     <row r="199">
       <c r="A199" s="50" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B199" s="49" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C199" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D199" s="63"/>
       <c r="E199" s="37"/>
@@ -17943,26 +17948,26 @@
     </row>
     <row r="200">
       <c r="A200" s="83" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B200" s="57" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C200" s="63" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D200" s="63" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E200" s="51" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F200" s="51"/>
       <c r="G200" s="37" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H200" s="51" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -17970,24 +17975,24 @@
     </row>
     <row r="201">
       <c r="A201" s="100" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B201" s="73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C201" s="147" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D201" s="63"/>
       <c r="E201" s="51" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F201" s="51"/>
       <c r="G201" s="37" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H201" s="51" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -17995,26 +18000,26 @@
     </row>
     <row r="202">
       <c r="A202" s="83" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B202" s="57" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C202" s="63" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D202" s="63" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E202" s="51" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F202" s="51"/>
       <c r="G202" s="37" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H202" s="41" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -18022,24 +18027,24 @@
     </row>
     <row r="203">
       <c r="A203" s="100" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B203" s="73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C203" s="148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D203" s="63"/>
       <c r="E203" s="51" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F203" s="51"/>
       <c r="G203" s="37" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H203" s="41" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -18047,26 +18052,26 @@
     </row>
     <row r="204">
       <c r="A204" s="83" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C204" s="63" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D204" s="63" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E204" s="51" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F204" s="51"/>
       <c r="G204" s="37" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H204" s="51" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -18074,24 +18079,24 @@
     </row>
     <row r="205">
       <c r="A205" s="100" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B205" s="73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C205" s="149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D205" s="150"/>
       <c r="E205" s="51" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F205" s="51"/>
       <c r="G205" s="37" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="H205" s="51" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -18099,26 +18104,26 @@
     </row>
     <row r="206">
       <c r="A206" s="83" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C206" s="63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D206" s="63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E206" s="66" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F206" s="66"/>
       <c r="G206" s="63" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -18126,24 +18131,24 @@
     </row>
     <row r="207">
       <c r="A207" s="100" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C207" s="148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="51" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F207" s="66"/>
       <c r="G207" s="63" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -18151,13 +18156,13 @@
     </row>
     <row r="208">
       <c r="A208" s="50" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B208" s="49" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C208" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D208" s="63"/>
       <c r="E208" s="37"/>
@@ -18170,26 +18175,26 @@
     </row>
     <row r="209">
       <c r="A209" s="83" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B209" s="57" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C209" s="63" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D209" s="63" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E209" s="51" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F209" s="66"/>
       <c r="G209" s="51" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H209" s="92" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -18197,10 +18202,10 @@
     </row>
     <row r="210">
       <c r="A210" s="83" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B210" s="57" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -18214,26 +18219,26 @@
     </row>
     <row r="211">
       <c r="A211" s="83" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C211" s="66" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D211" s="66" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E211" s="51" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F211" s="66"/>
       <c r="G211" s="37" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="H211" s="51" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -18241,24 +18246,24 @@
     </row>
     <row r="212">
       <c r="A212" s="83" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C212" s="148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D212" s="63"/>
       <c r="E212" s="66" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F212" s="66"/>
       <c r="G212" s="66" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H212" s="63" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -18266,26 +18271,26 @@
     </row>
     <row r="213">
       <c r="A213" s="83" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C213" s="63" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D213" s="63" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E213" s="51" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F213" s="66"/>
       <c r="G213" s="51" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H213" s="51" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -18293,26 +18298,26 @@
     </row>
     <row r="214">
       <c r="A214" s="83" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C214" s="63" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D214" s="63" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E214" s="138" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F214" s="138"/>
       <c r="G214" s="51" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H214" s="51" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -18320,10 +18325,10 @@
     </row>
     <row r="215">
       <c r="A215" s="39" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B215" s="40" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C215" s="68"/>
       <c r="D215" s="68"/>
@@ -18337,24 +18342,24 @@
     </row>
     <row r="216">
       <c r="A216" s="48" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B216" s="49" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C216" s="68" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D216" s="68"/>
       <c r="E216" s="151" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F216" s="152"/>
       <c r="G216" s="71" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H216" s="153" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -18362,24 +18367,24 @@
     </row>
     <row r="217">
       <c r="A217" s="48" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B217" s="49" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C217" s="68" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D217" s="68"/>
       <c r="E217" s="151" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F217" s="152"/>
       <c r="G217" s="71" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H217" s="153" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -18387,24 +18392,24 @@
     </row>
     <row r="218">
       <c r="A218" s="48" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C218" s="68" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D218" s="68"/>
       <c r="E218" s="151" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F218" s="152"/>
       <c r="G218" s="71" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H218" s="153" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18412,26 +18417,26 @@
     </row>
     <row r="219">
       <c r="A219" s="135" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C219" s="63" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E219" s="138" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F219" s="138"/>
       <c r="G219" s="154" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H219" s="155" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18439,13 +18444,13 @@
     </row>
     <row r="220">
       <c r="A220" s="135" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C220" s="136" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="152"/>
@@ -18458,24 +18463,24 @@
     </row>
     <row r="221">
       <c r="A221" s="50" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B221" s="49" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C221" s="156" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="96" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F221" s="63"/>
       <c r="G221" s="63" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H221" s="63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -18483,26 +18488,26 @@
     </row>
     <row r="222">
       <c r="A222" s="83" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B222" s="157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C222" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D222" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E222" s="51" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F222" s="66"/>
       <c r="G222" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H222" s="41" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -18510,26 +18515,26 @@
     </row>
     <row r="223">
       <c r="A223" s="83" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B223" s="157" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C223" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D223" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E223" s="51" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F223" s="66"/>
       <c r="G223" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H223" s="41" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -18537,26 +18542,26 @@
     </row>
     <row r="224">
       <c r="A224" s="83" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B224" s="157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C224" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D224" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E224" s="66" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F224" s="66"/>
       <c r="G224" s="96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H224" s="96" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -18564,26 +18569,26 @@
     </row>
     <row r="225">
       <c r="A225" s="83" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B225" s="157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C225" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D225" s="63" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F225" s="66"/>
       <c r="G225" s="41" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H225" s="41" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -18591,26 +18596,26 @@
     </row>
     <row r="226">
       <c r="A226" s="83" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B226" s="157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C226" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D226" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E226" s="66" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F226" s="66"/>
       <c r="G226" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -18618,26 +18623,26 @@
     </row>
     <row r="227">
       <c r="A227" s="83" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B227" s="157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C227" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D227" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E227" s="51" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F227" s="66"/>
       <c r="G227" s="51" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H227" s="51" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -18645,26 +18650,26 @@
     </row>
     <row r="228">
       <c r="A228" s="83" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B228" s="157" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C228" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D228" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E228" s="66" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F228" s="66"/>
       <c r="G228" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -18672,26 +18677,26 @@
     </row>
     <row r="229">
       <c r="A229" s="83" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B229" s="157" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C229" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D229" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E229" s="66" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F229" s="66"/>
       <c r="G229" s="61" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H229" s="61" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18699,26 +18704,26 @@
     </row>
     <row r="230">
       <c r="A230" s="83" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B230" s="157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C230" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D230" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E230" s="138" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F230" s="138"/>
       <c r="G230" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -18726,24 +18731,24 @@
     </row>
     <row r="231">
       <c r="A231" s="50" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B231" s="67" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C231" s="156" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D231" s="158"/>
       <c r="E231" s="159" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F231" s="152"/>
       <c r="G231" s="37" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H231" s="37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -18751,26 +18756,26 @@
     </row>
     <row r="232">
       <c r="A232" s="83" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B232" s="157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C232" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D232" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E232" s="138" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F232" s="138"/>
       <c r="G232" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H232" s="41" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -18778,26 +18783,26 @@
     </row>
     <row r="233">
       <c r="A233" s="83" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B233" s="157" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C233" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D233" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E233" s="138" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F233" s="138"/>
       <c r="G233" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H233" s="41" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -18805,26 +18810,26 @@
     </row>
     <row r="234">
       <c r="A234" s="83" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B234" s="157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C234" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D234" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E234" s="138" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F234" s="138"/>
       <c r="G234" s="96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H234" s="96" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -18832,26 +18837,26 @@
     </row>
     <row r="235">
       <c r="A235" s="83" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B235" s="157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C235" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D235" s="63" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E235" s="138" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F235" s="138"/>
       <c r="G235" s="96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H235" s="96" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -18859,26 +18864,26 @@
     </row>
     <row r="236">
       <c r="A236" s="83" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B236" s="157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C236" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D236" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E236" s="66" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F236" s="66"/>
       <c r="G236" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H236" s="96" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -18886,26 +18891,26 @@
     </row>
     <row r="237">
       <c r="A237" s="83" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B237" s="157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C237" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D237" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E237" s="66" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F237" s="66"/>
       <c r="G237" s="66" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -18913,26 +18918,26 @@
     </row>
     <row r="238">
       <c r="A238" s="83" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B238" s="157" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C238" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D238" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E238" s="66" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F238" s="66"/>
       <c r="G238" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
@@ -18940,26 +18945,26 @@
     </row>
     <row r="239">
       <c r="A239" s="83" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B239" s="157" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C239" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D239" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E239" s="66" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F239" s="66"/>
       <c r="G239" s="61" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H239" s="61" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
@@ -18967,26 +18972,26 @@
     </row>
     <row r="240">
       <c r="A240" s="83" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B240" s="157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C240" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D240" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E240" s="66" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F240" s="66"/>
       <c r="G240" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
@@ -18994,26 +18999,26 @@
     </row>
     <row r="241">
       <c r="A241" s="50" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B241" s="67" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C241" s="63" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D241" s="63" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E241" s="66" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F241" s="66"/>
       <c r="G241" s="160" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H241" s="161" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -19021,22 +19026,22 @@
     </row>
     <row r="242">
       <c r="A242" s="50" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B242" s="67" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="96" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F242" s="63"/>
       <c r="G242" s="63" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H242" s="63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -19044,26 +19049,26 @@
     </row>
     <row r="243">
       <c r="A243" s="83" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B243" s="157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C243" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D243" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E243" s="66" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F243" s="66"/>
       <c r="G243" s="96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H243" s="96" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -19071,26 +19076,26 @@
     </row>
     <row r="244">
       <c r="A244" s="83" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B244" s="157" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C244" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D244" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E244" s="66" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F244" s="66"/>
       <c r="G244" s="96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H244" s="96" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -19098,26 +19103,26 @@
     </row>
     <row r="245">
       <c r="A245" s="83" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B245" s="157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C245" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D245" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E245" s="66" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F245" s="66"/>
       <c r="G245" s="96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H245" s="96" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -19125,26 +19130,26 @@
     </row>
     <row r="246">
       <c r="A246" s="83" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B246" s="157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C246" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D246" s="63" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E246" s="66" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F246" s="66"/>
       <c r="G246" s="96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H246" s="96" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -19152,26 +19157,26 @@
     </row>
     <row r="247">
       <c r="A247" s="83" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B247" s="157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C247" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D247" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E247" s="66" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F247" s="66"/>
       <c r="G247" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
@@ -19179,26 +19184,26 @@
     </row>
     <row r="248">
       <c r="A248" s="83" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B248" s="157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C248" s="66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D248" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E248" s="66" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F248" s="66"/>
       <c r="G248" s="66" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -19206,26 +19211,26 @@
     </row>
     <row r="249">
       <c r="A249" s="83" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B249" s="157" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C249" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D249" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E249" s="66" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F249" s="66"/>
       <c r="G249" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -19233,26 +19238,26 @@
     </row>
     <row r="250">
       <c r="A250" s="83" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B250" s="157" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C250" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D250" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E250" s="66" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F250" s="66"/>
       <c r="G250" s="61" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H250" s="61" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19260,26 +19265,26 @@
     </row>
     <row r="251">
       <c r="A251" s="83" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B251" s="157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C251" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D251" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E251" s="66" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="F251" s="66"/>
       <c r="G251" s="66" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H251" s="66" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19287,26 +19292,26 @@
     </row>
     <row r="252">
       <c r="A252" s="135" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B252" s="62" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C252" s="162" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D252" s="162" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E252" s="163" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F252" s="163"/>
       <c r="G252" s="164" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H252" s="164" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
@@ -19314,10 +19319,10 @@
     </row>
     <row r="253">
       <c r="A253" s="165" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B253" s="166" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C253" s="167"/>
       <c r="D253" s="167"/>
@@ -19331,17 +19336,17 @@
     </row>
     <row r="254">
       <c r="A254" s="165" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B254" s="166" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C254" s="168" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D254" s="167"/>
       <c r="E254" s="167" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F254" s="167"/>
       <c r="G254" s="167"/>
@@ -19352,26 +19357,26 @@
     </row>
     <row r="255">
       <c r="A255" s="165" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B255" s="166" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C255" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D255" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E255" s="167" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F255" s="167"/>
       <c r="G255" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H255" s="169" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
@@ -19379,26 +19384,26 @@
     </row>
     <row r="256">
       <c r="A256" s="165" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B256" s="166" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C256" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D256" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E256" s="167" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F256" s="167"/>
       <c r="G256" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H256" s="169" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
@@ -19406,10 +19411,10 @@
     </row>
     <row r="257">
       <c r="A257" s="165" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B257" s="166" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C257" s="167"/>
       <c r="D257" s="167"/>
@@ -19423,26 +19428,26 @@
     </row>
     <row r="258">
       <c r="A258" s="165" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B258" s="166" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C258" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D258" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E258" s="167" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F258" s="167"/>
       <c r="G258" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H258" s="169" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -19450,26 +19455,26 @@
     </row>
     <row r="259">
       <c r="A259" s="165" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B259" s="166" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C259" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D259" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E259" s="167" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F259" s="167"/>
       <c r="G259" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H259" s="169" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -19477,26 +19482,26 @@
     </row>
     <row r="260">
       <c r="A260" s="165" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B260" s="166" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C260" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D260" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E260" s="167" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F260" s="167"/>
       <c r="G260" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H260" s="169" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -19504,26 +19509,26 @@
     </row>
     <row r="261">
       <c r="A261" s="165" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B261" s="166" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C261" s="168" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D261" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E261" s="167" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F261" s="167"/>
       <c r="G261" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H261" s="169" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
@@ -19531,26 +19536,26 @@
     </row>
     <row r="262">
       <c r="A262" s="165" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B262" s="166" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C262" s="168" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D262" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E262" s="167" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F262" s="167"/>
       <c r="G262" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H262" s="169" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
@@ -19558,13 +19563,13 @@
     </row>
     <row r="263">
       <c r="A263" s="165" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B263" s="166" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C263" s="168" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D263" s="167"/>
       <c r="E263" s="167"/>
@@ -19577,26 +19582,26 @@
     </row>
     <row r="264">
       <c r="A264" s="165" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B264" s="166" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C264" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D264" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E264" s="167" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F264" s="167"/>
       <c r="G264" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H264" s="169" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -19604,26 +19609,26 @@
     </row>
     <row r="265">
       <c r="A265" s="165" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B265" s="166" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C265" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D265" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E265" s="167" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F265" s="167"/>
       <c r="G265" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H265" s="169" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
@@ -19631,26 +19636,26 @@
     </row>
     <row r="266">
       <c r="A266" s="165" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B266" s="166" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C266" s="167" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D266" s="167" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E266" s="167" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F266" s="167"/>
       <c r="G266" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H266" s="169" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
@@ -19658,10 +19663,10 @@
     </row>
     <row r="267">
       <c r="A267" s="165" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B267" s="166" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C267" s="167"/>
       <c r="D267" s="167"/>
@@ -19675,24 +19680,24 @@
     </row>
     <row r="268">
       <c r="A268" s="165" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B268" s="166" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C268" s="170" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D268" s="167"/>
       <c r="E268" s="167" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F268" s="167"/>
       <c r="G268" s="167" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H268" s="169" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
@@ -19700,10 +19705,10 @@
     </row>
     <row r="269">
       <c r="A269" s="165" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B269" s="166" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C269" s="167"/>
       <c r="D269" s="167"/>
@@ -19717,26 +19722,26 @@
     </row>
     <row r="270">
       <c r="A270" s="165" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B270" s="166" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C270" s="168" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D270" s="167" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="E270" s="171" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F270" s="167"/>
       <c r="G270" s="167" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H270" s="78" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -19928,19 +19933,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="174" t="s">
         <v>2</v>
@@ -19948,116 +19953,116 @@
     </row>
     <row r="2">
       <c r="A2" s="146" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="96" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="146" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="96" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="146" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F5" s="96" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C6" s="175" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="96" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F6" s="96" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F7" s="96" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -20081,36 +20086,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="176" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="177" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="178" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="179" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8">
@@ -20121,41 +20126,41 @@
     </row>
     <row r="10">
       <c r="A10" s="179" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="179" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B11" s="180" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="181" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="182"/>
       <c r="B13" s="183" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="184" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="185" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="186" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17">
@@ -20164,24 +20169,24 @@
     </row>
     <row r="18">
       <c r="A18" s="179" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B18" s="187" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B19" s="70"/>
     </row>
     <row r="21">
       <c r="A21" s="179" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B21" s="188" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -20207,57 +20212,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="179" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="189" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="190" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="189" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="190" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="190" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="190" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="189" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="190" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="190" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="190" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -20283,58 +20288,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B1" s="191" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="190" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="190" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="190" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="190" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="190" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="190" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="190" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="190" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="190" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -20378,35 +20383,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="192" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C1" s="193" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -20415,13 +20420,13 @@
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>1164</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>1162</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -20430,56 +20435,56 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1163</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D7" s="194" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -20509,58 +20514,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="192" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C1" s="193" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D2" s="191" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C5" s="194" t="s">
         <v>1181</v>
       </c>
-      <c r="C5" s="194" t="s">
-        <v>1179</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1197">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <r>
@@ -2419,6 +2419,9 @@
     <t>I.3.3.2.12</t>
   </si>
   <si>
+    <t>I.3.3.2.12.1</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/URL_GENERAL</t>
   </si>
   <si>
@@ -2459,6 +2462,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>I.3.3.2.12.2</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/URL_BUYER</t>
@@ -4275,24 +4281,20 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:hasPerformingStaffQualificationInformation &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>?this epo:hasPerformingStaffQualificationInformation &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
       <t>http://publications.europa.eu/resource/authority/requirement-stage/t-requ</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>&gt;</t>
     </r>
@@ -8149,7 +8151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8267,6 +8269,11 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -8353,7 +8360,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8430,6 +8437,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -8546,7 +8559,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8752,25 +8765,31 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8788,16 +8807,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -8839,17 +8858,20 @@
     <xf borderId="8" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -8911,22 +8933,25 @@
     <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8935,10 +8960,10 @@
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8947,7 +8972,7 @@
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8968,31 +8993,31 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -9028,16 +9053,13 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9055,13 +9077,13 @@
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9077,16 +9099,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9107,13 +9129,13 @@
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9125,13 +9147,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -14104,7 +14126,7 @@
         <v>230</v>
       </c>
       <c r="F48" s="70"/>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="71" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="71" t="s">
@@ -14530,27 +14552,27 @@
       <c r="R60" s="29"/>
     </row>
     <row r="61">
-      <c r="A61" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="54" t="s">
+      <c r="A61" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="45" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="76" t="s">
+      <c r="D61" s="77" t="s">
         <v>135</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F61" s="45"/>
-      <c r="G61" s="77" t="s">
+      <c r="G61" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="77" t="s">
-        <v>268</v>
+      <c r="H61" s="78" t="s">
+        <v>269</v>
       </c>
       <c r="I61" s="55"/>
       <c r="J61" s="55"/>
@@ -14564,10 +14586,10 @@
       <c r="R61" s="29"/>
     </row>
     <row r="62">
-      <c r="A62" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="57" t="s">
+      <c r="A62" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -14577,14 +14599,14 @@
         <v>141</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="42" t="s">
-        <v>270</v>
+      <c r="H62" s="71" t="s">
+        <v>272</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -14599,20 +14621,20 @@
     </row>
     <row r="63">
       <c r="A63" s="48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="H63" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="H63" s="80" t="s">
+        <v>276</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -14627,24 +14649,24 @@
     </row>
     <row r="64">
       <c r="A64" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79" t="s">
-        <v>273</v>
-      </c>
       <c r="H64" s="57" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -14659,21 +14681,21 @@
     </row>
     <row r="65">
       <c r="A65" s="56" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D65" s="70"/>
-      <c r="E65" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
+      <c r="E65" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -14687,21 +14709,21 @@
     </row>
     <row r="66">
       <c r="A66" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" s="68" t="s">
-        <v>282</v>
-      </c>
       <c r="D66" s="70"/>
-      <c r="E66" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
+      <c r="E66" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -14715,24 +14737,24 @@
     </row>
     <row r="67">
       <c r="A67" s="48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H67" s="51" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -14747,26 +14769,26 @@
     </row>
     <row r="68">
       <c r="A68" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="D68" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="E68" s="80" t="s">
+      <c r="C68" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80" t="s">
+      <c r="D68" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="H68" s="80" t="s">
+      <c r="E68" s="82" t="s">
         <v>299</v>
+      </c>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="H68" s="82" t="s">
+        <v>301</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -14781,10 +14803,10 @@
     </row>
     <row r="69">
       <c r="A69" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="B69" s="81" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="B69" s="83" t="s">
+        <v>303</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14805,10 +14827,10 @@
     </row>
     <row r="70">
       <c r="A70" s="39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14829,32 +14851,32 @@
     </row>
     <row r="71">
       <c r="A71" s="48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B71" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="29"/>
@@ -14867,26 +14889,26 @@
     </row>
     <row r="72">
       <c r="A72" s="53" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B72" s="54" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C72" s="61" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E72" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F72" s="61"/>
       <c r="G72" s="47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H72" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I72" s="58"/>
       <c r="J72" s="58"/>
@@ -14901,26 +14923,26 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H73" s="42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -14935,26 +14957,26 @@
     </row>
     <row r="74">
       <c r="A74" s="56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -14969,26 +14991,26 @@
     </row>
     <row r="75">
       <c r="A75" s="48" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H75" s="82" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="H75" s="84" t="s">
+        <v>338</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -15003,26 +15025,26 @@
     </row>
     <row r="76">
       <c r="A76" s="48" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D76" s="51" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -15037,17 +15059,17 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
+        <v>345</v>
+      </c>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -15060,27 +15082,27 @@
       <c r="R77" s="29"/>
     </row>
     <row r="78">
-      <c r="A78" s="84" t="s">
-        <v>344</v>
+      <c r="A78" s="86" t="s">
+        <v>346</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="D78" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="E78" s="85" t="s">
+      <c r="C78" s="85" t="s">
         <v>348</v>
       </c>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85" t="s">
+      <c r="D78" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="E78" s="87" t="s">
         <v>350</v>
+      </c>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="H78" s="87" t="s">
+        <v>352</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -15094,23 +15116,23 @@
       <c r="R78" s="29"/>
     </row>
     <row r="79">
-      <c r="A79" s="84" t="s">
-        <v>351</v>
+      <c r="A79" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="H79" s="86" t="s">
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85" t="s">
         <v>355</v>
+      </c>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="H79" s="88" t="s">
+        <v>357</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -15124,11 +15146,11 @@
       <c r="R79" s="29"/>
     </row>
     <row r="80">
-      <c r="A80" s="84" t="s">
-        <v>356</v>
+      <c r="A80" s="86" t="s">
+        <v>358</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C80" s="64"/>
       <c r="D80" s="64"/>
@@ -15149,10 +15171,10 @@
     </row>
     <row r="81">
       <c r="A81" s="48" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -15173,17 +15195,17 @@
     </row>
     <row r="82">
       <c r="A82" s="56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>361</v>
-      </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
+        <v>363</v>
+      </c>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -15197,24 +15219,24 @@
     </row>
     <row r="83">
       <c r="A83" s="72" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C83" s="64"/>
       <c r="D83" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="E83" s="89" t="s">
+        <v>367</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="64" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -15229,24 +15251,24 @@
     </row>
     <row r="84">
       <c r="A84" s="72" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C84" s="64"/>
-      <c r="D84" s="88" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="87" t="s">
-        <v>371</v>
+      <c r="D84" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="89" t="s">
+        <v>373</v>
       </c>
       <c r="F84" s="64"/>
       <c r="G84" s="64" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -15261,24 +15283,24 @@
     </row>
     <row r="85">
       <c r="A85" s="72" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="C85" s="89"/>
-      <c r="D85" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" s="90" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="C85" s="91"/>
+      <c r="D85" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="E85" s="92" t="s">
+        <v>378</v>
       </c>
       <c r="F85" s="68"/>
       <c r="G85" s="64" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -15293,24 +15315,24 @@
     </row>
     <row r="86">
       <c r="A86" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="B86" s="91" t="s">
-        <v>379</v>
-      </c>
-      <c r="C86" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93" t="s">
+      <c r="B86" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="F86" s="79"/>
+      <c r="C86" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="F86" s="81"/>
       <c r="G86" s="64" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -15325,24 +15347,24 @@
     </row>
     <row r="87">
       <c r="A87" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B87" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="C87" s="90" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93" t="s">
-        <v>385</v>
-      </c>
-      <c r="F87" s="79"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" s="81"/>
       <c r="G87" s="64" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -15357,22 +15379,22 @@
     </row>
     <row r="88">
       <c r="A88" s="48" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="37" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -15387,7 +15409,7 @@
     </row>
     <row r="89">
       <c r="A89" s="48" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B89" s="49"/>
       <c r="C89" s="38"/>
@@ -15399,7 +15421,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
@@ -15410,11 +15432,11 @@
       <c r="R89" s="29"/>
     </row>
     <row r="90">
-      <c r="A90" s="84" t="s">
-        <v>394</v>
+      <c r="A90" s="86" t="s">
+        <v>396</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
@@ -15425,7 +15447,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L90" s="29"/>
       <c r="M90" s="29"/>
@@ -15437,26 +15459,26 @@
     </row>
     <row r="91">
       <c r="A91" s="56" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H91" s="37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -15471,26 +15493,26 @@
     </row>
     <row r="92">
       <c r="A92" s="56" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H92" s="51" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -15505,26 +15527,26 @@
     </row>
     <row r="93">
       <c r="A93" s="56" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F93" s="63"/>
       <c r="G93" s="37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -15539,22 +15561,22 @@
     </row>
     <row r="94">
       <c r="A94" s="56" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="H94" s="94" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="H94" s="96" t="s">
+        <v>419</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -15569,7 +15591,7 @@
     </row>
     <row r="95">
       <c r="A95" s="39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B95" s="40" t="s">
         <v>8</v>
@@ -15577,14 +15599,14 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -15598,23 +15620,23 @@
       <c r="R95" s="29"/>
     </row>
     <row r="96">
-      <c r="A96" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="B96" s="96" t="s">
+      <c r="A96" s="97" t="s">
+        <v>420</v>
+      </c>
+      <c r="B96" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="42" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -15629,26 +15651,26 @@
     </row>
     <row r="97">
       <c r="A97" s="48" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B97" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D97" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="66" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F97" s="66"/>
       <c r="G97" s="63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -15656,26 +15678,26 @@
     </row>
     <row r="98">
       <c r="A98" s="56" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="37" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H98" s="51" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -15683,10 +15705,10 @@
     </row>
     <row r="99">
       <c r="A99" s="48" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -15700,26 +15722,26 @@
     </row>
     <row r="100">
       <c r="A100" s="56" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -15727,26 +15749,26 @@
     </row>
     <row r="101">
       <c r="A101" s="56" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -15754,10 +15776,10 @@
     </row>
     <row r="102">
       <c r="A102" s="48" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -15771,28 +15793,28 @@
     </row>
     <row r="103">
       <c r="A103" s="56" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G103" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="H103" s="94" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="H103" s="96" t="s">
+        <v>453</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -15800,26 +15822,26 @@
     </row>
     <row r="104">
       <c r="A104" s="56" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D104" s="63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="63" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H104" s="63" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -15827,26 +15849,26 @@
     </row>
     <row r="105">
       <c r="A105" s="48" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H105" s="97" t="s">
-        <v>462</v>
+        <v>427</v>
+      </c>
+      <c r="H105" s="99" t="s">
+        <v>464</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -15854,10 +15876,10 @@
     </row>
     <row r="106">
       <c r="A106" s="48" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B106" s="49" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
@@ -15871,10 +15893,10 @@
     </row>
     <row r="107">
       <c r="A107" s="48" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B107" s="49" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C107" s="64"/>
       <c r="D107" s="64"/>
@@ -15888,26 +15910,26 @@
     </row>
     <row r="108">
       <c r="A108" s="56" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="E108" s="79" t="s">
-        <v>469</v>
+        <v>349</v>
+      </c>
+      <c r="E108" s="81" t="s">
+        <v>471</v>
       </c>
       <c r="F108" s="57"/>
-      <c r="G108" s="79" t="s">
-        <v>470</v>
+      <c r="G108" s="81" t="s">
+        <v>472</v>
       </c>
       <c r="H108" s="57" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -15915,24 +15937,24 @@
     </row>
     <row r="109">
       <c r="A109" s="56" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C109" s="64" t="s">
         <v>226</v>
       </c>
       <c r="D109" s="57"/>
-      <c r="E109" s="79" t="s">
-        <v>473</v>
+      <c r="E109" s="81" t="s">
+        <v>475</v>
       </c>
       <c r="F109" s="57"/>
-      <c r="G109" s="79" t="s">
-        <v>474</v>
-      </c>
-      <c r="H109" s="79" t="s">
-        <v>475</v>
+      <c r="G109" s="81" t="s">
+        <v>476</v>
+      </c>
+      <c r="H109" s="81" t="s">
+        <v>477</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -15940,13 +15962,13 @@
     </row>
     <row r="110">
       <c r="A110" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="B110" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="C110" s="99"/>
-      <c r="D110" s="99"/>
+        <v>478</v>
+      </c>
+      <c r="B110" s="100" t="s">
+        <v>479</v>
+      </c>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
       <c r="E110" s="64"/>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
@@ -15956,142 +15978,142 @@
       <c r="K110" s="68"/>
     </row>
     <row r="111">
-      <c r="A111" s="84" t="s">
-        <v>478</v>
+      <c r="A111" s="86" t="s">
+        <v>480</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="C111" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="D111" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="E111" s="83" t="s">
+      <c r="C111" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83" t="s">
+      <c r="D111" s="85" t="s">
         <v>483</v>
       </c>
-      <c r="H111" s="83" t="s">
+      <c r="E111" s="85" t="s">
         <v>484</v>
       </c>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85" t="s">
+        <v>485</v>
+      </c>
+      <c r="H111" s="85" t="s">
+        <v>486</v>
+      </c>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87"/>
+      <c r="K111" s="87"/>
     </row>
     <row r="112">
-      <c r="A112" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="B112" s="102"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="F112" s="83" t="s">
+      <c r="A112" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="G112" s="83" t="s">
+      <c r="B112" s="104"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85" t="s">
         <v>488</v>
       </c>
-      <c r="H112" s="83" t="s">
+      <c r="F112" s="85" t="s">
         <v>489</v>
       </c>
-      <c r="I112" s="85"/>
-      <c r="J112" s="85"/>
-      <c r="K112" s="85"/>
+      <c r="G112" s="85" t="s">
+        <v>490</v>
+      </c>
+      <c r="H112" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="87"/>
     </row>
     <row r="113">
-      <c r="A113" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="F113" s="85" t="s">
+      <c r="A113" s="103" t="s">
+        <v>487</v>
+      </c>
+      <c r="B113" s="104"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="87"/>
+      <c r="E113" s="85" t="s">
+        <v>488</v>
+      </c>
+      <c r="F113" s="87" t="s">
+        <v>492</v>
+      </c>
+      <c r="G113" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="G113" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="H113" s="83" t="s">
-        <v>491</v>
-      </c>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
-      <c r="K113" s="85"/>
+      <c r="H113" s="85" t="s">
+        <v>493</v>
+      </c>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87"/>
+      <c r="K113" s="87"/>
     </row>
     <row r="114">
-      <c r="A114" s="84" t="s">
-        <v>492</v>
+      <c r="A114" s="86" t="s">
+        <v>494</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="C114" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="D114" s="83" t="s">
         <v>495</v>
       </c>
-      <c r="E114" s="83" t="s">
+      <c r="C114" s="102" t="s">
         <v>496</v>
       </c>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83" t="s">
+      <c r="D114" s="85" t="s">
         <v>497</v>
       </c>
-      <c r="H114" s="83" t="s">
+      <c r="E114" s="85" t="s">
         <v>498</v>
       </c>
-      <c r="I114" s="85"/>
-      <c r="J114" s="85"/>
-      <c r="K114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H114" s="85" t="s">
+        <v>500</v>
+      </c>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="87"/>
     </row>
     <row r="115">
-      <c r="A115" s="84" t="s">
+      <c r="A115" s="86" t="s">
+        <v>501</v>
+      </c>
+      <c r="B115" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115" s="102" t="s">
+        <v>503</v>
+      </c>
+      <c r="D115" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="E115" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85" t="s">
         <v>499</v>
       </c>
-      <c r="B115" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="C115" s="100" t="s">
-        <v>501</v>
-      </c>
-      <c r="D115" s="83" t="s">
-        <v>502</v>
-      </c>
-      <c r="E115" s="83" t="s">
-        <v>503</v>
-      </c>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83" t="s">
-        <v>497</v>
-      </c>
-      <c r="H115" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
+      <c r="H115" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="I115" s="87"/>
+      <c r="J115" s="87"/>
+      <c r="K115" s="87"/>
     </row>
     <row r="116">
       <c r="A116" s="48" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B116" s="49" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C116" s="64"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -16101,24 +16123,24 @@
     </row>
     <row r="117">
       <c r="A117" s="56" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C117" s="68" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D117" s="70"/>
       <c r="E117" s="70" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="42" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H117" s="69" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -16126,24 +16148,24 @@
     </row>
     <row r="118">
       <c r="A118" s="56" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79" t="s">
-        <v>513</v>
+        <v>482</v>
+      </c>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81" t="s">
+        <v>515</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="H118" s="71" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="H118" s="106" t="s">
+        <v>517</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -16151,24 +16173,24 @@
     </row>
     <row r="119">
       <c r="A119" s="56" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C119" s="68" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D119" s="70"/>
       <c r="E119" s="70" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="H119" s="71" t="s">
-        <v>518</v>
+      <c r="G119" s="107" t="s">
+        <v>516</v>
+      </c>
+      <c r="H119" s="106" t="s">
+        <v>520</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -16176,43 +16198,43 @@
     </row>
     <row r="120">
       <c r="A120" s="56" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C120" s="64"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79" t="s">
-        <v>521</v>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81" t="s">
+        <v>523</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="56" t="s">
-        <v>523</v>
-      </c>
-      <c r="B121" s="105" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="B121" s="108" t="s">
+        <v>526</v>
       </c>
       <c r="C121" s="68"/>
       <c r="D121" s="70"/>
-      <c r="E121" s="79" t="s">
-        <v>525</v>
+      <c r="E121" s="81" t="s">
+        <v>527</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="H121" s="106" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="H121" s="109" t="s">
+        <v>529</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -16220,10 +16242,10 @@
     </row>
     <row r="122">
       <c r="A122" s="50" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -16236,81 +16258,81 @@
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="84" t="s">
-        <v>530</v>
+      <c r="A123" s="86" t="s">
+        <v>532</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C123" s="63" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E123" s="51" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F123" s="41"/>
       <c r="G123" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="H123" s="107" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="H123" s="110" t="s">
+        <v>538</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="108" t="s">
-        <v>530</v>
-      </c>
-      <c r="B124" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="C124" s="110" t="s">
+      <c r="A124" s="111" t="s">
         <v>532</v>
       </c>
-      <c r="D124" s="111" t="s">
+      <c r="B124" s="112" t="s">
         <v>533</v>
       </c>
+      <c r="C124" s="113" t="s">
+        <v>534</v>
+      </c>
+      <c r="D124" s="114" t="s">
+        <v>535</v>
+      </c>
       <c r="E124" s="51" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F124" s="41"/>
       <c r="G124" s="51" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="84" t="s">
-        <v>539</v>
+      <c r="A125" s="86" t="s">
+        <v>541</v>
       </c>
       <c r="B125" s="57" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C125" s="63" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D125" s="66" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E125" s="51" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F125" s="51"/>
       <c r="G125" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="H125" s="112" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="H125" s="115" t="s">
+        <v>547</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -16318,26 +16340,26 @@
     </row>
     <row r="126">
       <c r="A126" s="50" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B126" s="49" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E126" s="113" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="E126" s="116" t="s">
+        <v>552</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="H126" s="114" t="s">
-        <v>551</v>
+        <v>427</v>
+      </c>
+      <c r="H126" s="117" t="s">
+        <v>553</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -16345,10 +16367,10 @@
     </row>
     <row r="127">
       <c r="A127" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="B127" s="81" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+      <c r="B127" s="83" t="s">
+        <v>555</v>
       </c>
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
@@ -16362,10 +16384,10 @@
     </row>
     <row r="128">
       <c r="A128" s="39" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
@@ -16379,10 +16401,10 @@
     </row>
     <row r="129">
       <c r="A129" s="48" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
@@ -16396,24 +16418,24 @@
     </row>
     <row r="130">
       <c r="A130" s="56" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>559</v>
-      </c>
-      <c r="C130" s="115" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="C130" s="118" t="s">
+        <v>562</v>
       </c>
       <c r="D130" s="63"/>
       <c r="E130" s="51" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="H130" s="116" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="H130" s="119" t="s">
+        <v>565</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -16421,14 +16443,14 @@
     </row>
     <row r="131">
       <c r="A131" s="48" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B131" s="49" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
-      <c r="E131" s="117"/>
+      <c r="E131" s="120"/>
       <c r="F131" s="37"/>
       <c r="G131" s="51"/>
       <c r="H131" s="51"/>
@@ -16438,26 +16460,26 @@
     </row>
     <row r="132">
       <c r="A132" s="56" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C132" s="63" t="s">
-        <v>568</v>
-      </c>
-      <c r="D132" s="118"/>
-      <c r="E132" s="119" t="s">
-        <v>569</v>
+        <v>570</v>
+      </c>
+      <c r="D132" s="121"/>
+      <c r="E132" s="122" t="s">
+        <v>571</v>
       </c>
       <c r="F132" s="63" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G132" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="H132" s="120" t="s">
-        <v>572</v>
+        <v>573</v>
+      </c>
+      <c r="H132" s="123" t="s">
+        <v>574</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -16465,26 +16487,26 @@
     </row>
     <row r="133">
       <c r="A133" s="56" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C133" s="63" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D133" s="63"/>
-      <c r="E133" s="117" t="s">
-        <v>576</v>
+      <c r="E133" s="120" t="s">
+        <v>578</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>577</v>
-      </c>
-      <c r="H133" s="121" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="H133" s="124" t="s">
+        <v>580</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -16492,26 +16514,26 @@
     </row>
     <row r="134">
       <c r="A134" s="56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B134" s="57" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="D134" s="118"/>
-      <c r="E134" s="122" t="s">
-        <v>581</v>
+        <v>570</v>
+      </c>
+      <c r="D134" s="121"/>
+      <c r="E134" s="125" t="s">
+        <v>583</v>
       </c>
       <c r="F134" s="37" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="H134" s="123" t="s">
-        <v>582</v>
+        <v>573</v>
+      </c>
+      <c r="H134" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -16519,15 +16541,15 @@
     </row>
     <row r="135">
       <c r="A135" s="48" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B135" s="49" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C135" s="70"/>
       <c r="D135" s="68"/>
       <c r="E135" s="64" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -16538,22 +16560,22 @@
     </row>
     <row r="136">
       <c r="A136" s="56" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B136" s="57" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C136" s="70"/>
       <c r="D136" s="68"/>
       <c r="E136" s="64" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="71" t="s">
-        <v>562</v>
-      </c>
-      <c r="H136" s="71" t="s">
-        <v>589</v>
+      <c r="G136" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="H136" s="106" t="s">
+        <v>591</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -16561,22 +16583,22 @@
     </row>
     <row r="137">
       <c r="A137" s="56" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B137" s="57" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C137" s="70"/>
       <c r="D137" s="68"/>
       <c r="E137" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F137" s="4"/>
-      <c r="G137" s="71" t="s">
-        <v>562</v>
-      </c>
-      <c r="H137" s="71" t="s">
-        <v>563</v>
+      <c r="G137" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="H137" s="106" t="s">
+        <v>565</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -16584,10 +16606,10 @@
     </row>
     <row r="138">
       <c r="A138" s="39" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
@@ -16601,10 +16623,10 @@
     </row>
     <row r="139">
       <c r="A139" s="48" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B139" s="49" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
@@ -16618,26 +16640,26 @@
     </row>
     <row r="140">
       <c r="A140" s="56" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C140" s="68" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D140" s="68"/>
       <c r="E140" s="64" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F140" s="64" t="s">
-        <v>570</v>
-      </c>
-      <c r="G140" s="64" t="s">
-        <v>601</v>
-      </c>
-      <c r="H140" s="124" t="s">
-        <v>602</v>
+        <v>572</v>
+      </c>
+      <c r="G140" s="106" t="s">
+        <v>603</v>
+      </c>
+      <c r="H140" s="127" t="s">
+        <v>604</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -16645,24 +16667,24 @@
     </row>
     <row r="141">
       <c r="A141" s="56" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B141" s="57" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D141" s="68"/>
       <c r="E141" s="64" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F141" s="64"/>
-      <c r="G141" s="71" t="s">
-        <v>562</v>
-      </c>
-      <c r="H141" s="71" t="s">
-        <v>563</v>
+      <c r="G141" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="H141" s="106" t="s">
+        <v>565</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -16670,24 +16692,24 @@
     </row>
     <row r="142">
       <c r="A142" s="48" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B142" s="49" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C142" s="70" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D142" s="68"/>
       <c r="E142" s="64" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F142" s="64"/>
-      <c r="G142" s="64" t="s">
-        <v>611</v>
-      </c>
-      <c r="H142" s="125" t="s">
-        <v>612</v>
+      <c r="G142" s="106" t="s">
+        <v>613</v>
+      </c>
+      <c r="H142" s="128" t="s">
+        <v>614</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -16695,14 +16717,14 @@
     </row>
     <row r="143">
       <c r="A143" s="48" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="63"/>
-      <c r="E143" s="117"/>
+      <c r="E143" s="120"/>
       <c r="F143" s="37"/>
       <c r="G143" s="51"/>
       <c r="H143" s="51"/>
@@ -16712,26 +16734,26 @@
     </row>
     <row r="144">
       <c r="A144" s="56" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B144" s="57" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C144" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="D144" s="126"/>
-      <c r="E144" s="90" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="D144" s="129"/>
+      <c r="E144" s="92" t="s">
+        <v>620</v>
       </c>
       <c r="F144" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="G144" s="64" t="s">
-        <v>619</v>
-      </c>
-      <c r="H144" s="127" t="s">
-        <v>620</v>
+        <v>572</v>
+      </c>
+      <c r="G144" s="106" t="s">
+        <v>621</v>
+      </c>
+      <c r="H144" s="130" t="s">
+        <v>622</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
@@ -16739,42 +16761,42 @@
     </row>
     <row r="145">
       <c r="A145" s="56" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C145" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="D145" s="126"/>
-      <c r="E145" s="90" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="D145" s="129"/>
+      <c r="E145" s="92" t="s">
+        <v>620</v>
       </c>
       <c r="F145" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="G145" s="106" t="s">
         <v>621</v>
       </c>
-      <c r="G145" s="64" t="s">
-        <v>619</v>
-      </c>
-      <c r="H145" s="127" t="s">
-        <v>622</v>
+      <c r="H145" s="131" t="s">
+        <v>624</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="128" t="s">
-        <v>623</v>
-      </c>
-      <c r="B146" s="81" t="s">
-        <v>624</v>
+      <c r="A146" s="132" t="s">
+        <v>625</v>
+      </c>
+      <c r="B146" s="83" t="s">
+        <v>626</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="41" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="42"/>
@@ -16785,124 +16807,124 @@
     </row>
     <row r="147">
       <c r="A147" s="50" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B147" s="49" t="s">
-        <v>627</v>
-      </c>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
+        <v>629</v>
+      </c>
+      <c r="C147" s="87"/>
+      <c r="D147" s="87"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="84" t="s">
-        <v>628</v>
+      <c r="A148" s="86" t="s">
+        <v>630</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D148" s="63" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E148" s="51" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F148" s="51"/>
       <c r="G148" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="H148" s="129" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="H148" s="133" t="s">
+        <v>636</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="84" t="s">
-        <v>635</v>
+      <c r="A149" s="86" t="s">
+        <v>637</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E149" s="51" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F149" s="51"/>
       <c r="G149" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="H149" s="129" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="H149" s="133" t="s">
+        <v>640</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="84" t="s">
-        <v>639</v>
+      <c r="A150" s="86" t="s">
+        <v>641</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C150" s="63" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D150" s="63" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F150" s="42"/>
       <c r="G150" s="42" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H150" s="42" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="84" t="s">
-        <v>643</v>
+      <c r="A151" s="86" t="s">
+        <v>645</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C151" s="63" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D151" s="63" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E151" s="51" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F151" s="51"/>
       <c r="G151" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="H151" s="129" t="s">
-        <v>646</v>
+        <v>635</v>
+      </c>
+      <c r="H151" s="133" t="s">
+        <v>648</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -16910,10 +16932,10 @@
     </row>
     <row r="152">
       <c r="A152" s="48" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B152" s="49" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="63"/>
@@ -16926,27 +16948,27 @@
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="84" t="s">
-        <v>649</v>
+      <c r="A153" s="86" t="s">
+        <v>651</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C153" s="63" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D153" s="63" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E153" s="51" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F153" s="51"/>
       <c r="G153" s="37" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H153" s="51" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -16954,24 +16976,24 @@
     </row>
     <row r="154">
       <c r="A154" s="56" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C154" s="68" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D154" s="68"/>
       <c r="E154" s="64" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F154" s="51"/>
-      <c r="G154" s="71" t="s">
-        <v>660</v>
+      <c r="G154" s="106" t="s">
+        <v>662</v>
       </c>
       <c r="H154" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -16979,10 +17001,10 @@
     </row>
     <row r="155">
       <c r="A155" s="48" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B155" s="49" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C155" s="68"/>
       <c r="D155" s="68"/>
@@ -16996,24 +17018,24 @@
     </row>
     <row r="156">
       <c r="A156" s="56" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>665</v>
-      </c>
-      <c r="C156" s="130" t="s">
+        <v>667</v>
+      </c>
+      <c r="C156" s="134" t="s">
         <v>226</v>
       </c>
       <c r="D156" s="68"/>
       <c r="E156" s="64" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F156" s="4"/>
-      <c r="G156" s="71" t="s">
-        <v>667</v>
-      </c>
-      <c r="H156" s="106" t="s">
-        <v>668</v>
+      <c r="G156" s="106" t="s">
+        <v>669</v>
+      </c>
+      <c r="H156" s="109" t="s">
+        <v>670</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -17021,24 +17043,24 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B157" s="49" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C157" s="68" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D157" s="68"/>
       <c r="E157" s="68" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -17046,24 +17068,24 @@
     </row>
     <row r="158">
       <c r="A158" s="48" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B158" s="49" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C158" s="70" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D158" s="68"/>
       <c r="E158" s="64" t="s">
-        <v>676</v>
-      </c>
-      <c r="F158" s="71"/>
+        <v>678</v>
+      </c>
+      <c r="F158" s="106"/>
       <c r="G158" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="H158" s="131" t="s">
-        <v>678</v>
+        <v>679</v>
+      </c>
+      <c r="H158" s="135" t="s">
+        <v>680</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -17071,24 +17093,24 @@
     </row>
     <row r="159">
       <c r="A159" s="56" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C159" s="68" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D159" s="68"/>
       <c r="E159" s="64" t="s">
-        <v>682</v>
-      </c>
-      <c r="F159" s="71"/>
-      <c r="G159" s="71" t="s">
-        <v>677</v>
-      </c>
-      <c r="H159" s="131" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="F159" s="106"/>
+      <c r="G159" s="106" t="s">
+        <v>679</v>
+      </c>
+      <c r="H159" s="135" t="s">
+        <v>685</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -17096,24 +17118,24 @@
     </row>
     <row r="160">
       <c r="A160" s="48" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B160" s="49" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C160" s="68" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D160" s="68"/>
       <c r="E160" s="64" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F160" s="64"/>
       <c r="G160" s="64" t="s">
-        <v>688</v>
-      </c>
-      <c r="H160" s="131" t="s">
-        <v>689</v>
+        <v>690</v>
+      </c>
+      <c r="H160" s="135" t="s">
+        <v>691</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -17121,31 +17143,31 @@
     </row>
     <row r="161">
       <c r="A161" s="48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B161" s="49" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C161" s="68" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D161" s="68"/>
       <c r="E161" s="64" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="71"/>
+      <c r="H161" s="106"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="50" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B162" s="49" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -17158,100 +17180,100 @@
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="84" t="s">
-        <v>695</v>
+      <c r="A163" s="86" t="s">
+        <v>697</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C163" s="63" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D163" s="63" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E163" s="51" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F163" s="51"/>
       <c r="G163" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="H163" s="132" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="H163" s="136" t="s">
+        <v>703</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="128" t="s">
-        <v>702</v>
+      <c r="A164" s="132" t="s">
+        <v>704</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="82" t="s">
-        <v>704</v>
+      <c r="E164" s="84" t="s">
+        <v>706</v>
       </c>
       <c r="F164" s="66" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="H164" s="133" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="H164" s="137" t="s">
+        <v>709</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="134" t="s">
-        <v>702</v>
-      </c>
-      <c r="B165" s="135" t="s">
-        <v>703</v>
+      <c r="A165" s="138" t="s">
+        <v>704</v>
+      </c>
+      <c r="B165" s="139" t="s">
+        <v>705</v>
       </c>
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
       <c r="E165" s="51" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F165" s="51" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G165" s="66" t="s">
-        <v>708</v>
-      </c>
-      <c r="H165" s="136" t="s">
-        <v>709</v>
+        <v>710</v>
+      </c>
+      <c r="H165" s="140" t="s">
+        <v>711</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="134" t="s">
-        <v>702</v>
-      </c>
-      <c r="B166" s="135" t="s">
-        <v>703</v>
+      <c r="A166" s="138" t="s">
+        <v>704</v>
+      </c>
+      <c r="B166" s="139" t="s">
+        <v>705</v>
       </c>
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
       <c r="E166" s="63" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F166" s="63"/>
       <c r="G166" s="37" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -17259,28 +17281,28 @@
     </row>
     <row r="167">
       <c r="A167" s="50" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B167" s="49" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E167" s="51" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F167" s="51" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -17288,28 +17310,28 @@
     </row>
     <row r="168">
       <c r="A168" s="50" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B168" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="63" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D168" s="63" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E168" s="51" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F168" s="51" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="H168" s="97" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="H168" s="99" t="s">
+        <v>726</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -17317,67 +17339,67 @@
     </row>
     <row r="169">
       <c r="A169" s="50" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B169" s="49" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D169" s="63" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E169" s="41" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H169" s="41" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="137" t="s">
-        <v>725</v>
-      </c>
-      <c r="B170" s="138" t="s">
-        <v>726</v>
-      </c>
-      <c r="C170" s="111" t="s">
+      <c r="A170" s="141" t="s">
         <v>727</v>
       </c>
-      <c r="D170" s="111" t="s">
+      <c r="B170" s="142" t="s">
         <v>728</v>
       </c>
+      <c r="C170" s="114" t="s">
+        <v>729</v>
+      </c>
+      <c r="D170" s="114" t="s">
+        <v>730</v>
+      </c>
       <c r="E170" s="41" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H170" s="41" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="139" t="s">
-        <v>735</v>
+      <c r="A171" s="143" t="s">
+        <v>737</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>736</v>
-      </c>
-      <c r="C171" s="140" t="s">
-        <v>737</v>
+        <v>738</v>
+      </c>
+      <c r="C171" s="144" t="s">
+        <v>739</v>
       </c>
       <c r="D171" s="63"/>
       <c r="E171" s="7"/>
@@ -17390,17 +17412,17 @@
     </row>
     <row r="172">
       <c r="A172" s="50" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B172" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="C172" s="144" t="s">
         <v>739</v>
       </c>
-      <c r="C172" s="140" t="s">
-        <v>737</v>
-      </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="141"/>
-      <c r="F172" s="141"/>
+      <c r="E172" s="145"/>
+      <c r="F172" s="145"/>
       <c r="G172" s="37"/>
       <c r="H172" s="37"/>
       <c r="I172" s="7"/>
@@ -17408,93 +17430,93 @@
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="84" t="s">
-        <v>740</v>
+      <c r="A173" s="86" t="s">
+        <v>742</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C173" s="63" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D173" s="63" t="s">
-        <v>743</v>
-      </c>
-      <c r="E173" s="142" t="s">
-        <v>744</v>
-      </c>
-      <c r="F173" s="142"/>
+        <v>745</v>
+      </c>
+      <c r="E173" s="146" t="s">
+        <v>746</v>
+      </c>
+      <c r="F173" s="146"/>
       <c r="G173" s="63" t="s">
-        <v>745</v>
-      </c>
-      <c r="H173" s="143" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="H173" s="147" t="s">
+        <v>748</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="84" t="s">
-        <v>747</v>
+      <c r="A174" s="86" t="s">
+        <v>749</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C174" s="63" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D174" s="63" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E174" s="51" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F174" s="51"/>
       <c r="G174" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="H174" s="144" t="s">
-        <v>750</v>
+        <v>747</v>
+      </c>
+      <c r="H174" s="148" t="s">
+        <v>752</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="84" t="s">
-        <v>751</v>
+      <c r="A175" s="86" t="s">
+        <v>753</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>752</v>
-      </c>
-      <c r="C175" s="145" t="s">
-        <v>605</v>
+        <v>754</v>
+      </c>
+      <c r="C175" s="149" t="s">
+        <v>607</v>
       </c>
       <c r="D175" s="63"/>
       <c r="E175" s="51" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F175" s="51"/>
       <c r="G175" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="H175" s="123" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="H175" s="126" t="s">
+        <v>757</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="139" t="s">
-        <v>756</v>
+      <c r="A176" s="143" t="s">
+        <v>758</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="C176" s="140" t="s">
-        <v>737</v>
+        <v>705</v>
+      </c>
+      <c r="C176" s="144" t="s">
+        <v>739</v>
       </c>
       <c r="D176" s="63"/>
       <c r="E176" s="37"/>
@@ -17506,42 +17528,42 @@
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="84" t="s">
-        <v>757</v>
+      <c r="A177" s="86" t="s">
+        <v>759</v>
       </c>
       <c r="B177" s="57"/>
       <c r="C177" s="63"/>
       <c r="D177" s="7"/>
       <c r="E177" s="51" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F177" s="51"/>
       <c r="G177" s="37" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H177" s="51" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="84" t="s">
-        <v>757</v>
-      </c>
-      <c r="B178" s="79"/>
+      <c r="A178" s="86" t="s">
+        <v>759</v>
+      </c>
+      <c r="B178" s="81"/>
       <c r="C178" s="63"/>
       <c r="D178" s="7"/>
       <c r="E178" s="51" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F178" s="51"/>
       <c r="G178" s="37" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H178" s="51" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -17549,26 +17571,26 @@
     </row>
     <row r="179">
       <c r="A179" s="50" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B179" s="49" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C179" s="63" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D179" s="63" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F179" s="51"/>
       <c r="G179" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -17576,159 +17598,159 @@
     </row>
     <row r="180">
       <c r="A180" s="50" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>769</v>
-      </c>
-      <c r="C180" s="146"/>
-      <c r="D180" s="147"/>
+        <v>771</v>
+      </c>
+      <c r="C180" s="150"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="F180" s="146"/>
+        <v>731</v>
+      </c>
+      <c r="F180" s="150"/>
       <c r="G180" s="51" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="84" t="s">
-        <v>772</v>
+      <c r="A181" s="86" t="s">
+        <v>774</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C181" s="63" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D181" s="63" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E181" s="51" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F181" s="51"/>
       <c r="G181" s="37" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H181" s="37" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="84" t="s">
-        <v>779</v>
+      <c r="A182" s="86" t="s">
+        <v>781</v>
       </c>
       <c r="B182" s="57" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C182" s="63"/>
       <c r="D182" s="63"/>
       <c r="E182" s="51" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F182" s="51"/>
       <c r="G182" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="84" t="s">
-        <v>784</v>
+      <c r="A183" s="86" t="s">
+        <v>786</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C183" s="63"/>
       <c r="D183" s="63"/>
       <c r="E183" s="51" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F183" s="51"/>
       <c r="G183" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="H183" s="144" t="s">
-        <v>787</v>
+        <v>784</v>
+      </c>
+      <c r="H183" s="148" t="s">
+        <v>789</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="84" t="s">
-        <v>788</v>
+      <c r="A184" s="86" t="s">
+        <v>790</v>
       </c>
       <c r="B184" s="57" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C184" s="63"/>
       <c r="D184" s="63"/>
       <c r="E184" s="51" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F184" s="66"/>
       <c r="G184" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H184" s="41" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="84" t="s">
-        <v>792</v>
+      <c r="A185" s="86" t="s">
+        <v>794</v>
       </c>
       <c r="B185" s="57" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C185" s="63"/>
       <c r="D185" s="63"/>
       <c r="E185" s="51" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F185" s="51"/>
       <c r="G185" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="84" t="s">
-        <v>796</v>
+      <c r="A186" s="86" t="s">
+        <v>798</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>797</v>
-      </c>
-      <c r="C186" s="148" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="C186" s="152" t="s">
+        <v>800</v>
       </c>
       <c r="D186" s="63"/>
       <c r="E186" s="51" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F186" s="41"/>
       <c r="G186" s="37" t="s">
@@ -17743,13 +17765,13 @@
     </row>
     <row r="187">
       <c r="A187" s="50" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B187" s="49" t="s">
-        <v>801</v>
-      </c>
-      <c r="C187" s="140" t="s">
-        <v>737</v>
+        <v>803</v>
+      </c>
+      <c r="C187" s="144" t="s">
+        <v>739</v>
       </c>
       <c r="D187" s="63"/>
       <c r="E187" s="41"/>
@@ -17761,8 +17783,8 @@
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="84" t="s">
-        <v>802</v>
+      <c r="A188" s="86" t="s">
+        <v>804</v>
       </c>
       <c r="B188" s="57" t="s">
         <v>56</v>
@@ -17774,22 +17796,22 @@
         <v>58</v>
       </c>
       <c r="E188" s="51" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F188" s="51"/>
       <c r="G188" s="45" t="s">
         <v>60</v>
       </c>
       <c r="H188" s="45" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="84" t="s">
-        <v>805</v>
+      <c r="A189" s="86" t="s">
+        <v>807</v>
       </c>
       <c r="B189" s="57" t="s">
         <v>63</v>
@@ -17801,22 +17823,22 @@
         <v>65</v>
       </c>
       <c r="E189" s="51" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F189" s="51"/>
       <c r="G189" s="47" t="s">
         <v>67</v>
       </c>
       <c r="H189" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="84" t="s">
-        <v>808</v>
+      <c r="A190" s="86" t="s">
+        <v>810</v>
       </c>
       <c r="B190" s="57" t="s">
         <v>70</v>
@@ -17828,22 +17850,22 @@
         <v>72</v>
       </c>
       <c r="E190" s="51" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F190" s="51"/>
       <c r="G190" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H190" s="41" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="84" t="s">
-        <v>811</v>
+      <c r="A191" s="86" t="s">
+        <v>813</v>
       </c>
       <c r="B191" s="57" t="s">
         <v>77</v>
@@ -17855,22 +17877,22 @@
         <v>79</v>
       </c>
       <c r="E191" s="51" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F191" s="51"/>
       <c r="G191" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H191" s="41" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="84" t="s">
-        <v>814</v>
+      <c r="A192" s="86" t="s">
+        <v>816</v>
       </c>
       <c r="B192" s="57" t="s">
         <v>83</v>
@@ -17882,24 +17904,24 @@
         <v>85</v>
       </c>
       <c r="E192" s="41" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F192" s="41" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G192" s="37" t="s">
         <v>88</v>
       </c>
       <c r="H192" s="51" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="84" t="s">
-        <v>818</v>
+      <c r="A193" s="86" t="s">
+        <v>820</v>
       </c>
       <c r="B193" s="57" t="s">
         <v>91</v>
@@ -17908,25 +17930,25 @@
         <v>92</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E193" s="51" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F193" s="51"/>
       <c r="G193" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H193" s="41" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="84" t="s">
-        <v>822</v>
+      <c r="A194" s="86" t="s">
+        <v>824</v>
       </c>
       <c r="B194" s="57" t="s">
         <v>98</v>
@@ -17938,22 +17960,22 @@
         <v>100</v>
       </c>
       <c r="E194" s="51" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F194" s="51"/>
       <c r="G194" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H194" s="149" t="s">
-        <v>824</v>
+      <c r="H194" s="153" t="s">
+        <v>826</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="84" t="s">
-        <v>825</v>
+      <c r="A195" s="86" t="s">
+        <v>827</v>
       </c>
       <c r="B195" s="57" t="s">
         <v>118</v>
@@ -17965,22 +17987,22 @@
         <v>120</v>
       </c>
       <c r="E195" s="51" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F195" s="66"/>
       <c r="G195" s="51" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H195" s="51" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="84" t="s">
-        <v>829</v>
+      <c r="A196" s="86" t="s">
+        <v>831</v>
       </c>
       <c r="B196" s="57" t="s">
         <v>112</v>
@@ -17992,25 +18014,25 @@
         <v>114</v>
       </c>
       <c r="E196" s="51" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F196" s="51"/>
       <c r="G196" s="51" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H196" s="51" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="84" t="s">
-        <v>833</v>
+      <c r="A197" s="86" t="s">
+        <v>835</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C197" s="63" t="s">
         <v>134</v>
@@ -18019,22 +18041,22 @@
         <v>135</v>
       </c>
       <c r="E197" s="51" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F197" s="51"/>
       <c r="G197" s="47" t="s">
-        <v>827</v>
-      </c>
-      <c r="H197" s="150" t="s">
-        <v>836</v>
+        <v>829</v>
+      </c>
+      <c r="H197" s="154" t="s">
+        <v>838</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="84" t="s">
-        <v>837</v>
+      <c r="A198" s="86" t="s">
+        <v>839</v>
       </c>
       <c r="B198" s="57" t="s">
         <v>125</v>
@@ -18046,60 +18068,60 @@
         <v>127</v>
       </c>
       <c r="E198" s="51" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F198" s="51"/>
       <c r="G198" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="H198" s="123" t="s">
-        <v>839</v>
+        <v>833</v>
+      </c>
+      <c r="H198" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="84" t="s">
-        <v>840</v>
+      <c r="A199" s="86" t="s">
+        <v>842</v>
       </c>
       <c r="B199" s="57" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C199" s="63" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D199" s="63" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E199" s="51" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F199" s="41"/>
       <c r="G199" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="H199" s="151" t="s">
-        <v>846</v>
+        <v>847</v>
+      </c>
+      <c r="H199" s="155" t="s">
+        <v>848</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="152"/>
+      <c r="A200" s="156"/>
       <c r="B200" s="4"/>
       <c r="C200" s="63"/>
       <c r="D200" s="63"/>
       <c r="E200" s="51" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F200" s="41"/>
       <c r="G200" s="45" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H200" s="45" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -18107,13 +18129,13 @@
     </row>
     <row r="201">
       <c r="A201" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B201" s="49" t="s">
-        <v>850</v>
-      </c>
-      <c r="C201" s="153" t="s">
-        <v>737</v>
+        <v>852</v>
+      </c>
+      <c r="C201" s="157" t="s">
+        <v>739</v>
       </c>
       <c r="D201" s="63"/>
       <c r="E201" s="37"/>
@@ -18125,208 +18147,208 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="84" t="s">
-        <v>851</v>
+      <c r="A202" s="86" t="s">
+        <v>853</v>
       </c>
       <c r="B202" s="57" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C202" s="63" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D202" s="63" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E202" s="51" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F202" s="51"/>
       <c r="G202" s="37" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H202" s="51" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="101" t="s">
-        <v>855</v>
+      <c r="A203" s="103" t="s">
+        <v>857</v>
       </c>
       <c r="B203" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C203" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="158" t="s">
         <v>226</v>
       </c>
       <c r="D203" s="63"/>
       <c r="E203" s="51" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F203" s="51"/>
       <c r="G203" s="37" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H203" s="51" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="84" t="s">
-        <v>859</v>
+      <c r="A204" s="86" t="s">
+        <v>861</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C204" s="63" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D204" s="63" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E204" s="51" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F204" s="51"/>
       <c r="G204" s="37" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H204" s="41" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="101" t="s">
-        <v>866</v>
+      <c r="A205" s="103" t="s">
+        <v>868</v>
       </c>
       <c r="B205" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C205" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="156"/>
+      <c r="D205" s="160"/>
       <c r="E205" s="51" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F205" s="51"/>
       <c r="G205" s="37" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H205" s="41" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="84" t="s">
-        <v>870</v>
+      <c r="A206" s="86" t="s">
+        <v>872</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C206" s="63" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D206" s="63" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E206" s="66" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F206" s="66"/>
       <c r="G206" s="63" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="101" t="s">
-        <v>874</v>
+      <c r="A207" s="103" t="s">
+        <v>876</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C207" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C207" s="158" t="s">
         <v>226</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="51" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F207" s="66"/>
       <c r="G207" s="63" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="84" t="s">
-        <v>878</v>
+      <c r="A208" s="86" t="s">
+        <v>880</v>
       </c>
       <c r="B208" s="57" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C208" s="63" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D208" s="63" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E208" s="51" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F208" s="51"/>
       <c r="G208" s="37" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H208" s="51" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="101" t="s">
-        <v>881</v>
+      <c r="A209" s="103" t="s">
+        <v>883</v>
       </c>
       <c r="B209" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C209" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C209" s="158" t="s">
         <v>226</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="51" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F209" s="66"/>
       <c r="G209" s="37" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H209" s="51" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -18334,13 +18356,13 @@
     </row>
     <row r="210">
       <c r="A210" s="50" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B210" s="49" t="s">
-        <v>884</v>
-      </c>
-      <c r="C210" s="140" t="s">
-        <v>737</v>
+        <v>886</v>
+      </c>
+      <c r="C210" s="144" t="s">
+        <v>739</v>
       </c>
       <c r="D210" s="63"/>
       <c r="E210" s="37"/>
@@ -18352,38 +18374,38 @@
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="84" t="s">
-        <v>885</v>
+      <c r="A211" s="86" t="s">
+        <v>887</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C211" s="63" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D211" s="63" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E211" s="51" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F211" s="66"/>
       <c r="G211" s="51" t="s">
-        <v>890</v>
-      </c>
-      <c r="H211" s="94" t="s">
-        <v>891</v>
+        <v>892</v>
+      </c>
+      <c r="H211" s="96" t="s">
+        <v>893</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="84" t="s">
-        <v>892</v>
+      <c r="A212" s="86" t="s">
+        <v>894</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -18396,106 +18418,106 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="84" t="s">
-        <v>894</v>
+      <c r="A213" s="86" t="s">
+        <v>896</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C213" s="66" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D213" s="66" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E213" s="51" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F213" s="66"/>
       <c r="G213" s="37" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H213" s="51" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="84" t="s">
-        <v>900</v>
+      <c r="A214" s="86" t="s">
+        <v>902</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="C214" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C214" s="158" t="s">
         <v>226</v>
       </c>
       <c r="D214" s="63"/>
-      <c r="E214" s="142" t="s">
-        <v>901</v>
-      </c>
-      <c r="F214" s="142"/>
+      <c r="E214" s="146" t="s">
+        <v>903</v>
+      </c>
+      <c r="F214" s="146"/>
       <c r="G214" s="51" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="84" t="s">
-        <v>904</v>
+      <c r="A215" s="86" t="s">
+        <v>906</v>
       </c>
       <c r="B215" s="57" t="s">
-        <v>905</v>
-      </c>
-      <c r="C215" s="141" t="s">
-        <v>906</v>
-      </c>
-      <c r="D215" s="141" t="s">
         <v>907</v>
       </c>
-      <c r="E215" s="142" t="s">
+      <c r="C215" s="145" t="s">
         <v>908</v>
       </c>
-      <c r="F215" s="142"/>
+      <c r="D215" s="145" t="s">
+        <v>909</v>
+      </c>
+      <c r="E215" s="146" t="s">
+        <v>910</v>
+      </c>
+      <c r="F215" s="146"/>
       <c r="G215" s="51" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H215" s="51" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="84" t="s">
-        <v>911</v>
+      <c r="A216" s="86" t="s">
+        <v>913</v>
       </c>
       <c r="B216" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="C216" s="141" t="s">
-        <v>913</v>
-      </c>
-      <c r="D216" s="141" t="s">
         <v>914</v>
       </c>
-      <c r="E216" s="142" t="s">
+      <c r="C216" s="145" t="s">
         <v>915</v>
       </c>
-      <c r="F216" s="142"/>
+      <c r="D216" s="145" t="s">
+        <v>916</v>
+      </c>
+      <c r="E216" s="146" t="s">
+        <v>917</v>
+      </c>
+      <c r="F216" s="146"/>
       <c r="G216" s="51" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H216" s="51" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -18503,15 +18525,15 @@
     </row>
     <row r="217">
       <c r="A217" s="39" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B217" s="40" t="s">
-        <v>919</v>
-      </c>
-      <c r="C217" s="157"/>
-      <c r="D217" s="157"/>
-      <c r="E217" s="157"/>
-      <c r="F217" s="141"/>
+        <v>921</v>
+      </c>
+      <c r="C217" s="161"/>
+      <c r="D217" s="161"/>
+      <c r="E217" s="161"/>
+      <c r="F217" s="145"/>
       <c r="G217" s="51"/>
       <c r="H217" s="51"/>
       <c r="I217" s="7"/>
@@ -18520,24 +18542,24 @@
     </row>
     <row r="218">
       <c r="A218" s="48" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="C218" s="157" t="s">
-        <v>922</v>
-      </c>
-      <c r="D218" s="157"/>
-      <c r="E218" s="157" t="s">
         <v>923</v>
       </c>
-      <c r="F218" s="141"/>
-      <c r="G218" s="71" t="s">
+      <c r="C218" s="161" t="s">
         <v>924</v>
       </c>
-      <c r="H218" s="106" t="s">
+      <c r="D218" s="161"/>
+      <c r="E218" s="161" t="s">
         <v>925</v>
+      </c>
+      <c r="F218" s="145"/>
+      <c r="G218" s="106" t="s">
+        <v>926</v>
+      </c>
+      <c r="H218" s="109" t="s">
+        <v>927</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18545,24 +18567,24 @@
     </row>
     <row r="219">
       <c r="A219" s="48" t="s">
+        <v>928</v>
+      </c>
+      <c r="B219" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="C219" s="161" t="s">
+        <v>930</v>
+      </c>
+      <c r="D219" s="161"/>
+      <c r="E219" s="161" t="s">
+        <v>931</v>
+      </c>
+      <c r="F219" s="145"/>
+      <c r="G219" s="106" t="s">
         <v>926</v>
       </c>
-      <c r="B219" s="49" t="s">
-        <v>927</v>
-      </c>
-      <c r="C219" s="157" t="s">
-        <v>928</v>
-      </c>
-      <c r="D219" s="157"/>
-      <c r="E219" s="157" t="s">
-        <v>929</v>
-      </c>
-      <c r="F219" s="141"/>
-      <c r="G219" s="71" t="s">
-        <v>924</v>
-      </c>
-      <c r="H219" s="106" t="s">
-        <v>930</v>
+      <c r="H219" s="109" t="s">
+        <v>932</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18570,69 +18592,69 @@
     </row>
     <row r="220">
       <c r="A220" s="48" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>932</v>
-      </c>
-      <c r="C220" s="157" t="s">
-        <v>933</v>
-      </c>
-      <c r="D220" s="157"/>
-      <c r="E220" s="157" t="s">
         <v>934</v>
       </c>
-      <c r="F220" s="141"/>
-      <c r="G220" s="71" t="s">
-        <v>924</v>
-      </c>
-      <c r="H220" s="106" t="s">
+      <c r="C220" s="161" t="s">
         <v>935</v>
+      </c>
+      <c r="D220" s="161"/>
+      <c r="E220" s="161" t="s">
+        <v>936</v>
+      </c>
+      <c r="F220" s="145"/>
+      <c r="G220" s="106" t="s">
+        <v>926</v>
+      </c>
+      <c r="H220" s="109" t="s">
+        <v>937</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="139" t="s">
-        <v>936</v>
+      <c r="A221" s="143" t="s">
+        <v>938</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C221" s="63" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E221" s="142" t="s">
-        <v>937</v>
-      </c>
-      <c r="F221" s="142"/>
-      <c r="G221" s="158" t="s">
-        <v>307</v>
-      </c>
-      <c r="H221" s="159" t="s">
-        <v>938</v>
+        <v>551</v>
+      </c>
+      <c r="E221" s="146" t="s">
+        <v>939</v>
+      </c>
+      <c r="F221" s="146"/>
+      <c r="G221" s="162" t="s">
+        <v>309</v>
+      </c>
+      <c r="H221" s="163" t="s">
+        <v>940</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="139" t="s">
-        <v>939</v>
+      <c r="A222" s="143" t="s">
+        <v>941</v>
       </c>
       <c r="B222" s="62" t="s">
-        <v>940</v>
-      </c>
-      <c r="C222" s="140" t="s">
-        <v>737</v>
+        <v>942</v>
+      </c>
+      <c r="C222" s="144" t="s">
+        <v>739</v>
       </c>
       <c r="D222" s="7"/>
-      <c r="E222" s="141"/>
-      <c r="F222" s="141"/>
+      <c r="E222" s="145"/>
+      <c r="F222" s="145"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
@@ -18641,21 +18663,21 @@
     </row>
     <row r="223">
       <c r="A223" s="50" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B223" s="67" t="s">
-        <v>942</v>
-      </c>
-      <c r="C223" s="160" t="s">
-        <v>737</v>
+        <v>944</v>
+      </c>
+      <c r="C223" s="164" t="s">
+        <v>739</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="41" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F223" s="63"/>
       <c r="G223" s="37" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H223" s="37" t="s">
         <v>231</v>
@@ -18665,10 +18687,10 @@
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="84" t="s">
-        <v>945</v>
-      </c>
-      <c r="B224" s="161" t="s">
+      <c r="A224" s="86" t="s">
+        <v>947</v>
+      </c>
+      <c r="B224" s="165" t="s">
         <v>56</v>
       </c>
       <c r="C224" s="63" t="s">
@@ -18678,24 +18700,24 @@
         <v>58</v>
       </c>
       <c r="E224" s="66" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F224" s="66"/>
-      <c r="G224" s="82" t="s">
+      <c r="G224" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H224" s="82" t="s">
-        <v>947</v>
+      <c r="H224" s="84" t="s">
+        <v>949</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="84" t="s">
-        <v>948</v>
-      </c>
-      <c r="B225" s="161" t="s">
+      <c r="A225" s="86" t="s">
+        <v>950</v>
+      </c>
+      <c r="B225" s="165" t="s">
         <v>70</v>
       </c>
       <c r="C225" s="63" t="s">
@@ -18705,24 +18727,24 @@
         <v>72</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F225" s="66"/>
       <c r="G225" s="41" t="s">
         <v>74</v>
       </c>
       <c r="H225" s="41" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="84" t="s">
-        <v>951</v>
-      </c>
-      <c r="B226" s="161" t="s">
+      <c r="A226" s="86" t="s">
+        <v>953</v>
+      </c>
+      <c r="B226" s="165" t="s">
         <v>77</v>
       </c>
       <c r="C226" s="63" t="s">
@@ -18732,51 +18754,51 @@
         <v>79</v>
       </c>
       <c r="E226" s="66" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F226" s="66"/>
-      <c r="G226" s="82" t="s">
+      <c r="G226" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H226" s="82" t="s">
-        <v>953</v>
+      <c r="H226" s="84" t="s">
+        <v>955</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="84" t="s">
-        <v>954</v>
-      </c>
-      <c r="B227" s="161" t="s">
+      <c r="A227" s="86" t="s">
+        <v>956</v>
+      </c>
+      <c r="B227" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C227" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D227" s="63" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E227" s="51" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F227" s="66"/>
       <c r="G227" s="41" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H227" s="41" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="84" t="s">
-        <v>958</v>
-      </c>
-      <c r="B228" s="161" t="s">
+      <c r="A228" s="86" t="s">
+        <v>960</v>
+      </c>
+      <c r="B228" s="165" t="s">
         <v>98</v>
       </c>
       <c r="C228" s="63" t="s">
@@ -18786,24 +18808,24 @@
         <v>100</v>
       </c>
       <c r="E228" s="66" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F228" s="66"/>
       <c r="G228" s="66" t="s">
         <v>102</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="84" t="s">
-        <v>961</v>
-      </c>
-      <c r="B229" s="161" t="s">
+      <c r="A229" s="86" t="s">
+        <v>963</v>
+      </c>
+      <c r="B229" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C229" s="66" t="s">
@@ -18813,24 +18835,24 @@
         <v>120</v>
       </c>
       <c r="E229" s="66" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F229" s="66"/>
       <c r="G229" s="66" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="84" t="s">
-        <v>963</v>
-      </c>
-      <c r="B230" s="161" t="s">
+      <c r="A230" s="86" t="s">
+        <v>965</v>
+      </c>
+      <c r="B230" s="165" t="s">
         <v>112</v>
       </c>
       <c r="C230" s="63" t="s">
@@ -18839,26 +18861,26 @@
       <c r="D230" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E230" s="142" t="s">
-        <v>964</v>
-      </c>
-      <c r="F230" s="142"/>
+      <c r="E230" s="146" t="s">
+        <v>966</v>
+      </c>
+      <c r="F230" s="146"/>
       <c r="G230" s="66" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="84" t="s">
-        <v>965</v>
-      </c>
-      <c r="B231" s="161" t="s">
-        <v>834</v>
+      <c r="A231" s="86" t="s">
+        <v>967</v>
+      </c>
+      <c r="B231" s="165" t="s">
+        <v>836</v>
       </c>
       <c r="C231" s="63" t="s">
         <v>134</v>
@@ -18866,25 +18888,25 @@
       <c r="D231" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E231" s="142" t="s">
-        <v>966</v>
-      </c>
-      <c r="F231" s="142"/>
+      <c r="E231" s="146" t="s">
+        <v>968</v>
+      </c>
+      <c r="F231" s="146"/>
       <c r="G231" s="47" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H231" s="47" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="84" t="s">
-        <v>968</v>
-      </c>
-      <c r="B232" s="161" t="s">
+      <c r="A232" s="86" t="s">
+        <v>970</v>
+      </c>
+      <c r="B232" s="165" t="s">
         <v>125</v>
       </c>
       <c r="C232" s="63" t="s">
@@ -18893,15 +18915,15 @@
       <c r="D232" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E232" s="142" t="s">
-        <v>969</v>
-      </c>
-      <c r="F232" s="142"/>
+      <c r="E232" s="146" t="s">
+        <v>971</v>
+      </c>
+      <c r="F232" s="146"/>
       <c r="G232" s="51" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H232" s="51" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -18909,21 +18931,21 @@
     </row>
     <row r="233">
       <c r="A233" s="50" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B233" s="67" t="s">
-        <v>971</v>
-      </c>
-      <c r="C233" s="160" t="s">
-        <v>737</v>
-      </c>
-      <c r="D233" s="162"/>
-      <c r="E233" s="163" t="s">
-        <v>943</v>
-      </c>
-      <c r="F233" s="141"/>
+        <v>973</v>
+      </c>
+      <c r="C233" s="164" t="s">
+        <v>739</v>
+      </c>
+      <c r="D233" s="166"/>
+      <c r="E233" s="79" t="s">
+        <v>945</v>
+      </c>
+      <c r="F233" s="145"/>
       <c r="G233" s="37" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H233" s="37" t="s">
         <v>231</v>
@@ -18933,10 +18955,10 @@
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="84" t="s">
-        <v>973</v>
-      </c>
-      <c r="B234" s="161" t="s">
+      <c r="A234" s="86" t="s">
+        <v>975</v>
+      </c>
+      <c r="B234" s="165" t="s">
         <v>56</v>
       </c>
       <c r="C234" s="63" t="s">
@@ -18945,25 +18967,25 @@
       <c r="D234" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E234" s="142" t="s">
-        <v>974</v>
-      </c>
-      <c r="F234" s="142"/>
-      <c r="G234" s="82" t="s">
+      <c r="E234" s="146" t="s">
+        <v>976</v>
+      </c>
+      <c r="F234" s="146"/>
+      <c r="G234" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H234" s="164" t="s">
-        <v>975</v>
+      <c r="H234" s="167" t="s">
+        <v>977</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="84" t="s">
-        <v>976</v>
-      </c>
-      <c r="B235" s="161" t="s">
+      <c r="A235" s="86" t="s">
+        <v>978</v>
+      </c>
+      <c r="B235" s="165" t="s">
         <v>70</v>
       </c>
       <c r="C235" s="63" t="s">
@@ -18972,25 +18994,25 @@
       <c r="D235" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E235" s="142" t="s">
-        <v>977</v>
-      </c>
-      <c r="F235" s="142"/>
-      <c r="G235" s="82" t="s">
+      <c r="E235" s="146" t="s">
+        <v>979</v>
+      </c>
+      <c r="F235" s="146"/>
+      <c r="G235" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H235" s="164" t="s">
-        <v>978</v>
+      <c r="H235" s="167" t="s">
+        <v>980</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="84" t="s">
-        <v>979</v>
-      </c>
-      <c r="B236" s="161" t="s">
+      <c r="A236" s="86" t="s">
+        <v>981</v>
+      </c>
+      <c r="B236" s="165" t="s">
         <v>77</v>
       </c>
       <c r="C236" s="63" t="s">
@@ -19000,51 +19022,51 @@
         <v>79</v>
       </c>
       <c r="E236" s="66" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F236" s="66"/>
-      <c r="G236" s="82" t="s">
+      <c r="G236" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H236" s="82" t="s">
-        <v>981</v>
+      <c r="H236" s="84" t="s">
+        <v>983</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="84" t="s">
-        <v>982</v>
-      </c>
-      <c r="B237" s="161" t="s">
+      <c r="A237" s="86" t="s">
+        <v>984</v>
+      </c>
+      <c r="B237" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C237" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D237" s="63" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E237" s="66" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F237" s="66"/>
-      <c r="G237" s="82" t="s">
+      <c r="G237" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H237" s="82" t="s">
-        <v>984</v>
+      <c r="H237" s="84" t="s">
+        <v>986</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="84" t="s">
-        <v>985</v>
-      </c>
-      <c r="B238" s="161" t="s">
+      <c r="A238" s="86" t="s">
+        <v>987</v>
+      </c>
+      <c r="B238" s="165" t="s">
         <v>98</v>
       </c>
       <c r="C238" s="63" t="s">
@@ -19054,24 +19076,24 @@
         <v>100</v>
       </c>
       <c r="E238" s="66" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F238" s="66"/>
-      <c r="G238" s="82" t="s">
+      <c r="G238" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="H238" s="82" t="s">
-        <v>987</v>
+      <c r="H238" s="84" t="s">
+        <v>989</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="84" t="s">
-        <v>988</v>
-      </c>
-      <c r="B239" s="161" t="s">
+      <c r="A239" s="86" t="s">
+        <v>990</v>
+      </c>
+      <c r="B239" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C239" s="66" t="s">
@@ -19081,24 +19103,24 @@
         <v>120</v>
       </c>
       <c r="E239" s="66" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F239" s="66"/>
       <c r="G239" s="66" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="84" t="s">
-        <v>990</v>
-      </c>
-      <c r="B240" s="161" t="s">
+      <c r="A240" s="86" t="s">
+        <v>992</v>
+      </c>
+      <c r="B240" s="165" t="s">
         <v>112</v>
       </c>
       <c r="C240" s="63" t="s">
@@ -19108,25 +19130,25 @@
         <v>114</v>
       </c>
       <c r="E240" s="66" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F240" s="66"/>
       <c r="G240" s="66" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="84" t="s">
-        <v>992</v>
-      </c>
-      <c r="B241" s="161" t="s">
-        <v>834</v>
+      <c r="A241" s="86" t="s">
+        <v>994</v>
+      </c>
+      <c r="B241" s="165" t="s">
+        <v>836</v>
       </c>
       <c r="C241" s="63" t="s">
         <v>134</v>
@@ -19135,24 +19157,24 @@
         <v>135</v>
       </c>
       <c r="E241" s="66" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F241" s="66"/>
       <c r="G241" s="61" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H241" s="61" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="84" t="s">
-        <v>995</v>
-      </c>
-      <c r="B242" s="161" t="s">
+      <c r="A242" s="86" t="s">
+        <v>997</v>
+      </c>
+      <c r="B242" s="165" t="s">
         <v>125</v>
       </c>
       <c r="C242" s="63" t="s">
@@ -19162,14 +19184,14 @@
         <v>127</v>
       </c>
       <c r="E242" s="66" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="F242" s="66"/>
       <c r="G242" s="66" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -19177,26 +19199,26 @@
     </row>
     <row r="243">
       <c r="A243" s="50" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B243" s="67" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C243" s="63" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D243" s="63" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E243" s="66" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F243" s="66"/>
-      <c r="G243" s="158" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H243" s="159" t="s">
-        <v>1003</v>
+      <c r="G243" s="162" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H243" s="163" t="s">
+        <v>1005</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -19204,19 +19226,19 @@
     </row>
     <row r="244">
       <c r="A244" s="50" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B244" s="67" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
-      <c r="E244" s="82" t="s">
-        <v>943</v>
+      <c r="E244" s="84" t="s">
+        <v>945</v>
       </c>
       <c r="F244" s="63"/>
       <c r="G244" s="63" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H244" s="63" t="s">
         <v>231</v>
@@ -19226,10 +19248,10 @@
       <c r="K244" s="7"/>
     </row>
     <row r="245">
-      <c r="A245" s="84" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B245" s="161" t="s">
+      <c r="A245" s="86" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B245" s="165" t="s">
         <v>56</v>
       </c>
       <c r="C245" s="63" t="s">
@@ -19239,24 +19261,24 @@
         <v>58</v>
       </c>
       <c r="E245" s="66" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F245" s="66"/>
-      <c r="G245" s="82" t="s">
+      <c r="G245" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H245" s="82" t="s">
-        <v>1009</v>
+      <c r="H245" s="84" t="s">
+        <v>1011</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
     </row>
     <row r="246">
-      <c r="A246" s="84" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B246" s="161" t="s">
+      <c r="A246" s="86" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B246" s="165" t="s">
         <v>70</v>
       </c>
       <c r="C246" s="63" t="s">
@@ -19266,24 +19288,24 @@
         <v>72</v>
       </c>
       <c r="E246" s="66" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F246" s="66"/>
-      <c r="G246" s="82" t="s">
+      <c r="G246" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H246" s="82" t="s">
-        <v>1012</v>
+      <c r="H246" s="84" t="s">
+        <v>1014</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="84" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B247" s="161" t="s">
+      <c r="A247" s="86" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B247" s="165" t="s">
         <v>77</v>
       </c>
       <c r="C247" s="63" t="s">
@@ -19293,51 +19315,51 @@
         <v>79</v>
       </c>
       <c r="E247" s="66" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F247" s="66"/>
-      <c r="G247" s="82" t="s">
+      <c r="G247" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H247" s="82" t="s">
-        <v>1015</v>
+      <c r="H247" s="84" t="s">
+        <v>1017</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="84" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B248" s="161" t="s">
+      <c r="A248" s="86" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B248" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C248" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D248" s="63" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E248" s="66" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F248" s="66"/>
-      <c r="G248" s="82" t="s">
+      <c r="G248" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H248" s="82" t="s">
-        <v>1018</v>
+      <c r="H248" s="84" t="s">
+        <v>1020</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="84" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B249" s="161" t="s">
+      <c r="A249" s="86" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B249" s="165" t="s">
         <v>98</v>
       </c>
       <c r="C249" s="63" t="s">
@@ -19347,24 +19369,24 @@
         <v>100</v>
       </c>
       <c r="E249" s="66" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F249" s="66"/>
       <c r="G249" s="66" t="s">
         <v>102</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="84" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B250" s="161" t="s">
+      <c r="A250" s="86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B250" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C250" s="66" t="s">
@@ -19374,24 +19396,24 @@
         <v>120</v>
       </c>
       <c r="E250" s="66" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F250" s="66"/>
       <c r="G250" s="66" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="84" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B251" s="161" t="s">
+      <c r="A251" s="86" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B251" s="165" t="s">
         <v>112</v>
       </c>
       <c r="C251" s="63" t="s">
@@ -19401,25 +19423,25 @@
         <v>114</v>
       </c>
       <c r="E251" s="66" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F251" s="66"/>
       <c r="G251" s="66" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H251" s="66" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="84" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B252" s="161" t="s">
-        <v>834</v>
+      <c r="A252" s="86" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B252" s="165" t="s">
+        <v>836</v>
       </c>
       <c r="C252" s="63" t="s">
         <v>134</v>
@@ -19428,24 +19450,24 @@
         <v>135</v>
       </c>
       <c r="E252" s="66" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F252" s="66"/>
       <c r="G252" s="61" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H252" s="61" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="84" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B253" s="161" t="s">
+      <c r="A253" s="86" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B253" s="165" t="s">
         <v>125</v>
       </c>
       <c r="C253" s="63" t="s">
@@ -19455,478 +19477,478 @@
         <v>127</v>
       </c>
       <c r="E253" s="66" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="F253" s="66"/>
       <c r="G253" s="66" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H253" s="66" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="139" t="s">
-        <v>1031</v>
+      <c r="A254" s="143" t="s">
+        <v>1033</v>
       </c>
       <c r="B254" s="62" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C254" s="165" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D254" s="165" t="s">
         <v>1034</v>
       </c>
-      <c r="E254" s="166" t="s">
+      <c r="C254" s="168" t="s">
         <v>1035</v>
       </c>
-      <c r="F254" s="166"/>
-      <c r="G254" s="167" t="s">
+      <c r="D254" s="168" t="s">
         <v>1036</v>
       </c>
-      <c r="H254" s="167" t="s">
+      <c r="E254" s="169" t="s">
         <v>1037</v>
+      </c>
+      <c r="F254" s="169"/>
+      <c r="G254" s="170" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H254" s="170" t="s">
+        <v>1039</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="168" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B255" s="169" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C255" s="170"/>
-      <c r="D255" s="170"/>
-      <c r="E255" s="170"/>
-      <c r="F255" s="170"/>
-      <c r="G255" s="170"/>
-      <c r="H255" s="170"/>
+      <c r="A255" s="171" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B255" s="172" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C255" s="173"/>
+      <c r="D255" s="173"/>
+      <c r="E255" s="173"/>
+      <c r="F255" s="173"/>
+      <c r="G255" s="173"/>
+      <c r="H255" s="173"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="168" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B256" s="169" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C256" s="171" t="s">
-        <v>737</v>
-      </c>
-      <c r="D256" s="170"/>
-      <c r="E256" s="170" t="s">
+      <c r="A256" s="171" t="s">
         <v>1042</v>
       </c>
-      <c r="F256" s="170"/>
-      <c r="G256" s="170"/>
-      <c r="H256" s="170"/>
+      <c r="B256" s="172" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C256" s="174" t="s">
+        <v>739</v>
+      </c>
+      <c r="D256" s="173"/>
+      <c r="E256" s="173" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F256" s="173"/>
+      <c r="G256" s="173"/>
+      <c r="H256" s="173"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="168" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B257" s="169" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C257" s="170" t="s">
+      <c r="A257" s="171" t="s">
         <v>1045</v>
       </c>
-      <c r="D257" s="170" t="s">
+      <c r="B257" s="172" t="s">
         <v>1046</v>
       </c>
-      <c r="E257" s="170" t="s">
+      <c r="C257" s="173" t="s">
         <v>1047</v>
       </c>
-      <c r="F257" s="170"/>
-      <c r="G257" s="170" t="s">
+      <c r="D257" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H257" s="172" t="s">
+      <c r="E257" s="173" t="s">
         <v>1049</v>
+      </c>
+      <c r="F257" s="173"/>
+      <c r="G257" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H257" s="175" t="s">
+        <v>1051</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="168" t="s">
+      <c r="A258" s="171" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B258" s="172" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C258" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D258" s="173" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E258" s="173" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F258" s="173"/>
+      <c r="G258" s="173" t="s">
         <v>1050</v>
       </c>
-      <c r="B258" s="169" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C258" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D258" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E258" s="170" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F258" s="170"/>
-      <c r="G258" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H258" s="172" t="s">
-        <v>1053</v>
+      <c r="H258" s="175" t="s">
+        <v>1055</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="168" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B259" s="169" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C259" s="170"/>
-      <c r="D259" s="170"/>
-      <c r="E259" s="170"/>
-      <c r="F259" s="170"/>
-      <c r="G259" s="170"/>
-      <c r="H259" s="170"/>
+      <c r="A259" s="171" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B259" s="172" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C259" s="173"/>
+      <c r="D259" s="173"/>
+      <c r="E259" s="173"/>
+      <c r="F259" s="173"/>
+      <c r="G259" s="173"/>
+      <c r="H259" s="173"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="168" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B260" s="169" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C260" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D260" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E260" s="170" t="s">
+      <c r="A260" s="171" t="s">
         <v>1058</v>
       </c>
-      <c r="F260" s="170"/>
-      <c r="G260" s="170" t="s">
+      <c r="B260" s="172" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C260" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D260" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H260" s="172" t="s">
-        <v>1059</v>
+      <c r="E260" s="173" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F260" s="173"/>
+      <c r="G260" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H260" s="175" t="s">
+        <v>1061</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="168" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B261" s="169" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C261" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D261" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E261" s="170" t="s">
+      <c r="A261" s="171" t="s">
         <v>1062</v>
       </c>
-      <c r="F261" s="170"/>
-      <c r="G261" s="170" t="s">
+      <c r="B261" s="172" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C261" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D261" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H261" s="172" t="s">
-        <v>1063</v>
+      <c r="E261" s="173" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F261" s="173"/>
+      <c r="G261" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H261" s="175" t="s">
+        <v>1065</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="168" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B262" s="169" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C262" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D262" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E262" s="170" t="s">
+      <c r="A262" s="171" t="s">
         <v>1066</v>
       </c>
-      <c r="F262" s="170"/>
-      <c r="G262" s="170" t="s">
+      <c r="B262" s="172" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C262" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D262" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H262" s="172" t="s">
-        <v>1067</v>
+      <c r="E262" s="173" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F262" s="173"/>
+      <c r="G262" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H262" s="175" t="s">
+        <v>1069</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="168" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B263" s="169" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C263" s="171" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D263" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E263" s="170" t="s">
+      <c r="A263" s="171" t="s">
         <v>1070</v>
       </c>
-      <c r="F263" s="170"/>
-      <c r="G263" s="170" t="s">
+      <c r="B263" s="172" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C263" s="174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D263" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H263" s="172" t="s">
-        <v>1071</v>
+      <c r="E263" s="173" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F263" s="173"/>
+      <c r="G263" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H263" s="175" t="s">
+        <v>1073</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="168" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B264" s="169" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C264" s="171" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D264" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E264" s="170" t="s">
+      <c r="A264" s="171" t="s">
         <v>1074</v>
       </c>
-      <c r="F264" s="170"/>
-      <c r="G264" s="170" t="s">
+      <c r="B264" s="172" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C264" s="174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D264" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H264" s="172" t="s">
-        <v>1075</v>
+      <c r="E264" s="173" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F264" s="173"/>
+      <c r="G264" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H264" s="175" t="s">
+        <v>1077</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="168" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B265" s="169" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C265" s="171" t="s">
-        <v>737</v>
-      </c>
-      <c r="D265" s="170"/>
-      <c r="E265" s="170"/>
-      <c r="F265" s="170"/>
-      <c r="G265" s="170"/>
-      <c r="H265" s="170"/>
+      <c r="A265" s="171" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B265" s="172" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C265" s="174" t="s">
+        <v>739</v>
+      </c>
+      <c r="D265" s="173"/>
+      <c r="E265" s="173"/>
+      <c r="F265" s="173"/>
+      <c r="G265" s="173"/>
+      <c r="H265" s="173"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="168" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B266" s="169" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C266" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D266" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E266" s="170" t="s">
+      <c r="A266" s="171" t="s">
         <v>1080</v>
       </c>
-      <c r="F266" s="170"/>
-      <c r="G266" s="170" t="s">
+      <c r="B266" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C266" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D266" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H266" s="172" t="s">
-        <v>1081</v>
+      <c r="E266" s="173" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F266" s="173"/>
+      <c r="G266" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H266" s="175" t="s">
+        <v>1083</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="168" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B267" s="169" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C267" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D267" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E267" s="170" t="s">
+      <c r="A267" s="171" t="s">
         <v>1084</v>
       </c>
-      <c r="F267" s="170"/>
-      <c r="G267" s="170" t="s">
+      <c r="B267" s="172" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C267" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D267" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H267" s="172" t="s">
-        <v>1085</v>
+      <c r="E267" s="173" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F267" s="173"/>
+      <c r="G267" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H267" s="175" t="s">
+        <v>1087</v>
       </c>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="168" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B268" s="169" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C268" s="170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D268" s="170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E268" s="170" t="s">
+      <c r="A268" s="171" t="s">
         <v>1088</v>
       </c>
-      <c r="F268" s="170"/>
-      <c r="G268" s="170" t="s">
+      <c r="B268" s="172" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C268" s="173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D268" s="173" t="s">
         <v>1048</v>
       </c>
-      <c r="H268" s="172" t="s">
-        <v>1089</v>
+      <c r="E268" s="173" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F268" s="173"/>
+      <c r="G268" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H268" s="175" t="s">
+        <v>1091</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="168" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B269" s="169" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C269" s="170"/>
-      <c r="D269" s="170"/>
-      <c r="E269" s="170"/>
-      <c r="F269" s="170"/>
-      <c r="G269" s="170"/>
-      <c r="H269" s="170"/>
+      <c r="A269" s="171" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B269" s="172" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C269" s="173"/>
+      <c r="D269" s="173"/>
+      <c r="E269" s="173"/>
+      <c r="F269" s="173"/>
+      <c r="G269" s="173"/>
+      <c r="H269" s="173"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="168" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B270" s="169" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C270" s="173" t="s">
-        <v>605</v>
-      </c>
-      <c r="D270" s="170"/>
-      <c r="E270" s="170" t="s">
+      <c r="A270" s="171" t="s">
         <v>1094</v>
       </c>
-      <c r="F270" s="170"/>
-      <c r="G270" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H270" s="172" t="s">
+      <c r="B270" s="172" t="s">
         <v>1095</v>
+      </c>
+      <c r="C270" s="176" t="s">
+        <v>607</v>
+      </c>
+      <c r="D270" s="173"/>
+      <c r="E270" s="173" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F270" s="173"/>
+      <c r="G270" s="173" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H270" s="175" t="s">
+        <v>1097</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="168" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B271" s="169" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C271" s="170"/>
-      <c r="D271" s="170"/>
-      <c r="E271" s="170"/>
-      <c r="F271" s="170"/>
-      <c r="G271" s="170"/>
-      <c r="H271" s="170"/>
+      <c r="A271" s="171" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B271" s="172" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C271" s="173"/>
+      <c r="D271" s="173"/>
+      <c r="E271" s="173"/>
+      <c r="F271" s="173"/>
+      <c r="G271" s="173"/>
+      <c r="H271" s="173"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="168" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B272" s="169" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C272" s="171" t="s">
+      <c r="A272" s="171" t="s">
         <v>1100</v>
       </c>
-      <c r="D272" s="170" t="s">
+      <c r="B272" s="172" t="s">
         <v>1101</v>
       </c>
-      <c r="E272" s="174" t="s">
+      <c r="C272" s="174" t="s">
         <v>1102</v>
       </c>
-      <c r="F272" s="170"/>
-      <c r="G272" s="170" t="s">
+      <c r="D272" s="173" t="s">
         <v>1103</v>
       </c>
-      <c r="H272" s="175" t="s">
+      <c r="E272" s="177" t="s">
         <v>1104</v>
+      </c>
+      <c r="F272" s="173"/>
+      <c r="G272" s="173" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H272" s="178" t="s">
+        <v>1106</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="176"/>
+      <c r="A273" s="179"/>
       <c r="B273" s="29"/>
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
@@ -19937,7 +19959,7 @@
       <c r="J273" s="29"/>
     </row>
     <row r="274">
-      <c r="A274" s="176"/>
+      <c r="A274" s="179"/>
       <c r="B274" s="29"/>
       <c r="D274" s="29"/>
       <c r="E274" s="29"/>
@@ -19948,7 +19970,7 @@
       <c r="J274" s="29"/>
     </row>
     <row r="275">
-      <c r="A275" s="176"/>
+      <c r="A275" s="179"/>
       <c r="B275" s="29"/>
       <c r="D275" s="29"/>
       <c r="E275" s="29"/>
@@ -19959,7 +19981,7 @@
       <c r="J275" s="29"/>
     </row>
     <row r="276">
-      <c r="A276" s="176"/>
+      <c r="A276" s="179"/>
       <c r="B276" s="29"/>
       <c r="D276" s="29"/>
       <c r="E276" s="29"/>
@@ -19970,7 +19992,7 @@
       <c r="J276" s="29"/>
     </row>
     <row r="277">
-      <c r="A277" s="176"/>
+      <c r="A277" s="179"/>
       <c r="B277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="29"/>
@@ -19981,7 +20003,7 @@
       <c r="J277" s="29"/>
     </row>
     <row r="278">
-      <c r="A278" s="176"/>
+      <c r="A278" s="179"/>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29"/>
@@ -19992,7 +20014,7 @@
       <c r="J278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="176"/>
+      <c r="A279" s="179"/>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29"/>
@@ -20093,137 +20115,137 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="181" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="152" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>361</v>
+      <c r="A2" s="156" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>363</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="66"/>
-      <c r="E2" s="82" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="84" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="156" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="152" t="s">
-        <v>360</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>1105</v>
-      </c>
       <c r="D3" s="66"/>
-      <c r="E3" s="82" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>1109</v>
+      <c r="E3" s="84" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="152" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>1111</v>
+      <c r="A4" s="156" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>1113</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F4" s="82" t="s">
         <v>1115</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>728</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>732</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>1116</v>
+        <v>730</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>734</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>797</v>
-      </c>
-      <c r="C6" s="179" t="s">
         <v>798</v>
       </c>
+      <c r="B6" s="84" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="182" t="s">
+        <v>800</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="82" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>1118</v>
+      <c r="E6" s="84" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>841</v>
+        <v>842</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>843</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>1120</v>
+        <v>845</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -20246,37 +20268,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="180" t="s">
-        <v>1121</v>
+      <c r="A2" s="183" t="s">
+        <v>1123</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="181" t="s">
-        <v>1123</v>
+      <c r="A3" s="184" t="s">
+        <v>1125</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="182" t="s">
-        <v>1125</v>
+      <c r="A4" s="185" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="183" t="s">
-        <v>1126</v>
+      <c r="A6" s="186" t="s">
+        <v>1128</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="8">
@@ -20286,68 +20308,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="183" t="s">
-        <v>1129</v>
+      <c r="A10" s="186" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="183" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B11" s="184" t="s">
-        <v>1131</v>
+      <c r="A11" s="186" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="185" t="s">
-        <v>1132</v>
+      <c r="B12" s="188" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="186"/>
-      <c r="B13" s="187" t="s">
-        <v>1133</v>
+      <c r="A13" s="189"/>
+      <c r="B13" s="190" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="188" t="s">
-        <v>1134</v>
+      <c r="B14" s="191" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="189" t="s">
-        <v>1135</v>
+      <c r="B15" s="192" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="190" t="s">
-        <v>1136</v>
+      <c r="B16" s="193" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="183"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="183" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>1138</v>
+      <c r="A18" s="186" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B18" s="194" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B19" s="70"/>
     </row>
     <row r="21">
-      <c r="A21" s="183" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B21" s="192" t="s">
-        <v>1141</v>
+      <c r="A21" s="186" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B21" s="195" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -20372,58 +20394,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="183" t="s">
-        <v>1142</v>
+      <c r="A1" s="186" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="193" t="s">
-        <v>1143</v>
+      <c r="A2" s="196" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="194" t="s">
-        <v>1144</v>
+      <c r="A3" s="197" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="193" t="s">
-        <v>1145</v>
+      <c r="A4" s="196" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="194" t="s">
-        <v>1146</v>
+      <c r="A5" s="197" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="194" t="s">
-        <v>1147</v>
+      <c r="A6" s="197" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="194" t="s">
-        <v>1148</v>
+      <c r="A7" s="197" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="193" t="s">
-        <v>1149</v>
+      <c r="A8" s="196" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="194" t="s">
-        <v>1150</v>
+      <c r="A9" s="197" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="194" t="s">
-        <v>1151</v>
+      <c r="A10" s="197" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="194" t="s">
-        <v>1152</v>
+      <c r="A11" s="197" t="s">
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -20449,58 +20471,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B1" s="195" t="s">
-        <v>1153</v>
+        <v>1144</v>
+      </c>
+      <c r="B1" s="198" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="194" t="s">
-        <v>1154</v>
+      <c r="A2" s="197" t="s">
+        <v>1156</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="194" t="s">
-        <v>1156</v>
+      <c r="A3" s="197" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="194" t="s">
-        <v>1157</v>
+      <c r="A4" s="197" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="194" t="s">
-        <v>1158</v>
+      <c r="A5" s="197" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="194" t="s">
-        <v>1159</v>
+      <c r="A6" s="197" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="194" t="s">
-        <v>1160</v>
+      <c r="A7" s="197" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="194" t="s">
-        <v>1161</v>
+      <c r="A8" s="197" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="194" t="s">
-        <v>1162</v>
+      <c r="A9" s="197" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="194" t="s">
-        <v>1163</v>
+      <c r="A10" s="197" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -20519,7 +20541,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="184"/>
+      <c r="A1" s="187"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20543,36 +20565,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1165</v>
+      <c r="A1" s="199" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1" s="200" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -20581,13 +20603,13 @@
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>1173</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>1171</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -20596,70 +20618,70 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1172</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D7" s="198" t="s">
-        <v>1181</v>
+        <v>1174</v>
+      </c>
+      <c r="D7" s="201" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="104" t="s">
-        <v>1185</v>
+      <c r="A9" s="107" t="s">
+        <v>1187</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -20688,59 +20710,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1165</v>
+      <c r="A1" s="199" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1" s="200" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D2" s="195" t="s">
-        <v>1169</v>
+        <v>1170</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C5" s="201" t="s">
         <v>1193</v>
       </c>
-      <c r="C5" s="198" t="s">
-        <v>1191</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.1.1</t>
+    <t>3.2.2</t>
   </si>
   <si>
     <r>
@@ -4198,16 +4198,16 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> epo:specifiesSelectionCriterion / epo:epo:hasSelectionCriterionType </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>&lt;</t>
+        <b val="0"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4216,7 +4216,7 @@
         <color rgb="FF000000"/>
         <u/>
       </rPr>
-      <t>https://op.europa.eu/en/web/eu-vocabularies/concept/-/resource?uri=http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
     </r>
     <r>
       <rPr>
@@ -4254,7 +4254,7 @@
     <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:hasPerformanceConditions ?this</t>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasPerformanceConditions ?value</t>
   </si>
   <si>
     <t>III.2.3</t>
@@ -4675,7 +4675,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:epo:hasReceiptExpressionsDeadline ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
     </r>
     <r>
       <rPr>
@@ -6473,10 +6473,7 @@
     <t>Review body</t>
   </si>
   <si>
-    <t>COMPLEMENTARY_INFO</t>
-  </si>
-  <si>
-    <t>epo:ResultNotice / epo:Reviewer</t>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY</t>
   </si>
   <si>
     <t>VI.4.1.1</t>
@@ -6761,6 +6758,9 @@
     <t>Body responsible for mediation procedures</t>
   </si>
   <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
+  </si>
+  <si>
     <t>epo:ResultNotice / epo:Mediator</t>
   </si>
   <si>
@@ -7054,7 +7054,7 @@
     <t>Service from which information about the review procedure may be obtained</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:ReviewProcedureInformationProvider</t>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_INFO</t>
   </si>
   <si>
     <t>VI.4.4.1</t>
@@ -8151,7 +8151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8258,11 +8258,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -8559,7 +8554,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8852,6 +8847,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="8" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -8869,9 +8867,6 @@
     </xf>
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -8937,7 +8932,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -8945,13 +8940,10 @@
     <xf borderId="0" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8960,10 +8952,10 @@
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8972,7 +8964,7 @@
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8993,10 +8985,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9011,13 +9003,13 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -9053,13 +9045,13 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9077,13 +9069,13 @@
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9099,16 +9091,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9135,7 +9127,7 @@
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9147,13 +9139,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -15918,17 +15910,17 @@
       <c r="C108" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D108" s="57" t="s">
+      <c r="D108" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E108" s="81" t="s">
+      <c r="E108" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F108" s="57"/>
-      <c r="G108" s="81" t="s">
+      <c r="F108" s="4"/>
+      <c r="G108" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="H108" s="57" t="s">
+      <c r="H108" s="42" t="s">
         <v>473</v>
       </c>
       <c r="I108" s="7"/>
@@ -15945,15 +15937,15 @@
       <c r="C109" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="81" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="81" t="s">
+      <c r="F109" s="4"/>
+      <c r="G109" s="100" t="s">
         <v>476</v>
       </c>
-      <c r="H109" s="81" t="s">
+      <c r="H109" s="100" t="s">
         <v>477</v>
       </c>
       <c r="I109" s="7"/>
@@ -15964,11 +15956,11 @@
       <c r="A110" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="B110" s="100" t="s">
+      <c r="B110" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="102"/>
       <c r="E110" s="64"/>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
@@ -15984,7 +15976,7 @@
       <c r="B111" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="C111" s="102" t="s">
+      <c r="C111" s="103" t="s">
         <v>482</v>
       </c>
       <c r="D111" s="85" t="s">
@@ -16005,11 +15997,11 @@
       <c r="K111" s="87"/>
     </row>
     <row r="112">
-      <c r="A112" s="103" t="s">
+      <c r="A112" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="102"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="103"/>
       <c r="D112" s="85"/>
       <c r="E112" s="85" t="s">
         <v>488</v>
@@ -16028,11 +16020,11 @@
       <c r="K112" s="87"/>
     </row>
     <row r="113">
-      <c r="A113" s="103" t="s">
+      <c r="A113" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="B113" s="104"/>
-      <c r="C113" s="105"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="106"/>
       <c r="D113" s="87"/>
       <c r="E113" s="85" t="s">
         <v>488</v>
@@ -16057,7 +16049,7 @@
       <c r="B114" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="C114" s="102" t="s">
+      <c r="C114" s="103" t="s">
         <v>496</v>
       </c>
       <c r="D114" s="85" t="s">
@@ -16084,7 +16076,7 @@
       <c r="B115" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="C115" s="102" t="s">
+      <c r="C115" s="103" t="s">
         <v>503</v>
       </c>
       <c r="D115" s="85" t="s">
@@ -16164,7 +16156,7 @@
       <c r="G118" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="H118" s="106" t="s">
+      <c r="H118" s="100" t="s">
         <v>517</v>
       </c>
       <c r="I118" s="7"/>
@@ -16189,7 +16181,7 @@
       <c r="G119" s="107" t="s">
         <v>516</v>
       </c>
-      <c r="H119" s="106" t="s">
+      <c r="H119" s="100" t="s">
         <v>520</v>
       </c>
       <c r="I119" s="7"/>
@@ -16209,8 +16201,8 @@
         <v>523</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="106"/>
-      <c r="H120" s="106"/>
+      <c r="G120" s="100"/>
+      <c r="H120" s="100"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7" t="s">
@@ -16571,10 +16563,10 @@
         <v>590</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="106" t="s">
+      <c r="G136" s="100" t="s">
         <v>564</v>
       </c>
-      <c r="H136" s="106" t="s">
+      <c r="H136" s="100" t="s">
         <v>591</v>
       </c>
       <c r="I136" s="7"/>
@@ -16594,10 +16586,10 @@
         <v>594</v>
       </c>
       <c r="F137" s="4"/>
-      <c r="G137" s="106" t="s">
+      <c r="G137" s="100" t="s">
         <v>564</v>
       </c>
-      <c r="H137" s="106" t="s">
+      <c r="H137" s="100" t="s">
         <v>565</v>
       </c>
       <c r="I137" s="7"/>
@@ -16655,7 +16647,7 @@
       <c r="F140" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="G140" s="106" t="s">
+      <c r="G140" s="100" t="s">
         <v>603</v>
       </c>
       <c r="H140" s="127" t="s">
@@ -16680,10 +16672,10 @@
         <v>608</v>
       </c>
       <c r="F141" s="64"/>
-      <c r="G141" s="106" t="s">
+      <c r="G141" s="100" t="s">
         <v>564</v>
       </c>
-      <c r="H141" s="106" t="s">
+      <c r="H141" s="100" t="s">
         <v>565</v>
       </c>
       <c r="I141" s="7"/>
@@ -16705,7 +16697,7 @@
         <v>612</v>
       </c>
       <c r="F142" s="64"/>
-      <c r="G142" s="106" t="s">
+      <c r="G142" s="100" t="s">
         <v>613</v>
       </c>
       <c r="H142" s="128" t="s">
@@ -16749,10 +16741,10 @@
       <c r="F144" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="G144" s="106" t="s">
+      <c r="G144" s="100" t="s">
         <v>621</v>
       </c>
-      <c r="H144" s="130" t="s">
+      <c r="H144" s="128" t="s">
         <v>622</v>
       </c>
       <c r="I144" s="7"/>
@@ -16776,10 +16768,10 @@
       <c r="F145" s="64" t="s">
         <v>623</v>
       </c>
-      <c r="G145" s="106" t="s">
+      <c r="G145" s="100" t="s">
         <v>621</v>
       </c>
-      <c r="H145" s="131" t="s">
+      <c r="H145" s="130" t="s">
         <v>624</v>
       </c>
       <c r="I145" s="7"/>
@@ -16787,7 +16779,7 @@
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="132" t="s">
+      <c r="A146" s="131" t="s">
         <v>625</v>
       </c>
       <c r="B146" s="83" t="s">
@@ -16842,7 +16834,7 @@
       <c r="G148" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H148" s="133" t="s">
+      <c r="H148" s="132" t="s">
         <v>636</v>
       </c>
       <c r="I148" s="7"/>
@@ -16869,7 +16861,7 @@
       <c r="G149" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H149" s="133" t="s">
+      <c r="H149" s="132" t="s">
         <v>640</v>
       </c>
       <c r="I149" s="7"/>
@@ -16923,7 +16915,7 @@
       <c r="G151" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H151" s="133" t="s">
+      <c r="H151" s="132" t="s">
         <v>648</v>
       </c>
       <c r="I151" s="7"/>
@@ -16989,7 +16981,7 @@
         <v>661</v>
       </c>
       <c r="F154" s="51"/>
-      <c r="G154" s="106" t="s">
+      <c r="G154" s="100" t="s">
         <v>662</v>
       </c>
       <c r="H154" s="42" t="s">
@@ -17023,7 +17015,7 @@
       <c r="B156" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="C156" s="134" t="s">
+      <c r="C156" s="133" t="s">
         <v>226</v>
       </c>
       <c r="D156" s="68"/>
@@ -17031,7 +17023,7 @@
         <v>668</v>
       </c>
       <c r="F156" s="4"/>
-      <c r="G156" s="106" t="s">
+      <c r="G156" s="100" t="s">
         <v>669</v>
       </c>
       <c r="H156" s="109" t="s">
@@ -17080,11 +17072,11 @@
       <c r="E158" s="64" t="s">
         <v>678</v>
       </c>
-      <c r="F158" s="106"/>
+      <c r="F158" s="100"/>
       <c r="G158" s="64" t="s">
         <v>679</v>
       </c>
-      <c r="H158" s="135" t="s">
+      <c r="H158" s="134" t="s">
         <v>680</v>
       </c>
       <c r="I158" s="7"/>
@@ -17105,11 +17097,11 @@
       <c r="E159" s="64" t="s">
         <v>684</v>
       </c>
-      <c r="F159" s="106"/>
-      <c r="G159" s="106" t="s">
+      <c r="F159" s="100"/>
+      <c r="G159" s="100" t="s">
         <v>679</v>
       </c>
-      <c r="H159" s="135" t="s">
+      <c r="H159" s="134" t="s">
         <v>685</v>
       </c>
       <c r="I159" s="7"/>
@@ -17134,7 +17126,7 @@
       <c r="G160" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="H160" s="135" t="s">
+      <c r="H160" s="134" t="s">
         <v>691</v>
       </c>
       <c r="I160" s="7"/>
@@ -17157,7 +17149,7 @@
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="106"/>
+      <c r="H161" s="100"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -17199,7 +17191,7 @@
       <c r="G163" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="H163" s="136" t="s">
+      <c r="H163" s="135" t="s">
         <v>703</v>
       </c>
       <c r="I163" s="7"/>
@@ -17207,7 +17199,7 @@
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="132" t="s">
+      <c r="A164" s="131" t="s">
         <v>704</v>
       </c>
       <c r="B164" s="35" t="s">
@@ -17224,7 +17216,7 @@
       <c r="G164" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="H164" s="137" t="s">
+      <c r="H164" s="136" t="s">
         <v>709</v>
       </c>
       <c r="I164" s="7"/>
@@ -17232,10 +17224,10 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="138" t="s">
+      <c r="A165" s="137" t="s">
         <v>704</v>
       </c>
-      <c r="B165" s="139" t="s">
+      <c r="B165" s="138" t="s">
         <v>705</v>
       </c>
       <c r="C165" s="63"/>
@@ -17249,7 +17241,7 @@
       <c r="G165" s="66" t="s">
         <v>710</v>
       </c>
-      <c r="H165" s="140" t="s">
+      <c r="H165" s="139" t="s">
         <v>711</v>
       </c>
       <c r="I165" s="7"/>
@@ -17257,10 +17249,10 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="138" t="s">
+      <c r="A166" s="137" t="s">
         <v>704</v>
       </c>
-      <c r="B166" s="139" t="s">
+      <c r="B166" s="138" t="s">
         <v>705</v>
       </c>
       <c r="C166" s="63"/>
@@ -17365,10 +17357,10 @@
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="141" t="s">
+      <c r="A170" s="140" t="s">
         <v>727</v>
       </c>
-      <c r="B170" s="142" t="s">
+      <c r="B170" s="141" t="s">
         <v>728</v>
       </c>
       <c r="C170" s="114" t="s">
@@ -17392,13 +17384,13 @@
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="143" t="s">
+      <c r="A171" s="142" t="s">
         <v>737</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="C171" s="144" t="s">
+      <c r="C171" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D171" s="63"/>
@@ -17417,12 +17409,12 @@
       <c r="B172" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="C172" s="144" t="s">
+      <c r="C172" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="145"/>
-      <c r="F172" s="145"/>
+      <c r="E172" s="144"/>
+      <c r="F172" s="144"/>
       <c r="G172" s="37"/>
       <c r="H172" s="37"/>
       <c r="I172" s="7"/>
@@ -17442,14 +17434,14 @@
       <c r="D173" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="E173" s="146" t="s">
+      <c r="E173" s="145" t="s">
         <v>746</v>
       </c>
-      <c r="F173" s="146"/>
+      <c r="F173" s="145"/>
       <c r="G173" s="63" t="s">
         <v>747</v>
       </c>
-      <c r="H173" s="147" t="s">
+      <c r="H173" s="146" t="s">
         <v>748</v>
       </c>
       <c r="I173" s="7"/>
@@ -17476,7 +17468,7 @@
       <c r="G174" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="H174" s="148" t="s">
+      <c r="H174" s="147" t="s">
         <v>752</v>
       </c>
       <c r="I174" s="7"/>
@@ -17490,7 +17482,7 @@
       <c r="B175" s="57" t="s">
         <v>754</v>
       </c>
-      <c r="C175" s="149" t="s">
+      <c r="C175" s="148" t="s">
         <v>607</v>
       </c>
       <c r="D175" s="63"/>
@@ -17509,13 +17501,13 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="143" t="s">
+      <c r="A176" s="142" t="s">
         <v>758</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="C176" s="144" t="s">
+      <c r="C176" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D176" s="63"/>
@@ -17603,12 +17595,12 @@
       <c r="B180" s="49" t="s">
         <v>771</v>
       </c>
-      <c r="C180" s="150"/>
-      <c r="D180" s="151"/>
+      <c r="C180" s="149"/>
+      <c r="D180" s="150"/>
       <c r="E180" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="F180" s="150"/>
+      <c r="F180" s="149"/>
       <c r="G180" s="51" t="s">
         <v>772</v>
       </c>
@@ -17685,7 +17677,7 @@
       <c r="G183" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="H183" s="148" t="s">
+      <c r="H183" s="147" t="s">
         <v>789</v>
       </c>
       <c r="I183" s="7"/>
@@ -17745,7 +17737,7 @@
       <c r="B186" s="57" t="s">
         <v>799</v>
       </c>
-      <c r="C186" s="152" t="s">
+      <c r="C186" s="151" t="s">
         <v>800</v>
       </c>
       <c r="D186" s="63"/>
@@ -17770,7 +17762,7 @@
       <c r="B187" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="C187" s="144" t="s">
+      <c r="C187" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D187" s="63"/>
@@ -17966,7 +17958,7 @@
       <c r="G194" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H194" s="153" t="s">
+      <c r="H194" s="152" t="s">
         <v>826</v>
       </c>
       <c r="I194" s="7"/>
@@ -18047,7 +18039,7 @@
       <c r="G197" s="47" t="s">
         <v>829</v>
       </c>
-      <c r="H197" s="154" t="s">
+      <c r="H197" s="153" t="s">
         <v>838</v>
       </c>
       <c r="I197" s="7"/>
@@ -18101,7 +18093,7 @@
       <c r="G199" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="H199" s="155" t="s">
+      <c r="H199" s="154" t="s">
         <v>848</v>
       </c>
       <c r="I199" s="7"/>
@@ -18109,7 +18101,7 @@
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="156"/>
+      <c r="A200" s="155"/>
       <c r="B200" s="4"/>
       <c r="C200" s="63"/>
       <c r="D200" s="63"/>
@@ -18134,7 +18126,7 @@
       <c r="B201" s="49" t="s">
         <v>852</v>
       </c>
-      <c r="C201" s="157" t="s">
+      <c r="C201" s="156" t="s">
         <v>739</v>
       </c>
       <c r="D201" s="63"/>
@@ -18174,13 +18166,13 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="103" t="s">
+      <c r="A203" s="104" t="s">
         <v>857</v>
       </c>
       <c r="B203" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C203" s="158" t="s">
+      <c r="C203" s="157" t="s">
         <v>226</v>
       </c>
       <c r="D203" s="63"/>
@@ -18226,16 +18218,16 @@
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="103" t="s">
+      <c r="A205" s="104" t="s">
         <v>868</v>
       </c>
       <c r="B205" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="159" t="s">
+      <c r="C205" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="160"/>
+      <c r="D205" s="159"/>
       <c r="E205" s="51" t="s">
         <v>869</v>
       </c>
@@ -18278,13 +18270,13 @@
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="103" t="s">
+      <c r="A207" s="104" t="s">
         <v>876</v>
       </c>
       <c r="B207" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C207" s="158" t="s">
+      <c r="C207" s="157" t="s">
         <v>226</v>
       </c>
       <c r="D207" s="63"/>
@@ -18330,13 +18322,13 @@
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="103" t="s">
+      <c r="A209" s="104" t="s">
         <v>883</v>
       </c>
       <c r="B209" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C209" s="158" t="s">
+      <c r="C209" s="157" t="s">
         <v>226</v>
       </c>
       <c r="D209" s="63"/>
@@ -18361,7 +18353,7 @@
       <c r="B210" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="C210" s="144" t="s">
+      <c r="C210" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D210" s="63"/>
@@ -18451,14 +18443,14 @@
       <c r="B214" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="C214" s="158" t="s">
+      <c r="C214" s="157" t="s">
         <v>226</v>
       </c>
       <c r="D214" s="63"/>
-      <c r="E214" s="146" t="s">
+      <c r="E214" s="145" t="s">
         <v>903</v>
       </c>
-      <c r="F214" s="146"/>
+      <c r="F214" s="145"/>
       <c r="G214" s="51" t="s">
         <v>904</v>
       </c>
@@ -18476,16 +18468,16 @@
       <c r="B215" s="57" t="s">
         <v>907</v>
       </c>
-      <c r="C215" s="145" t="s">
+      <c r="C215" s="144" t="s">
         <v>908</v>
       </c>
-      <c r="D215" s="145" t="s">
+      <c r="D215" s="144" t="s">
         <v>909</v>
       </c>
-      <c r="E215" s="146" t="s">
+      <c r="E215" s="145" t="s">
         <v>910</v>
       </c>
-      <c r="F215" s="146"/>
+      <c r="F215" s="145"/>
       <c r="G215" s="51" t="s">
         <v>911</v>
       </c>
@@ -18503,16 +18495,16 @@
       <c r="B216" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="C216" s="145" t="s">
+      <c r="C216" s="144" t="s">
         <v>915</v>
       </c>
-      <c r="D216" s="145" t="s">
+      <c r="D216" s="144" t="s">
         <v>916</v>
       </c>
-      <c r="E216" s="146" t="s">
+      <c r="E216" s="145" t="s">
         <v>917</v>
       </c>
-      <c r="F216" s="146"/>
+      <c r="F216" s="145"/>
       <c r="G216" s="51" t="s">
         <v>918</v>
       </c>
@@ -18530,10 +18522,10 @@
       <c r="B217" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="C217" s="161"/>
-      <c r="D217" s="161"/>
-      <c r="E217" s="161"/>
-      <c r="F217" s="145"/>
+      <c r="C217" s="160"/>
+      <c r="D217" s="160"/>
+      <c r="E217" s="160"/>
+      <c r="F217" s="144"/>
       <c r="G217" s="51"/>
       <c r="H217" s="51"/>
       <c r="I217" s="7"/>
@@ -18547,15 +18539,15 @@
       <c r="B218" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="C218" s="161" t="s">
+      <c r="C218" s="160" t="s">
         <v>924</v>
       </c>
-      <c r="D218" s="161"/>
-      <c r="E218" s="161" t="s">
+      <c r="D218" s="160"/>
+      <c r="E218" s="160" t="s">
         <v>925</v>
       </c>
-      <c r="F218" s="145"/>
-      <c r="G218" s="106" t="s">
+      <c r="F218" s="144"/>
+      <c r="G218" s="100" t="s">
         <v>926</v>
       </c>
       <c r="H218" s="109" t="s">
@@ -18572,15 +18564,15 @@
       <c r="B219" s="49" t="s">
         <v>929</v>
       </c>
-      <c r="C219" s="161" t="s">
+      <c r="C219" s="160" t="s">
         <v>930</v>
       </c>
-      <c r="D219" s="161"/>
-      <c r="E219" s="161" t="s">
+      <c r="D219" s="160"/>
+      <c r="E219" s="160" t="s">
         <v>931</v>
       </c>
-      <c r="F219" s="145"/>
-      <c r="G219" s="106" t="s">
+      <c r="F219" s="144"/>
+      <c r="G219" s="100" t="s">
         <v>926</v>
       </c>
       <c r="H219" s="109" t="s">
@@ -18597,15 +18589,15 @@
       <c r="B220" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="C220" s="161" t="s">
+      <c r="C220" s="160" t="s">
         <v>935</v>
       </c>
-      <c r="D220" s="161"/>
-      <c r="E220" s="161" t="s">
+      <c r="D220" s="160"/>
+      <c r="E220" s="160" t="s">
         <v>936</v>
       </c>
-      <c r="F220" s="145"/>
-      <c r="G220" s="106" t="s">
+      <c r="F220" s="144"/>
+      <c r="G220" s="100" t="s">
         <v>926</v>
       </c>
       <c r="H220" s="109" t="s">
@@ -18616,7 +18608,7 @@
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="143" t="s">
+      <c r="A221" s="142" t="s">
         <v>938</v>
       </c>
       <c r="B221" s="40" t="s">
@@ -18628,14 +18620,14 @@
       <c r="D221" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E221" s="146" t="s">
+      <c r="E221" s="145" t="s">
         <v>939</v>
       </c>
-      <c r="F221" s="146"/>
-      <c r="G221" s="162" t="s">
+      <c r="F221" s="145"/>
+      <c r="G221" s="161" t="s">
         <v>309</v>
       </c>
-      <c r="H221" s="163" t="s">
+      <c r="H221" s="162" t="s">
         <v>940</v>
       </c>
       <c r="I221" s="7"/>
@@ -18643,18 +18635,18 @@
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="143" t="s">
+      <c r="A222" s="142" t="s">
         <v>941</v>
       </c>
       <c r="B222" s="62" t="s">
         <v>942</v>
       </c>
-      <c r="C222" s="144" t="s">
+      <c r="C222" s="143" t="s">
         <v>739</v>
       </c>
       <c r="D222" s="7"/>
-      <c r="E222" s="145"/>
-      <c r="F222" s="145"/>
+      <c r="E222" s="144"/>
+      <c r="F222" s="144"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
@@ -18668,16 +18660,16 @@
       <c r="B223" s="67" t="s">
         <v>944</v>
       </c>
-      <c r="C223" s="164" t="s">
+      <c r="C223" s="163" t="s">
         <v>739</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="F223" s="63"/>
+      <c r="F223" s="66"/>
       <c r="G223" s="37" t="s">
-        <v>946</v>
+        <v>53</v>
       </c>
       <c r="H223" s="37" t="s">
         <v>231</v>
@@ -18688,9 +18680,9 @@
     </row>
     <row r="224">
       <c r="A224" s="86" t="s">
-        <v>947</v>
-      </c>
-      <c r="B224" s="165" t="s">
+        <v>946</v>
+      </c>
+      <c r="B224" s="164" t="s">
         <v>56</v>
       </c>
       <c r="C224" s="63" t="s">
@@ -18700,14 +18692,14 @@
         <v>58</v>
       </c>
       <c r="E224" s="66" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F224" s="66"/>
       <c r="G224" s="84" t="s">
         <v>60</v>
       </c>
       <c r="H224" s="84" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -18715,9 +18707,9 @@
     </row>
     <row r="225">
       <c r="A225" s="86" t="s">
-        <v>950</v>
-      </c>
-      <c r="B225" s="165" t="s">
+        <v>949</v>
+      </c>
+      <c r="B225" s="164" t="s">
         <v>70</v>
       </c>
       <c r="C225" s="63" t="s">
@@ -18727,14 +18719,14 @@
         <v>72</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F225" s="66"/>
       <c r="G225" s="41" t="s">
         <v>74</v>
       </c>
       <c r="H225" s="41" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -18742,9 +18734,9 @@
     </row>
     <row r="226">
       <c r="A226" s="86" t="s">
-        <v>953</v>
-      </c>
-      <c r="B226" s="165" t="s">
+        <v>952</v>
+      </c>
+      <c r="B226" s="164" t="s">
         <v>77</v>
       </c>
       <c r="C226" s="63" t="s">
@@ -18754,14 +18746,14 @@
         <v>79</v>
       </c>
       <c r="E226" s="66" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F226" s="66"/>
       <c r="G226" s="84" t="s">
         <v>74</v>
       </c>
       <c r="H226" s="84" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -18769,9 +18761,9 @@
     </row>
     <row r="227">
       <c r="A227" s="86" t="s">
-        <v>956</v>
-      </c>
-      <c r="B227" s="165" t="s">
+        <v>955</v>
+      </c>
+      <c r="B227" s="164" t="s">
         <v>91</v>
       </c>
       <c r="C227" s="63" t="s">
@@ -18781,14 +18773,14 @@
         <v>821</v>
       </c>
       <c r="E227" s="51" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F227" s="66"/>
       <c r="G227" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="H227" s="41" t="s">
         <v>958</v>
-      </c>
-      <c r="H227" s="41" t="s">
-        <v>959</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -18796,9 +18788,9 @@
     </row>
     <row r="228">
       <c r="A228" s="86" t="s">
-        <v>960</v>
-      </c>
-      <c r="B228" s="165" t="s">
+        <v>959</v>
+      </c>
+      <c r="B228" s="164" t="s">
         <v>98</v>
       </c>
       <c r="C228" s="63" t="s">
@@ -18808,14 +18800,14 @@
         <v>100</v>
       </c>
       <c r="E228" s="66" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F228" s="66"/>
       <c r="G228" s="66" t="s">
         <v>102</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -18823,9 +18815,9 @@
     </row>
     <row r="229">
       <c r="A229" s="86" t="s">
-        <v>963</v>
-      </c>
-      <c r="B229" s="165" t="s">
+        <v>962</v>
+      </c>
+      <c r="B229" s="164" t="s">
         <v>118</v>
       </c>
       <c r="C229" s="66" t="s">
@@ -18835,7 +18827,7 @@
         <v>120</v>
       </c>
       <c r="E229" s="66" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F229" s="66"/>
       <c r="G229" s="66" t="s">
@@ -18850,9 +18842,9 @@
     </row>
     <row r="230">
       <c r="A230" s="86" t="s">
-        <v>965</v>
-      </c>
-      <c r="B230" s="165" t="s">
+        <v>964</v>
+      </c>
+      <c r="B230" s="164" t="s">
         <v>112</v>
       </c>
       <c r="C230" s="63" t="s">
@@ -18861,10 +18853,10 @@
       <c r="D230" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E230" s="146" t="s">
-        <v>966</v>
-      </c>
-      <c r="F230" s="146"/>
+      <c r="E230" s="145" t="s">
+        <v>965</v>
+      </c>
+      <c r="F230" s="145"/>
       <c r="G230" s="66" t="s">
         <v>833</v>
       </c>
@@ -18877,9 +18869,9 @@
     </row>
     <row r="231">
       <c r="A231" s="86" t="s">
-        <v>967</v>
-      </c>
-      <c r="B231" s="165" t="s">
+        <v>966</v>
+      </c>
+      <c r="B231" s="164" t="s">
         <v>836</v>
       </c>
       <c r="C231" s="63" t="s">
@@ -18888,15 +18880,15 @@
       <c r="D231" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E231" s="146" t="s">
-        <v>968</v>
-      </c>
-      <c r="F231" s="146"/>
+      <c r="E231" s="145" t="s">
+        <v>967</v>
+      </c>
+      <c r="F231" s="145"/>
       <c r="G231" s="47" t="s">
         <v>829</v>
       </c>
       <c r="H231" s="47" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -18904,9 +18896,9 @@
     </row>
     <row r="232">
       <c r="A232" s="86" t="s">
-        <v>970</v>
-      </c>
-      <c r="B232" s="165" t="s">
+        <v>969</v>
+      </c>
+      <c r="B232" s="164" t="s">
         <v>125</v>
       </c>
       <c r="C232" s="63" t="s">
@@ -18915,10 +18907,10 @@
       <c r="D232" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E232" s="146" t="s">
-        <v>971</v>
-      </c>
-      <c r="F232" s="146"/>
+      <c r="E232" s="145" t="s">
+        <v>970</v>
+      </c>
+      <c r="F232" s="145"/>
       <c r="G232" s="51" t="s">
         <v>833</v>
       </c>
@@ -18931,19 +18923,19 @@
     </row>
     <row r="233">
       <c r="A233" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="B233" s="67" t="s">
         <v>972</v>
       </c>
-      <c r="B233" s="67" t="s">
+      <c r="C233" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D233" s="165"/>
+      <c r="E233" s="79" t="s">
         <v>973</v>
       </c>
-      <c r="C233" s="164" t="s">
-        <v>739</v>
-      </c>
-      <c r="D233" s="166"/>
-      <c r="E233" s="79" t="s">
-        <v>945</v>
-      </c>
-      <c r="F233" s="145"/>
+      <c r="F233" s="144"/>
       <c r="G233" s="37" t="s">
         <v>974</v>
       </c>
@@ -18958,7 +18950,7 @@
       <c r="A234" s="86" t="s">
         <v>975</v>
       </c>
-      <c r="B234" s="165" t="s">
+      <c r="B234" s="164" t="s">
         <v>56</v>
       </c>
       <c r="C234" s="63" t="s">
@@ -18967,14 +18959,14 @@
       <c r="D234" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E234" s="146" t="s">
+      <c r="E234" s="145" t="s">
         <v>976</v>
       </c>
-      <c r="F234" s="146"/>
+      <c r="F234" s="145"/>
       <c r="G234" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H234" s="167" t="s">
+      <c r="H234" s="166" t="s">
         <v>977</v>
       </c>
       <c r="I234" s="7"/>
@@ -18985,7 +18977,7 @@
       <c r="A235" s="86" t="s">
         <v>978</v>
       </c>
-      <c r="B235" s="165" t="s">
+      <c r="B235" s="164" t="s">
         <v>70</v>
       </c>
       <c r="C235" s="63" t="s">
@@ -18994,14 +18986,14 @@
       <c r="D235" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E235" s="146" t="s">
+      <c r="E235" s="145" t="s">
         <v>979</v>
       </c>
-      <c r="F235" s="146"/>
+      <c r="F235" s="145"/>
       <c r="G235" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H235" s="167" t="s">
+      <c r="H235" s="166" t="s">
         <v>980</v>
       </c>
       <c r="I235" s="7"/>
@@ -19012,7 +19004,7 @@
       <c r="A236" s="86" t="s">
         <v>981</v>
       </c>
-      <c r="B236" s="165" t="s">
+      <c r="B236" s="164" t="s">
         <v>77</v>
       </c>
       <c r="C236" s="63" t="s">
@@ -19039,7 +19031,7 @@
       <c r="A237" s="86" t="s">
         <v>984</v>
       </c>
-      <c r="B237" s="165" t="s">
+      <c r="B237" s="164" t="s">
         <v>91</v>
       </c>
       <c r="C237" s="63" t="s">
@@ -19066,7 +19058,7 @@
       <c r="A238" s="86" t="s">
         <v>987</v>
       </c>
-      <c r="B238" s="165" t="s">
+      <c r="B238" s="164" t="s">
         <v>98</v>
       </c>
       <c r="C238" s="63" t="s">
@@ -19093,7 +19085,7 @@
       <c r="A239" s="86" t="s">
         <v>990</v>
       </c>
-      <c r="B239" s="165" t="s">
+      <c r="B239" s="164" t="s">
         <v>118</v>
       </c>
       <c r="C239" s="66" t="s">
@@ -19120,7 +19112,7 @@
       <c r="A240" s="86" t="s">
         <v>992</v>
       </c>
-      <c r="B240" s="165" t="s">
+      <c r="B240" s="164" t="s">
         <v>112</v>
       </c>
       <c r="C240" s="63" t="s">
@@ -19147,7 +19139,7 @@
       <c r="A241" s="86" t="s">
         <v>994</v>
       </c>
-      <c r="B241" s="165" t="s">
+      <c r="B241" s="164" t="s">
         <v>836</v>
       </c>
       <c r="C241" s="63" t="s">
@@ -19174,7 +19166,7 @@
       <c r="A242" s="86" t="s">
         <v>997</v>
       </c>
-      <c r="B242" s="165" t="s">
+      <c r="B242" s="164" t="s">
         <v>125</v>
       </c>
       <c r="C242" s="63" t="s">
@@ -19214,10 +19206,10 @@
         <v>1003</v>
       </c>
       <c r="F243" s="66"/>
-      <c r="G243" s="162" t="s">
+      <c r="G243" s="161" t="s">
         <v>1004</v>
       </c>
-      <c r="H243" s="163" t="s">
+      <c r="H243" s="162" t="s">
         <v>1005</v>
       </c>
       <c r="I243" s="7"/>
@@ -19234,11 +19226,11 @@
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="84" t="s">
-        <v>945</v>
+        <v>1008</v>
       </c>
       <c r="F244" s="63"/>
       <c r="G244" s="63" t="s">
-        <v>1008</v>
+        <v>53</v>
       </c>
       <c r="H244" s="63" t="s">
         <v>231</v>
@@ -19251,7 +19243,7 @@
       <c r="A245" s="86" t="s">
         <v>1009</v>
       </c>
-      <c r="B245" s="165" t="s">
+      <c r="B245" s="164" t="s">
         <v>56</v>
       </c>
       <c r="C245" s="63" t="s">
@@ -19278,7 +19270,7 @@
       <c r="A246" s="86" t="s">
         <v>1012</v>
       </c>
-      <c r="B246" s="165" t="s">
+      <c r="B246" s="164" t="s">
         <v>70</v>
       </c>
       <c r="C246" s="63" t="s">
@@ -19305,7 +19297,7 @@
       <c r="A247" s="86" t="s">
         <v>1015</v>
       </c>
-      <c r="B247" s="165" t="s">
+      <c r="B247" s="164" t="s">
         <v>77</v>
       </c>
       <c r="C247" s="63" t="s">
@@ -19332,7 +19324,7 @@
       <c r="A248" s="86" t="s">
         <v>1018</v>
       </c>
-      <c r="B248" s="165" t="s">
+      <c r="B248" s="164" t="s">
         <v>91</v>
       </c>
       <c r="C248" s="63" t="s">
@@ -19359,7 +19351,7 @@
       <c r="A249" s="86" t="s">
         <v>1021</v>
       </c>
-      <c r="B249" s="165" t="s">
+      <c r="B249" s="164" t="s">
         <v>98</v>
       </c>
       <c r="C249" s="63" t="s">
@@ -19386,7 +19378,7 @@
       <c r="A250" s="86" t="s">
         <v>1024</v>
       </c>
-      <c r="B250" s="165" t="s">
+      <c r="B250" s="164" t="s">
         <v>118</v>
       </c>
       <c r="C250" s="66" t="s">
@@ -19413,7 +19405,7 @@
       <c r="A251" s="86" t="s">
         <v>1026</v>
       </c>
-      <c r="B251" s="165" t="s">
+      <c r="B251" s="164" t="s">
         <v>112</v>
       </c>
       <c r="C251" s="63" t="s">
@@ -19440,7 +19432,7 @@
       <c r="A252" s="86" t="s">
         <v>1028</v>
       </c>
-      <c r="B252" s="165" t="s">
+      <c r="B252" s="164" t="s">
         <v>836</v>
       </c>
       <c r="C252" s="63" t="s">
@@ -19467,7 +19459,7 @@
       <c r="A253" s="86" t="s">
         <v>1031</v>
       </c>
-      <c r="B253" s="165" t="s">
+      <c r="B253" s="164" t="s">
         <v>125</v>
       </c>
       <c r="C253" s="63" t="s">
@@ -19491,26 +19483,26 @@
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="143" t="s">
+      <c r="A254" s="142" t="s">
         <v>1033</v>
       </c>
       <c r="B254" s="62" t="s">
         <v>1034</v>
       </c>
-      <c r="C254" s="168" t="s">
+      <c r="C254" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D254" s="168" t="s">
+      <c r="D254" s="167" t="s">
         <v>1036</v>
       </c>
-      <c r="E254" s="169" t="s">
+      <c r="E254" s="168" t="s">
         <v>1037</v>
       </c>
-      <c r="F254" s="169"/>
-      <c r="G254" s="170" t="s">
+      <c r="F254" s="168"/>
+      <c r="G254" s="169" t="s">
         <v>1038</v>
       </c>
-      <c r="H254" s="170" t="s">
+      <c r="H254" s="169" t="s">
         <v>1039</v>
       </c>
       <c r="I254" s="7"/>
@@ -19518,64 +19510,64 @@
       <c r="K254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="171" t="s">
+      <c r="A255" s="170" t="s">
         <v>1040</v>
       </c>
-      <c r="B255" s="172" t="s">
+      <c r="B255" s="171" t="s">
         <v>1041</v>
       </c>
-      <c r="C255" s="173"/>
-      <c r="D255" s="173"/>
-      <c r="E255" s="173"/>
-      <c r="F255" s="173"/>
-      <c r="G255" s="173"/>
-      <c r="H255" s="173"/>
+      <c r="C255" s="172"/>
+      <c r="D255" s="172"/>
+      <c r="E255" s="172"/>
+      <c r="F255" s="172"/>
+      <c r="G255" s="172"/>
+      <c r="H255" s="172"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="171" t="s">
+      <c r="A256" s="170" t="s">
         <v>1042</v>
       </c>
-      <c r="B256" s="172" t="s">
+      <c r="B256" s="171" t="s">
         <v>1043</v>
       </c>
-      <c r="C256" s="174" t="s">
+      <c r="C256" s="173" t="s">
         <v>739</v>
       </c>
-      <c r="D256" s="173"/>
-      <c r="E256" s="173" t="s">
+      <c r="D256" s="172"/>
+      <c r="E256" s="172" t="s">
         <v>1044</v>
       </c>
-      <c r="F256" s="173"/>
-      <c r="G256" s="173"/>
-      <c r="H256" s="173"/>
+      <c r="F256" s="172"/>
+      <c r="G256" s="172"/>
+      <c r="H256" s="172"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="171" t="s">
+      <c r="A257" s="170" t="s">
         <v>1045</v>
       </c>
-      <c r="B257" s="172" t="s">
+      <c r="B257" s="171" t="s">
         <v>1046</v>
       </c>
-      <c r="C257" s="173" t="s">
+      <c r="C257" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D257" s="173" t="s">
+      <c r="D257" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E257" s="173" t="s">
+      <c r="E257" s="172" t="s">
         <v>1049</v>
       </c>
-      <c r="F257" s="173"/>
-      <c r="G257" s="173" t="s">
+      <c r="F257" s="172"/>
+      <c r="G257" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H257" s="175" t="s">
+      <c r="H257" s="174" t="s">
         <v>1051</v>
       </c>
       <c r="I257" s="7"/>
@@ -19583,26 +19575,26 @@
       <c r="K257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="171" t="s">
+      <c r="A258" s="170" t="s">
         <v>1052</v>
       </c>
-      <c r="B258" s="172" t="s">
+      <c r="B258" s="171" t="s">
         <v>1053</v>
       </c>
-      <c r="C258" s="173" t="s">
+      <c r="C258" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D258" s="173" t="s">
+      <c r="D258" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E258" s="173" t="s">
+      <c r="E258" s="172" t="s">
         <v>1054</v>
       </c>
-      <c r="F258" s="173"/>
-      <c r="G258" s="173" t="s">
+      <c r="F258" s="172"/>
+      <c r="G258" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H258" s="175" t="s">
+      <c r="H258" s="174" t="s">
         <v>1055</v>
       </c>
       <c r="I258" s="7"/>
@@ -19610,43 +19602,43 @@
       <c r="K258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="171" t="s">
+      <c r="A259" s="170" t="s">
         <v>1056</v>
       </c>
-      <c r="B259" s="172" t="s">
+      <c r="B259" s="171" t="s">
         <v>1057</v>
       </c>
-      <c r="C259" s="173"/>
-      <c r="D259" s="173"/>
-      <c r="E259" s="173"/>
-      <c r="F259" s="173"/>
-      <c r="G259" s="173"/>
-      <c r="H259" s="173"/>
+      <c r="C259" s="172"/>
+      <c r="D259" s="172"/>
+      <c r="E259" s="172"/>
+      <c r="F259" s="172"/>
+      <c r="G259" s="172"/>
+      <c r="H259" s="172"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="171" t="s">
+      <c r="A260" s="170" t="s">
         <v>1058</v>
       </c>
-      <c r="B260" s="172" t="s">
+      <c r="B260" s="171" t="s">
         <v>1059</v>
       </c>
-      <c r="C260" s="173" t="s">
+      <c r="C260" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D260" s="173" t="s">
+      <c r="D260" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E260" s="173" t="s">
+      <c r="E260" s="172" t="s">
         <v>1060</v>
       </c>
-      <c r="F260" s="173"/>
-      <c r="G260" s="173" t="s">
+      <c r="F260" s="172"/>
+      <c r="G260" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H260" s="175" t="s">
+      <c r="H260" s="174" t="s">
         <v>1061</v>
       </c>
       <c r="I260" s="7"/>
@@ -19654,26 +19646,26 @@
       <c r="K260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="171" t="s">
+      <c r="A261" s="170" t="s">
         <v>1062</v>
       </c>
-      <c r="B261" s="172" t="s">
+      <c r="B261" s="171" t="s">
         <v>1063</v>
       </c>
-      <c r="C261" s="173" t="s">
+      <c r="C261" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D261" s="173" t="s">
+      <c r="D261" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E261" s="173" t="s">
+      <c r="E261" s="172" t="s">
         <v>1064</v>
       </c>
-      <c r="F261" s="173"/>
-      <c r="G261" s="173" t="s">
+      <c r="F261" s="172"/>
+      <c r="G261" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H261" s="175" t="s">
+      <c r="H261" s="174" t="s">
         <v>1065</v>
       </c>
       <c r="I261" s="7"/>
@@ -19681,26 +19673,26 @@
       <c r="K261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="171" t="s">
+      <c r="A262" s="170" t="s">
         <v>1066</v>
       </c>
-      <c r="B262" s="172" t="s">
+      <c r="B262" s="171" t="s">
         <v>1067</v>
       </c>
-      <c r="C262" s="173" t="s">
+      <c r="C262" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D262" s="173" t="s">
+      <c r="D262" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E262" s="173" t="s">
+      <c r="E262" s="172" t="s">
         <v>1068</v>
       </c>
-      <c r="F262" s="173"/>
-      <c r="G262" s="173" t="s">
+      <c r="F262" s="172"/>
+      <c r="G262" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H262" s="175" t="s">
+      <c r="H262" s="174" t="s">
         <v>1069</v>
       </c>
       <c r="I262" s="7"/>
@@ -19708,26 +19700,26 @@
       <c r="K262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="171" t="s">
+      <c r="A263" s="170" t="s">
         <v>1070</v>
       </c>
-      <c r="B263" s="172" t="s">
+      <c r="B263" s="171" t="s">
         <v>1071</v>
       </c>
-      <c r="C263" s="174" t="s">
+      <c r="C263" s="173" t="s">
         <v>1047</v>
       </c>
-      <c r="D263" s="173" t="s">
+      <c r="D263" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E263" s="173" t="s">
+      <c r="E263" s="172" t="s">
         <v>1072</v>
       </c>
-      <c r="F263" s="173"/>
-      <c r="G263" s="173" t="s">
+      <c r="F263" s="172"/>
+      <c r="G263" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H263" s="175" t="s">
+      <c r="H263" s="174" t="s">
         <v>1073</v>
       </c>
       <c r="I263" s="7"/>
@@ -19735,26 +19727,26 @@
       <c r="K263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="171" t="s">
+      <c r="A264" s="170" t="s">
         <v>1074</v>
       </c>
-      <c r="B264" s="172" t="s">
+      <c r="B264" s="171" t="s">
         <v>1075</v>
       </c>
-      <c r="C264" s="174" t="s">
+      <c r="C264" s="173" t="s">
         <v>1047</v>
       </c>
-      <c r="D264" s="173" t="s">
+      <c r="D264" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E264" s="173" t="s">
+      <c r="E264" s="172" t="s">
         <v>1076</v>
       </c>
-      <c r="F264" s="173"/>
-      <c r="G264" s="173" t="s">
+      <c r="F264" s="172"/>
+      <c r="G264" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H264" s="175" t="s">
+      <c r="H264" s="174" t="s">
         <v>1077</v>
       </c>
       <c r="I264" s="7"/>
@@ -19762,45 +19754,45 @@
       <c r="K264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="171" t="s">
+      <c r="A265" s="170" t="s">
         <v>1078</v>
       </c>
-      <c r="B265" s="172" t="s">
+      <c r="B265" s="171" t="s">
         <v>1079</v>
       </c>
-      <c r="C265" s="174" t="s">
+      <c r="C265" s="173" t="s">
         <v>739</v>
       </c>
-      <c r="D265" s="173"/>
-      <c r="E265" s="173"/>
-      <c r="F265" s="173"/>
-      <c r="G265" s="173"/>
-      <c r="H265" s="173"/>
+      <c r="D265" s="172"/>
+      <c r="E265" s="172"/>
+      <c r="F265" s="172"/>
+      <c r="G265" s="172"/>
+      <c r="H265" s="172"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="171" t="s">
+      <c r="A266" s="170" t="s">
         <v>1080</v>
       </c>
-      <c r="B266" s="172" t="s">
+      <c r="B266" s="171" t="s">
         <v>1081</v>
       </c>
-      <c r="C266" s="173" t="s">
+      <c r="C266" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D266" s="173" t="s">
+      <c r="D266" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E266" s="173" t="s">
+      <c r="E266" s="172" t="s">
         <v>1082</v>
       </c>
-      <c r="F266" s="173"/>
-      <c r="G266" s="173" t="s">
+      <c r="F266" s="172"/>
+      <c r="G266" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H266" s="175" t="s">
+      <c r="H266" s="174" t="s">
         <v>1083</v>
       </c>
       <c r="I266" s="7"/>
@@ -19808,26 +19800,26 @@
       <c r="K266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="171" t="s">
+      <c r="A267" s="170" t="s">
         <v>1084</v>
       </c>
-      <c r="B267" s="172" t="s">
+      <c r="B267" s="171" t="s">
         <v>1085</v>
       </c>
-      <c r="C267" s="173" t="s">
+      <c r="C267" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D267" s="173" t="s">
+      <c r="D267" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E267" s="173" t="s">
+      <c r="E267" s="172" t="s">
         <v>1086</v>
       </c>
-      <c r="F267" s="173"/>
-      <c r="G267" s="173" t="s">
+      <c r="F267" s="172"/>
+      <c r="G267" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H267" s="175" t="s">
+      <c r="H267" s="174" t="s">
         <v>1087</v>
       </c>
       <c r="I267" s="7"/>
@@ -19835,26 +19827,26 @@
       <c r="K267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="171" t="s">
+      <c r="A268" s="170" t="s">
         <v>1088</v>
       </c>
-      <c r="B268" s="172" t="s">
+      <c r="B268" s="171" t="s">
         <v>1089</v>
       </c>
-      <c r="C268" s="173" t="s">
+      <c r="C268" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D268" s="173" t="s">
+      <c r="D268" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="E268" s="173" t="s">
+      <c r="E268" s="172" t="s">
         <v>1090</v>
       </c>
-      <c r="F268" s="173"/>
-      <c r="G268" s="173" t="s">
+      <c r="F268" s="172"/>
+      <c r="G268" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H268" s="175" t="s">
+      <c r="H268" s="174" t="s">
         <v>1091</v>
       </c>
       <c r="I268" s="7"/>
@@ -19862,41 +19854,41 @@
       <c r="K268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="171" t="s">
+      <c r="A269" s="170" t="s">
         <v>1092</v>
       </c>
-      <c r="B269" s="172" t="s">
+      <c r="B269" s="171" t="s">
         <v>1093</v>
       </c>
-      <c r="C269" s="173"/>
-      <c r="D269" s="173"/>
-      <c r="E269" s="173"/>
-      <c r="F269" s="173"/>
-      <c r="G269" s="173"/>
-      <c r="H269" s="173"/>
+      <c r="C269" s="172"/>
+      <c r="D269" s="172"/>
+      <c r="E269" s="172"/>
+      <c r="F269" s="172"/>
+      <c r="G269" s="172"/>
+      <c r="H269" s="172"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="171" t="s">
+      <c r="A270" s="170" t="s">
         <v>1094</v>
       </c>
-      <c r="B270" s="172" t="s">
+      <c r="B270" s="171" t="s">
         <v>1095</v>
       </c>
-      <c r="C270" s="176" t="s">
+      <c r="C270" s="175" t="s">
         <v>607</v>
       </c>
-      <c r="D270" s="173"/>
-      <c r="E270" s="173" t="s">
+      <c r="D270" s="172"/>
+      <c r="E270" s="172" t="s">
         <v>1096</v>
       </c>
-      <c r="F270" s="173"/>
-      <c r="G270" s="173" t="s">
+      <c r="F270" s="172"/>
+      <c r="G270" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="H270" s="175" t="s">
+      <c r="H270" s="174" t="s">
         <v>1097</v>
       </c>
       <c r="I270" s="7"/>
@@ -19904,43 +19896,43 @@
       <c r="K270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="171" t="s">
+      <c r="A271" s="170" t="s">
         <v>1098</v>
       </c>
-      <c r="B271" s="172" t="s">
+      <c r="B271" s="171" t="s">
         <v>1099</v>
       </c>
-      <c r="C271" s="173"/>
-      <c r="D271" s="173"/>
-      <c r="E271" s="173"/>
-      <c r="F271" s="173"/>
-      <c r="G271" s="173"/>
-      <c r="H271" s="173"/>
+      <c r="C271" s="172"/>
+      <c r="D271" s="172"/>
+      <c r="E271" s="172"/>
+      <c r="F271" s="172"/>
+      <c r="G271" s="172"/>
+      <c r="H271" s="172"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="171" t="s">
+      <c r="A272" s="170" t="s">
         <v>1100</v>
       </c>
-      <c r="B272" s="172" t="s">
+      <c r="B272" s="171" t="s">
         <v>1101</v>
       </c>
-      <c r="C272" s="174" t="s">
+      <c r="C272" s="173" t="s">
         <v>1102</v>
       </c>
-      <c r="D272" s="173" t="s">
+      <c r="D272" s="172" t="s">
         <v>1103</v>
       </c>
-      <c r="E272" s="177" t="s">
+      <c r="E272" s="176" t="s">
         <v>1104</v>
       </c>
-      <c r="F272" s="173"/>
-      <c r="G272" s="173" t="s">
+      <c r="F272" s="172"/>
+      <c r="G272" s="172" t="s">
         <v>1105</v>
       </c>
-      <c r="H272" s="178" t="s">
+      <c r="H272" s="177" t="s">
         <v>1106</v>
       </c>
       <c r="I272" s="7"/>
@@ -19948,7 +19940,7 @@
       <c r="K272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="179"/>
+      <c r="A273" s="178"/>
       <c r="B273" s="29"/>
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
@@ -19959,7 +19951,7 @@
       <c r="J273" s="29"/>
     </row>
     <row r="274">
-      <c r="A274" s="179"/>
+      <c r="A274" s="178"/>
       <c r="B274" s="29"/>
       <c r="D274" s="29"/>
       <c r="E274" s="29"/>
@@ -19970,7 +19962,7 @@
       <c r="J274" s="29"/>
     </row>
     <row r="275">
-      <c r="A275" s="179"/>
+      <c r="A275" s="178"/>
       <c r="B275" s="29"/>
       <c r="D275" s="29"/>
       <c r="E275" s="29"/>
@@ -19981,7 +19973,7 @@
       <c r="J275" s="29"/>
     </row>
     <row r="276">
-      <c r="A276" s="179"/>
+      <c r="A276" s="178"/>
       <c r="B276" s="29"/>
       <c r="D276" s="29"/>
       <c r="E276" s="29"/>
@@ -19992,7 +19984,7 @@
       <c r="J276" s="29"/>
     </row>
     <row r="277">
-      <c r="A277" s="179"/>
+      <c r="A277" s="178"/>
       <c r="B277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="29"/>
@@ -20003,7 +19995,7 @@
       <c r="J277" s="29"/>
     </row>
     <row r="278">
-      <c r="A278" s="179"/>
+      <c r="A278" s="178"/>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29"/>
@@ -20014,7 +20006,7 @@
       <c r="J278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="179"/>
+      <c r="A279" s="178"/>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29"/>
@@ -20115,27 +20107,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="180" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -20153,7 +20145,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="155" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="84" t="s">
@@ -20171,7 +20163,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="155" t="s">
         <v>1112</v>
       </c>
       <c r="B4" s="84" t="s">
@@ -20217,7 +20209,7 @@
       <c r="B6" s="84" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="181" t="s">
         <v>800</v>
       </c>
       <c r="D6" s="7"/>
@@ -20268,7 +20260,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="182" t="s">
         <v>1123</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -20276,7 +20268,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="183" t="s">
         <v>1125</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -20284,12 +20276,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="184" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="185" t="s">
         <v>1128</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -20308,53 +20300,53 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="185" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="185" t="s">
         <v>1132</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="186" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="187" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="189"/>
-      <c r="B13" s="190" t="s">
+      <c r="A13" s="188"/>
+      <c r="B13" s="189" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="190" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="191" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="192" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="186"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="185" t="s">
         <v>1139</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="193" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -20365,10 +20357,10 @@
       <c r="B19" s="70"/>
     </row>
     <row r="21">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="185" t="s">
         <v>1142</v>
       </c>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="194" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -20394,57 +20386,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="185" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="195" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="196" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="195" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="196" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="196" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="196" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="195" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="196" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="196" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="196" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -20473,12 +20465,12 @@
       <c r="A1" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="197" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="196" t="s">
         <v>1156</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -20486,42 +20478,42 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="196" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="196" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="196" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="196" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="196" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="196" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="196" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="196" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -20541,7 +20533,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187"/>
+      <c r="A1" s="186"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20565,10 +20557,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="198" t="s">
         <v>1166</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="199" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -20652,7 +20644,7 @@
       <c r="C7" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="200" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -20710,10 +20702,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="198" t="s">
         <v>1166</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="199" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -20727,7 +20719,7 @@
       <c r="C2" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="197" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -20758,7 +20750,7 @@
       <c r="B5" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="200" t="s">
         <v>1193</v>
       </c>
       <c r="D5" s="7" t="s">

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.2.2</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <r>
@@ -4188,6 +4188,102 @@
     <t>epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion</t>
   </si>
   <si>
+    <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;http://publications.europa.eu/resource/authority/selection-criterion/sui-act&gt;.</t>
+  </si>
+  <si>
+    <t>III.2.1.2</t>
+  </si>
+  <si>
+    <t>Reference to the relevant law, regulation or administrative provision</t>
+  </si>
+  <si>
+    <t>no match</t>
+  </si>
+  <si>
+    <t>LEFTI/REFERENCE_TO_LAW</t>
+  </si>
+  <si>
+    <t>III.2.2</t>
+  </si>
+  <si>
+    <t>Contract performance conditions</t>
+  </si>
+  <si>
+    <t>BT-70</t>
+  </si>
+  <si>
+    <t>LEFTI/PERFORMANCE_CONDITIONS</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasPerformanceConditions ?value</t>
+  </si>
+  <si>
+    <t>III.2.3</t>
+  </si>
+  <si>
+    <t>Information about staff responsible for the performance of the contract</t>
+  </si>
+  <si>
+    <t>III.2.3.1</t>
+  </si>
+  <si>
+    <t>Obligation to indicate the names and professional qualifications of the staff assigned to performing the contract</t>
+  </si>
+  <si>
+    <t>BT-79</t>
+  </si>
+  <si>
+    <t>LEFTI/PERFORMANCE_STAFF_QUALIFICATION</t>
+  </si>
+  <si>
+    <t>epo:Lot / at-voc:requirement-stage</t>
+  </si>
+  <si>
+    <t>?this epo:hasPerformingStaffQualificationInformation &lt;http://publications.europa.eu/resource/authority/requirement-stage/t-requ&gt;.</t>
+  </si>
+  <si>
+    <t>if(not(exists(.)))</t>
+  </si>
+  <si>
+    <t>?this epo:hasPerformingStaffQualificationInformation &lt;http://publications.europa.eu/resource/authority/requirement-stage/not-requ&gt;.</t>
+  </si>
+  <si>
+    <t>Section IV</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>IV.1.1</t>
+  </si>
+  <si>
+    <t>Form of procedure</t>
+  </si>
+  <si>
+    <t>IV.1.1.1</t>
+  </si>
+  <si>
+    <t>Open procedure</t>
+  </si>
+  <si>
+    <t>BT-105</t>
+  </si>
+  <si>
+    <t>Procedure Type</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_OPEN</t>
+  </si>
+  <si>
+    <t>epo:Procedure / at-voc:procurement-procedure-type</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4198,91 +4294,1358 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/open</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricted procedure </t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_RESTRICTED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/restricted</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.1.3</t>
+  </si>
+  <si>
+    <t>Procedure involving negotiations</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_INVOLVING_NEGOTIATION</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcedureType &lt;http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-w-call&gt; .</t>
+  </si>
+  <si>
+    <t>IV.1.1.6</t>
+  </si>
+  <si>
+    <t>Award of a contract without prior publication of a call for competition in the Official Journal of the European Union in the cases listed below</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.3</t>
+  </si>
+  <si>
+    <t>Information about framework agreement</t>
+  </si>
+  <si>
+    <t>IV.1.3.1</t>
+  </si>
+  <si>
+    <t>The procurement involves the establishment of a framework agreement</t>
+  </si>
+  <si>
+    <t>BT-765</t>
+  </si>
+  <si>
+    <t>Framework Agreement</t>
+  </si>
+  <si>
+    <t>PROCEDURE/FRAMEWORK</t>
+  </si>
+  <si>
+    <t>epo:Procedure /  epo:FrameworkAgreementTechniqueUsage</t>
+  </si>
+  <si>
+    <t>?this epo:usesTechnique ?value .</t>
+  </si>
+  <si>
+    <t>IV.1.3.2</t>
+  </si>
+  <si>
+    <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
+  </si>
+  <si>
+    <t>BT-109</t>
+  </si>
+  <si>
+    <t>PROCEDURE/FRAMEWORK/JUSTIFICATION</t>
+  </si>
+  <si>
+    <t>epo:Procedure /  epo:FrameworkAgreementTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasDurationExtensionJustification ?value .</t>
+  </si>
+  <si>
+    <t>IV.1.10</t>
+  </si>
+  <si>
+    <t>Identification of the national rules applicable to the procedure</t>
+  </si>
+  <si>
+    <t>IV.1.10.1</t>
+  </si>
+  <si>
+    <t>Information about national procedures is available at (URL)</t>
+  </si>
+  <si>
+    <t>PROCEDURE/URL_NATIONAL_PROCEDURE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / xsd:anyURI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  /  epo:hasNationalProcedureRules </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.11</t>
+  </si>
+  <si>
+    <t>Main features of the award procedure</t>
+  </si>
+  <si>
+    <t>BT-88</t>
+  </si>
+  <si>
+    <t>PROCEDURE/MAIN_FEATURES_AWARD</t>
+  </si>
+  <si>
+    <t>?this epo:hasMainFeature ?value</t>
+  </si>
+  <si>
+    <t>IV.2.2</t>
+  </si>
+  <si>
+    <t>Time limit for receipt of tenders or requests to participate (Date/Time)</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:SubmissionTerm / xsd:datetime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.2.2.1</t>
+  </si>
+  <si>
+    <t>Time limit for receipt of expressions of interest (Date/Time)</t>
+  </si>
+  <si>
+    <t>BT-630</t>
+  </si>
+  <si>
+    <t>PROCEDURE/TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.2.4</t>
+  </si>
+  <si>
+    <t>Languages in which tenders or requests to participate may be submitted</t>
+  </si>
+  <si>
+    <t>BT-97</t>
+  </si>
+  <si>
+    <t>PROCEDURE/LANGUAGES/@VALUE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:SubmissionTerm / at-voc:language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasLanguage ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.2.5</t>
+  </si>
+  <si>
+    <t>Scheduled date for start of award procedures</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_AWARD_SCHEDULED</t>
+  </si>
+  <si>
+    <t>IV.2.9</t>
+  </si>
+  <si>
+    <t>Information about termination of call for competition in the form of a perior information notice</t>
+  </si>
+  <si>
+    <t>IV.2.9.1</t>
+  </si>
+  <si>
+    <t>The contracting authority will not award any further contracts based on the above prior information notice</t>
+  </si>
+  <si>
+    <t>BT-756</t>
+  </si>
+  <si>
+    <t>PIN Competition Termination</t>
+  </si>
+  <si>
+    <t>PROCEDURE/TERMINATION_PIN</t>
+  </si>
+  <si>
+    <t>epo:ProcurementProcessInformation / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:isCompetitionTerminated ?value .</t>
+  </si>
+  <si>
+    <t>Section V</t>
+  </si>
+  <si>
+    <t>Award of contract</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT</t>
+  </si>
+  <si>
+    <t>if(exists(AWARDED_CONTRACT))</t>
+  </si>
+  <si>
+    <t>epo:ResultNotice / epo:Contract</t>
+  </si>
+  <si>
+    <t>?this epo:announcesContract ?value</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:Lot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <b val="0"/>
       </rPr>
-      <t xml:space="preserve"> epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
+      <t>epo:includesLot</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:describesLot ?value</t>
+  </si>
+  <si>
+    <t>V.0.1</t>
+  </si>
+  <si>
+    <t>Contract No</t>
+  </si>
+  <si>
+    <t>BT-150</t>
+  </si>
+  <si>
+    <t>Contract Identifier</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/CONTRACT_NO</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <t>?this epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
+    <t>V.0.3</t>
+  </si>
+  <si>
+    <t>BT-721</t>
+  </si>
+  <si>
+    <t>Contract Title</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>epo:Contract / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasTitle </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.0.4</t>
+  </si>
+  <si>
+    <t>A contract/lot is awarded</t>
+  </si>
+  <si>
+    <t>BT-142</t>
+  </si>
+  <si>
+    <t>Winner Chosen</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .
+</t>
+    </r>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <t>?this epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
+  </si>
+  <si>
+    <t>V.1</t>
+  </si>
+  <si>
+    <t>Information on non-award</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>V.1.1</t>
+  </si>
+  <si>
+    <t>The contract/lot is not awarded</t>
+  </si>
+  <si>
+    <t>V.1.1.1</t>
+  </si>
+  <si>
+    <t>No tenders or requests to participate were received or all were rejected</t>
+  </si>
+  <si>
+    <t>BT-144</t>
+  </si>
+  <si>
+    <t>Not Awarded Reason</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / at-voc:non-award-justification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:hasNonAwardJustification &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/non-award-justification/all-rej</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.1.1.2</t>
+  </si>
+  <si>
+    <t>Other reasons (discontinuation of procedure)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:hasNonAwardJustification &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/non-award-justification/other</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.1.1.3</t>
+  </si>
+  <si>
+    <t>Notice reference</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasAdditionalNonAwardJustification ?value .</t>
+  </si>
+  <si>
+    <t>V.2</t>
+  </si>
+  <si>
+    <t>V.2.0.1</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Tender</t>
+  </si>
+  <si>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:describesTender ?value</t>
+  </si>
+  <si>
+    <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
+  </si>
+  <si>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
+  </si>
+  <si>
+    <t>V.2.1</t>
+  </si>
+  <si>
+    <t>Date of conclusion of the contract</t>
+  </si>
+  <si>
+    <t>BT-145</t>
+  </si>
+  <si>
+    <t>Contract Conclusion Date</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/DATE_CONCLUSION_CONTRACT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContractConclusionDate ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.2</t>
+  </si>
+  <si>
+    <t>Information about tenders</t>
+  </si>
+  <si>
+    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+  </si>
+  <si>
+    <t>V.2.2.1</t>
+  </si>
+  <si>
+    <t>Number of tenders received</t>
+  </si>
+  <si>
+    <t>BT-759</t>
+  </si>
+  <si>
+    <t>Received Submissions Count</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:hasReceivedTenders ?value .</t>
+  </si>
+  <si>
+    <t>V.2.2.2</t>
+  </si>
+  <si>
+    <t>Number of tenders received from SMEs</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+  </si>
+  <si>
+    <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.2.3</t>
+  </si>
+  <si>
+    <t>Number of tenders received from tenderers from other EU Member States</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.2.4</t>
+  </si>
+  <si>
+    <t>Number of tenders received from tenderers from non-EU Member States</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>epo:hasReceivedNonEUTenders ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.2.5</t>
+  </si>
+  <si>
+    <t>Number of tenders received by electronic means</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+  </si>
+  <si>
+    <t>?this epo:hasElectronicTenders ?value .</t>
+  </si>
+  <si>
+    <t>V.2.2.6</t>
+  </si>
+  <si>
+    <t>The contract has been awarded to a group of economic operators</t>
+  </si>
+  <si>
+    <t>BT-768</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t>V.2.3</t>
+  </si>
+  <si>
+    <t>Name and address of the contractor</t>
+  </si>
+  <si>
+    <t>V.2.3.1</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.2</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.3</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.4</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.5</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.6</t>
+  </si>
+  <si>
+    <t>Organisation Post Code</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.7</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.8</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:email ?value .</t>
+  </si>
+  <si>
+    <t>V.2.3.9</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:telephone ?value .</t>
+  </si>
+  <si>
+    <t>V.2.3.10</t>
+  </si>
+  <si>
+    <t>Internet Addresses (URL)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.3.11</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+  </si>
+  <si>
+    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
+  </si>
+  <si>
+    <t>V.2.3.12</t>
+  </si>
+  <si>
+    <t>The contractor is an SME</t>
+  </si>
+  <si>
+    <t>BT-165</t>
+  </si>
+  <si>
+    <t>Winner Size</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>III.2.1.2</t>
-  </si>
-  <si>
-    <t>Reference to the relevant law, regulation or administrative provision</t>
-  </si>
-  <si>
-    <t>no match</t>
-  </si>
-  <si>
-    <t>LEFTI/REFERENCE_TO_LAW</t>
-  </si>
-  <si>
-    <t>III.2.2</t>
-  </si>
-  <si>
-    <t>Contract performance conditions</t>
-  </si>
-  <si>
-    <t>BT-70</t>
-  </si>
-  <si>
-    <t>LEFTI/PERFORMANCE_CONDITIONS</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:hasPerformanceConditions ?value</t>
-  </si>
-  <si>
-    <t>III.2.3</t>
-  </si>
-  <si>
-    <t>Information about staff responsible for the performance of the contract</t>
-  </si>
-  <si>
-    <t>III.2.3.1</t>
-  </si>
-  <si>
-    <t>Obligation to indicate the names and professional qualifications of the staff assigned to performing the contract</t>
-  </si>
-  <si>
-    <t>BT-79</t>
-  </si>
-  <si>
-    <t>LEFTI/PERFORMANCE_STAFF_QUALIFICATION</t>
-  </si>
-  <si>
-    <t>epo:Lot / at-voc:requirement-stage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:hasPerformingStaffQualificationInformation &lt;</t>
+      <t>?this epo:playedBy / epo:hasBusinessSize &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4290,1455 +5653,14 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/requirement-stage/t-requ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>if(not(exists(.)))</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>?this epo:hasPerformingStaffQualificationInformation &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/requirement-stage/not-requ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Section IV</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>IV.1.1</t>
-  </si>
-  <si>
-    <t>Form of procedure</t>
-  </si>
-  <si>
-    <t>IV.1.1.1</t>
-  </si>
-  <si>
-    <t>Open procedure</t>
-  </si>
-  <si>
-    <t>BT-105</t>
-  </si>
-  <si>
-    <t>Procedure Type</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_OPEN</t>
-  </si>
-  <si>
-    <t>epo:Procedure / at-voc:procurement-procedure-type</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/open</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restricted procedure </t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_RESTRICTED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/restricted</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.1.1.3</t>
-  </si>
-  <si>
-    <t>Procedure involving negotiations</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_INVOLVING_NEGOTIATION</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcedureType &lt;http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-w-call&gt; .</t>
-  </si>
-  <si>
-    <t>IV.1.1.6</t>
-  </si>
-  <si>
-    <t>Award of a contract without prior publication of a call for competition in the Official Journal of the European Union in the cases listed below</t>
-  </si>
-  <si>
-    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-wo-call</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.1.3</t>
-  </si>
-  <si>
-    <t>Information about framework agreement</t>
-  </si>
-  <si>
-    <t>IV.1.3.1</t>
-  </si>
-  <si>
-    <t>The procurement involves the establishment of a framework agreement</t>
-  </si>
-  <si>
-    <t>BT-765</t>
-  </si>
-  <si>
-    <t>Framework Agreement</t>
-  </si>
-  <si>
-    <t>PROCEDURE/FRAMEWORK</t>
-  </si>
-  <si>
-    <t>epo:Procedure /  epo:FrameworkAgreementTechniqueUsage</t>
-  </si>
-  <si>
-    <t>?this epo:usesTechnique ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.3.2</t>
-  </si>
-  <si>
-    <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
-  </si>
-  <si>
-    <t>BT-109</t>
-  </si>
-  <si>
-    <t>PROCEDURE/FRAMEWORK/JUSTIFICATION</t>
-  </si>
-  <si>
-    <t>epo:Procedure /  epo:FrameworkAgreementTerm / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasDurationExtensionJustification ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.10</t>
-  </si>
-  <si>
-    <t>Identification of the national rules applicable to the procedure</t>
-  </si>
-  <si>
-    <t>IV.1.10.1</t>
-  </si>
-  <si>
-    <t>Information about national procedures is available at (URL)</t>
-  </si>
-  <si>
-    <t>PROCEDURE/URL_NATIONAL_PROCEDURE</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / xsd:anyURI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  /  epo:hasNationalProcedureRules </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.1.11</t>
-  </si>
-  <si>
-    <t>Main features of the award procedure</t>
-  </si>
-  <si>
-    <t>BT-88</t>
-  </si>
-  <si>
-    <t>PROCEDURE/MAIN_FEATURES_AWARD</t>
-  </si>
-  <si>
-    <t>?this epo:hasMainFeature ?value</t>
-  </si>
-  <si>
-    <t>IV.2.2</t>
-  </si>
-  <si>
-    <t>Time limit for receipt of tenders or requests to participate (Date/Time)</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:datetime</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.2.2.1</t>
-  </si>
-  <si>
-    <t>Time limit for receipt of expressions of interest (Date/Time)</t>
-  </si>
-  <si>
-    <t>BT-630</t>
-  </si>
-  <si>
-    <t>PROCEDURE/TIME_RECEIPT_TENDERS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.2.4</t>
-  </si>
-  <si>
-    <t>Languages in which tenders or requests to participate may be submitted</t>
-  </si>
-  <si>
-    <t>BT-97</t>
-  </si>
-  <si>
-    <t>PROCEDURE/LANGUAGES/@VALUE</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:SubmissionTerm / at-voc:language</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasLanguage ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>IV.2.5</t>
-  </si>
-  <si>
-    <t>Scheduled date for start of award procedures</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DATE_AWARD_SCHEDULED</t>
-  </si>
-  <si>
-    <t>IV.2.9</t>
-  </si>
-  <si>
-    <t>Information about termination of call for competition in the form of a perior information notice</t>
-  </si>
-  <si>
-    <t>IV.2.9.1</t>
-  </si>
-  <si>
-    <t>The contracting authority will not award any further contracts based on the above prior information notice</t>
-  </si>
-  <si>
-    <t>BT-756</t>
-  </si>
-  <si>
-    <t>PIN Competition Termination</t>
-  </si>
-  <si>
-    <t>PROCEDURE/TERMINATION_PIN</t>
-  </si>
-  <si>
-    <t>epo:ProcurementProcessInformation / xsd:boolean</t>
-  </si>
-  <si>
-    <t>?this epo:isCompetitionTerminated ?value .</t>
-  </si>
-  <si>
-    <t>Section V</t>
-  </si>
-  <si>
-    <t>Award of contract</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT</t>
-  </si>
-  <si>
-    <t>if(exists(AWARDED_CONTRACT))</t>
-  </si>
-  <si>
-    <t>epo:ResultNotice / epo:Contract</t>
-  </si>
-  <si>
-    <t>?this epo:announcesContract ?value</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:Lot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">?this </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-      </rPr>
-      <t>epo:includesLot</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:describesLot ?value</t>
-  </si>
-  <si>
-    <t>V.0.1</t>
-  </si>
-  <si>
-    <t>Contract No</t>
-  </si>
-  <si>
-    <t>BT-150</t>
-  </si>
-  <si>
-    <t>Contract Identifier</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/CONTRACT_NO</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <t>?this epo:hasID / epo:hasIdentifierValue ?value .</t>
-  </si>
-  <si>
-    <t>V.0.3</t>
-  </si>
-  <si>
-    <t>BT-721</t>
-  </si>
-  <si>
-    <t>Contract Title</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/TITLE</t>
-  </si>
-  <si>
-    <t>epo:Contract / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasTitle </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.0.4</t>
-  </si>
-  <si>
-    <t>A contract/lot is awarded</t>
-  </si>
-  <si>
-    <t>BT-142</t>
-  </si>
-  <si>
-    <t>Winner Chosen</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / at-voc:winner-selection-status</t>
-  </si>
-  <si>
-    <t>?this epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
-  </si>
-  <si>
-    <t>V.1</t>
-  </si>
-  <si>
-    <t>Information on non-award</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>V.1.1</t>
-  </si>
-  <si>
-    <t>The contract/lot is not awarded</t>
-  </si>
-  <si>
-    <t>V.1.1.1</t>
-  </si>
-  <si>
-    <t>No tenders or requests to participate were received or all were rejected</t>
-  </si>
-  <si>
-    <t>BT-144</t>
-  </si>
-  <si>
-    <t>Not Awarded Reason</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / at-voc:non-award-justification</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:hasNonAwardJustification &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/non-award-justification/all-rej</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.1.1.2</t>
-  </si>
-  <si>
-    <t>Other reasons (discontinuation of procedure)</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:hasNonAwardJustification &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/non-award-justification/other</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&gt; .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.1.1.3</t>
-  </si>
-  <si>
-    <t>Notice reference</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED/NO_DOC_EXT/@PUBLICATION</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:hasAdditionalNonAwardJustification ?value .</t>
-  </si>
-  <si>
-    <t>V.2</t>
-  </si>
-  <si>
-    <t>V.2.0.1</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Tender</t>
-  </si>
-  <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:describesTender ?value</t>
-  </si>
-  <si>
-    <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
-  </si>
-  <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
-  </si>
-  <si>
-    <t>V.2.1</t>
-  </si>
-  <si>
-    <t>Date of conclusion of the contract</t>
-  </si>
-  <si>
-    <t>BT-145</t>
-  </si>
-  <si>
-    <t>Contract Conclusion Date</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/DATE_CONCLUSION_CONTRACT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContractConclusionDate ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.2</t>
-  </si>
-  <si>
-    <t>Information about tenders</t>
-  </si>
-  <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
-  </si>
-  <si>
-    <t>V.2.2.1</t>
-  </si>
-  <si>
-    <t>Number of tenders received</t>
-  </si>
-  <si>
-    <t>BT-759</t>
-  </si>
-  <si>
-    <t>Received Submissions Count</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
-  </si>
-  <si>
-    <t>?this epo:hasReceivedTenders ?value .</t>
-  </si>
-  <si>
-    <t>V.2.2.2</t>
-  </si>
-  <si>
-    <t>Number of tenders received from SMEs</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
-  </si>
-  <si>
-    <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.2.3</t>
-  </si>
-  <si>
-    <t>Number of tenders received from tenderers from other EU Member States</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.2.4</t>
-  </si>
-  <si>
-    <t>Number of tenders received from tenderers from non-EU Member States</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">this </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>epo:hasReceivedNonEUTenders ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.2.5</t>
-  </si>
-  <si>
-    <t>Number of tenders received by electronic means</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
-  </si>
-  <si>
-    <t>?this epo:hasElectronicTenders ?value .</t>
-  </si>
-  <si>
-    <t>V.2.2.6</t>
-  </si>
-  <si>
-    <t>The contract has been awarded to a group of economic operators</t>
-  </si>
-  <si>
-    <t>BT-768</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
-  </si>
-  <si>
-    <t>V.2.3</t>
-  </si>
-  <si>
-    <t>Name and address of the contractor</t>
-  </si>
-  <si>
-    <t>V.2.3.1</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.2</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.3</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.4</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.5</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.6</t>
-  </si>
-  <si>
-    <t>Organisation Post Code</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.7</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.8</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:email ?value .</t>
-  </si>
-  <si>
-    <t>V.2.3.9</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:telephone ?value .</t>
-  </si>
-  <si>
-    <t>V.2.3.10</t>
-  </si>
-  <si>
-    <t>Internet Addresses (URL)</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.3.11</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
-  </si>
-  <si>
-    <t>V.2.3.12</t>
-  </si>
-  <si>
-    <t>The contractor is an SME</t>
-  </si>
-  <si>
-    <t>BT-165</t>
-  </si>
-  <si>
-    <t>Winner Size</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
-  </si>
-  <si>
+      <t>http://publications.europa.eu/resource/authority/economic-operator-size/sme</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <u/>
       </rPr>
-      <t>?this epo:playedBy / epo:hasBusinessSize &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/economic-operator-size/sme</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
       <t>&gt;</t>
     </r>
   </si>
@@ -5784,7 +5706,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasRestatedEstimatedValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -5832,7 +5754,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?</t>
+      <t xml:space="preserve"> epo:hasRestatedEstimatedValue / epo:hasCurrency ?</t>
     </r>
     <r>
       <rPr>
@@ -8151,7 +8073,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8257,19 +8179,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <u/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -8554,7 +8465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8931,19 +8842,13 @@
     <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8952,10 +8857,10 @@
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8964,7 +8869,7 @@
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8985,10 +8890,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9003,13 +8908,13 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -9045,13 +8950,13 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9069,13 +8974,13 @@
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9091,16 +8996,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9127,7 +9032,7 @@
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9139,13 +9044,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -16700,7 +16605,7 @@
       <c r="G142" s="100" t="s">
         <v>613</v>
       </c>
-      <c r="H142" s="128" t="s">
+      <c r="H142" s="127" t="s">
         <v>614</v>
       </c>
       <c r="I142" s="7"/>
@@ -16734,7 +16639,7 @@
       <c r="C144" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="D144" s="129"/>
+      <c r="D144" s="128"/>
       <c r="E144" s="92" t="s">
         <v>620</v>
       </c>
@@ -16744,7 +16649,7 @@
       <c r="G144" s="100" t="s">
         <v>621</v>
       </c>
-      <c r="H144" s="128" t="s">
+      <c r="H144" s="127" t="s">
         <v>622</v>
       </c>
       <c r="I144" s="7"/>
@@ -16761,7 +16666,7 @@
       <c r="C145" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="D145" s="129"/>
+      <c r="D145" s="128"/>
       <c r="E145" s="92" t="s">
         <v>620</v>
       </c>
@@ -16771,7 +16676,7 @@
       <c r="G145" s="100" t="s">
         <v>621</v>
       </c>
-      <c r="H145" s="130" t="s">
+      <c r="H145" s="127" t="s">
         <v>624</v>
       </c>
       <c r="I145" s="7"/>
@@ -16779,7 +16684,7 @@
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="131" t="s">
+      <c r="A146" s="129" t="s">
         <v>625</v>
       </c>
       <c r="B146" s="83" t="s">
@@ -16834,7 +16739,7 @@
       <c r="G148" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H148" s="132" t="s">
+      <c r="H148" s="130" t="s">
         <v>636</v>
       </c>
       <c r="I148" s="7"/>
@@ -16861,7 +16766,7 @@
       <c r="G149" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H149" s="132" t="s">
+      <c r="H149" s="130" t="s">
         <v>640</v>
       </c>
       <c r="I149" s="7"/>
@@ -16915,7 +16820,7 @@
       <c r="G151" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H151" s="132" t="s">
+      <c r="H151" s="130" t="s">
         <v>648</v>
       </c>
       <c r="I151" s="7"/>
@@ -17015,7 +16920,7 @@
       <c r="B156" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="C156" s="133" t="s">
+      <c r="C156" s="131" t="s">
         <v>226</v>
       </c>
       <c r="D156" s="68"/>
@@ -17076,7 +16981,7 @@
       <c r="G158" s="64" t="s">
         <v>679</v>
       </c>
-      <c r="H158" s="134" t="s">
+      <c r="H158" s="132" t="s">
         <v>680</v>
       </c>
       <c r="I158" s="7"/>
@@ -17101,7 +17006,7 @@
       <c r="G159" s="100" t="s">
         <v>679</v>
       </c>
-      <c r="H159" s="134" t="s">
+      <c r="H159" s="132" t="s">
         <v>685</v>
       </c>
       <c r="I159" s="7"/>
@@ -17126,7 +17031,7 @@
       <c r="G160" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="H160" s="134" t="s">
+      <c r="H160" s="132" t="s">
         <v>691</v>
       </c>
       <c r="I160" s="7"/>
@@ -17191,7 +17096,7 @@
       <c r="G163" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="H163" s="135" t="s">
+      <c r="H163" s="133" t="s">
         <v>703</v>
       </c>
       <c r="I163" s="7"/>
@@ -17199,7 +17104,7 @@
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="131" t="s">
+      <c r="A164" s="129" t="s">
         <v>704</v>
       </c>
       <c r="B164" s="35" t="s">
@@ -17216,7 +17121,7 @@
       <c r="G164" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="H164" s="136" t="s">
+      <c r="H164" s="134" t="s">
         <v>709</v>
       </c>
       <c r="I164" s="7"/>
@@ -17224,10 +17129,10 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="137" t="s">
+      <c r="A165" s="135" t="s">
         <v>704</v>
       </c>
-      <c r="B165" s="138" t="s">
+      <c r="B165" s="136" t="s">
         <v>705</v>
       </c>
       <c r="C165" s="63"/>
@@ -17241,7 +17146,7 @@
       <c r="G165" s="66" t="s">
         <v>710</v>
       </c>
-      <c r="H165" s="139" t="s">
+      <c r="H165" s="137" t="s">
         <v>711</v>
       </c>
       <c r="I165" s="7"/>
@@ -17249,10 +17154,10 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="137" t="s">
+      <c r="A166" s="135" t="s">
         <v>704</v>
       </c>
-      <c r="B166" s="138" t="s">
+      <c r="B166" s="136" t="s">
         <v>705</v>
       </c>
       <c r="C166" s="63"/>
@@ -17357,10 +17262,10 @@
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="140" t="s">
+      <c r="A170" s="138" t="s">
         <v>727</v>
       </c>
-      <c r="B170" s="141" t="s">
+      <c r="B170" s="139" t="s">
         <v>728</v>
       </c>
       <c r="C170" s="114" t="s">
@@ -17384,13 +17289,13 @@
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="142" t="s">
+      <c r="A171" s="140" t="s">
         <v>737</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="C171" s="143" t="s">
+      <c r="C171" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D171" s="63"/>
@@ -17409,12 +17314,12 @@
       <c r="B172" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="C172" s="143" t="s">
+      <c r="C172" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D172" s="37"/>
-      <c r="E172" s="144"/>
-      <c r="F172" s="144"/>
+      <c r="E172" s="142"/>
+      <c r="F172" s="142"/>
       <c r="G172" s="37"/>
       <c r="H172" s="37"/>
       <c r="I172" s="7"/>
@@ -17434,14 +17339,14 @@
       <c r="D173" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="E173" s="145" t="s">
+      <c r="E173" s="143" t="s">
         <v>746</v>
       </c>
-      <c r="F173" s="145"/>
+      <c r="F173" s="143"/>
       <c r="G173" s="63" t="s">
         <v>747</v>
       </c>
-      <c r="H173" s="146" t="s">
+      <c r="H173" s="144" t="s">
         <v>748</v>
       </c>
       <c r="I173" s="7"/>
@@ -17468,7 +17373,7 @@
       <c r="G174" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="H174" s="147" t="s">
+      <c r="H174" s="145" t="s">
         <v>752</v>
       </c>
       <c r="I174" s="7"/>
@@ -17482,7 +17387,7 @@
       <c r="B175" s="57" t="s">
         <v>754</v>
       </c>
-      <c r="C175" s="148" t="s">
+      <c r="C175" s="146" t="s">
         <v>607</v>
       </c>
       <c r="D175" s="63"/>
@@ -17501,13 +17406,13 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="142" t="s">
+      <c r="A176" s="140" t="s">
         <v>758</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="C176" s="143" t="s">
+      <c r="C176" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D176" s="63"/>
@@ -17595,12 +17500,12 @@
       <c r="B180" s="49" t="s">
         <v>771</v>
       </c>
-      <c r="C180" s="149"/>
-      <c r="D180" s="150"/>
+      <c r="C180" s="147"/>
+      <c r="D180" s="148"/>
       <c r="E180" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="F180" s="149"/>
+      <c r="F180" s="147"/>
       <c r="G180" s="51" t="s">
         <v>772</v>
       </c>
@@ -17677,7 +17582,7 @@
       <c r="G183" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="H183" s="147" t="s">
+      <c r="H183" s="145" t="s">
         <v>789</v>
       </c>
       <c r="I183" s="7"/>
@@ -17737,7 +17642,7 @@
       <c r="B186" s="57" t="s">
         <v>799</v>
       </c>
-      <c r="C186" s="151" t="s">
+      <c r="C186" s="149" t="s">
         <v>800</v>
       </c>
       <c r="D186" s="63"/>
@@ -17762,7 +17667,7 @@
       <c r="B187" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="C187" s="143" t="s">
+      <c r="C187" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D187" s="63"/>
@@ -17958,7 +17863,7 @@
       <c r="G194" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="H194" s="152" t="s">
+      <c r="H194" s="150" t="s">
         <v>826</v>
       </c>
       <c r="I194" s="7"/>
@@ -18039,7 +17944,7 @@
       <c r="G197" s="47" t="s">
         <v>829</v>
       </c>
-      <c r="H197" s="153" t="s">
+      <c r="H197" s="151" t="s">
         <v>838</v>
       </c>
       <c r="I197" s="7"/>
@@ -18093,7 +17998,7 @@
       <c r="G199" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="H199" s="154" t="s">
+      <c r="H199" s="152" t="s">
         <v>848</v>
       </c>
       <c r="I199" s="7"/>
@@ -18101,7 +18006,7 @@
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="155"/>
+      <c r="A200" s="153"/>
       <c r="B200" s="4"/>
       <c r="C200" s="63"/>
       <c r="D200" s="63"/>
@@ -18126,7 +18031,7 @@
       <c r="B201" s="49" t="s">
         <v>852</v>
       </c>
-      <c r="C201" s="156" t="s">
+      <c r="C201" s="154" t="s">
         <v>739</v>
       </c>
       <c r="D201" s="63"/>
@@ -18172,7 +18077,7 @@
       <c r="B203" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C203" s="157" t="s">
+      <c r="C203" s="155" t="s">
         <v>226</v>
       </c>
       <c r="D203" s="63"/>
@@ -18224,10 +18129,10 @@
       <c r="B205" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="158" t="s">
+      <c r="C205" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="159"/>
+      <c r="D205" s="157"/>
       <c r="E205" s="51" t="s">
         <v>869</v>
       </c>
@@ -18276,7 +18181,7 @@
       <c r="B207" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C207" s="157" t="s">
+      <c r="C207" s="155" t="s">
         <v>226</v>
       </c>
       <c r="D207" s="63"/>
@@ -18328,7 +18233,7 @@
       <c r="B209" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C209" s="157" t="s">
+      <c r="C209" s="155" t="s">
         <v>226</v>
       </c>
       <c r="D209" s="63"/>
@@ -18353,7 +18258,7 @@
       <c r="B210" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="C210" s="143" t="s">
+      <c r="C210" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D210" s="63"/>
@@ -18443,14 +18348,14 @@
       <c r="B214" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="C214" s="157" t="s">
+      <c r="C214" s="155" t="s">
         <v>226</v>
       </c>
       <c r="D214" s="63"/>
-      <c r="E214" s="145" t="s">
+      <c r="E214" s="143" t="s">
         <v>903</v>
       </c>
-      <c r="F214" s="145"/>
+      <c r="F214" s="143"/>
       <c r="G214" s="51" t="s">
         <v>904</v>
       </c>
@@ -18468,16 +18373,16 @@
       <c r="B215" s="57" t="s">
         <v>907</v>
       </c>
-      <c r="C215" s="144" t="s">
+      <c r="C215" s="142" t="s">
         <v>908</v>
       </c>
-      <c r="D215" s="144" t="s">
+      <c r="D215" s="142" t="s">
         <v>909</v>
       </c>
-      <c r="E215" s="145" t="s">
+      <c r="E215" s="143" t="s">
         <v>910</v>
       </c>
-      <c r="F215" s="145"/>
+      <c r="F215" s="143"/>
       <c r="G215" s="51" t="s">
         <v>911</v>
       </c>
@@ -18495,16 +18400,16 @@
       <c r="B216" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="C216" s="144" t="s">
+      <c r="C216" s="142" t="s">
         <v>915</v>
       </c>
-      <c r="D216" s="144" t="s">
+      <c r="D216" s="142" t="s">
         <v>916</v>
       </c>
-      <c r="E216" s="145" t="s">
+      <c r="E216" s="143" t="s">
         <v>917</v>
       </c>
-      <c r="F216" s="145"/>
+      <c r="F216" s="143"/>
       <c r="G216" s="51" t="s">
         <v>918</v>
       </c>
@@ -18522,10 +18427,10 @@
       <c r="B217" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="C217" s="160"/>
-      <c r="D217" s="160"/>
-      <c r="E217" s="160"/>
-      <c r="F217" s="144"/>
+      <c r="C217" s="158"/>
+      <c r="D217" s="158"/>
+      <c r="E217" s="158"/>
+      <c r="F217" s="142"/>
       <c r="G217" s="51"/>
       <c r="H217" s="51"/>
       <c r="I217" s="7"/>
@@ -18539,14 +18444,14 @@
       <c r="B218" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="C218" s="160" t="s">
+      <c r="C218" s="158" t="s">
         <v>924</v>
       </c>
-      <c r="D218" s="160"/>
-      <c r="E218" s="160" t="s">
+      <c r="D218" s="158"/>
+      <c r="E218" s="158" t="s">
         <v>925</v>
       </c>
-      <c r="F218" s="144"/>
+      <c r="F218" s="142"/>
       <c r="G218" s="100" t="s">
         <v>926</v>
       </c>
@@ -18564,14 +18469,14 @@
       <c r="B219" s="49" t="s">
         <v>929</v>
       </c>
-      <c r="C219" s="160" t="s">
+      <c r="C219" s="158" t="s">
         <v>930</v>
       </c>
-      <c r="D219" s="160"/>
-      <c r="E219" s="160" t="s">
+      <c r="D219" s="158"/>
+      <c r="E219" s="158" t="s">
         <v>931</v>
       </c>
-      <c r="F219" s="144"/>
+      <c r="F219" s="142"/>
       <c r="G219" s="100" t="s">
         <v>926</v>
       </c>
@@ -18589,14 +18494,14 @@
       <c r="B220" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="C220" s="160" t="s">
+      <c r="C220" s="158" t="s">
         <v>935</v>
       </c>
-      <c r="D220" s="160"/>
-      <c r="E220" s="160" t="s">
+      <c r="D220" s="158"/>
+      <c r="E220" s="158" t="s">
         <v>936</v>
       </c>
-      <c r="F220" s="144"/>
+      <c r="F220" s="142"/>
       <c r="G220" s="100" t="s">
         <v>926</v>
       </c>
@@ -18608,7 +18513,7 @@
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="142" t="s">
+      <c r="A221" s="140" t="s">
         <v>938</v>
       </c>
       <c r="B221" s="40" t="s">
@@ -18620,14 +18525,14 @@
       <c r="D221" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E221" s="145" t="s">
+      <c r="E221" s="143" t="s">
         <v>939</v>
       </c>
-      <c r="F221" s="145"/>
-      <c r="G221" s="161" t="s">
+      <c r="F221" s="143"/>
+      <c r="G221" s="159" t="s">
         <v>309</v>
       </c>
-      <c r="H221" s="162" t="s">
+      <c r="H221" s="160" t="s">
         <v>940</v>
       </c>
       <c r="I221" s="7"/>
@@ -18635,18 +18540,18 @@
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="142" t="s">
+      <c r="A222" s="140" t="s">
         <v>941</v>
       </c>
       <c r="B222" s="62" t="s">
         <v>942</v>
       </c>
-      <c r="C222" s="143" t="s">
+      <c r="C222" s="141" t="s">
         <v>739</v>
       </c>
       <c r="D222" s="7"/>
-      <c r="E222" s="144"/>
-      <c r="F222" s="144"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
@@ -18660,7 +18565,7 @@
       <c r="B223" s="67" t="s">
         <v>944</v>
       </c>
-      <c r="C223" s="163" t="s">
+      <c r="C223" s="161" t="s">
         <v>739</v>
       </c>
       <c r="D223" s="7"/>
@@ -18682,7 +18587,7 @@
       <c r="A224" s="86" t="s">
         <v>946</v>
       </c>
-      <c r="B224" s="164" t="s">
+      <c r="B224" s="162" t="s">
         <v>56</v>
       </c>
       <c r="C224" s="63" t="s">
@@ -18709,7 +18614,7 @@
       <c r="A225" s="86" t="s">
         <v>949</v>
       </c>
-      <c r="B225" s="164" t="s">
+      <c r="B225" s="162" t="s">
         <v>70</v>
       </c>
       <c r="C225" s="63" t="s">
@@ -18736,7 +18641,7 @@
       <c r="A226" s="86" t="s">
         <v>952</v>
       </c>
-      <c r="B226" s="164" t="s">
+      <c r="B226" s="162" t="s">
         <v>77</v>
       </c>
       <c r="C226" s="63" t="s">
@@ -18763,7 +18668,7 @@
       <c r="A227" s="86" t="s">
         <v>955</v>
       </c>
-      <c r="B227" s="164" t="s">
+      <c r="B227" s="162" t="s">
         <v>91</v>
       </c>
       <c r="C227" s="63" t="s">
@@ -18790,7 +18695,7 @@
       <c r="A228" s="86" t="s">
         <v>959</v>
       </c>
-      <c r="B228" s="164" t="s">
+      <c r="B228" s="162" t="s">
         <v>98</v>
       </c>
       <c r="C228" s="63" t="s">
@@ -18817,7 +18722,7 @@
       <c r="A229" s="86" t="s">
         <v>962</v>
       </c>
-      <c r="B229" s="164" t="s">
+      <c r="B229" s="162" t="s">
         <v>118</v>
       </c>
       <c r="C229" s="66" t="s">
@@ -18844,7 +18749,7 @@
       <c r="A230" s="86" t="s">
         <v>964</v>
       </c>
-      <c r="B230" s="164" t="s">
+      <c r="B230" s="162" t="s">
         <v>112</v>
       </c>
       <c r="C230" s="63" t="s">
@@ -18853,10 +18758,10 @@
       <c r="D230" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E230" s="145" t="s">
+      <c r="E230" s="143" t="s">
         <v>965</v>
       </c>
-      <c r="F230" s="145"/>
+      <c r="F230" s="143"/>
       <c r="G230" s="66" t="s">
         <v>833</v>
       </c>
@@ -18871,7 +18776,7 @@
       <c r="A231" s="86" t="s">
         <v>966</v>
       </c>
-      <c r="B231" s="164" t="s">
+      <c r="B231" s="162" t="s">
         <v>836</v>
       </c>
       <c r="C231" s="63" t="s">
@@ -18880,10 +18785,10 @@
       <c r="D231" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E231" s="145" t="s">
+      <c r="E231" s="143" t="s">
         <v>967</v>
       </c>
-      <c r="F231" s="145"/>
+      <c r="F231" s="143"/>
       <c r="G231" s="47" t="s">
         <v>829</v>
       </c>
@@ -18898,7 +18803,7 @@
       <c r="A232" s="86" t="s">
         <v>969</v>
       </c>
-      <c r="B232" s="164" t="s">
+      <c r="B232" s="162" t="s">
         <v>125</v>
       </c>
       <c r="C232" s="63" t="s">
@@ -18907,10 +18812,10 @@
       <c r="D232" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E232" s="145" t="s">
+      <c r="E232" s="143" t="s">
         <v>970</v>
       </c>
-      <c r="F232" s="145"/>
+      <c r="F232" s="143"/>
       <c r="G232" s="51" t="s">
         <v>833</v>
       </c>
@@ -18928,14 +18833,14 @@
       <c r="B233" s="67" t="s">
         <v>972</v>
       </c>
-      <c r="C233" s="163" t="s">
+      <c r="C233" s="161" t="s">
         <v>739</v>
       </c>
-      <c r="D233" s="165"/>
+      <c r="D233" s="163"/>
       <c r="E233" s="79" t="s">
         <v>973</v>
       </c>
-      <c r="F233" s="144"/>
+      <c r="F233" s="142"/>
       <c r="G233" s="37" t="s">
         <v>974</v>
       </c>
@@ -18950,7 +18855,7 @@
       <c r="A234" s="86" t="s">
         <v>975</v>
       </c>
-      <c r="B234" s="164" t="s">
+      <c r="B234" s="162" t="s">
         <v>56</v>
       </c>
       <c r="C234" s="63" t="s">
@@ -18959,14 +18864,14 @@
       <c r="D234" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E234" s="145" t="s">
+      <c r="E234" s="143" t="s">
         <v>976</v>
       </c>
-      <c r="F234" s="145"/>
+      <c r="F234" s="143"/>
       <c r="G234" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H234" s="166" t="s">
+      <c r="H234" s="164" t="s">
         <v>977</v>
       </c>
       <c r="I234" s="7"/>
@@ -18977,7 +18882,7 @@
       <c r="A235" s="86" t="s">
         <v>978</v>
       </c>
-      <c r="B235" s="164" t="s">
+      <c r="B235" s="162" t="s">
         <v>70</v>
       </c>
       <c r="C235" s="63" t="s">
@@ -18986,14 +18891,14 @@
       <c r="D235" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E235" s="145" t="s">
+      <c r="E235" s="143" t="s">
         <v>979</v>
       </c>
-      <c r="F235" s="145"/>
+      <c r="F235" s="143"/>
       <c r="G235" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H235" s="166" t="s">
+      <c r="H235" s="164" t="s">
         <v>980</v>
       </c>
       <c r="I235" s="7"/>
@@ -19004,7 +18909,7 @@
       <c r="A236" s="86" t="s">
         <v>981</v>
       </c>
-      <c r="B236" s="164" t="s">
+      <c r="B236" s="162" t="s">
         <v>77</v>
       </c>
       <c r="C236" s="63" t="s">
@@ -19031,7 +18936,7 @@
       <c r="A237" s="86" t="s">
         <v>984</v>
       </c>
-      <c r="B237" s="164" t="s">
+      <c r="B237" s="162" t="s">
         <v>91</v>
       </c>
       <c r="C237" s="63" t="s">
@@ -19058,7 +18963,7 @@
       <c r="A238" s="86" t="s">
         <v>987</v>
       </c>
-      <c r="B238" s="164" t="s">
+      <c r="B238" s="162" t="s">
         <v>98</v>
       </c>
       <c r="C238" s="63" t="s">
@@ -19085,7 +18990,7 @@
       <c r="A239" s="86" t="s">
         <v>990</v>
       </c>
-      <c r="B239" s="164" t="s">
+      <c r="B239" s="162" t="s">
         <v>118</v>
       </c>
       <c r="C239" s="66" t="s">
@@ -19112,7 +19017,7 @@
       <c r="A240" s="86" t="s">
         <v>992</v>
       </c>
-      <c r="B240" s="164" t="s">
+      <c r="B240" s="162" t="s">
         <v>112</v>
       </c>
       <c r="C240" s="63" t="s">
@@ -19139,7 +19044,7 @@
       <c r="A241" s="86" t="s">
         <v>994</v>
       </c>
-      <c r="B241" s="164" t="s">
+      <c r="B241" s="162" t="s">
         <v>836</v>
       </c>
       <c r="C241" s="63" t="s">
@@ -19166,7 +19071,7 @@
       <c r="A242" s="86" t="s">
         <v>997</v>
       </c>
-      <c r="B242" s="164" t="s">
+      <c r="B242" s="162" t="s">
         <v>125</v>
       </c>
       <c r="C242" s="63" t="s">
@@ -19206,10 +19111,10 @@
         <v>1003</v>
       </c>
       <c r="F243" s="66"/>
-      <c r="G243" s="161" t="s">
+      <c r="G243" s="159" t="s">
         <v>1004</v>
       </c>
-      <c r="H243" s="162" t="s">
+      <c r="H243" s="160" t="s">
         <v>1005</v>
       </c>
       <c r="I243" s="7"/>
@@ -19243,7 +19148,7 @@
       <c r="A245" s="86" t="s">
         <v>1009</v>
       </c>
-      <c r="B245" s="164" t="s">
+      <c r="B245" s="162" t="s">
         <v>56</v>
       </c>
       <c r="C245" s="63" t="s">
@@ -19270,7 +19175,7 @@
       <c r="A246" s="86" t="s">
         <v>1012</v>
       </c>
-      <c r="B246" s="164" t="s">
+      <c r="B246" s="162" t="s">
         <v>70</v>
       </c>
       <c r="C246" s="63" t="s">
@@ -19297,7 +19202,7 @@
       <c r="A247" s="86" t="s">
         <v>1015</v>
       </c>
-      <c r="B247" s="164" t="s">
+      <c r="B247" s="162" t="s">
         <v>77</v>
       </c>
       <c r="C247" s="63" t="s">
@@ -19324,7 +19229,7 @@
       <c r="A248" s="86" t="s">
         <v>1018</v>
       </c>
-      <c r="B248" s="164" t="s">
+      <c r="B248" s="162" t="s">
         <v>91</v>
       </c>
       <c r="C248" s="63" t="s">
@@ -19351,7 +19256,7 @@
       <c r="A249" s="86" t="s">
         <v>1021</v>
       </c>
-      <c r="B249" s="164" t="s">
+      <c r="B249" s="162" t="s">
         <v>98</v>
       </c>
       <c r="C249" s="63" t="s">
@@ -19378,7 +19283,7 @@
       <c r="A250" s="86" t="s">
         <v>1024</v>
       </c>
-      <c r="B250" s="164" t="s">
+      <c r="B250" s="162" t="s">
         <v>118</v>
       </c>
       <c r="C250" s="66" t="s">
@@ -19405,7 +19310,7 @@
       <c r="A251" s="86" t="s">
         <v>1026</v>
       </c>
-      <c r="B251" s="164" t="s">
+      <c r="B251" s="162" t="s">
         <v>112</v>
       </c>
       <c r="C251" s="63" t="s">
@@ -19432,7 +19337,7 @@
       <c r="A252" s="86" t="s">
         <v>1028</v>
       </c>
-      <c r="B252" s="164" t="s">
+      <c r="B252" s="162" t="s">
         <v>836</v>
       </c>
       <c r="C252" s="63" t="s">
@@ -19459,7 +19364,7 @@
       <c r="A253" s="86" t="s">
         <v>1031</v>
       </c>
-      <c r="B253" s="164" t="s">
+      <c r="B253" s="162" t="s">
         <v>125</v>
       </c>
       <c r="C253" s="63" t="s">
@@ -19483,26 +19388,26 @@
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="142" t="s">
+      <c r="A254" s="140" t="s">
         <v>1033</v>
       </c>
       <c r="B254" s="62" t="s">
         <v>1034</v>
       </c>
-      <c r="C254" s="167" t="s">
+      <c r="C254" s="165" t="s">
         <v>1035</v>
       </c>
-      <c r="D254" s="167" t="s">
+      <c r="D254" s="165" t="s">
         <v>1036</v>
       </c>
-      <c r="E254" s="168" t="s">
+      <c r="E254" s="166" t="s">
         <v>1037</v>
       </c>
-      <c r="F254" s="168"/>
-      <c r="G254" s="169" t="s">
+      <c r="F254" s="166"/>
+      <c r="G254" s="167" t="s">
         <v>1038</v>
       </c>
-      <c r="H254" s="169" t="s">
+      <c r="H254" s="167" t="s">
         <v>1039</v>
       </c>
       <c r="I254" s="7"/>
@@ -19510,64 +19415,64 @@
       <c r="K254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="170" t="s">
+      <c r="A255" s="168" t="s">
         <v>1040</v>
       </c>
-      <c r="B255" s="171" t="s">
+      <c r="B255" s="169" t="s">
         <v>1041</v>
       </c>
-      <c r="C255" s="172"/>
-      <c r="D255" s="172"/>
-      <c r="E255" s="172"/>
-      <c r="F255" s="172"/>
-      <c r="G255" s="172"/>
-      <c r="H255" s="172"/>
+      <c r="C255" s="170"/>
+      <c r="D255" s="170"/>
+      <c r="E255" s="170"/>
+      <c r="F255" s="170"/>
+      <c r="G255" s="170"/>
+      <c r="H255" s="170"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="170" t="s">
+      <c r="A256" s="168" t="s">
         <v>1042</v>
       </c>
-      <c r="B256" s="171" t="s">
+      <c r="B256" s="169" t="s">
         <v>1043</v>
       </c>
-      <c r="C256" s="173" t="s">
+      <c r="C256" s="171" t="s">
         <v>739</v>
       </c>
-      <c r="D256" s="172"/>
-      <c r="E256" s="172" t="s">
+      <c r="D256" s="170"/>
+      <c r="E256" s="170" t="s">
         <v>1044</v>
       </c>
-      <c r="F256" s="172"/>
-      <c r="G256" s="172"/>
-      <c r="H256" s="172"/>
+      <c r="F256" s="170"/>
+      <c r="G256" s="170"/>
+      <c r="H256" s="170"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="170" t="s">
+      <c r="A257" s="168" t="s">
         <v>1045</v>
       </c>
-      <c r="B257" s="171" t="s">
+      <c r="B257" s="169" t="s">
         <v>1046</v>
       </c>
-      <c r="C257" s="172" t="s">
+      <c r="C257" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D257" s="172" t="s">
+      <c r="D257" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E257" s="172" t="s">
+      <c r="E257" s="170" t="s">
         <v>1049</v>
       </c>
-      <c r="F257" s="172"/>
-      <c r="G257" s="172" t="s">
+      <c r="F257" s="170"/>
+      <c r="G257" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H257" s="174" t="s">
+      <c r="H257" s="172" t="s">
         <v>1051</v>
       </c>
       <c r="I257" s="7"/>
@@ -19575,26 +19480,26 @@
       <c r="K257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="170" t="s">
+      <c r="A258" s="168" t="s">
         <v>1052</v>
       </c>
-      <c r="B258" s="171" t="s">
+      <c r="B258" s="169" t="s">
         <v>1053</v>
       </c>
-      <c r="C258" s="172" t="s">
+      <c r="C258" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D258" s="172" t="s">
+      <c r="D258" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E258" s="172" t="s">
+      <c r="E258" s="170" t="s">
         <v>1054</v>
       </c>
-      <c r="F258" s="172"/>
-      <c r="G258" s="172" t="s">
+      <c r="F258" s="170"/>
+      <c r="G258" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H258" s="174" t="s">
+      <c r="H258" s="172" t="s">
         <v>1055</v>
       </c>
       <c r="I258" s="7"/>
@@ -19602,43 +19507,43 @@
       <c r="K258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="170" t="s">
+      <c r="A259" s="168" t="s">
         <v>1056</v>
       </c>
-      <c r="B259" s="171" t="s">
+      <c r="B259" s="169" t="s">
         <v>1057</v>
       </c>
-      <c r="C259" s="172"/>
-      <c r="D259" s="172"/>
-      <c r="E259" s="172"/>
-      <c r="F259" s="172"/>
-      <c r="G259" s="172"/>
-      <c r="H259" s="172"/>
+      <c r="C259" s="170"/>
+      <c r="D259" s="170"/>
+      <c r="E259" s="170"/>
+      <c r="F259" s="170"/>
+      <c r="G259" s="170"/>
+      <c r="H259" s="170"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="170" t="s">
+      <c r="A260" s="168" t="s">
         <v>1058</v>
       </c>
-      <c r="B260" s="171" t="s">
+      <c r="B260" s="169" t="s">
         <v>1059</v>
       </c>
-      <c r="C260" s="172" t="s">
+      <c r="C260" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D260" s="172" t="s">
+      <c r="D260" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E260" s="172" t="s">
+      <c r="E260" s="170" t="s">
         <v>1060</v>
       </c>
-      <c r="F260" s="172"/>
-      <c r="G260" s="172" t="s">
+      <c r="F260" s="170"/>
+      <c r="G260" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H260" s="174" t="s">
+      <c r="H260" s="172" t="s">
         <v>1061</v>
       </c>
       <c r="I260" s="7"/>
@@ -19646,26 +19551,26 @@
       <c r="K260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="170" t="s">
+      <c r="A261" s="168" t="s">
         <v>1062</v>
       </c>
-      <c r="B261" s="171" t="s">
+      <c r="B261" s="169" t="s">
         <v>1063</v>
       </c>
-      <c r="C261" s="172" t="s">
+      <c r="C261" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D261" s="172" t="s">
+      <c r="D261" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E261" s="172" t="s">
+      <c r="E261" s="170" t="s">
         <v>1064</v>
       </c>
-      <c r="F261" s="172"/>
-      <c r="G261" s="172" t="s">
+      <c r="F261" s="170"/>
+      <c r="G261" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H261" s="174" t="s">
+      <c r="H261" s="172" t="s">
         <v>1065</v>
       </c>
       <c r="I261" s="7"/>
@@ -19673,26 +19578,26 @@
       <c r="K261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="170" t="s">
+      <c r="A262" s="168" t="s">
         <v>1066</v>
       </c>
-      <c r="B262" s="171" t="s">
+      <c r="B262" s="169" t="s">
         <v>1067</v>
       </c>
-      <c r="C262" s="172" t="s">
+      <c r="C262" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D262" s="172" t="s">
+      <c r="D262" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E262" s="172" t="s">
+      <c r="E262" s="170" t="s">
         <v>1068</v>
       </c>
-      <c r="F262" s="172"/>
-      <c r="G262" s="172" t="s">
+      <c r="F262" s="170"/>
+      <c r="G262" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H262" s="174" t="s">
+      <c r="H262" s="172" t="s">
         <v>1069</v>
       </c>
       <c r="I262" s="7"/>
@@ -19700,26 +19605,26 @@
       <c r="K262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="170" t="s">
+      <c r="A263" s="168" t="s">
         <v>1070</v>
       </c>
-      <c r="B263" s="171" t="s">
+      <c r="B263" s="169" t="s">
         <v>1071</v>
       </c>
-      <c r="C263" s="173" t="s">
+      <c r="C263" s="171" t="s">
         <v>1047</v>
       </c>
-      <c r="D263" s="172" t="s">
+      <c r="D263" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E263" s="172" t="s">
+      <c r="E263" s="170" t="s">
         <v>1072</v>
       </c>
-      <c r="F263" s="172"/>
-      <c r="G263" s="172" t="s">
+      <c r="F263" s="170"/>
+      <c r="G263" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H263" s="174" t="s">
+      <c r="H263" s="172" t="s">
         <v>1073</v>
       </c>
       <c r="I263" s="7"/>
@@ -19727,26 +19632,26 @@
       <c r="K263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="170" t="s">
+      <c r="A264" s="168" t="s">
         <v>1074</v>
       </c>
-      <c r="B264" s="171" t="s">
+      <c r="B264" s="169" t="s">
         <v>1075</v>
       </c>
-      <c r="C264" s="173" t="s">
+      <c r="C264" s="171" t="s">
         <v>1047</v>
       </c>
-      <c r="D264" s="172" t="s">
+      <c r="D264" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E264" s="172" t="s">
+      <c r="E264" s="170" t="s">
         <v>1076</v>
       </c>
-      <c r="F264" s="172"/>
-      <c r="G264" s="172" t="s">
+      <c r="F264" s="170"/>
+      <c r="G264" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H264" s="174" t="s">
+      <c r="H264" s="172" t="s">
         <v>1077</v>
       </c>
       <c r="I264" s="7"/>
@@ -19754,45 +19659,45 @@
       <c r="K264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="170" t="s">
+      <c r="A265" s="168" t="s">
         <v>1078</v>
       </c>
-      <c r="B265" s="171" t="s">
+      <c r="B265" s="169" t="s">
         <v>1079</v>
       </c>
-      <c r="C265" s="173" t="s">
+      <c r="C265" s="171" t="s">
         <v>739</v>
       </c>
-      <c r="D265" s="172"/>
-      <c r="E265" s="172"/>
-      <c r="F265" s="172"/>
-      <c r="G265" s="172"/>
-      <c r="H265" s="172"/>
+      <c r="D265" s="170"/>
+      <c r="E265" s="170"/>
+      <c r="F265" s="170"/>
+      <c r="G265" s="170"/>
+      <c r="H265" s="170"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="170" t="s">
+      <c r="A266" s="168" t="s">
         <v>1080</v>
       </c>
-      <c r="B266" s="171" t="s">
+      <c r="B266" s="169" t="s">
         <v>1081</v>
       </c>
-      <c r="C266" s="172" t="s">
+      <c r="C266" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D266" s="172" t="s">
+      <c r="D266" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E266" s="172" t="s">
+      <c r="E266" s="170" t="s">
         <v>1082</v>
       </c>
-      <c r="F266" s="172"/>
-      <c r="G266" s="172" t="s">
+      <c r="F266" s="170"/>
+      <c r="G266" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H266" s="174" t="s">
+      <c r="H266" s="172" t="s">
         <v>1083</v>
       </c>
       <c r="I266" s="7"/>
@@ -19800,26 +19705,26 @@
       <c r="K266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="170" t="s">
+      <c r="A267" s="168" t="s">
         <v>1084</v>
       </c>
-      <c r="B267" s="171" t="s">
+      <c r="B267" s="169" t="s">
         <v>1085</v>
       </c>
-      <c r="C267" s="172" t="s">
+      <c r="C267" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D267" s="172" t="s">
+      <c r="D267" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E267" s="172" t="s">
+      <c r="E267" s="170" t="s">
         <v>1086</v>
       </c>
-      <c r="F267" s="172"/>
-      <c r="G267" s="172" t="s">
+      <c r="F267" s="170"/>
+      <c r="G267" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H267" s="174" t="s">
+      <c r="H267" s="172" t="s">
         <v>1087</v>
       </c>
       <c r="I267" s="7"/>
@@ -19827,26 +19732,26 @@
       <c r="K267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="170" t="s">
+      <c r="A268" s="168" t="s">
         <v>1088</v>
       </c>
-      <c r="B268" s="171" t="s">
+      <c r="B268" s="169" t="s">
         <v>1089</v>
       </c>
-      <c r="C268" s="172" t="s">
+      <c r="C268" s="170" t="s">
         <v>1047</v>
       </c>
-      <c r="D268" s="172" t="s">
+      <c r="D268" s="170" t="s">
         <v>1048</v>
       </c>
-      <c r="E268" s="172" t="s">
+      <c r="E268" s="170" t="s">
         <v>1090</v>
       </c>
-      <c r="F268" s="172"/>
-      <c r="G268" s="172" t="s">
+      <c r="F268" s="170"/>
+      <c r="G268" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H268" s="174" t="s">
+      <c r="H268" s="172" t="s">
         <v>1091</v>
       </c>
       <c r="I268" s="7"/>
@@ -19854,41 +19759,41 @@
       <c r="K268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="170" t="s">
+      <c r="A269" s="168" t="s">
         <v>1092</v>
       </c>
-      <c r="B269" s="171" t="s">
+      <c r="B269" s="169" t="s">
         <v>1093</v>
       </c>
-      <c r="C269" s="172"/>
-      <c r="D269" s="172"/>
-      <c r="E269" s="172"/>
-      <c r="F269" s="172"/>
-      <c r="G269" s="172"/>
-      <c r="H269" s="172"/>
+      <c r="C269" s="170"/>
+      <c r="D269" s="170"/>
+      <c r="E269" s="170"/>
+      <c r="F269" s="170"/>
+      <c r="G269" s="170"/>
+      <c r="H269" s="170"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="170" t="s">
+      <c r="A270" s="168" t="s">
         <v>1094</v>
       </c>
-      <c r="B270" s="171" t="s">
+      <c r="B270" s="169" t="s">
         <v>1095</v>
       </c>
-      <c r="C270" s="175" t="s">
+      <c r="C270" s="173" t="s">
         <v>607</v>
       </c>
-      <c r="D270" s="172"/>
-      <c r="E270" s="172" t="s">
+      <c r="D270" s="170"/>
+      <c r="E270" s="170" t="s">
         <v>1096</v>
       </c>
-      <c r="F270" s="172"/>
-      <c r="G270" s="172" t="s">
+      <c r="F270" s="170"/>
+      <c r="G270" s="170" t="s">
         <v>1050</v>
       </c>
-      <c r="H270" s="174" t="s">
+      <c r="H270" s="172" t="s">
         <v>1097</v>
       </c>
       <c r="I270" s="7"/>
@@ -19896,43 +19801,43 @@
       <c r="K270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="170" t="s">
+      <c r="A271" s="168" t="s">
         <v>1098</v>
       </c>
-      <c r="B271" s="171" t="s">
+      <c r="B271" s="169" t="s">
         <v>1099</v>
       </c>
-      <c r="C271" s="172"/>
-      <c r="D271" s="172"/>
-      <c r="E271" s="172"/>
-      <c r="F271" s="172"/>
-      <c r="G271" s="172"/>
-      <c r="H271" s="172"/>
+      <c r="C271" s="170"/>
+      <c r="D271" s="170"/>
+      <c r="E271" s="170"/>
+      <c r="F271" s="170"/>
+      <c r="G271" s="170"/>
+      <c r="H271" s="170"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="170" t="s">
+      <c r="A272" s="168" t="s">
         <v>1100</v>
       </c>
-      <c r="B272" s="171" t="s">
+      <c r="B272" s="169" t="s">
         <v>1101</v>
       </c>
-      <c r="C272" s="173" t="s">
+      <c r="C272" s="171" t="s">
         <v>1102</v>
       </c>
-      <c r="D272" s="172" t="s">
+      <c r="D272" s="170" t="s">
         <v>1103</v>
       </c>
-      <c r="E272" s="176" t="s">
+      <c r="E272" s="174" t="s">
         <v>1104</v>
       </c>
-      <c r="F272" s="172"/>
-      <c r="G272" s="172" t="s">
+      <c r="F272" s="170"/>
+      <c r="G272" s="170" t="s">
         <v>1105</v>
       </c>
-      <c r="H272" s="177" t="s">
+      <c r="H272" s="175" t="s">
         <v>1106</v>
       </c>
       <c r="I272" s="7"/>
@@ -19940,7 +19845,7 @@
       <c r="K272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="178"/>
+      <c r="A273" s="176"/>
       <c r="B273" s="29"/>
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
@@ -19951,7 +19856,7 @@
       <c r="J273" s="29"/>
     </row>
     <row r="274">
-      <c r="A274" s="178"/>
+      <c r="A274" s="176"/>
       <c r="B274" s="29"/>
       <c r="D274" s="29"/>
       <c r="E274" s="29"/>
@@ -19962,7 +19867,7 @@
       <c r="J274" s="29"/>
     </row>
     <row r="275">
-      <c r="A275" s="178"/>
+      <c r="A275" s="176"/>
       <c r="B275" s="29"/>
       <c r="D275" s="29"/>
       <c r="E275" s="29"/>
@@ -19973,7 +19878,7 @@
       <c r="J275" s="29"/>
     </row>
     <row r="276">
-      <c r="A276" s="178"/>
+      <c r="A276" s="176"/>
       <c r="B276" s="29"/>
       <c r="D276" s="29"/>
       <c r="E276" s="29"/>
@@ -19984,7 +19889,7 @@
       <c r="J276" s="29"/>
     </row>
     <row r="277">
-      <c r="A277" s="178"/>
+      <c r="A277" s="176"/>
       <c r="B277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="29"/>
@@ -19995,7 +19900,7 @@
       <c r="J277" s="29"/>
     </row>
     <row r="278">
-      <c r="A278" s="178"/>
+      <c r="A278" s="176"/>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29"/>
@@ -20006,7 +19911,7 @@
       <c r="J278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="178"/>
+      <c r="A279" s="176"/>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29"/>
@@ -20107,27 +20012,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="178" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="153" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -20145,7 +20050,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="153" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="84" t="s">
@@ -20163,7 +20068,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="153" t="s">
         <v>1112</v>
       </c>
       <c r="B4" s="84" t="s">
@@ -20209,7 +20114,7 @@
       <c r="B6" s="84" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="179" t="s">
         <v>800</v>
       </c>
       <c r="D6" s="7"/>
@@ -20260,7 +20165,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="180" t="s">
         <v>1123</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -20268,7 +20173,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="181" t="s">
         <v>1125</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -20276,12 +20181,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="182" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="183" t="s">
         <v>1128</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -20300,53 +20205,53 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="183" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="183" t="s">
         <v>1132</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="184" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="185" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="188"/>
-      <c r="B13" s="189" t="s">
+      <c r="A13" s="186"/>
+      <c r="B13" s="187" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="188" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="189" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="190" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="185"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="183" t="s">
         <v>1139</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="191" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -20357,10 +20262,10 @@
       <c r="B19" s="70"/>
     </row>
     <row r="21">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="183" t="s">
         <v>1142</v>
       </c>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="192" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -20386,57 +20291,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="183" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="193" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="194" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="193" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="194" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="194" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="193" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="194" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="194" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="194" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -20465,12 +20370,12 @@
       <c r="A1" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="195" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="194" t="s">
         <v>1156</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -20478,42 +20383,42 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="194" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="194" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="194" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="194" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="194" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="194" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="194" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -20533,7 +20438,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="186"/>
+      <c r="A1" s="184"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20557,10 +20462,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1166</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="197" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -20644,7 +20549,7 @@
       <c r="C7" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="198" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -20702,10 +20607,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1166</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="197" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -20719,7 +20624,7 @@
       <c r="C2" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="195" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -20750,7 +20655,7 @@
       <c r="B5" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="198" t="s">
         <v>1193</v>
       </c>
       <c r="D5" s="7" t="s">

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1213">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <r>
@@ -3542,12 +3542,6 @@
     </r>
   </si>
   <si>
-    <t>II.2.5</t>
-  </si>
-  <si>
-    <t>Award criteria</t>
-  </si>
-  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -4260,6 +4254,9 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>IV.1</t>
+  </si>
+  <si>
     <t>IV.1.1</t>
   </si>
   <si>
@@ -4514,6 +4511,51 @@
     <t>?this epo:hasMainFeature ?value</t>
   </si>
   <si>
+    <t>IV.2</t>
+  </si>
+  <si>
+    <t>Administrative information</t>
+  </si>
+  <si>
+    <t>IV.2.1</t>
+  </si>
+  <si>
+    <t>Previous publication concerning this procedure</t>
+  </si>
+  <si>
+    <t>BT-125</t>
+  </si>
+  <si>
+    <t>Previous Planning Identifier</t>
+  </si>
+  <si>
+    <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
+  </si>
+  <si>
+    <t>epo:ResultNotice / epo:Notice /  epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <t>?this epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
+    <t>IV.2.1.0.1</t>
+  </si>
+  <si>
+    <t>epo:ProcurementProcessInformation / epo:Procedure</t>
+  </si>
+  <si>
+    <t>?this epo:concernsProcedure ?value</t>
+  </si>
+  <si>
+    <t>IV.2.1.0.2</t>
+  </si>
+  <si>
+    <t>epo:ProcurementProcessInformation / epo:Notice</t>
+  </si>
+  <si>
+    <t>?this epo:concernsPreviousNotice ?value</t>
+  </si>
+  <si>
     <t>IV.2.2</t>
   </si>
   <si>
@@ -4580,7 +4622,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4588,14 +4629,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
     </r>
@@ -4603,14 +4642,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4634,7 +4671,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4642,14 +4678,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasLanguage ?</t>
     </r>
@@ -4657,14 +4691,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4731,6 +4763,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">?this </t>
     </r>
@@ -4738,6 +4771,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b val="0"/>
+        <color theme="1"/>
       </rPr>
       <t>epo:includesLot</t>
     </r>
@@ -4745,6 +4779,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> ?value .</t>
     </r>
@@ -4847,28 +4882,24 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .
 </t>
@@ -5021,7 +5052,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5029,14 +5059,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasContractConclusionDate ?</t>
     </r>
@@ -5044,14 +5072,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5146,6 +5172,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5153,12 +5180,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
     </r>
@@ -5166,6 +5195,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -5341,7 +5371,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5349,14 +5378,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
@@ -5364,14 +5391,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5482,7 +5507,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5490,14 +5514,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -5505,14 +5527,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5594,6 +5614,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -5601,12 +5622,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6215,6 +6238,12 @@
     </r>
   </si>
   <si>
+    <t>Section VI</t>
+  </si>
+  <si>
+    <t>Complementary information</t>
+  </si>
+  <si>
     <t>VI.2</t>
   </si>
   <si>
@@ -6695,6 +6724,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6702,12 +6732,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -6715,12 +6747,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6735,6 +6769,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6742,12 +6777,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
@@ -6755,12 +6792,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -7225,7 +7264,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -7233,14 +7271,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -8073,7 +8109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8145,22 +8181,17 @@
       <name val="Sans-serif"/>
     </font>
     <font>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -8174,17 +8205,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -8217,17 +8237,12 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -8465,7 +8480,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="189">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8725,26 +8740,11 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -8779,26 +8779,20 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -8809,14 +8803,11 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -8827,25 +8818,34 @@
     <xf borderId="6" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8854,83 +8854,62 @@
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -8947,16 +8926,19 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8974,13 +8956,13 @@
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8996,16 +8978,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9032,7 +9014,7 @@
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9044,14 +9026,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15097,12 +15082,12 @@
       <c r="B82" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="81"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -15121,15 +15106,15 @@
       <c r="B83" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E83" s="89" t="s">
         <v>367</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>368</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -15153,15 +15138,15 @@
       <c r="B84" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="C84" s="64"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="E84" s="89" t="s">
+      <c r="E84" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64" t="s">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
         <v>374</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -15185,15 +15170,15 @@
       <c r="B85" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="90" t="s">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E85" s="92" t="s">
+      <c r="E85" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F85" s="68"/>
-      <c r="G85" s="64" t="s">
+      <c r="F85" s="7"/>
+      <c r="G85" s="4" t="s">
         <v>368</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -15214,18 +15199,18 @@
       <c r="A86" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F86" s="81"/>
-      <c r="G86" s="64" t="s">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
         <v>374</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -15246,18 +15231,18 @@
       <c r="A87" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="B87" s="93" t="s">
+      <c r="B87" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95" t="s">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="64" t="s">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
         <v>388</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -15472,7 +15457,7 @@
       <c r="G94" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="H94" s="96" t="s">
+      <c r="H94" s="91" t="s">
         <v>419</v>
       </c>
       <c r="I94" s="7"/>
@@ -15517,10 +15502,10 @@
       <c r="R95" s="29"/>
     </row>
     <row r="96">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="B96" s="98" t="s">
+      <c r="B96" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="4"/>
@@ -15710,7 +15695,7 @@
       <c r="G103" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="H103" s="96" t="s">
+      <c r="H103" s="91" t="s">
         <v>453</v>
       </c>
       <c r="I103" s="7"/>
@@ -15764,7 +15749,7 @@
       <c r="G105" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="H105" s="99" t="s">
+      <c r="H105" s="94" t="s">
         <v>464</v>
       </c>
       <c r="I105" s="7"/>
@@ -15778,144 +15763,150 @@
       <c r="B106" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
+      <c r="D107" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="H107" s="42" t="s">
+        <v>471</v>
+      </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="56" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>349</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="100" t="s">
-        <v>472</v>
-      </c>
-      <c r="H108" s="42" t="s">
-        <v>473</v>
+      <c r="G108" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="H108" s="95" t="s">
+        <v>475</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B109" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="100" t="s">
+      <c r="A109" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="H109" s="100" t="s">
+      <c r="B109" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="68"/>
     </row>
     <row r="110">
-      <c r="A110" s="48" t="s">
+      <c r="A110" s="86" t="s">
         <v>478</v>
       </c>
-      <c r="B110" s="101" t="s">
+      <c r="B110" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="C110" s="102"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="68"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
+      <c r="C110" s="98" t="s">
+        <v>480</v>
+      </c>
+      <c r="D110" s="85" t="s">
+        <v>481</v>
+      </c>
+      <c r="E110" s="85" t="s">
+        <v>482</v>
+      </c>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="H110" s="85" t="s">
+        <v>484</v>
+      </c>
+      <c r="I110" s="87"/>
+      <c r="J110" s="87"/>
+      <c r="K110" s="87"/>
     </row>
     <row r="111">
-      <c r="A111" s="86" t="s">
-        <v>480</v>
-      </c>
-      <c r="B111" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="C111" s="103" t="s">
-        <v>482</v>
-      </c>
-      <c r="D111" s="85" t="s">
-        <v>483</v>
-      </c>
+      <c r="A111" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="B111" s="100"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="85"/>
       <c r="E111" s="85" t="s">
-        <v>484</v>
-      </c>
-      <c r="F111" s="85"/>
+        <v>486</v>
+      </c>
+      <c r="F111" s="85" t="s">
+        <v>487</v>
+      </c>
       <c r="G111" s="85" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H111" s="85" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I111" s="87"/>
       <c r="J111" s="87"/>
       <c r="K111" s="87"/>
     </row>
     <row r="112">
-      <c r="A112" s="104" t="s">
-        <v>487</v>
-      </c>
-      <c r="B112" s="105"/>
-      <c r="C112" s="103"/>
+      <c r="A112" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="B112" s="100"/>
+      <c r="C112" s="98"/>
       <c r="D112" s="85"/>
       <c r="E112" s="85" t="s">
+        <v>486</v>
+      </c>
+      <c r="F112" s="85" t="s">
+        <v>490</v>
+      </c>
+      <c r="G112" s="85" t="s">
         <v>488</v>
-      </c>
-      <c r="F112" s="85" t="s">
-        <v>489</v>
-      </c>
-      <c r="G112" s="85" t="s">
-        <v>490</v>
       </c>
       <c r="H112" s="85" t="s">
         <v>491</v>
@@ -15925,23 +15916,27 @@
       <c r="K112" s="87"/>
     </row>
     <row r="113">
-      <c r="A113" s="104" t="s">
-        <v>487</v>
-      </c>
-      <c r="B113" s="105"/>
-      <c r="C113" s="106"/>
-      <c r="D113" s="87"/>
+      <c r="A113" s="86" t="s">
+        <v>492</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="C113" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="D113" s="87" t="s">
+        <v>495</v>
+      </c>
       <c r="E113" s="85" t="s">
-        <v>488</v>
-      </c>
-      <c r="F113" s="87" t="s">
-        <v>492</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="F113" s="87"/>
       <c r="G113" s="85" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H113" s="85" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="I113" s="87"/>
       <c r="J113" s="87"/>
@@ -15949,95 +15944,93 @@
     </row>
     <row r="114">
       <c r="A114" s="86" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="C114" s="103" t="s">
-        <v>496</v>
+        <v>500</v>
+      </c>
+      <c r="C114" s="98" t="s">
+        <v>501</v>
       </c>
       <c r="D114" s="85" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I114" s="87"/>
       <c r="J114" s="87"/>
       <c r="K114" s="87"/>
     </row>
     <row r="115">
-      <c r="A115" s="86" t="s">
+      <c r="A115" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" s="64"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="B116" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="C116" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="B115" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C115" s="103" t="s">
-        <v>503</v>
-      </c>
-      <c r="D115" s="85" t="s">
-        <v>504</v>
-      </c>
-      <c r="E115" s="85" t="s">
-        <v>505</v>
-      </c>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85" t="s">
-        <v>499</v>
-      </c>
-      <c r="H115" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="I115" s="87"/>
-      <c r="J115" s="87"/>
-      <c r="K115" s="87"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="C116" s="64"/>
       <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
+      <c r="E116" s="81" t="s">
+        <v>509</v>
+      </c>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="G116" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="H116" s="95" t="s">
+        <v>511</v>
+      </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="56" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C117" s="68" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="D117" s="70"/>
       <c r="E117" s="70" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="H117" s="69" t="s">
-        <v>513</v>
+      <c r="G117" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -16045,24 +16038,24 @@
     </row>
     <row r="118">
       <c r="A118" s="56" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D118" s="81"/>
       <c r="E118" s="81" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F118" s="4"/>
-      <c r="G118" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="H118" s="100" t="s">
-        <v>517</v>
+      <c r="G118" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -16070,111 +16063,113 @@
     </row>
     <row r="119">
       <c r="A119" s="56" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C119" s="68" t="s">
-        <v>496</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C119" s="68"/>
       <c r="D119" s="70"/>
       <c r="E119" s="70" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="107" t="s">
-        <v>516</v>
-      </c>
-      <c r="H119" s="100" t="s">
-        <v>520</v>
-      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
+      <c r="K119" s="7" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="B120" s="57" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="B120" s="102" t="s">
+        <v>524</v>
       </c>
       <c r="C120" s="64"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
+      <c r="G120" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="H120" s="94" t="s">
+        <v>527</v>
+      </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-      <c r="K120" s="7" t="s">
-        <v>524</v>
-      </c>
+      <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="56" t="s">
-        <v>525</v>
-      </c>
-      <c r="B121" s="108" t="s">
-        <v>526</v>
-      </c>
-      <c r="C121" s="68"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="81" t="s">
-        <v>527</v>
-      </c>
+      <c r="A121" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="H121" s="109" t="s">
-        <v>529</v>
-      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="50" t="s">
+      <c r="A122" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="B122" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="C122" s="63" t="s">
+        <v>532</v>
+      </c>
+      <c r="D122" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="E122" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="F122" s="41"/>
+      <c r="G122" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="H122" s="52" t="s">
+        <v>536</v>
+      </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="103" t="s">
+        <v>530</v>
+      </c>
+      <c r="B123" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="C123" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="B123" s="57" t="s">
+      <c r="D123" s="106" t="s">
         <v>533</v>
       </c>
-      <c r="C123" s="63" t="s">
-        <v>534</v>
-      </c>
-      <c r="D123" s="66" t="s">
-        <v>535</v>
-      </c>
       <c r="E123" s="51" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F123" s="41"/>
       <c r="G123" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="H123" s="110" t="s">
+        <v>535</v>
+      </c>
+      <c r="H123" s="107" t="s">
         <v>538</v>
       </c>
       <c r="I123" s="7"/>
@@ -16182,96 +16177,86 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B124" s="112" t="s">
-        <v>533</v>
-      </c>
-      <c r="C124" s="113" t="s">
-        <v>534</v>
-      </c>
-      <c r="D124" s="114" t="s">
-        <v>535</v>
+      <c r="A124" s="86" t="s">
+        <v>539</v>
+      </c>
+      <c r="B124" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="C124" s="63" t="s">
+        <v>541</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>542</v>
       </c>
       <c r="E124" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="F124" s="41"/>
+        <v>543</v>
+      </c>
+      <c r="F124" s="51"/>
       <c r="G124" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="H124" s="52" t="s">
-        <v>540</v>
+        <v>544</v>
+      </c>
+      <c r="H124" s="108" t="s">
+        <v>545</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="86" t="s">
-        <v>541</v>
-      </c>
-      <c r="B125" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="C125" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="D125" s="66" t="s">
-        <v>544</v>
-      </c>
-      <c r="E125" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51" t="s">
+      <c r="A125" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="H125" s="115" t="s">
+      <c r="B125" s="49" t="s">
         <v>547</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E125" s="109" t="s">
+        <v>550</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H125" s="110" t="s">
+        <v>551</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="B126" s="49" t="s">
-        <v>549</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E126" s="116" t="s">
+      <c r="A126" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H126" s="117" t="s">
+      <c r="B126" s="83" t="s">
         <v>553</v>
       </c>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="40" t="s">
         <v>555</v>
       </c>
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
-      <c r="E127" s="63"/>
+      <c r="E127" s="66"/>
       <c r="F127" s="37"/>
       <c r="G127" s="51"/>
       <c r="H127" s="51"/>
@@ -16280,10 +16265,10 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="49" t="s">
         <v>557</v>
       </c>
       <c r="C128" s="63"/>
@@ -16297,86 +16282,96 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="56" t="s">
         <v>558</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="63"/>
+      <c r="C129" s="111" t="s">
+        <v>560</v>
+      </c>
       <c r="D129" s="63"/>
-      <c r="E129" s="51"/>
+      <c r="E129" s="51" t="s">
+        <v>561</v>
+      </c>
       <c r="F129" s="37"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
+      <c r="G129" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="B130" s="57" t="s">
-        <v>561</v>
-      </c>
-      <c r="C130" s="118" t="s">
-        <v>562</v>
-      </c>
+      <c r="A130" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" s="63"/>
       <c r="D130" s="63"/>
-      <c r="E130" s="51" t="s">
-        <v>563</v>
-      </c>
+      <c r="E130" s="112"/>
       <c r="F130" s="37"/>
-      <c r="G130" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="H130" s="119" t="s">
-        <v>565</v>
-      </c>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="B131" s="49" t="s">
+      <c r="B131" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="120"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
+      <c r="C131" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="D131" s="113"/>
+      <c r="E131" s="114" t="s">
+        <v>569</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="G131" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="H131" s="115" t="s">
+        <v>572</v>
+      </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="56" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C132" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="D132" s="63"/>
+      <c r="E132" s="116" t="s">
+        <v>576</v>
+      </c>
+      <c r="F132" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="D132" s="121"/>
-      <c r="E132" s="122" t="s">
-        <v>571</v>
-      </c>
-      <c r="F132" s="63" t="s">
-        <v>572</v>
-      </c>
       <c r="G132" s="66" t="s">
-        <v>573</v>
-      </c>
-      <c r="H132" s="123" t="s">
-        <v>574</v>
+        <v>577</v>
+      </c>
+      <c r="H132" s="117" t="s">
+        <v>578</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -16384,128 +16379,118 @@
     </row>
     <row r="133">
       <c r="A133" s="56" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C133" s="63" t="s">
-        <v>577</v>
-      </c>
-      <c r="D133" s="63"/>
-      <c r="E133" s="120" t="s">
-        <v>578</v>
+        <v>568</v>
+      </c>
+      <c r="D133" s="113"/>
+      <c r="E133" s="114" t="s">
+        <v>581</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>579</v>
-      </c>
-      <c r="H133" s="124" t="s">
-        <v>580</v>
+        <v>571</v>
+      </c>
+      <c r="H133" s="118" t="s">
+        <v>582</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="56" t="s">
-        <v>581</v>
-      </c>
-      <c r="B134" s="57" t="s">
-        <v>582</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="D134" s="121"/>
-      <c r="E134" s="125" t="s">
+      <c r="A134" s="48" t="s">
         <v>583</v>
       </c>
-      <c r="F134" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G134" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="H134" s="126" t="s">
+      <c r="B134" s="49" t="s">
         <v>584</v>
       </c>
+      <c r="C134" s="81"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="51"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="B135" s="49" t="s">
+      <c r="A135" s="56" t="s">
         <v>586</v>
+      </c>
+      <c r="B135" s="57" t="s">
+        <v>587</v>
       </c>
       <c r="C135" s="70"/>
       <c r="D135" s="68"/>
       <c r="E135" s="64" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="51"/>
+      <c r="G135" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B136" s="57" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C136" s="70"/>
       <c r="D136" s="68"/>
       <c r="E136" s="64" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="H136" s="100" t="s">
-        <v>591</v>
+      <c r="G136" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="56" t="s">
-        <v>592</v>
-      </c>
-      <c r="B137" s="57" t="s">
+      <c r="A137" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="C137" s="70"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="64" t="s">
+      <c r="B137" s="40" t="s">
         <v>594</v>
       </c>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="51"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="H137" s="100" t="s">
-        <v>565</v>
-      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="51"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="B138" s="40" t="s">
+      <c r="B138" s="49" t="s">
         <v>596</v>
       </c>
       <c r="C138" s="63"/>
@@ -16519,69 +16504,77 @@
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="56" t="s">
         <v>597</v>
       </c>
-      <c r="B139" s="49" t="s">
+      <c r="B139" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="51"/>
+      <c r="C139" s="68" t="s">
+        <v>599</v>
+      </c>
+      <c r="D139" s="68"/>
+      <c r="E139" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="F139" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H139" s="41" t="s">
+        <v>602</v>
+      </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="56" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>600</v>
-      </c>
-      <c r="C140" s="68" t="s">
-        <v>601</v>
+        <v>604</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>605</v>
       </c>
       <c r="D140" s="68"/>
       <c r="E140" s="64" t="s">
-        <v>602</v>
-      </c>
-      <c r="F140" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="G140" s="100" t="s">
-        <v>603</v>
-      </c>
-      <c r="H140" s="127" t="s">
-        <v>604</v>
+        <v>606</v>
+      </c>
+      <c r="F140" s="64"/>
+      <c r="G140" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H140" s="119" t="s">
+        <v>563</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="56" t="s">
-        <v>605</v>
-      </c>
-      <c r="B141" s="57" t="s">
-        <v>606</v>
+      <c r="A141" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="B141" s="49" t="s">
+        <v>608</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D141" s="68"/>
       <c r="E141" s="64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F141" s="64"/>
-      <c r="G141" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="H141" s="100" t="s">
-        <v>565</v>
+      <c r="G141" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>612</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -16589,67 +16582,69 @@
     </row>
     <row r="142">
       <c r="A142" s="48" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B142" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="C142" s="70" t="s">
-        <v>611</v>
-      </c>
-      <c r="D142" s="68"/>
-      <c r="E142" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="F142" s="64"/>
-      <c r="G142" s="100" t="s">
-        <v>613</v>
-      </c>
-      <c r="H142" s="127" t="s">
         <v>614</v>
       </c>
+      <c r="C142" s="63"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="112"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="48" t="s">
+      <c r="A143" s="56" t="s">
         <v>615</v>
       </c>
-      <c r="B143" s="49" t="s">
+      <c r="B143" s="57" t="s">
         <v>616</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="120"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
+      <c r="C143" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="D143" s="120"/>
+      <c r="E143" s="121" t="s">
+        <v>618</v>
+      </c>
+      <c r="F143" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H143" s="41" t="s">
+        <v>620</v>
+      </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="B144" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="C144" s="68" t="s">
         <v>617</v>
       </c>
-      <c r="B144" s="57" t="s">
+      <c r="D144" s="120"/>
+      <c r="E144" s="121" t="s">
         <v>618</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="F144" s="68" t="s">
+        <v>621</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="D144" s="128"/>
-      <c r="E144" s="92" t="s">
-        <v>620</v>
-      </c>
-      <c r="F144" s="68" t="s">
-        <v>572</v>
-      </c>
-      <c r="G144" s="100" t="s">
-        <v>621</v>
-      </c>
-      <c r="H144" s="127" t="s">
+      <c r="H144" s="122" t="s">
         <v>622</v>
       </c>
       <c r="I144" s="7"/>
@@ -16657,57 +16652,47 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="B145" s="57" t="s">
-        <v>618</v>
-      </c>
-      <c r="C145" s="68" t="s">
-        <v>619</v>
-      </c>
-      <c r="D145" s="128"/>
-      <c r="E145" s="92" t="s">
-        <v>620</v>
-      </c>
-      <c r="F145" s="64" t="s">
+      <c r="A145" s="123" t="s">
         <v>623</v>
       </c>
-      <c r="G145" s="100" t="s">
-        <v>621</v>
-      </c>
-      <c r="H145" s="127" t="s">
+      <c r="B145" s="83" t="s">
         <v>624</v>
       </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="41" t="s">
+        <v>625</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="129" t="s">
-        <v>625</v>
-      </c>
-      <c r="B146" s="83" t="s">
+      <c r="A146" s="124" t="s">
         <v>626</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="41" t="s">
-        <v>627</v>
-      </c>
+      <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="B147" s="49" t="s">
         <v>628</v>
-      </c>
-      <c r="B147" s="49" t="s">
-        <v>629</v>
       </c>
       <c r="C147" s="87"/>
       <c r="D147" s="87"/>
@@ -16721,26 +16706,26 @@
     </row>
     <row r="148">
       <c r="A148" s="86" t="s">
+        <v>629</v>
+      </c>
+      <c r="B148" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="C148" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="C148" s="63" t="s">
+      <c r="D148" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="D148" s="63" t="s">
+      <c r="E148" s="51" t="s">
         <v>633</v>
-      </c>
-      <c r="E148" s="51" t="s">
-        <v>634</v>
       </c>
       <c r="F148" s="51"/>
       <c r="G148" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="H148" s="125" t="s">
         <v>635</v>
-      </c>
-      <c r="H148" s="130" t="s">
-        <v>636</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -16748,26 +16733,26 @@
     </row>
     <row r="149">
       <c r="A149" s="86" t="s">
+        <v>636</v>
+      </c>
+      <c r="B149" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="B149" s="57" t="s">
+      <c r="C149" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="D149" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="E149" s="51" t="s">
         <v>638</v>
-      </c>
-      <c r="C149" s="63" t="s">
-        <v>632</v>
-      </c>
-      <c r="D149" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="E149" s="51" t="s">
-        <v>639</v>
       </c>
       <c r="F149" s="51"/>
       <c r="G149" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="H149" s="130" t="s">
-        <v>640</v>
+        <v>634</v>
+      </c>
+      <c r="H149" s="125" t="s">
+        <v>639</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -16775,26 +16760,26 @@
     </row>
     <row r="150">
       <c r="A150" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="B150" s="57" t="s">
         <v>641</v>
       </c>
-      <c r="B150" s="57" t="s">
+      <c r="C150" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="D150" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C150" s="63" t="s">
-        <v>632</v>
-      </c>
-      <c r="D150" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="E150" s="42" t="s">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="H150" s="41" t="s">
         <v>643</v>
-      </c>
-      <c r="F150" s="42"/>
-      <c r="G150" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="H150" s="42" t="s">
-        <v>644</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -16802,26 +16787,26 @@
     </row>
     <row r="151">
       <c r="A151" s="86" t="s">
+        <v>644</v>
+      </c>
+      <c r="B151" s="57" t="s">
         <v>645</v>
       </c>
-      <c r="B151" s="57" t="s">
+      <c r="C151" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="D151" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="E151" s="51" t="s">
         <v>646</v>
-      </c>
-      <c r="C151" s="63" t="s">
-        <v>632</v>
-      </c>
-      <c r="D151" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="E151" s="51" t="s">
-        <v>647</v>
       </c>
       <c r="F151" s="51"/>
       <c r="G151" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="H151" s="130" t="s">
-        <v>648</v>
+        <v>634</v>
+      </c>
+      <c r="H151" s="125" t="s">
+        <v>647</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -16829,10 +16814,10 @@
     </row>
     <row r="152">
       <c r="A152" s="48" t="s">
+        <v>648</v>
+      </c>
+      <c r="B152" s="49" t="s">
         <v>649</v>
-      </c>
-      <c r="B152" s="49" t="s">
-        <v>650</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="63"/>
@@ -16846,26 +16831,26 @@
     </row>
     <row r="153">
       <c r="A153" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="B153" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="B153" s="57" t="s">
+      <c r="C153" s="63" t="s">
         <v>652</v>
       </c>
-      <c r="C153" s="63" t="s">
+      <c r="D153" s="63" t="s">
         <v>653</v>
       </c>
-      <c r="D153" s="63" t="s">
+      <c r="E153" s="51" t="s">
         <v>654</v>
-      </c>
-      <c r="E153" s="51" t="s">
-        <v>655</v>
       </c>
       <c r="F153" s="51"/>
       <c r="G153" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="H153" s="51" t="s">
         <v>656</v>
-      </c>
-      <c r="H153" s="51" t="s">
-        <v>657</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -16873,24 +16858,24 @@
     </row>
     <row r="154">
       <c r="A154" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="B154" s="57" t="s">
         <v>658</v>
       </c>
-      <c r="B154" s="57" t="s">
+      <c r="C154" s="68" t="s">
         <v>659</v>
-      </c>
-      <c r="C154" s="68" t="s">
-        <v>660</v>
       </c>
       <c r="D154" s="68"/>
       <c r="E154" s="64" t="s">
+        <v>660</v>
+      </c>
+      <c r="F154" s="51"/>
+      <c r="G154" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F154" s="51"/>
-      <c r="G154" s="100" t="s">
+      <c r="H154" s="41" t="s">
         <v>662</v>
-      </c>
-      <c r="H154" s="42" t="s">
-        <v>663</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -16898,10 +16883,10 @@
     </row>
     <row r="155">
       <c r="A155" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="B155" s="49" t="s">
         <v>664</v>
-      </c>
-      <c r="B155" s="49" t="s">
-        <v>665</v>
       </c>
       <c r="C155" s="68"/>
       <c r="D155" s="68"/>
@@ -16915,24 +16900,24 @@
     </row>
     <row r="156">
       <c r="A156" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="B156" s="57" t="s">
         <v>666</v>
       </c>
-      <c r="B156" s="57" t="s">
-        <v>667</v>
-      </c>
-      <c r="C156" s="131" t="s">
+      <c r="C156" s="126" t="s">
         <v>226</v>
       </c>
       <c r="D156" s="68"/>
       <c r="E156" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="100" t="s">
+      <c r="H156" s="94" t="s">
         <v>669</v>
-      </c>
-      <c r="H156" s="109" t="s">
-        <v>670</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -16940,506 +16925,500 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
+        <v>670</v>
+      </c>
+      <c r="B157" s="49" t="s">
         <v>671</v>
       </c>
-      <c r="B157" s="49" t="s">
+      <c r="C157" s="68" t="s">
         <v>672</v>
-      </c>
-      <c r="C157" s="68" t="s">
-        <v>673</v>
       </c>
       <c r="D157" s="68"/>
       <c r="E157" s="68" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="4" t="s">
         <v>309</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="48" t="s">
+      <c r="A158" s="124" t="s">
+        <v>675</v>
+      </c>
+      <c r="B158" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="B158" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="C158" s="70" t="s">
-        <v>607</v>
-      </c>
-      <c r="D158" s="68"/>
-      <c r="E158" s="64" t="s">
-        <v>678</v>
-      </c>
-      <c r="F158" s="100"/>
-      <c r="G158" s="64" t="s">
-        <v>679</v>
-      </c>
-      <c r="H158" s="132" t="s">
-        <v>680</v>
-      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="56" t="s">
+      <c r="A159" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="B159" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C159" s="63" t="s">
+        <v>679</v>
+      </c>
+      <c r="D159" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="E159" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="B159" s="57" t="s">
+      <c r="F159" s="51"/>
+      <c r="G159" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C159" s="68" t="s">
+      <c r="H159" s="91" t="s">
         <v>683</v>
-      </c>
-      <c r="D159" s="68"/>
-      <c r="E159" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="F159" s="100"/>
-      <c r="G159" s="100" t="s">
-        <v>679</v>
-      </c>
-      <c r="H159" s="132" t="s">
-        <v>685</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="99" t="s">
+        <v>684</v>
+      </c>
+      <c r="B160" s="100"/>
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="F160" s="95"/>
+      <c r="G160" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="H160" s="37" t="s">
         <v>686</v>
-      </c>
-      <c r="B160" s="49" t="s">
-        <v>687</v>
-      </c>
-      <c r="C160" s="68" t="s">
-        <v>688</v>
-      </c>
-      <c r="D160" s="68"/>
-      <c r="E160" s="64" t="s">
-        <v>689</v>
-      </c>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="H160" s="132" t="s">
-        <v>691</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="48" t="s">
-        <v>692</v>
-      </c>
-      <c r="B161" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="C161" s="68" t="s">
-        <v>607</v>
-      </c>
-      <c r="D161" s="68"/>
-      <c r="E161" s="64" t="s">
-        <v>694</v>
-      </c>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="100"/>
+      <c r="A161" s="99" t="s">
+        <v>687</v>
+      </c>
+      <c r="B161" s="100"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="F161" s="95"/>
+      <c r="G161" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>689</v>
+      </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="50" t="s">
-        <v>695</v>
+      <c r="A162" s="48" t="s">
+        <v>690</v>
       </c>
       <c r="B162" s="49" t="s">
-        <v>696</v>
-      </c>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="4"/>
+        <v>691</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>605</v>
+      </c>
+      <c r="D162" s="68"/>
+      <c r="E162" s="64" t="s">
+        <v>692</v>
+      </c>
       <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
+      <c r="G162" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H162" s="41" t="s">
+        <v>694</v>
+      </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="86" t="s">
+      <c r="A163" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="B163" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="C163" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="B163" s="57" t="s">
+      <c r="D163" s="68"/>
+      <c r="E163" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="C163" s="63" t="s">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H163" s="122" t="s">
         <v>699</v>
-      </c>
-      <c r="D163" s="63" t="s">
-        <v>700</v>
-      </c>
-      <c r="E163" s="51" t="s">
-        <v>701</v>
-      </c>
-      <c r="F163" s="51"/>
-      <c r="G163" s="37" t="s">
-        <v>702</v>
-      </c>
-      <c r="H163" s="133" t="s">
-        <v>703</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="129" t="s">
+      <c r="A164" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="B164" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="C164" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B164" s="35" t="s">
+      <c r="H164" s="127" t="s">
         <v>705</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="84" t="s">
-        <v>706</v>
-      </c>
-      <c r="F164" s="66" t="s">
-        <v>707</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="H164" s="134" t="s">
-        <v>709</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="135" t="s">
-        <v>704</v>
-      </c>
-      <c r="B165" s="136" t="s">
-        <v>705</v>
-      </c>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="51" t="s">
+      <c r="A165" s="48" t="s">
         <v>706</v>
       </c>
-      <c r="F165" s="51" t="s">
+      <c r="B165" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="G165" s="66" t="s">
-        <v>710</v>
-      </c>
-      <c r="H165" s="137" t="s">
-        <v>711</v>
-      </c>
+      <c r="C165" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="D165" s="68"/>
+      <c r="E165" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="69"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="135" t="s">
-        <v>704</v>
-      </c>
-      <c r="B166" s="136" t="s">
-        <v>705</v>
-      </c>
-      <c r="C166" s="63"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="63" t="s">
-        <v>706</v>
-      </c>
-      <c r="F166" s="63"/>
-      <c r="G166" s="37" t="s">
-        <v>712</v>
-      </c>
-      <c r="H166" s="37" t="s">
-        <v>713</v>
-      </c>
+      <c r="A166" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="B166" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="50" t="s">
+      <c r="A167" s="86" t="s">
+        <v>711</v>
+      </c>
+      <c r="B167" s="57" t="s">
+        <v>712</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="D167" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="B167" s="49" t="s">
+      <c r="E167" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="C167" s="37" t="s">
+      <c r="F167" s="51"/>
+      <c r="G167" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="D167" s="37" t="s">
+      <c r="H167" s="37" t="s">
         <v>717</v>
-      </c>
-      <c r="E167" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="F167" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="50" t="s">
+      <c r="A168" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="B168" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="F168" s="51" t="s">
         <v>721</v>
       </c>
-      <c r="B168" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="63" t="s">
+      <c r="G168" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D168" s="63" t="s">
+      <c r="H168" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="E168" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="F168" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H168" s="99" t="s">
-        <v>726</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="B169" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="C169" s="63" t="s">
-        <v>729</v>
-      </c>
-      <c r="D169" s="63" t="s">
-        <v>730</v>
-      </c>
-      <c r="E169" s="41" t="s">
-        <v>731</v>
-      </c>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="H169" s="41" t="s">
-        <v>733</v>
+      <c r="A169" s="128" t="s">
+        <v>718</v>
+      </c>
+      <c r="B169" s="129" t="s">
+        <v>719</v>
+      </c>
+      <c r="C169" s="63"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="F169" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="G169" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="H169" s="94" t="s">
+        <v>725</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="138" t="s">
+      <c r="A170" s="128" t="s">
+        <v>718</v>
+      </c>
+      <c r="B170" s="129" t="s">
+        <v>719</v>
+      </c>
+      <c r="C170" s="63"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="H170" s="37" t="s">
         <v>727</v>
-      </c>
-      <c r="B170" s="139" t="s">
-        <v>728</v>
-      </c>
-      <c r="C170" s="114" t="s">
-        <v>729</v>
-      </c>
-      <c r="D170" s="114" t="s">
-        <v>730</v>
-      </c>
-      <c r="E170" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="H170" s="41" t="s">
-        <v>736</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="140" t="s">
-        <v>737</v>
-      </c>
-      <c r="B171" s="40" t="s">
-        <v>738</v>
-      </c>
-      <c r="C171" s="141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D171" s="63"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
+      <c r="A171" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="B171" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="C171" s="63" t="s">
+        <v>730</v>
+      </c>
+      <c r="D171" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="E171" s="66" t="s">
+        <v>732</v>
+      </c>
+      <c r="F171" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>734</v>
+      </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
       <c r="A172" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="B172" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>737</v>
+      </c>
+      <c r="E172" s="130" t="s">
+        <v>738</v>
+      </c>
+      <c r="F172" s="130" t="s">
+        <v>721</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H172" s="94" t="s">
         <v>740</v>
       </c>
-      <c r="B172" s="49" t="s">
-        <v>741</v>
-      </c>
-      <c r="C172" s="141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D172" s="37"/>
-      <c r="E172" s="142"/>
-      <c r="F172" s="142"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="86" t="s">
+      <c r="A173" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="B173" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="B173" s="57" t="s">
+      <c r="C173" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="C173" s="63" t="s">
+      <c r="D173" s="63" t="s">
         <v>744</v>
       </c>
-      <c r="D173" s="63" t="s">
+      <c r="E173" s="79" t="s">
         <v>745</v>
       </c>
-      <c r="E173" s="143" t="s">
+      <c r="F173" s="131"/>
+      <c r="G173" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F173" s="143"/>
-      <c r="G173" s="63" t="s">
+      <c r="H173" s="127" t="s">
         <v>747</v>
-      </c>
-      <c r="H173" s="144" t="s">
-        <v>748</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="86" t="s">
+      <c r="A174" s="132" t="s">
+        <v>741</v>
+      </c>
+      <c r="B174" s="133" t="s">
+        <v>742</v>
+      </c>
+      <c r="C174" s="106" t="s">
+        <v>743</v>
+      </c>
+      <c r="D174" s="106" t="s">
+        <v>744</v>
+      </c>
+      <c r="E174" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B174" s="57" t="s">
+      <c r="H174" s="122" t="s">
         <v>750</v>
-      </c>
-      <c r="C174" s="63" t="s">
-        <v>744</v>
-      </c>
-      <c r="D174" s="63" t="s">
-        <v>745</v>
-      </c>
-      <c r="E174" s="51" t="s">
-        <v>751</v>
-      </c>
-      <c r="F174" s="51"/>
-      <c r="G174" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="H174" s="145" t="s">
-        <v>752</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="86" t="s">
+      <c r="A175" s="124" t="s">
+        <v>751</v>
+      </c>
+      <c r="B175" s="40" t="s">
+        <v>752</v>
+      </c>
+      <c r="C175" s="134" t="s">
         <v>753</v>
       </c>
-      <c r="B175" s="57" t="s">
-        <v>754</v>
-      </c>
-      <c r="C175" s="146" t="s">
-        <v>607</v>
-      </c>
       <c r="D175" s="63"/>
-      <c r="E175" s="51" t="s">
-        <v>755</v>
-      </c>
-      <c r="F175" s="51"/>
-      <c r="G175" s="37" t="s">
-        <v>756</v>
-      </c>
-      <c r="H175" s="126" t="s">
-        <v>757</v>
-      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="140" t="s">
-        <v>758</v>
-      </c>
-      <c r="B176" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="C176" s="141" t="s">
-        <v>739</v>
+      <c r="A176" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="B176" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="C176" s="134" t="s">
+        <v>753</v>
       </c>
       <c r="D176" s="63"/>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
     <row r="177">
       <c r="A177" s="86" t="s">
+        <v>756</v>
+      </c>
+      <c r="B177" s="57" t="s">
+        <v>757</v>
+      </c>
+      <c r="C177" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="D177" s="63" t="s">
         <v>759</v>
       </c>
-      <c r="B177" s="57"/>
-      <c r="C177" s="63"/>
-      <c r="D177" s="7"/>
       <c r="E177" s="51" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="F177" s="51"/>
       <c r="G177" s="37" t="s">
-        <v>760</v>
-      </c>
-      <c r="H177" s="51" t="s">
         <v>761</v>
+      </c>
+      <c r="H177" s="118" t="s">
+        <v>762</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -17447,97 +17426,91 @@
     </row>
     <row r="178">
       <c r="A178" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="B178" s="57" t="s">
+        <v>764</v>
+      </c>
+      <c r="C178" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="D178" s="63" t="s">
         <v>759</v>
       </c>
-      <c r="B178" s="81"/>
-      <c r="C178" s="63"/>
-      <c r="D178" s="7"/>
       <c r="E178" s="51" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="F178" s="51"/>
-      <c r="G178" s="37" t="s">
-        <v>762</v>
-      </c>
-      <c r="H178" s="51" t="s">
-        <v>763</v>
+      <c r="G178" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H178" s="122" t="s">
+        <v>766</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="50" t="s">
-        <v>764</v>
-      </c>
-      <c r="B179" s="49" t="s">
-        <v>765</v>
-      </c>
-      <c r="C179" s="63" t="s">
-        <v>766</v>
-      </c>
-      <c r="D179" s="63" t="s">
+      <c r="A179" s="86" t="s">
         <v>767</v>
       </c>
+      <c r="B179" s="57" t="s">
+        <v>768</v>
+      </c>
+      <c r="C179" s="135" t="s">
+        <v>605</v>
+      </c>
+      <c r="D179" s="63"/>
       <c r="E179" s="51" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F179" s="51"/>
-      <c r="G179" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="H179" s="41" t="s">
-        <v>769</v>
+      <c r="G179" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="H179" s="51" t="s">
+        <v>771</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="50" t="s">
-        <v>770</v>
-      </c>
-      <c r="B180" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C180" s="147"/>
-      <c r="D180" s="148"/>
-      <c r="E180" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="F180" s="147"/>
-      <c r="G180" s="51" t="s">
+      <c r="A180" s="124" t="s">
         <v>772</v>
       </c>
-      <c r="H180" s="37" t="s">
-        <v>773</v>
-      </c>
+      <c r="B180" s="40" t="s">
+        <v>719</v>
+      </c>
+      <c r="C180" s="136" t="s">
+        <v>753</v>
+      </c>
+      <c r="D180" s="63"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="86" t="s">
-        <v>774</v>
-      </c>
-      <c r="B181" s="57" t="s">
-        <v>775</v>
-      </c>
-      <c r="C181" s="63" t="s">
-        <v>776</v>
-      </c>
-      <c r="D181" s="63" t="s">
-        <v>777</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B181" s="57"/>
+      <c r="C181" s="63"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="51" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="F181" s="51"/>
       <c r="G181" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="H181" s="37" t="s">
-        <v>780</v>
+        <v>774</v>
+      </c>
+      <c r="H181" s="51" t="s">
+        <v>775</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -17545,68 +17518,70 @@
     </row>
     <row r="182">
       <c r="A182" s="86" t="s">
-        <v>781</v>
-      </c>
-      <c r="B182" s="57" t="s">
-        <v>782</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B182" s="81"/>
       <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="51" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
       <c r="F182" s="51"/>
-      <c r="G182" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="H182" s="41" t="s">
-        <v>785</v>
+      <c r="G182" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="H182" s="51" t="s">
+        <v>777</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="86" t="s">
-        <v>786</v>
-      </c>
-      <c r="B183" s="57" t="s">
-        <v>787</v>
-      </c>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
+      <c r="A183" s="50" t="s">
+        <v>778</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="C183" s="63" t="s">
+        <v>780</v>
+      </c>
+      <c r="D183" s="63" t="s">
+        <v>781</v>
+      </c>
       <c r="E183" s="51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F183" s="51"/>
-      <c r="G183" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="H183" s="145" t="s">
-        <v>789</v>
+      <c r="G183" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="H183" s="122" t="s">
+        <v>783</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="86" t="s">
-        <v>790</v>
-      </c>
-      <c r="B184" s="57" t="s">
-        <v>791</v>
-      </c>
-      <c r="C184" s="63"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="51" t="s">
-        <v>792</v>
-      </c>
-      <c r="F184" s="66"/>
-      <c r="G184" s="4" t="s">
+      <c r="A184" s="50" t="s">
         <v>784</v>
       </c>
-      <c r="H184" s="41" t="s">
-        <v>793</v>
+      <c r="B184" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="C184" s="137"/>
+      <c r="D184" s="137"/>
+      <c r="E184" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="F184" s="137"/>
+      <c r="G184" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="H184" s="37" t="s">
+        <v>787</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -17614,22 +17589,26 @@
     </row>
     <row r="185">
       <c r="A185" s="86" t="s">
+        <v>788</v>
+      </c>
+      <c r="B185" s="57" t="s">
+        <v>789</v>
+      </c>
+      <c r="C185" s="63" t="s">
+        <v>790</v>
+      </c>
+      <c r="D185" s="63" t="s">
+        <v>791</v>
+      </c>
+      <c r="E185" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="F185" s="51"/>
+      <c r="G185" s="37" t="s">
+        <v>793</v>
+      </c>
+      <c r="H185" s="37" t="s">
         <v>794</v>
-      </c>
-      <c r="B185" s="57" t="s">
-        <v>795</v>
-      </c>
-      <c r="C185" s="63"/>
-      <c r="D185" s="63"/>
-      <c r="E185" s="51" t="s">
-        <v>796</v>
-      </c>
-      <c r="F185" s="51"/>
-      <c r="G185" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -17637,44 +17616,46 @@
     </row>
     <row r="186">
       <c r="A186" s="86" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>799</v>
-      </c>
-      <c r="C186" s="149" t="s">
-        <v>800</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="C186" s="63"/>
       <c r="D186" s="63"/>
       <c r="E186" s="51" t="s">
-        <v>801</v>
-      </c>
-      <c r="F186" s="41"/>
-      <c r="G186" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="H186" s="51" t="s">
-        <v>149</v>
+        <v>797</v>
+      </c>
+      <c r="F186" s="51"/>
+      <c r="G186" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H186" s="41" t="s">
+        <v>799</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="50" t="s">
+      <c r="A187" s="86" t="s">
+        <v>800</v>
+      </c>
+      <c r="B187" s="57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C187" s="63"/>
+      <c r="D187" s="63"/>
+      <c r="E187" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="B187" s="49" t="s">
+      <c r="F187" s="51"/>
+      <c r="G187" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H187" s="41" t="s">
         <v>803</v>
       </c>
-      <c r="C187" s="141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D187" s="63"/>
-      <c r="E187" s="41"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
@@ -17684,23 +17665,19 @@
         <v>804</v>
       </c>
       <c r="B188" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D188" s="63" t="s">
-        <v>58</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="C188" s="63"/>
+      <c r="D188" s="63"/>
       <c r="E188" s="51" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F188" s="51"/>
-      <c r="G188" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H188" s="45" t="s">
-        <v>806</v>
+      <c r="G188" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H188" s="41" t="s">
+        <v>807</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -17708,26 +17685,22 @@
     </row>
     <row r="189">
       <c r="A189" s="86" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B189" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C189" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D189" s="63" t="s">
-        <v>65</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="C189" s="63"/>
+      <c r="D189" s="63"/>
       <c r="E189" s="51" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F189" s="51"/>
-      <c r="G189" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H189" s="47" t="s">
-        <v>809</v>
+      <c r="G189" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -17735,82 +17708,70 @@
     </row>
     <row r="190">
       <c r="A190" s="86" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D190" s="63" t="s">
-        <v>72</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="C190" s="138" t="s">
+        <v>814</v>
+      </c>
+      <c r="D190" s="63"/>
       <c r="E190" s="51" t="s">
-        <v>811</v>
-      </c>
-      <c r="F190" s="51"/>
-      <c r="G190" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H190" s="41" t="s">
-        <v>812</v>
+        <v>815</v>
+      </c>
+      <c r="F190" s="41"/>
+      <c r="G190" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H190" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="86" t="s">
-        <v>813</v>
-      </c>
-      <c r="B191" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C191" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D191" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E191" s="51" t="s">
-        <v>814</v>
-      </c>
-      <c r="F191" s="51"/>
-      <c r="G191" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H191" s="41" t="s">
-        <v>815</v>
-      </c>
+      <c r="A191" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="B191" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="C191" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D191" s="63"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="37"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="86" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B192" s="57" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D192" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E192" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="F192" s="41" t="s">
-        <v>818</v>
-      </c>
-      <c r="G192" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H192" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E192" s="51" t="s">
         <v>819</v>
+      </c>
+      <c r="F192" s="51"/>
+      <c r="G192" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H192" s="45" t="s">
+        <v>820</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -17818,25 +17779,25 @@
     </row>
     <row r="193">
       <c r="A193" s="86" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B193" s="57" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>821</v>
+        <v>65</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>822</v>
       </c>
       <c r="F193" s="51"/>
-      <c r="G193" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H193" s="41" t="s">
+      <c r="G193" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H193" s="47" t="s">
         <v>823</v>
       </c>
       <c r="I193" s="7"/>
@@ -17848,22 +17809,22 @@
         <v>824</v>
       </c>
       <c r="B194" s="57" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C194" s="63" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D194" s="63" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>825</v>
       </c>
       <c r="F194" s="51"/>
-      <c r="G194" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H194" s="150" t="s">
+      <c r="G194" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H194" s="122" t="s">
         <v>826</v>
       </c>
       <c r="I194" s="7"/>
@@ -17875,23 +17836,23 @@
         <v>827</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D195" s="63" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>828</v>
       </c>
       <c r="F195" s="66"/>
-      <c r="G195" s="51" t="s">
+      <c r="G195" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" s="41" t="s">
         <v>829</v>
-      </c>
-      <c r="H195" s="51" t="s">
-        <v>830</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -17899,26 +17860,28 @@
     </row>
     <row r="196">
       <c r="A196" s="86" t="s">
+        <v>830</v>
+      </c>
+      <c r="B196" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C196" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E196" s="41" t="s">
         <v>831</v>
       </c>
-      <c r="B196" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D196" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E196" s="51" t="s">
+      <c r="F196" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="F196" s="51"/>
-      <c r="G196" s="51" t="s">
+      <c r="G196" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H196" s="51" t="s">
         <v>833</v>
-      </c>
-      <c r="H196" s="51" t="s">
-        <v>834</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -17926,26 +17889,26 @@
     </row>
     <row r="197">
       <c r="A197" s="86" t="s">
+        <v>834</v>
+      </c>
+      <c r="B197" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C197" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D197" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="B197" s="57" t="s">
+      <c r="E197" s="51" t="s">
         <v>836</v>
       </c>
-      <c r="C197" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D197" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E197" s="51" t="s">
+      <c r="F197" s="51"/>
+      <c r="G197" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H197" s="122" t="s">
         <v>837</v>
-      </c>
-      <c r="F197" s="51"/>
-      <c r="G197" s="47" t="s">
-        <v>829</v>
-      </c>
-      <c r="H197" s="151" t="s">
-        <v>838</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -17953,26 +17916,26 @@
     </row>
     <row r="198">
       <c r="A198" s="86" t="s">
+        <v>838</v>
+      </c>
+      <c r="B198" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C198" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D198" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E198" s="51" t="s">
         <v>839</v>
       </c>
-      <c r="B198" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C198" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D198" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E198" s="51" t="s">
+      <c r="F198" s="51"/>
+      <c r="G198" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H198" s="139" t="s">
         <v>840</v>
-      </c>
-      <c r="F198" s="51"/>
-      <c r="G198" s="51" t="s">
-        <v>833</v>
-      </c>
-      <c r="H198" s="126" t="s">
-        <v>841</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -17980,65 +17943,81 @@
     </row>
     <row r="199">
       <c r="A199" s="86" t="s">
+        <v>841</v>
+      </c>
+      <c r="B199" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C199" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E199" s="51" t="s">
         <v>842</v>
       </c>
-      <c r="B199" s="57" t="s">
+      <c r="F199" s="51"/>
+      <c r="G199" s="51" t="s">
         <v>843</v>
       </c>
-      <c r="C199" s="63" t="s">
+      <c r="H199" s="118" t="s">
         <v>844</v>
-      </c>
-      <c r="D199" s="63" t="s">
-        <v>845</v>
-      </c>
-      <c r="E199" s="51" t="s">
-        <v>846</v>
-      </c>
-      <c r="F199" s="41"/>
-      <c r="G199" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="H199" s="152" t="s">
-        <v>848</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="153"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="63"/>
-      <c r="D200" s="63"/>
+      <c r="A200" s="86" t="s">
+        <v>845</v>
+      </c>
+      <c r="B200" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D200" s="63" t="s">
+        <v>114</v>
+      </c>
       <c r="E200" s="51" t="s">
         <v>846</v>
       </c>
-      <c r="F200" s="41"/>
-      <c r="G200" s="45" t="s">
-        <v>849</v>
-      </c>
-      <c r="H200" s="45" t="s">
-        <v>850</v>
+      <c r="F200" s="51"/>
+      <c r="G200" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="H200" s="51" t="s">
+        <v>848</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="50" t="s">
+      <c r="A201" s="86" t="s">
+        <v>849</v>
+      </c>
+      <c r="B201" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D201" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E201" s="51" t="s">
         <v>851</v>
       </c>
-      <c r="B201" s="49" t="s">
+      <c r="F201" s="51"/>
+      <c r="G201" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="H201" s="47" t="s">
         <v>852</v>
       </c>
-      <c r="C201" s="154" t="s">
-        <v>739</v>
-      </c>
-      <c r="D201" s="63"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
@@ -18048,152 +18027,140 @@
         <v>853</v>
       </c>
       <c r="B202" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C202" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D202" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E202" s="51" t="s">
         <v>854</v>
       </c>
-      <c r="C202" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="D202" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="E202" s="51" t="s">
+      <c r="F202" s="51"/>
+      <c r="G202" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="H202" s="51" t="s">
         <v>855</v>
-      </c>
-      <c r="F202" s="51"/>
-      <c r="G202" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="H202" s="51" t="s">
-        <v>856</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="104" t="s">
+      <c r="A203" s="86" t="s">
+        <v>856</v>
+      </c>
+      <c r="B203" s="57" t="s">
         <v>857</v>
       </c>
-      <c r="B203" s="73" t="s">
-        <v>354</v>
-      </c>
-      <c r="C203" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="D203" s="63"/>
+      <c r="C203" s="63" t="s">
+        <v>858</v>
+      </c>
+      <c r="D203" s="63" t="s">
+        <v>859</v>
+      </c>
       <c r="E203" s="51" t="s">
-        <v>858</v>
-      </c>
-      <c r="F203" s="51"/>
-      <c r="G203" s="37" t="s">
-        <v>859</v>
-      </c>
-      <c r="H203" s="51" t="s">
         <v>860</v>
+      </c>
+      <c r="F203" s="41"/>
+      <c r="G203" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="H203" s="140" t="s">
+        <v>862</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="86" t="s">
-        <v>861</v>
-      </c>
-      <c r="B204" s="57" t="s">
-        <v>862</v>
-      </c>
-      <c r="C204" s="63" t="s">
+      <c r="A204" s="131"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="51" t="s">
+        <v>860</v>
+      </c>
+      <c r="F204" s="41"/>
+      <c r="G204" s="45" t="s">
         <v>863</v>
       </c>
-      <c r="D204" s="63" t="s">
+      <c r="H204" s="45" t="s">
         <v>864</v>
-      </c>
-      <c r="E204" s="51" t="s">
-        <v>865</v>
-      </c>
-      <c r="F204" s="51"/>
-      <c r="G204" s="37" t="s">
-        <v>866</v>
-      </c>
-      <c r="H204" s="41" t="s">
-        <v>867</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="B205" s="73" t="s">
-        <v>354</v>
-      </c>
-      <c r="C205" s="156" t="s">
-        <v>226</v>
-      </c>
-      <c r="D205" s="157"/>
-      <c r="E205" s="51" t="s">
-        <v>869</v>
-      </c>
-      <c r="F205" s="51"/>
-      <c r="G205" s="37" t="s">
-        <v>870</v>
-      </c>
-      <c r="H205" s="41" t="s">
-        <v>871</v>
-      </c>
+      <c r="A205" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>866</v>
+      </c>
+      <c r="C205" s="141" t="s">
+        <v>753</v>
+      </c>
+      <c r="D205" s="142"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
       <c r="A206" s="86" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>405</v>
+        <v>868</v>
       </c>
       <c r="C206" s="63" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="D206" s="63" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="E206" s="66" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F206" s="66"/>
       <c r="G206" s="63" t="s">
-        <v>874</v>
+        <v>470</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="104" t="s">
-        <v>876</v>
+      <c r="A207" s="99" t="s">
+        <v>871</v>
       </c>
       <c r="B207" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C207" s="155" t="s">
+      <c r="C207" s="143" t="s">
         <v>226</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="51" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F207" s="66"/>
       <c r="G207" s="63" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -18201,96 +18168,102 @@
     </row>
     <row r="208">
       <c r="A208" s="86" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B208" s="57" t="s">
-        <v>411</v>
+        <v>876</v>
       </c>
       <c r="C208" s="63" t="s">
-        <v>412</v>
+        <v>877</v>
       </c>
       <c r="D208" s="63" t="s">
-        <v>413</v>
+        <v>878</v>
       </c>
       <c r="E208" s="51" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F208" s="51"/>
       <c r="G208" s="37" t="s">
-        <v>874</v>
-      </c>
-      <c r="H208" s="51" t="s">
-        <v>882</v>
+        <v>880</v>
+      </c>
+      <c r="H208" s="41" t="s">
+        <v>881</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="104" t="s">
-        <v>883</v>
+      <c r="A209" s="99" t="s">
+        <v>882</v>
       </c>
       <c r="B209" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="C209" s="155" t="s">
+      <c r="C209" s="143" t="s">
         <v>226</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="51" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="F209" s="66"/>
       <c r="G209" s="37" t="s">
-        <v>878</v>
-      </c>
-      <c r="H209" s="51" t="s">
         <v>884</v>
+      </c>
+      <c r="H209" s="41" t="s">
+        <v>885</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="50" t="s">
-        <v>885</v>
-      </c>
-      <c r="B210" s="49" t="s">
+      <c r="A210" s="86" t="s">
         <v>886</v>
       </c>
-      <c r="C210" s="141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D210" s="63"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
+      <c r="B210" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="C210" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="D210" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="E210" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="F210" s="66"/>
+      <c r="G210" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="H210" s="51" t="s">
+        <v>889</v>
+      </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="86" t="s">
-        <v>887</v>
-      </c>
-      <c r="B211" s="57" t="s">
-        <v>888</v>
-      </c>
-      <c r="C211" s="63" t="s">
-        <v>889</v>
-      </c>
-      <c r="D211" s="63" t="s">
+      <c r="A211" s="99" t="s">
         <v>890</v>
       </c>
+      <c r="B211" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="C211" s="143" t="s">
+        <v>226</v>
+      </c>
+      <c r="D211" s="63"/>
       <c r="E211" s="51" t="s">
         <v>891</v>
       </c>
       <c r="F211" s="66"/>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="H211" s="96" t="s">
+      <c r="H211" s="51" t="s">
         <v>893</v>
       </c>
       <c r="I211" s="7"/>
@@ -18302,92 +18275,94 @@
         <v>894</v>
       </c>
       <c r="B212" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="C212" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="D212" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="E212" s="66" t="s">
         <v>895</v>
       </c>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="63" t="s">
+        <v>888</v>
+      </c>
+      <c r="H212" s="66" t="s">
+        <v>896</v>
+      </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="86" t="s">
-        <v>896</v>
-      </c>
-      <c r="B213" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="C213" s="66" t="s">
+      <c r="A213" s="99" t="s">
         <v>897</v>
       </c>
-      <c r="D213" s="66" t="s">
-        <v>898</v>
-      </c>
+      <c r="B213" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="143" t="s">
+        <v>226</v>
+      </c>
+      <c r="D213" s="63"/>
       <c r="E213" s="51" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F213" s="66"/>
       <c r="G213" s="37" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H213" s="51" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="86" t="s">
-        <v>902</v>
-      </c>
-      <c r="B214" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="C214" s="155" t="s">
-        <v>226</v>
+      <c r="A214" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="B214" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="C214" s="134" t="s">
+        <v>753</v>
       </c>
       <c r="D214" s="63"/>
-      <c r="E214" s="143" t="s">
-        <v>903</v>
-      </c>
-      <c r="F214" s="143"/>
-      <c r="G214" s="51" t="s">
-        <v>904</v>
-      </c>
-      <c r="H214" s="37" t="s">
-        <v>905</v>
-      </c>
+      <c r="E214" s="144"/>
+      <c r="F214" s="144"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="86" t="s">
+        <v>901</v>
+      </c>
+      <c r="B215" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="C215" s="144" t="s">
+        <v>903</v>
+      </c>
+      <c r="D215" s="144" t="s">
+        <v>904</v>
+      </c>
+      <c r="E215" s="130" t="s">
+        <v>905</v>
+      </c>
+      <c r="F215" s="130"/>
+      <c r="G215" s="51" t="s">
         <v>906</v>
       </c>
-      <c r="B215" s="57" t="s">
+      <c r="H215" s="91" t="s">
         <v>907</v>
-      </c>
-      <c r="C215" s="142" t="s">
-        <v>908</v>
-      </c>
-      <c r="D215" s="142" t="s">
-        <v>909</v>
-      </c>
-      <c r="E215" s="143" t="s">
-        <v>910</v>
-      </c>
-      <c r="F215" s="143"/>
-      <c r="G215" s="51" t="s">
-        <v>911</v>
-      </c>
-      <c r="H215" s="51" t="s">
-        <v>912</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -18395,215 +18370,205 @@
     </row>
     <row r="216">
       <c r="A216" s="86" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B216" s="57" t="s">
-        <v>914</v>
-      </c>
-      <c r="C216" s="142" t="s">
-        <v>915</v>
-      </c>
-      <c r="D216" s="142" t="s">
-        <v>916</v>
-      </c>
-      <c r="E216" s="143" t="s">
-        <v>917</v>
-      </c>
-      <c r="F216" s="143"/>
-      <c r="G216" s="51" t="s">
-        <v>918</v>
-      </c>
-      <c r="H216" s="51" t="s">
-        <v>919</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C216" s="131"/>
+      <c r="D216" s="131"/>
+      <c r="E216" s="131"/>
+      <c r="F216" s="131"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="B217" s="40" t="s">
-        <v>921</v>
-      </c>
-      <c r="C217" s="158"/>
-      <c r="D217" s="158"/>
-      <c r="E217" s="158"/>
-      <c r="F217" s="142"/>
-      <c r="G217" s="51"/>
-      <c r="H217" s="51"/>
+      <c r="A217" s="86" t="s">
+        <v>910</v>
+      </c>
+      <c r="B217" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C217" s="130" t="s">
+        <v>911</v>
+      </c>
+      <c r="D217" s="130" t="s">
+        <v>912</v>
+      </c>
+      <c r="E217" s="130" t="s">
+        <v>913</v>
+      </c>
+      <c r="F217" s="130"/>
+      <c r="G217" s="37" t="s">
+        <v>914</v>
+      </c>
+      <c r="H217" s="51" t="s">
+        <v>915</v>
+      </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="48" t="s">
-        <v>922</v>
-      </c>
-      <c r="B218" s="49" t="s">
-        <v>923</v>
-      </c>
-      <c r="C218" s="158" t="s">
-        <v>924</v>
-      </c>
-      <c r="D218" s="158"/>
-      <c r="E218" s="158" t="s">
-        <v>925</v>
-      </c>
-      <c r="F218" s="142"/>
-      <c r="G218" s="100" t="s">
-        <v>926</v>
-      </c>
-      <c r="H218" s="109" t="s">
-        <v>927</v>
+      <c r="A218" s="86" t="s">
+        <v>916</v>
+      </c>
+      <c r="B218" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C218" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="D218" s="144"/>
+      <c r="E218" s="130" t="s">
+        <v>917</v>
+      </c>
+      <c r="F218" s="130"/>
+      <c r="G218" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="H218" s="37" t="s">
+        <v>919</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="48" t="s">
-        <v>928</v>
-      </c>
-      <c r="B219" s="49" t="s">
-        <v>929</v>
-      </c>
-      <c r="C219" s="158" t="s">
-        <v>930</v>
-      </c>
-      <c r="D219" s="158"/>
-      <c r="E219" s="158" t="s">
-        <v>931</v>
-      </c>
-      <c r="F219" s="142"/>
-      <c r="G219" s="100" t="s">
+      <c r="A219" s="86" t="s">
+        <v>920</v>
+      </c>
+      <c r="B219" s="57" t="s">
+        <v>921</v>
+      </c>
+      <c r="C219" s="144" t="s">
+        <v>922</v>
+      </c>
+      <c r="D219" s="144" t="s">
+        <v>923</v>
+      </c>
+      <c r="E219" s="130" t="s">
+        <v>924</v>
+      </c>
+      <c r="F219" s="130"/>
+      <c r="G219" s="51" t="s">
+        <v>925</v>
+      </c>
+      <c r="H219" s="51" t="s">
         <v>926</v>
-      </c>
-      <c r="H219" s="109" t="s">
-        <v>932</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="86" t="s">
+        <v>927</v>
+      </c>
+      <c r="B220" s="57" t="s">
+        <v>928</v>
+      </c>
+      <c r="C220" s="144" t="s">
+        <v>929</v>
+      </c>
+      <c r="D220" s="144" t="s">
+        <v>930</v>
+      </c>
+      <c r="E220" s="130" t="s">
+        <v>931</v>
+      </c>
+      <c r="F220" s="130"/>
+      <c r="G220" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="H220" s="51" t="s">
         <v>933</v>
-      </c>
-      <c r="B220" s="49" t="s">
-        <v>934</v>
-      </c>
-      <c r="C220" s="158" t="s">
-        <v>935</v>
-      </c>
-      <c r="D220" s="158"/>
-      <c r="E220" s="158" t="s">
-        <v>936</v>
-      </c>
-      <c r="F220" s="142"/>
-      <c r="G220" s="100" t="s">
-        <v>926</v>
-      </c>
-      <c r="H220" s="109" t="s">
-        <v>937</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="140" t="s">
-        <v>938</v>
-      </c>
-      <c r="B221" s="40" t="s">
-        <v>549</v>
-      </c>
-      <c r="C221" s="63" t="s">
-        <v>550</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E221" s="143" t="s">
-        <v>939</v>
-      </c>
-      <c r="F221" s="143"/>
-      <c r="G221" s="159" t="s">
-        <v>309</v>
-      </c>
-      <c r="H221" s="160" t="s">
-        <v>940</v>
-      </c>
+      <c r="A221" s="123" t="s">
+        <v>934</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="140" t="s">
-        <v>941</v>
+      <c r="A222" s="39" t="s">
+        <v>936</v>
       </c>
       <c r="B222" s="62" t="s">
-        <v>942</v>
-      </c>
-      <c r="C222" s="141" t="s">
-        <v>739</v>
-      </c>
-      <c r="D222" s="7"/>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
+        <v>937</v>
+      </c>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="146"/>
+      <c r="F222" s="144"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="50" t="s">
+      <c r="A223" s="48" t="s">
+        <v>938</v>
+      </c>
+      <c r="B223" s="67" t="s">
+        <v>939</v>
+      </c>
+      <c r="C223" s="68" t="s">
+        <v>940</v>
+      </c>
+      <c r="D223" s="68"/>
+      <c r="E223" s="146" t="s">
+        <v>941</v>
+      </c>
+      <c r="F223" s="144"/>
+      <c r="G223" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="H223" s="94" t="s">
         <v>943</v>
-      </c>
-      <c r="B223" s="67" t="s">
-        <v>944</v>
-      </c>
-      <c r="C223" s="161" t="s">
-        <v>739</v>
-      </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="41" t="s">
-        <v>945</v>
-      </c>
-      <c r="F223" s="66"/>
-      <c r="G223" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H223" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="86" t="s">
+      <c r="A224" s="48" t="s">
+        <v>944</v>
+      </c>
+      <c r="B224" s="67" t="s">
+        <v>945</v>
+      </c>
+      <c r="C224" s="68" t="s">
         <v>946</v>
       </c>
-      <c r="B224" s="162" t="s">
-        <v>56</v>
-      </c>
-      <c r="C224" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D224" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E224" s="66" t="s">
+      <c r="D224" s="68"/>
+      <c r="E224" s="146" t="s">
         <v>947</v>
       </c>
-      <c r="F224" s="66"/>
-      <c r="G224" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H224" s="84" t="s">
+      <c r="F224" s="144"/>
+      <c r="G224" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="H224" s="33" t="s">
         <v>948</v>
       </c>
       <c r="I224" s="7"/>
@@ -18611,108 +18576,96 @@
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="86" t="s">
+      <c r="A225" s="48" t="s">
         <v>949</v>
       </c>
-      <c r="B225" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="C225" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D225" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E225" s="51" t="s">
+      <c r="B225" s="67" t="s">
         <v>950</v>
       </c>
-      <c r="F225" s="66"/>
-      <c r="G225" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H225" s="41" t="s">
+      <c r="C225" s="68" t="s">
         <v>951</v>
+      </c>
+      <c r="D225" s="68"/>
+      <c r="E225" s="146" t="s">
+        <v>952</v>
+      </c>
+      <c r="F225" s="144"/>
+      <c r="G225" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="H225" s="94" t="s">
+        <v>953</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="86" t="s">
-        <v>952</v>
-      </c>
-      <c r="B226" s="162" t="s">
-        <v>77</v>
+      <c r="A226" s="124" t="s">
+        <v>954</v>
+      </c>
+      <c r="B226" s="62" t="s">
+        <v>547</v>
       </c>
       <c r="C226" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D226" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E226" s="66" t="s">
-        <v>953</v>
-      </c>
-      <c r="F226" s="66"/>
-      <c r="G226" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="H226" s="84" t="s">
-        <v>954</v>
+        <v>548</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E226" s="130" t="s">
+        <v>955</v>
+      </c>
+      <c r="F226" s="130"/>
+      <c r="G226" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="H226" s="148" t="s">
+        <v>956</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="86" t="s">
-        <v>955</v>
-      </c>
-      <c r="B227" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="C227" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D227" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="E227" s="51" t="s">
-        <v>956</v>
-      </c>
-      <c r="F227" s="66"/>
-      <c r="G227" s="41" t="s">
+      <c r="A227" s="124" t="s">
         <v>957</v>
       </c>
-      <c r="H227" s="41" t="s">
+      <c r="B227" s="62" t="s">
         <v>958</v>
       </c>
+      <c r="C227" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D227" s="7"/>
+      <c r="E227" s="144"/>
+      <c r="F227" s="144"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="86" t="s">
+      <c r="A228" s="50" t="s">
         <v>959</v>
       </c>
-      <c r="B228" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C228" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D228" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E228" s="66" t="s">
+      <c r="B228" s="67" t="s">
         <v>960</v>
       </c>
+      <c r="C228" s="149" t="s">
+        <v>753</v>
+      </c>
+      <c r="D228" s="7"/>
+      <c r="E228" s="84" t="s">
+        <v>961</v>
+      </c>
       <c r="F228" s="66"/>
-      <c r="G228" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H228" s="66" t="s">
-        <v>961</v>
+      <c r="G228" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H228" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -18722,24 +18675,24 @@
       <c r="A229" s="86" t="s">
         <v>962</v>
       </c>
-      <c r="B229" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="C229" s="66" t="s">
-        <v>119</v>
+      <c r="B229" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C229" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="D229" s="63" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E229" s="66" t="s">
         <v>963</v>
       </c>
       <c r="F229" s="66"/>
-      <c r="G229" s="66" t="s">
-        <v>829</v>
-      </c>
-      <c r="H229" s="66" t="s">
-        <v>830</v>
+      <c r="G229" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H229" s="84" t="s">
+        <v>964</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18747,26 +18700,26 @@
     </row>
     <row r="230">
       <c r="A230" s="86" t="s">
-        <v>964</v>
-      </c>
-      <c r="B230" s="162" t="s">
-        <v>112</v>
+        <v>965</v>
+      </c>
+      <c r="B230" s="150" t="s">
+        <v>70</v>
       </c>
       <c r="C230" s="63" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D230" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E230" s="143" t="s">
-        <v>965</v>
-      </c>
-      <c r="F230" s="143"/>
-      <c r="G230" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="H230" s="66" t="s">
-        <v>834</v>
+        <v>72</v>
+      </c>
+      <c r="E230" s="130" t="s">
+        <v>966</v>
+      </c>
+      <c r="F230" s="130"/>
+      <c r="G230" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H230" s="84" t="s">
+        <v>967</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -18774,26 +18727,26 @@
     </row>
     <row r="231">
       <c r="A231" s="86" t="s">
-        <v>966</v>
-      </c>
-      <c r="B231" s="162" t="s">
-        <v>836</v>
+        <v>968</v>
+      </c>
+      <c r="B231" s="150" t="s">
+        <v>77</v>
       </c>
       <c r="C231" s="63" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D231" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E231" s="143" t="s">
-        <v>967</v>
-      </c>
-      <c r="F231" s="143"/>
-      <c r="G231" s="47" t="s">
-        <v>829</v>
-      </c>
-      <c r="H231" s="47" t="s">
-        <v>968</v>
+        <v>79</v>
+      </c>
+      <c r="E231" s="130" t="s">
+        <v>969</v>
+      </c>
+      <c r="F231" s="130"/>
+      <c r="G231" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" s="41" t="s">
+        <v>970</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -18801,51 +18754,53 @@
     </row>
     <row r="232">
       <c r="A232" s="86" t="s">
-        <v>969</v>
-      </c>
-      <c r="B232" s="162" t="s">
-        <v>125</v>
+        <v>971</v>
+      </c>
+      <c r="B232" s="150" t="s">
+        <v>91</v>
       </c>
       <c r="C232" s="63" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D232" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E232" s="143" t="s">
-        <v>970</v>
-      </c>
-      <c r="F232" s="143"/>
-      <c r="G232" s="51" t="s">
-        <v>833</v>
-      </c>
-      <c r="H232" s="51" t="s">
-        <v>841</v>
+        <v>835</v>
+      </c>
+      <c r="E232" s="130" t="s">
+        <v>972</v>
+      </c>
+      <c r="F232" s="130"/>
+      <c r="G232" s="41" t="s">
+        <v>973</v>
+      </c>
+      <c r="H232" s="41" t="s">
+        <v>974</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="50" t="s">
-        <v>971</v>
-      </c>
-      <c r="B233" s="67" t="s">
-        <v>972</v>
-      </c>
-      <c r="C233" s="161" t="s">
-        <v>739</v>
-      </c>
-      <c r="D233" s="163"/>
-      <c r="E233" s="79" t="s">
-        <v>973</v>
-      </c>
-      <c r="F233" s="142"/>
-      <c r="G233" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="H233" s="37" t="s">
-        <v>231</v>
+      <c r="A233" s="86" t="s">
+        <v>975</v>
+      </c>
+      <c r="B233" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C233" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D233" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E233" s="130" t="s">
+        <v>976</v>
+      </c>
+      <c r="F233" s="130"/>
+      <c r="G233" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H233" s="51" t="s">
+        <v>977</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -18853,26 +18808,26 @@
     </row>
     <row r="234">
       <c r="A234" s="86" t="s">
-        <v>975</v>
-      </c>
-      <c r="B234" s="162" t="s">
-        <v>56</v>
-      </c>
-      <c r="C234" s="63" t="s">
-        <v>57</v>
+        <v>978</v>
+      </c>
+      <c r="B234" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="C234" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D234" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E234" s="143" t="s">
-        <v>976</v>
-      </c>
-      <c r="F234" s="143"/>
-      <c r="G234" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H234" s="164" t="s">
-        <v>977</v>
+        <v>120</v>
+      </c>
+      <c r="E234" s="130" t="s">
+        <v>979</v>
+      </c>
+      <c r="F234" s="130"/>
+      <c r="G234" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="H234" s="151" t="s">
+        <v>844</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -18880,26 +18835,26 @@
     </row>
     <row r="235">
       <c r="A235" s="86" t="s">
-        <v>978</v>
-      </c>
-      <c r="B235" s="162" t="s">
-        <v>70</v>
+        <v>980</v>
+      </c>
+      <c r="B235" s="150" t="s">
+        <v>112</v>
       </c>
       <c r="C235" s="63" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D235" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E235" s="143" t="s">
-        <v>979</v>
-      </c>
-      <c r="F235" s="143"/>
-      <c r="G235" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="H235" s="164" t="s">
-        <v>980</v>
+        <v>114</v>
+      </c>
+      <c r="E235" s="130" t="s">
+        <v>981</v>
+      </c>
+      <c r="F235" s="130"/>
+      <c r="G235" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H235" s="151" t="s">
+        <v>848</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -18907,26 +18862,26 @@
     </row>
     <row r="236">
       <c r="A236" s="86" t="s">
-        <v>981</v>
-      </c>
-      <c r="B236" s="162" t="s">
-        <v>77</v>
+        <v>982</v>
+      </c>
+      <c r="B236" s="150" t="s">
+        <v>850</v>
       </c>
       <c r="C236" s="63" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="D236" s="63" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E236" s="66" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F236" s="66"/>
-      <c r="G236" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="H236" s="84" t="s">
-        <v>983</v>
+      <c r="G236" s="61" t="s">
+        <v>843</v>
+      </c>
+      <c r="H236" s="61" t="s">
+        <v>984</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -18934,53 +18889,51 @@
     </row>
     <row r="237">
       <c r="A237" s="86" t="s">
-        <v>984</v>
-      </c>
-      <c r="B237" s="162" t="s">
-        <v>91</v>
+        <v>985</v>
+      </c>
+      <c r="B237" s="150" t="s">
+        <v>125</v>
       </c>
       <c r="C237" s="63" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D237" s="63" t="s">
-        <v>821</v>
+        <v>127</v>
       </c>
       <c r="E237" s="66" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F237" s="66"/>
-      <c r="G237" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H237" s="84" t="s">
-        <v>986</v>
+      <c r="G237" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H237" s="66" t="s">
+        <v>855</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="86" t="s">
+      <c r="A238" s="50" t="s">
         <v>987</v>
       </c>
-      <c r="B238" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C238" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D238" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E238" s="66" t="s">
+      <c r="B238" s="67" t="s">
         <v>988</v>
       </c>
-      <c r="F238" s="66"/>
-      <c r="G238" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="H238" s="84" t="s">
+      <c r="C238" s="149" t="s">
+        <v>753</v>
+      </c>
+      <c r="D238" s="152"/>
+      <c r="E238" s="84" t="s">
         <v>989</v>
+      </c>
+      <c r="F238" s="63"/>
+      <c r="G238" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="H238" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
@@ -18988,26 +18941,26 @@
     </row>
     <row r="239">
       <c r="A239" s="86" t="s">
-        <v>990</v>
-      </c>
-      <c r="B239" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="C239" s="66" t="s">
-        <v>119</v>
+        <v>991</v>
+      </c>
+      <c r="B239" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="D239" s="63" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E239" s="66" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F239" s="66"/>
-      <c r="G239" s="66" t="s">
-        <v>829</v>
-      </c>
-      <c r="H239" s="66" t="s">
-        <v>830</v>
+      <c r="G239" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H239" s="84" t="s">
+        <v>993</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
@@ -19015,26 +18968,26 @@
     </row>
     <row r="240">
       <c r="A240" s="86" t="s">
-        <v>992</v>
-      </c>
-      <c r="B240" s="162" t="s">
-        <v>112</v>
+        <v>994</v>
+      </c>
+      <c r="B240" s="150" t="s">
+        <v>70</v>
       </c>
       <c r="C240" s="63" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D240" s="63" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E240" s="66" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F240" s="66"/>
-      <c r="G240" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="H240" s="66" t="s">
-        <v>834</v>
+      <c r="G240" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H240" s="84" t="s">
+        <v>996</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
@@ -19042,26 +18995,26 @@
     </row>
     <row r="241">
       <c r="A241" s="86" t="s">
-        <v>994</v>
-      </c>
-      <c r="B241" s="162" t="s">
-        <v>836</v>
+        <v>997</v>
+      </c>
+      <c r="B241" s="150" t="s">
+        <v>77</v>
       </c>
       <c r="C241" s="63" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D241" s="63" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E241" s="66" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="F241" s="66"/>
-      <c r="G241" s="61" t="s">
-        <v>829</v>
-      </c>
-      <c r="H241" s="61" t="s">
-        <v>996</v>
+      <c r="G241" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H241" s="84" t="s">
+        <v>999</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -19069,52 +19022,52 @@
     </row>
     <row r="242">
       <c r="A242" s="86" t="s">
-        <v>997</v>
-      </c>
-      <c r="B242" s="162" t="s">
-        <v>125</v>
+        <v>1000</v>
+      </c>
+      <c r="B242" s="150" t="s">
+        <v>91</v>
       </c>
       <c r="C242" s="63" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D242" s="63" t="s">
-        <v>127</v>
+        <v>835</v>
       </c>
       <c r="E242" s="66" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F242" s="66"/>
-      <c r="G242" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="H242" s="66" t="s">
-        <v>841</v>
+      <c r="G242" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H242" s="84" t="s">
+        <v>1002</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="50" t="s">
-        <v>999</v>
-      </c>
-      <c r="B243" s="67" t="s">
-        <v>1000</v>
+      <c r="A243" s="86" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B243" s="150" t="s">
+        <v>98</v>
       </c>
       <c r="C243" s="63" t="s">
-        <v>1001</v>
+        <v>99</v>
       </c>
       <c r="D243" s="63" t="s">
-        <v>1002</v>
+        <v>100</v>
       </c>
       <c r="E243" s="66" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F243" s="66"/>
-      <c r="G243" s="159" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H243" s="160" t="s">
+      <c r="G243" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="H243" s="84" t="s">
         <v>1005</v>
       </c>
       <c r="I243" s="7"/>
@@ -19122,23 +19075,27 @@
       <c r="K243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="50" t="s">
+      <c r="A244" s="86" t="s">
         <v>1006</v>
       </c>
-      <c r="B244" s="67" t="s">
+      <c r="B244" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D244" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E244" s="66" t="s">
         <v>1007</v>
       </c>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="84" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F244" s="63"/>
-      <c r="G244" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="H244" s="63" t="s">
-        <v>231</v>
+      <c r="F244" s="66"/>
+      <c r="G244" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="H244" s="66" t="s">
+        <v>844</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -19146,26 +19103,26 @@
     </row>
     <row r="245">
       <c r="A245" s="86" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B245" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C245" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D245" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E245" s="66" t="s">
         <v>1009</v>
       </c>
-      <c r="B245" s="162" t="s">
-        <v>56</v>
-      </c>
-      <c r="C245" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D245" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E245" s="66" t="s">
-        <v>1010</v>
-      </c>
       <c r="F245" s="66"/>
-      <c r="G245" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H245" s="84" t="s">
-        <v>1011</v>
+      <c r="G245" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H245" s="66" t="s">
+        <v>848</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -19173,26 +19130,26 @@
     </row>
     <row r="246">
       <c r="A246" s="86" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B246" s="150" t="s">
+        <v>850</v>
+      </c>
+      <c r="C246" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D246" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E246" s="66" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F246" s="66"/>
+      <c r="G246" s="61" t="s">
+        <v>843</v>
+      </c>
+      <c r="H246" s="61" t="s">
         <v>1012</v>
-      </c>
-      <c r="B246" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="C246" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D246" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E246" s="66" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F246" s="66"/>
-      <c r="G246" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="H246" s="84" t="s">
-        <v>1014</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -19200,80 +19157,76 @@
     </row>
     <row r="247">
       <c r="A247" s="86" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B247" s="162" t="s">
-        <v>77</v>
+        <v>1013</v>
+      </c>
+      <c r="B247" s="150" t="s">
+        <v>125</v>
       </c>
       <c r="C247" s="63" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D247" s="63" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E247" s="66" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F247" s="66"/>
-      <c r="G247" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="H247" s="84" t="s">
-        <v>1017</v>
+      <c r="G247" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H247" s="66" t="s">
+        <v>855</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="86" t="s">
+      <c r="A248" s="50" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B248" s="67" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C248" s="63" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D248" s="63" t="s">
         <v>1018</v>
-      </c>
-      <c r="B248" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="C248" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D248" s="63" t="s">
-        <v>821</v>
       </c>
       <c r="E248" s="66" t="s">
         <v>1019</v>
       </c>
       <c r="F248" s="66"/>
-      <c r="G248" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H248" s="84" t="s">
+      <c r="G248" s="147" t="s">
         <v>1020</v>
+      </c>
+      <c r="H248" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="86" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B249" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C249" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D249" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E249" s="66" t="s">
+      <c r="A249" s="50" t="s">
         <v>1022</v>
       </c>
-      <c r="F249" s="66"/>
-      <c r="G249" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H249" s="66" t="s">
+      <c r="B249" s="67" t="s">
         <v>1023</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="84" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F249" s="63"/>
+      <c r="G249" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H249" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -19281,26 +19234,26 @@
     </row>
     <row r="250">
       <c r="A250" s="86" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B250" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="C250" s="66" t="s">
-        <v>119</v>
+        <v>1025</v>
+      </c>
+      <c r="B250" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="D250" s="63" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E250" s="66" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F250" s="66"/>
-      <c r="G250" s="66" t="s">
-        <v>829</v>
-      </c>
-      <c r="H250" s="66" t="s">
-        <v>830</v>
+      <c r="G250" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H250" s="84" t="s">
+        <v>1027</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19308,26 +19261,26 @@
     </row>
     <row r="251">
       <c r="A251" s="86" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B251" s="162" t="s">
-        <v>112</v>
+        <v>1028</v>
+      </c>
+      <c r="B251" s="150" t="s">
+        <v>70</v>
       </c>
       <c r="C251" s="63" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D251" s="63" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E251" s="66" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F251" s="66"/>
-      <c r="G251" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="H251" s="66" t="s">
-        <v>834</v>
+      <c r="G251" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" s="84" t="s">
+        <v>1030</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19335,26 +19288,26 @@
     </row>
     <row r="252">
       <c r="A252" s="86" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B252" s="162" t="s">
-        <v>836</v>
+        <v>1031</v>
+      </c>
+      <c r="B252" s="150" t="s">
+        <v>77</v>
       </c>
       <c r="C252" s="63" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D252" s="63" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E252" s="66" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F252" s="66"/>
-      <c r="G252" s="61" t="s">
-        <v>829</v>
-      </c>
-      <c r="H252" s="61" t="s">
-        <v>1030</v>
+      <c r="G252" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H252" s="84" t="s">
+        <v>1033</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
@@ -19362,52 +19315,52 @@
     </row>
     <row r="253">
       <c r="A253" s="86" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B253" s="162" t="s">
-        <v>125</v>
+        <v>1034</v>
+      </c>
+      <c r="B253" s="150" t="s">
+        <v>91</v>
       </c>
       <c r="C253" s="63" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D253" s="63" t="s">
-        <v>127</v>
+        <v>835</v>
       </c>
       <c r="E253" s="66" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F253" s="66"/>
-      <c r="G253" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="H253" s="66" t="s">
-        <v>841</v>
+      <c r="G253" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H253" s="84" t="s">
+        <v>1036</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="140" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B254" s="62" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C254" s="165" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D254" s="165" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E254" s="166" t="s">
+      <c r="A254" s="86" t="s">
         <v>1037</v>
       </c>
-      <c r="F254" s="166"/>
-      <c r="G254" s="167" t="s">
+      <c r="B254" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C254" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D254" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E254" s="66" t="s">
         <v>1038</v>
       </c>
-      <c r="H254" s="167" t="s">
+      <c r="F254" s="66"/>
+      <c r="G254" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="H254" s="66" t="s">
         <v>1039</v>
       </c>
       <c r="I254" s="7"/>
@@ -19415,492 +19368,572 @@
       <c r="K254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="168" t="s">
+      <c r="A255" s="86" t="s">
         <v>1040</v>
       </c>
-      <c r="B255" s="169" t="s">
+      <c r="B255" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D255" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E255" s="66" t="s">
         <v>1041</v>
       </c>
-      <c r="C255" s="170"/>
-      <c r="D255" s="170"/>
-      <c r="E255" s="170"/>
-      <c r="F255" s="170"/>
-      <c r="G255" s="170"/>
-      <c r="H255" s="170"/>
+      <c r="F255" s="66"/>
+      <c r="G255" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="H255" s="66" t="s">
+        <v>844</v>
+      </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="168" t="s">
+      <c r="A256" s="86" t="s">
         <v>1042</v>
       </c>
-      <c r="B256" s="169" t="s">
+      <c r="B256" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C256" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D256" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E256" s="66" t="s">
         <v>1043</v>
       </c>
-      <c r="C256" s="171" t="s">
-        <v>739</v>
-      </c>
-      <c r="D256" s="170"/>
-      <c r="E256" s="170" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F256" s="170"/>
-      <c r="G256" s="170"/>
-      <c r="H256" s="170"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H256" s="66" t="s">
+        <v>848</v>
+      </c>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="168" t="s">
+      <c r="A257" s="86" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B257" s="150" t="s">
+        <v>850</v>
+      </c>
+      <c r="C257" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D257" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E257" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="B257" s="169" t="s">
+      <c r="F257" s="66"/>
+      <c r="G257" s="61" t="s">
+        <v>843</v>
+      </c>
+      <c r="H257" s="153" t="s">
         <v>1046</v>
-      </c>
-      <c r="C257" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D257" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E257" s="170" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F257" s="170"/>
-      <c r="G257" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H257" s="172" t="s">
-        <v>1051</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="168" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B258" s="169" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C258" s="170" t="s">
+      <c r="A258" s="86" t="s">
         <v>1047</v>
       </c>
-      <c r="D258" s="170" t="s">
+      <c r="B258" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="C258" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D258" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E258" s="66" t="s">
         <v>1048</v>
       </c>
-      <c r="E258" s="170" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F258" s="170"/>
-      <c r="G258" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H258" s="172" t="s">
-        <v>1055</v>
+      <c r="F258" s="66"/>
+      <c r="G258" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="H258" s="151" t="s">
+        <v>855</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="168" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B259" s="169" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C259" s="170"/>
-      <c r="D259" s="170"/>
-      <c r="E259" s="170"/>
-      <c r="F259" s="170"/>
-      <c r="G259" s="170"/>
-      <c r="H259" s="170"/>
+      <c r="A259" s="124" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B259" s="62" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C259" s="154" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D259" s="154" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E259" s="155" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F259" s="155"/>
+      <c r="G259" s="156" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H259" s="156" t="s">
+        <v>1055</v>
+      </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="168" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B260" s="169" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C260" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D260" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E260" s="170" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F260" s="170"/>
-      <c r="G260" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H260" s="172" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A260" s="157" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B260" s="158" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C260" s="159"/>
+      <c r="D260" s="159"/>
+      <c r="E260" s="159"/>
+      <c r="F260" s="159"/>
+      <c r="G260" s="159"/>
+      <c r="H260" s="159"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="168" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B261" s="169" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C261" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D261" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E261" s="170" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F261" s="170"/>
-      <c r="G261" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H261" s="172" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A261" s="157" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B261" s="158" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C261" s="160" t="s">
+        <v>753</v>
+      </c>
+      <c r="D261" s="159"/>
+      <c r="E261" s="159" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F261" s="159"/>
+      <c r="G261" s="159"/>
+      <c r="H261" s="159"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="168" t="s">
+      <c r="A262" s="157" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B262" s="158" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C262" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D262" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E262" s="159" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F262" s="159"/>
+      <c r="G262" s="159" t="s">
         <v>1066</v>
       </c>
-      <c r="B262" s="169" t="s">
+      <c r="H262" s="161" t="s">
         <v>1067</v>
-      </c>
-      <c r="C262" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D262" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E262" s="170" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F262" s="170"/>
-      <c r="G262" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H262" s="172" t="s">
-        <v>1069</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="168" t="s">
+      <c r="A263" s="157" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B263" s="158" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C263" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D263" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E263" s="159" t="s">
         <v>1070</v>
       </c>
-      <c r="B263" s="169" t="s">
+      <c r="F263" s="159"/>
+      <c r="G263" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H263" s="161" t="s">
         <v>1071</v>
-      </c>
-      <c r="C263" s="171" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D263" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E263" s="170" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F263" s="170"/>
-      <c r="G263" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H263" s="172" t="s">
-        <v>1073</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="168" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B264" s="169" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C264" s="171" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D264" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E264" s="170" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F264" s="170"/>
-      <c r="G264" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H264" s="172" t="s">
-        <v>1077</v>
-      </c>
+      <c r="A264" s="157" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B264" s="158" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C264" s="159"/>
+      <c r="D264" s="159"/>
+      <c r="E264" s="159"/>
+      <c r="F264" s="159"/>
+      <c r="G264" s="159"/>
+      <c r="H264" s="159"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="168" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B265" s="169" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C265" s="171" t="s">
-        <v>739</v>
-      </c>
-      <c r="D265" s="170"/>
-      <c r="E265" s="170"/>
-      <c r="F265" s="170"/>
-      <c r="G265" s="170"/>
-      <c r="H265" s="170"/>
+      <c r="A265" s="157" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B265" s="158" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C265" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D265" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E265" s="159" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F265" s="159"/>
+      <c r="G265" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H265" s="161" t="s">
+        <v>1077</v>
+      </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="168" t="s">
+      <c r="A266" s="157" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B266" s="158" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C266" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D266" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E266" s="159" t="s">
         <v>1080</v>
       </c>
-      <c r="B266" s="169" t="s">
+      <c r="F266" s="159"/>
+      <c r="G266" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H266" s="161" t="s">
         <v>1081</v>
-      </c>
-      <c r="C266" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D266" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E266" s="170" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F266" s="170"/>
-      <c r="G266" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H266" s="172" t="s">
-        <v>1083</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="168" t="s">
+      <c r="A267" s="157" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B267" s="158" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C267" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D267" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E267" s="159" t="s">
         <v>1084</v>
       </c>
-      <c r="B267" s="169" t="s">
+      <c r="F267" s="159"/>
+      <c r="G267" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H267" s="161" t="s">
         <v>1085</v>
-      </c>
-      <c r="C267" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D267" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E267" s="170" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F267" s="170"/>
-      <c r="G267" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H267" s="172" t="s">
-        <v>1087</v>
       </c>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="168" t="s">
+      <c r="A268" s="157" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B268" s="158" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C268" s="160" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D268" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E268" s="159" t="s">
         <v>1088</v>
       </c>
-      <c r="B268" s="169" t="s">
+      <c r="F268" s="159"/>
+      <c r="G268" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H268" s="161" t="s">
         <v>1089</v>
-      </c>
-      <c r="C268" s="170" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D268" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E268" s="170" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F268" s="170"/>
-      <c r="G268" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H268" s="172" t="s">
-        <v>1091</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="168" t="s">
+      <c r="A269" s="157" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B269" s="158" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C269" s="160" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D269" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E269" s="159" t="s">
         <v>1092</v>
       </c>
-      <c r="B269" s="169" t="s">
+      <c r="F269" s="159"/>
+      <c r="G269" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H269" s="161" t="s">
         <v>1093</v>
       </c>
-      <c r="C269" s="170"/>
-      <c r="D269" s="170"/>
-      <c r="E269" s="170"/>
-      <c r="F269" s="170"/>
-      <c r="G269" s="170"/>
-      <c r="H269" s="170"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="168" t="s">
+      <c r="A270" s="157" t="s">
         <v>1094</v>
       </c>
-      <c r="B270" s="169" t="s">
+      <c r="B270" s="158" t="s">
         <v>1095</v>
       </c>
-      <c r="C270" s="173" t="s">
-        <v>607</v>
-      </c>
-      <c r="D270" s="170"/>
-      <c r="E270" s="170" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F270" s="170"/>
-      <c r="G270" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H270" s="172" t="s">
-        <v>1097</v>
-      </c>
+      <c r="C270" s="160" t="s">
+        <v>753</v>
+      </c>
+      <c r="D270" s="159"/>
+      <c r="E270" s="159"/>
+      <c r="F270" s="159"/>
+      <c r="G270" s="159"/>
+      <c r="H270" s="159"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="168" t="s">
+      <c r="A271" s="157" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B271" s="158" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C271" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D271" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E271" s="159" t="s">
         <v>1098</v>
       </c>
-      <c r="B271" s="169" t="s">
+      <c r="F271" s="159"/>
+      <c r="G271" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H271" s="161" t="s">
         <v>1099</v>
       </c>
-      <c r="C271" s="170"/>
-      <c r="D271" s="170"/>
-      <c r="E271" s="170"/>
-      <c r="F271" s="170"/>
-      <c r="G271" s="170"/>
-      <c r="H271" s="170"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="168" t="s">
+      <c r="A272" s="157" t="s">
         <v>1100</v>
       </c>
-      <c r="B272" s="169" t="s">
+      <c r="B272" s="158" t="s">
         <v>1101</v>
       </c>
-      <c r="C272" s="171" t="s">
+      <c r="C272" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D272" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E272" s="159" t="s">
         <v>1102</v>
       </c>
-      <c r="D272" s="170" t="s">
+      <c r="F272" s="159"/>
+      <c r="G272" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H272" s="161" t="s">
         <v>1103</v>
-      </c>
-      <c r="E272" s="174" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F272" s="170"/>
-      <c r="G272" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H272" s="175" t="s">
-        <v>1106</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="176"/>
-      <c r="B273" s="29"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="29"/>
-      <c r="G273" s="29"/>
-      <c r="H273" s="29"/>
-      <c r="I273" s="29"/>
-      <c r="J273" s="29"/>
+      <c r="A273" s="157" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B273" s="158" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C273" s="159" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D273" s="159" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E273" s="159" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F273" s="159"/>
+      <c r="G273" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H273" s="161" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="7"/>
     </row>
     <row r="274">
-      <c r="A274" s="176"/>
-      <c r="B274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="29"/>
-      <c r="H274" s="29"/>
-      <c r="I274" s="29"/>
-      <c r="J274" s="29"/>
+      <c r="A274" s="157" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B274" s="158" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C274" s="159"/>
+      <c r="D274" s="159"/>
+      <c r="E274" s="159"/>
+      <c r="F274" s="159"/>
+      <c r="G274" s="159"/>
+      <c r="H274" s="159"/>
+      <c r="I274" s="7"/>
+      <c r="J274" s="7"/>
+      <c r="K274" s="7"/>
     </row>
     <row r="275">
-      <c r="A275" s="176"/>
-      <c r="B275" s="29"/>
-      <c r="D275" s="29"/>
-      <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
-      <c r="G275" s="29"/>
-      <c r="H275" s="29"/>
-      <c r="I275" s="29"/>
-      <c r="J275" s="29"/>
+      <c r="A275" s="157" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B275" s="158" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C275" s="162" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" s="159"/>
+      <c r="E275" s="159" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F275" s="159"/>
+      <c r="G275" s="159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H275" s="161" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I275" s="7"/>
+      <c r="J275" s="7"/>
+      <c r="K275" s="7"/>
     </row>
     <row r="276">
-      <c r="A276" s="176"/>
-      <c r="B276" s="29"/>
-      <c r="D276" s="29"/>
-      <c r="E276" s="29"/>
-      <c r="F276" s="29"/>
-      <c r="G276" s="29"/>
-      <c r="H276" s="29"/>
-      <c r="I276" s="29"/>
-      <c r="J276" s="29"/>
+      <c r="A276" s="157" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B276" s="158" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C276" s="159"/>
+      <c r="D276" s="159"/>
+      <c r="E276" s="159"/>
+      <c r="F276" s="159"/>
+      <c r="G276" s="159"/>
+      <c r="H276" s="159"/>
+      <c r="I276" s="7"/>
+      <c r="J276" s="7"/>
+      <c r="K276" s="7"/>
     </row>
     <row r="277">
-      <c r="A277" s="176"/>
-      <c r="B277" s="29"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="29"/>
-      <c r="F277" s="29"/>
-      <c r="G277" s="29"/>
-      <c r="H277" s="29"/>
-      <c r="I277" s="29"/>
-      <c r="J277" s="29"/>
+      <c r="A277" s="157" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B277" s="158" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C277" s="160" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D277" s="159" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E277" s="163" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F277" s="159"/>
+      <c r="G277" s="159" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H277" s="164" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I277" s="7"/>
+      <c r="J277" s="7"/>
+      <c r="K277" s="7"/>
     </row>
     <row r="278">
-      <c r="A278" s="176"/>
+      <c r="A278" s="165"/>
       <c r="B278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29"/>
@@ -19911,7 +19944,7 @@
       <c r="J278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="176"/>
+      <c r="A279" s="165"/>
       <c r="B279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29"/>
@@ -19953,41 +19986,41 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="H123"/>
-    <hyperlink r:id="rId3" ref="H130"/>
+    <hyperlink r:id="rId3" ref="H131"/>
     <hyperlink r:id="rId4" ref="H132"/>
     <hyperlink r:id="rId5" ref="H133"/>
-    <hyperlink r:id="rId6" ref="H134"/>
-    <hyperlink r:id="rId7" ref="H140"/>
-    <hyperlink r:id="rId8" ref="H142"/>
-    <hyperlink r:id="rId9" ref="H144"/>
-    <hyperlink r:id="rId10" ref="H145"/>
-    <hyperlink r:id="rId11" ref="H148"/>
-    <hyperlink r:id="rId12" ref="H149"/>
-    <hyperlink r:id="rId13" ref="H151"/>
-    <hyperlink r:id="rId14" ref="H163"/>
-    <hyperlink r:id="rId15" ref="H164"/>
-    <hyperlink r:id="rId16" ref="H165"/>
-    <hyperlink r:id="rId17" ref="H173"/>
-    <hyperlink r:id="rId18" ref="H174"/>
-    <hyperlink r:id="rId19" ref="H175"/>
-    <hyperlink r:id="rId20" ref="H183"/>
-    <hyperlink r:id="rId21" ref="H194"/>
-    <hyperlink r:id="rId22" ref="H197"/>
-    <hyperlink r:id="rId23" ref="H198"/>
-    <hyperlink r:id="rId24" ref="H199"/>
-    <hyperlink r:id="rId25" ref="H234"/>
-    <hyperlink r:id="rId26" ref="H235"/>
-    <hyperlink r:id="rId27" ref="H257"/>
-    <hyperlink r:id="rId28" ref="H258"/>
-    <hyperlink r:id="rId29" ref="H260"/>
-    <hyperlink r:id="rId30" ref="H261"/>
-    <hyperlink r:id="rId31" ref="H262"/>
-    <hyperlink r:id="rId32" ref="H263"/>
-    <hyperlink r:id="rId33" ref="H264"/>
-    <hyperlink r:id="rId34" ref="H266"/>
-    <hyperlink r:id="rId35" ref="H267"/>
-    <hyperlink r:id="rId36" ref="H268"/>
-    <hyperlink r:id="rId37" ref="H270"/>
+    <hyperlink r:id="rId6" ref="H140"/>
+    <hyperlink r:id="rId7" ref="H144"/>
+    <hyperlink r:id="rId8" ref="H148"/>
+    <hyperlink r:id="rId9" ref="H149"/>
+    <hyperlink r:id="rId10" ref="H151"/>
+    <hyperlink r:id="rId11" ref="H163"/>
+    <hyperlink r:id="rId12" ref="H164"/>
+    <hyperlink r:id="rId13" ref="H173"/>
+    <hyperlink r:id="rId14" ref="H174"/>
+    <hyperlink r:id="rId15" ref="H177"/>
+    <hyperlink r:id="rId16" ref="H178"/>
+    <hyperlink r:id="rId17" ref="H183"/>
+    <hyperlink r:id="rId18" ref="H194"/>
+    <hyperlink r:id="rId19" ref="H197"/>
+    <hyperlink r:id="rId20" ref="H198"/>
+    <hyperlink r:id="rId21" ref="H199"/>
+    <hyperlink r:id="rId22" ref="H203"/>
+    <hyperlink r:id="rId23" ref="H234"/>
+    <hyperlink r:id="rId24" ref="H235"/>
+    <hyperlink r:id="rId25" ref="H257"/>
+    <hyperlink r:id="rId26" ref="H258"/>
+    <hyperlink r:id="rId27" ref="H262"/>
+    <hyperlink r:id="rId28" ref="H263"/>
+    <hyperlink r:id="rId29" ref="H265"/>
+    <hyperlink r:id="rId30" ref="H266"/>
+    <hyperlink r:id="rId31" ref="H267"/>
+    <hyperlink r:id="rId32" ref="H268"/>
+    <hyperlink r:id="rId33" ref="H269"/>
+    <hyperlink r:id="rId34" ref="H271"/>
+    <hyperlink r:id="rId35" ref="H272"/>
+    <hyperlink r:id="rId36" ref="H273"/>
+    <hyperlink r:id="rId37" ref="H275"/>
   </hyperlinks>
   <drawing r:id="rId38"/>
   <legacyDrawing r:id="rId39"/>
@@ -20012,137 +20045,137 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="167" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="131" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>363</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="84" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="131" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>363</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="84" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="153" t="s">
-        <v>1112</v>
+      <c r="A4" s="131" t="s">
+        <v>1128</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="F5" s="84" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>799</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>800</v>
+        <v>813</v>
+      </c>
+      <c r="C6" s="168" t="s">
+        <v>814</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="84" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="F6" s="84" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -20165,37 +20198,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="180" t="s">
-        <v>1123</v>
+      <c r="A2" s="169" t="s">
+        <v>1139</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="181" t="s">
-        <v>1125</v>
+      <c r="A3" s="170" t="s">
+        <v>1141</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="182" t="s">
-        <v>1127</v>
+      <c r="A4" s="171" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="183" t="s">
-        <v>1128</v>
+      <c r="A6" s="172" t="s">
+        <v>1144</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8">
@@ -20205,68 +20238,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="183" t="s">
-        <v>1131</v>
+      <c r="A10" s="172" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="183" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B11" s="184" t="s">
-        <v>1133</v>
+      <c r="A11" s="172" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B11" s="173" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="185" t="s">
-        <v>1134</v>
+      <c r="B12" s="174" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="186"/>
-      <c r="B13" s="187" t="s">
-        <v>1135</v>
+      <c r="A13" s="175"/>
+      <c r="B13" s="176" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="188" t="s">
-        <v>1136</v>
+      <c r="B14" s="177" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="189" t="s">
-        <v>1137</v>
+      <c r="B15" s="178" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="190" t="s">
-        <v>1138</v>
+      <c r="B16" s="179" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="183"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="183" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>1140</v>
+      <c r="A18" s="172" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="B19" s="70"/>
     </row>
     <row r="21">
-      <c r="A21" s="183" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B21" s="192" t="s">
-        <v>1143</v>
+      <c r="A21" s="172" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B21" s="181" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -20291,58 +20324,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="183" t="s">
-        <v>1144</v>
+      <c r="A1" s="172" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="193" t="s">
-        <v>1145</v>
+      <c r="A2" s="182" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="194" t="s">
-        <v>1146</v>
+      <c r="A3" s="183" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="193" t="s">
-        <v>1147</v>
+      <c r="A4" s="182" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="194" t="s">
-        <v>1148</v>
+      <c r="A5" s="183" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="194" t="s">
-        <v>1149</v>
+      <c r="A6" s="183" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="194" t="s">
-        <v>1150</v>
+      <c r="A7" s="183" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="193" t="s">
-        <v>1151</v>
+      <c r="A8" s="182" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="194" t="s">
-        <v>1152</v>
+      <c r="A9" s="183" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="194" t="s">
-        <v>1153</v>
+      <c r="A10" s="183" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="194" t="s">
-        <v>1154</v>
+      <c r="A11" s="183" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -20368,58 +20401,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B1" s="195" t="s">
-        <v>1155</v>
+        <v>1160</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="194" t="s">
-        <v>1156</v>
+      <c r="A2" s="183" t="s">
+        <v>1172</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="194" t="s">
-        <v>1158</v>
+      <c r="A3" s="183" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="194" t="s">
-        <v>1159</v>
+      <c r="A4" s="183" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="194" t="s">
-        <v>1160</v>
+      <c r="A5" s="183" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="194" t="s">
-        <v>1161</v>
+      <c r="A6" s="183" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="194" t="s">
-        <v>1162</v>
+      <c r="A7" s="183" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="194" t="s">
-        <v>1163</v>
+      <c r="A8" s="183" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="194" t="s">
-        <v>1164</v>
+      <c r="A9" s="183" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="194" t="s">
-        <v>1165</v>
+      <c r="A10" s="183" t="s">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -20438,7 +20471,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="184"/>
+      <c r="A1" s="173"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20462,36 +20495,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1167</v>
+      <c r="A1" s="185" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -20500,13 +20533,13 @@
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -20515,70 +20548,70 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D7" s="198" t="s">
-        <v>1183</v>
+        <v>1190</v>
+      </c>
+      <c r="D7" s="187" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="107" t="s">
-        <v>1187</v>
+      <c r="A9" s="188" t="s">
+        <v>1203</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -20607,59 +20640,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1167</v>
+      <c r="A1" s="185" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D2" s="195" t="s">
-        <v>1171</v>
+        <v>1186</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C5" s="198" t="s">
-        <v>1193</v>
+        <v>1211</v>
+      </c>
+      <c r="C5" s="187" t="s">
+        <v>1209</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.2.0</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <r>
@@ -2740,7 +2740,7 @@
     <t>CONTRACTING_BODY/URL_TOOL</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:Channel / xsd:anyURI</t>
+    <t>epo:Procedure / cv:Channel / xsd:anyURI</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1280">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>4.2.2</t>
   </si>
   <si>
     <r>
@@ -4624,6 +4624,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -4631,6 +4632,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  /  epo:hasNationalProcedureRules </t>
     </r>
@@ -4638,6 +4640,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?value</t>
     </r>
@@ -4994,7 +4997,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -5002,7 +5004,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasTitle </t>
     </r>
@@ -5010,7 +5011,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?value</t>
     </r>
@@ -5018,7 +5018,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5045,28 +5044,24 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .
 </t>
@@ -5219,6 +5214,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5226,12 +5222,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasContractConclusionDate ?</t>
     </r>
@@ -5239,12 +5237,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5816,7 +5816,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5824,14 +5823,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -5839,14 +5836,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5933,7 +5928,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -5941,14 +5935,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -7368,6 +7360,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -7375,12 +7368,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -7388,12 +7383,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -7580,6 +7577,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -7587,12 +7585,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -8391,13 +8391,46 @@
     <t>ADDRESS_REVIEW_INFO</t>
   </si>
   <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_FURTHER_INFO_IDEM</t>
+  </si>
+  <si>
+    <t>epo:ProcurementProcedureInformationProvider</t>
+  </si>
+  <si>
+    <t>ADDRESS_FURTHER_INFO_IDEM</t>
+  </si>
+  <si>
     <t>AgentInRole == CONTRACTING_BODY/ADDRESS_FURTHER_INFO</t>
   </si>
   <si>
-    <t>epo:ProcurementProcedureInformationProvider</t>
-  </si>
-  <si>
     <t>ADDRESS_FURTHER_INFO</t>
+  </si>
+  <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>epo:TenderReceiver</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>AgentInRole == CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>AgentInRole == RESULTS/AWARDED_PRIZE</t>
+  </si>
+  <si>
+    <t>AWARDED_PRIZE</t>
+  </si>
+  <si>
+    <t>AgentInRole == RESULTS/AWARDED_PRIZE/WINNERS/WINNER</t>
+  </si>
+  <si>
+    <t>WINNER</t>
   </si>
   <si>
     <t>is_natural_person == True</t>
@@ -8428,7 +8461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8504,19 +8537,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Sans-serif"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -8546,6 +8569,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
@@ -8564,16 +8592,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -8617,7 +8635,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8730,6 +8748,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -9151,13 +9175,10 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -9169,13 +9190,10 @@
     <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9190,10 +9208,10 @@
     <xf borderId="6" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9211,10 +9229,10 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -9226,14 +9244,8 @@
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -9246,6 +9258,9 @@
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -9283,10 +9298,19 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9294,9 +9318,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -9319,19 +9340,13 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9343,13 +9358,13 @@
     <xf quotePrefix="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -9361,16 +9376,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9397,7 +9412,7 @@
     <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9412,13 +9427,22 @@
     <xf borderId="0" fillId="19" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -16842,7 +16866,7 @@
       <c r="G133" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="H133" s="112" t="s">
+      <c r="H133" s="42" t="s">
         <v>561</v>
       </c>
       <c r="I133" s="7"/>
@@ -16867,7 +16891,7 @@
       <c r="G134" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="H134" s="113" t="s">
+      <c r="H134" s="112" t="s">
         <v>565</v>
       </c>
       <c r="I134" s="7"/>
@@ -16924,7 +16948,7 @@
       <c r="A137" s="56" t="s">
         <v>573</v>
       </c>
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="113" t="s">
         <v>574</v>
       </c>
       <c r="C137" s="100"/>
@@ -16988,16 +17012,16 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="115" t="s">
+      <c r="A140" s="114" t="s">
         <v>580</v>
       </c>
       <c r="B140" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="C140" s="116" t="s">
+      <c r="C140" s="115" t="s">
         <v>582</v>
       </c>
-      <c r="D140" s="117" t="s">
+      <c r="D140" s="116" t="s">
         <v>583</v>
       </c>
       <c r="E140" s="51" t="s">
@@ -17007,7 +17031,7 @@
       <c r="G140" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="H140" s="118" t="s">
+      <c r="H140" s="52" t="s">
         <v>588</v>
       </c>
       <c r="I140" s="7"/>
@@ -17034,7 +17058,7 @@
       <c r="G141" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="H141" s="119" t="s">
+      <c r="H141" s="117" t="s">
         <v>595</v>
       </c>
       <c r="I141" s="7"/>
@@ -17061,7 +17085,7 @@
       <c r="G142" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="H142" s="120" t="s">
+      <c r="H142" s="118" t="s">
         <v>601</v>
       </c>
       <c r="I142" s="7"/>
@@ -17126,7 +17150,7 @@
       <c r="B146" s="57" t="s">
         <v>609</v>
       </c>
-      <c r="C146" s="121" t="s">
+      <c r="C146" s="119" t="s">
         <v>610</v>
       </c>
       <c r="D146" s="64"/>
@@ -17153,7 +17177,7 @@
       </c>
       <c r="C147" s="64"/>
       <c r="D147" s="64"/>
-      <c r="E147" s="122"/>
+      <c r="E147" s="120"/>
       <c r="F147" s="38"/>
       <c r="G147" s="51"/>
       <c r="H147" s="51"/>
@@ -17171,8 +17195,8 @@
       <c r="C148" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="D148" s="123"/>
-      <c r="E148" s="124" t="s">
+      <c r="D148" s="121"/>
+      <c r="E148" s="122" t="s">
         <v>619</v>
       </c>
       <c r="F148" s="38" t="s">
@@ -17181,7 +17205,7 @@
       <c r="G148" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="H148" s="125" t="s">
+      <c r="H148" s="123" t="s">
         <v>622</v>
       </c>
       <c r="I148" s="7"/>
@@ -17199,7 +17223,7 @@
         <v>625</v>
       </c>
       <c r="D149" s="64"/>
-      <c r="E149" s="122" t="s">
+      <c r="E149" s="120" t="s">
         <v>626</v>
       </c>
       <c r="F149" s="38" t="s">
@@ -17208,7 +17232,7 @@
       <c r="G149" s="51" t="s">
         <v>627</v>
       </c>
-      <c r="H149" s="125" t="s">
+      <c r="H149" s="123" t="s">
         <v>628</v>
       </c>
       <c r="I149" s="7"/>
@@ -17225,8 +17249,8 @@
       <c r="C150" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="D150" s="123"/>
-      <c r="E150" s="124" t="s">
+      <c r="D150" s="121"/>
+      <c r="E150" s="122" t="s">
         <v>631</v>
       </c>
       <c r="F150" s="38" t="s">
@@ -17235,7 +17259,7 @@
       <c r="G150" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="H150" s="126" t="s">
+      <c r="H150" s="124" t="s">
         <v>632</v>
       </c>
       <c r="I150" s="7"/>
@@ -17277,7 +17301,7 @@
       <c r="G152" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="H152" s="113" t="s">
+      <c r="H152" s="112" t="s">
         <v>639</v>
       </c>
       <c r="I152" s="7"/>
@@ -17427,7 +17451,7 @@
       </c>
       <c r="C159" s="64"/>
       <c r="D159" s="64"/>
-      <c r="E159" s="122"/>
+      <c r="E159" s="120"/>
       <c r="F159" s="38"/>
       <c r="G159" s="51"/>
       <c r="H159" s="51"/>
@@ -17445,8 +17469,8 @@
       <c r="C160" s="100" t="s">
         <v>667</v>
       </c>
-      <c r="D160" s="127"/>
-      <c r="E160" s="128" t="s">
+      <c r="D160" s="125"/>
+      <c r="E160" s="126" t="s">
         <v>668</v>
       </c>
       <c r="F160" s="99" t="s">
@@ -17472,8 +17496,8 @@
       <c r="C161" s="100" t="s">
         <v>667</v>
       </c>
-      <c r="D161" s="127"/>
-      <c r="E161" s="129" t="s">
+      <c r="D161" s="125"/>
+      <c r="E161" s="127" t="s">
         <v>668</v>
       </c>
       <c r="F161" s="99" t="s">
@@ -17490,7 +17514,7 @@
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="130" t="s">
+      <c r="A162" s="128" t="s">
         <v>673</v>
       </c>
       <c r="B162" s="96" t="s">
@@ -17509,7 +17533,7 @@
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="131" t="s">
+      <c r="A163" s="129" t="s">
         <v>676</v>
       </c>
       <c r="B163" s="40" t="s">
@@ -17562,7 +17586,7 @@
       <c r="G165" s="64" t="s">
         <v>684</v>
       </c>
-      <c r="H165" s="132" t="s">
+      <c r="H165" s="130" t="s">
         <v>685</v>
       </c>
       <c r="I165" s="7"/>
@@ -17589,7 +17613,7 @@
       <c r="G166" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="H166" s="133" t="s">
+      <c r="H166" s="131" t="s">
         <v>689</v>
       </c>
       <c r="I166" s="7"/>
@@ -17643,7 +17667,7 @@
       <c r="G168" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="H168" s="133" t="s">
+      <c r="H168" s="131" t="s">
         <v>697</v>
       </c>
       <c r="I168" s="7"/>
@@ -17728,8 +17752,8 @@
       </c>
       <c r="C172" s="100"/>
       <c r="D172" s="83"/>
-      <c r="E172" s="134"/>
-      <c r="F172" s="135"/>
+      <c r="E172" s="132"/>
+      <c r="F172" s="133"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="7"/>
@@ -17743,18 +17767,18 @@
       <c r="B173" s="57" t="s">
         <v>716</v>
       </c>
-      <c r="C173" s="136" t="s">
+      <c r="C173" s="134" t="s">
         <v>228</v>
       </c>
       <c r="D173" s="85"/>
-      <c r="E173" s="134" t="s">
+      <c r="E173" s="132" t="s">
         <v>717</v>
       </c>
-      <c r="F173" s="135"/>
+      <c r="F173" s="133"/>
       <c r="G173" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="H173" s="137" t="s">
+      <c r="H173" s="34" t="s">
         <v>719</v>
       </c>
       <c r="I173" s="7"/>
@@ -17779,7 +17803,7 @@
       <c r="G174" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H174" s="113" t="s">
+      <c r="H174" s="112" t="s">
         <v>724</v>
       </c>
       <c r="I174" s="7"/>
@@ -17787,7 +17811,7 @@
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="131" t="s">
+      <c r="A175" s="129" t="s">
         <v>725</v>
       </c>
       <c r="B175" s="40" t="s">
@@ -17867,7 +17891,7 @@
       <c r="G178" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="H178" s="138" t="s">
+      <c r="H178" s="135" t="s">
         <v>740</v>
       </c>
       <c r="I178" s="7"/>
@@ -17892,7 +17916,7 @@
       <c r="G179" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="H179" s="138" t="s">
+      <c r="H179" s="135" t="s">
         <v>745</v>
       </c>
       <c r="I179" s="7"/>
@@ -17982,7 +18006,7 @@
       <c r="G183" s="38" t="s">
         <v>762</v>
       </c>
-      <c r="H183" s="139" t="s">
+      <c r="H183" s="38" t="s">
         <v>763</v>
       </c>
       <c r="I183" s="7"/>
@@ -17990,7 +18014,7 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="130" t="s">
+      <c r="A184" s="128" t="s">
         <v>764</v>
       </c>
       <c r="B184" s="36" t="s">
@@ -18015,10 +18039,10 @@
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="140" t="s">
+      <c r="A185" s="136" t="s">
         <v>764</v>
       </c>
-      <c r="B185" s="141" t="s">
+      <c r="B185" s="137" t="s">
         <v>765</v>
       </c>
       <c r="C185" s="95"/>
@@ -18032,7 +18056,7 @@
       <c r="G185" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="H185" s="142" t="s">
+      <c r="H185" s="138" t="s">
         <v>771</v>
       </c>
       <c r="I185" s="7"/>
@@ -18042,15 +18066,15 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="140" t="s">
+      <c r="A186" s="136" t="s">
         <v>764</v>
       </c>
-      <c r="B186" s="141" t="s">
+      <c r="B186" s="137" t="s">
         <v>765</v>
       </c>
       <c r="C186" s="64"/>
       <c r="D186" s="64"/>
-      <c r="E186" s="143" t="s">
+      <c r="E186" s="139" t="s">
         <v>766</v>
       </c>
       <c r="F186" s="38"/>
@@ -18115,7 +18139,7 @@
       <c r="G188" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="H188" s="106" t="s">
+      <c r="H188" s="140" t="s">
         <v>787</v>
       </c>
       <c r="I188" s="7"/>
@@ -18142,7 +18166,7 @@
       <c r="G189" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="H189" s="41" t="s">
+      <c r="H189" s="135" t="s">
         <v>794</v>
       </c>
       <c r="I189" s="7"/>
@@ -18150,16 +18174,16 @@
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="144" t="s">
+      <c r="A190" s="141" t="s">
         <v>788</v>
       </c>
-      <c r="B190" s="145" t="s">
+      <c r="B190" s="142" t="s">
         <v>789</v>
       </c>
-      <c r="C190" s="146" t="s">
+      <c r="C190" s="143" t="s">
         <v>790</v>
       </c>
-      <c r="D190" s="117" t="s">
+      <c r="D190" s="116" t="s">
         <v>791</v>
       </c>
       <c r="E190" s="41" t="s">
@@ -18169,7 +18193,7 @@
       <c r="G190" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="H190" s="41" t="s">
+      <c r="H190" s="135" t="s">
         <v>797</v>
       </c>
       <c r="I190" s="7"/>
@@ -18177,13 +18201,13 @@
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="131" t="s">
+      <c r="A191" s="129" t="s">
         <v>798</v>
       </c>
       <c r="B191" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="C191" s="147" t="s">
+      <c r="C191" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D191" s="64"/>
@@ -18202,7 +18226,7 @@
       <c r="B192" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="C192" s="147" t="s">
+      <c r="C192" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D192" s="64"/>
@@ -18234,7 +18258,7 @@
       <c r="G193" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="H193" s="126" t="s">
+      <c r="H193" s="124" t="s">
         <v>809</v>
       </c>
       <c r="I193" s="7"/>
@@ -18261,7 +18285,7 @@
       <c r="G194" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="H194" s="138" t="s">
+      <c r="H194" s="135" t="s">
         <v>813</v>
       </c>
       <c r="I194" s="7"/>
@@ -18275,7 +18299,7 @@
       <c r="B195" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="C195" s="148" t="s">
+      <c r="C195" s="145" t="s">
         <v>655</v>
       </c>
       <c r="D195" s="64"/>
@@ -18294,13 +18318,13 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="129" t="s">
         <v>819</v>
       </c>
       <c r="B196" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="C196" s="147" t="s">
+      <c r="C196" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D196" s="64"/>
@@ -18347,7 +18371,7 @@
       <c r="G198" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="H198" s="126" t="s">
+      <c r="H198" s="124" t="s">
         <v>824</v>
       </c>
       <c r="I198" s="7"/>
@@ -18374,7 +18398,7 @@
       <c r="G199" s="41" t="s">
         <v>786</v>
       </c>
-      <c r="H199" s="138" t="s">
+      <c r="H199" s="41" t="s">
         <v>830</v>
       </c>
       <c r="I199" s="7"/>
@@ -18388,12 +18412,12 @@
       <c r="B200" s="49" t="s">
         <v>832</v>
       </c>
-      <c r="C200" s="149"/>
-      <c r="D200" s="149"/>
+      <c r="C200" s="146"/>
+      <c r="D200" s="146"/>
       <c r="E200" s="58" t="s">
         <v>792</v>
       </c>
-      <c r="F200" s="150"/>
+      <c r="F200" s="147"/>
       <c r="G200" s="51" t="s">
         <v>833</v>
       </c>
@@ -18495,8 +18519,8 @@
       <c r="B205" s="57" t="s">
         <v>847</v>
       </c>
-      <c r="C205" s="151"/>
-      <c r="D205" s="151"/>
+      <c r="C205" s="148"/>
+      <c r="D205" s="148"/>
       <c r="E205" s="51" t="s">
         <v>848</v>
       </c>
@@ -18587,7 +18611,7 @@
       <c r="B209" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C209" s="152" t="s">
+      <c r="C209" s="149" t="s">
         <v>865</v>
       </c>
       <c r="D209" s="64"/>
@@ -18598,7 +18622,7 @@
       <c r="G209" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="H209" s="126" t="s">
+      <c r="H209" s="124" t="s">
         <v>149</v>
       </c>
       <c r="I209" s="7"/>
@@ -18612,7 +18636,7 @@
       <c r="B210" s="49" t="s">
         <v>868</v>
       </c>
-      <c r="C210" s="147" t="s">
+      <c r="C210" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D210" s="64"/>
@@ -18654,8 +18678,8 @@
       <c r="D212" s="100"/>
       <c r="E212" s="100"/>
       <c r="F212" s="100"/>
-      <c r="G212" s="153"/>
-      <c r="H212" s="153"/>
+      <c r="G212" s="150"/>
+      <c r="H212" s="150"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="90" t="s">
@@ -18702,10 +18726,10 @@
       <c r="D214" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E214" s="154" t="s">
+      <c r="E214" s="151" t="s">
         <v>875</v>
       </c>
-      <c r="F214" s="154"/>
+      <c r="F214" s="151"/>
       <c r="G214" s="47" t="s">
         <v>67</v>
       </c>
@@ -18723,16 +18747,16 @@
       <c r="B215" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="155" t="s">
+      <c r="C215" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="D215" s="155" t="s">
+      <c r="D215" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="E215" s="154" t="s">
+      <c r="E215" s="151" t="s">
         <v>878</v>
       </c>
-      <c r="F215" s="154"/>
+      <c r="F215" s="151"/>
       <c r="G215" s="4" t="s">
         <v>74</v>
       </c>
@@ -18750,16 +18774,16 @@
       <c r="B216" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C216" s="155" t="s">
+      <c r="C216" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="D216" s="155" t="s">
+      <c r="D216" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="E216" s="154" t="s">
+      <c r="E216" s="151" t="s">
         <v>881</v>
       </c>
-      <c r="F216" s="154"/>
+      <c r="F216" s="151"/>
       <c r="G216" s="4" t="s">
         <v>74</v>
       </c>
@@ -18777,10 +18801,10 @@
       <c r="B217" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C217" s="155" t="s">
+      <c r="C217" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="D217" s="155" t="s">
+      <c r="D217" s="152" t="s">
         <v>85</v>
       </c>
       <c r="E217" s="82" t="s">
@@ -18806,20 +18830,20 @@
       <c r="B218" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C218" s="155" t="s">
+      <c r="C218" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="D218" s="155" t="s">
+      <c r="D218" s="152" t="s">
         <v>888</v>
       </c>
-      <c r="E218" s="154" t="s">
+      <c r="E218" s="151" t="s">
         <v>889</v>
       </c>
-      <c r="F218" s="154"/>
+      <c r="F218" s="151"/>
       <c r="G218" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H218" s="41" t="s">
+      <c r="H218" s="135" t="s">
         <v>890</v>
       </c>
       <c r="I218" s="7"/>
@@ -18833,16 +18857,16 @@
       <c r="B219" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C219" s="155" t="s">
+      <c r="C219" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D219" s="155" t="s">
+      <c r="D219" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="E219" s="154" t="s">
+      <c r="E219" s="151" t="s">
         <v>892</v>
       </c>
-      <c r="F219" s="154"/>
+      <c r="F219" s="151"/>
       <c r="G219" s="45" t="s">
         <v>102</v>
       </c>
@@ -18860,16 +18884,16 @@
       <c r="B220" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C220" s="155" t="s">
+      <c r="C220" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="D220" s="155" t="s">
+      <c r="D220" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="E220" s="154" t="s">
+      <c r="E220" s="151" t="s">
         <v>895</v>
       </c>
-      <c r="F220" s="154"/>
+      <c r="F220" s="151"/>
       <c r="G220" s="51" t="s">
         <v>896</v>
       </c>
@@ -18893,14 +18917,14 @@
       <c r="D221" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E221" s="154" t="s">
+      <c r="E221" s="151" t="s">
         <v>899</v>
       </c>
-      <c r="F221" s="154"/>
+      <c r="F221" s="151"/>
       <c r="G221" s="66" t="s">
         <v>900</v>
       </c>
-      <c r="H221" s="66" t="s">
+      <c r="H221" s="153" t="s">
         <v>901</v>
       </c>
       <c r="I221" s="7"/>
@@ -18920,14 +18944,14 @@
       <c r="D222" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E222" s="154" t="s">
+      <c r="E222" s="151" t="s">
         <v>904</v>
       </c>
-      <c r="F222" s="154"/>
+      <c r="F222" s="151"/>
       <c r="G222" s="47" t="s">
         <v>896</v>
       </c>
-      <c r="H222" s="47" t="s">
+      <c r="H222" s="154" t="s">
         <v>905</v>
       </c>
       <c r="I222" s="7"/>
@@ -18947,10 +18971,10 @@
       <c r="D223" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E223" s="154" t="s">
+      <c r="E223" s="151" t="s">
         <v>907</v>
       </c>
-      <c r="F223" s="154"/>
+      <c r="F223" s="151"/>
       <c r="G223" s="51" t="s">
         <v>900</v>
       </c>
@@ -18974,14 +18998,14 @@
       <c r="D224" s="64" t="s">
         <v>912</v>
       </c>
-      <c r="E224" s="154" t="s">
+      <c r="E224" s="151" t="s">
         <v>913</v>
       </c>
       <c r="F224" s="82"/>
       <c r="G224" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="H224" s="156" t="s">
+      <c r="H224" s="155" t="s">
         <v>915</v>
       </c>
       <c r="I224" s="7"/>
@@ -18989,18 +19013,18 @@
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="135"/>
+      <c r="A225" s="133"/>
       <c r="B225" s="7"/>
       <c r="C225" s="64"/>
       <c r="D225" s="64"/>
-      <c r="E225" s="157" t="s">
+      <c r="E225" s="156" t="s">
         <v>913</v>
       </c>
       <c r="F225" s="82"/>
       <c r="G225" s="45" t="s">
         <v>916</v>
       </c>
-      <c r="H225" s="45" t="s">
+      <c r="H225" s="157" t="s">
         <v>917</v>
       </c>
       <c r="I225" s="7"/>
@@ -19014,12 +19038,12 @@
       <c r="B226" s="67" t="s">
         <v>919</v>
       </c>
-      <c r="C226" s="147" t="s">
+      <c r="C226" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D226" s="64"/>
-      <c r="E226" s="155"/>
-      <c r="F226" s="155"/>
+      <c r="E226" s="152"/>
+      <c r="F226" s="152"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -19035,8 +19059,8 @@
       </c>
       <c r="C227" s="100"/>
       <c r="D227" s="100"/>
-      <c r="E227" s="134"/>
-      <c r="F227" s="134"/>
+      <c r="E227" s="132"/>
+      <c r="F227" s="132"/>
       <c r="G227" s="99"/>
       <c r="H227" s="99"/>
       <c r="I227" s="7"/>
@@ -19102,10 +19126,10 @@
         <v>228</v>
       </c>
       <c r="D230" s="64"/>
-      <c r="E230" s="154" t="s">
+      <c r="E230" s="151" t="s">
         <v>927</v>
       </c>
-      <c r="F230" s="154"/>
+      <c r="F230" s="151"/>
       <c r="G230" s="64" t="s">
         <v>928</v>
       </c>
@@ -19129,10 +19153,10 @@
       <c r="D231" s="64" t="s">
         <v>933</v>
       </c>
-      <c r="E231" s="154" t="s">
+      <c r="E231" s="151" t="s">
         <v>934</v>
       </c>
-      <c r="F231" s="154"/>
+      <c r="F231" s="151"/>
       <c r="G231" s="4" t="s">
         <v>935</v>
       </c>
@@ -19154,10 +19178,10 @@
         <v>228</v>
       </c>
       <c r="D232" s="64"/>
-      <c r="E232" s="154" t="s">
+      <c r="E232" s="151" t="s">
         <v>938</v>
       </c>
-      <c r="F232" s="154"/>
+      <c r="F232" s="151"/>
       <c r="G232" s="4" t="s">
         <v>939</v>
       </c>
@@ -19181,10 +19205,10 @@
       <c r="D233" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E233" s="154" t="s">
+      <c r="E233" s="151" t="s">
         <v>942</v>
       </c>
-      <c r="F233" s="154"/>
+      <c r="F233" s="151"/>
       <c r="G233" s="38" t="s">
         <v>943</v>
       </c>
@@ -19206,14 +19230,14 @@
         <v>228</v>
       </c>
       <c r="D234" s="64"/>
-      <c r="E234" s="154" t="s">
+      <c r="E234" s="151" t="s">
         <v>946</v>
       </c>
-      <c r="F234" s="154"/>
+      <c r="F234" s="151"/>
       <c r="G234" s="64" t="s">
         <v>947</v>
       </c>
-      <c r="H234" s="160" t="s">
+      <c r="H234" s="153" t="s">
         <v>948</v>
       </c>
       <c r="I234" s="7"/>
@@ -19233,10 +19257,10 @@
       <c r="D235" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="E235" s="154" t="s">
+      <c r="E235" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="F235" s="154"/>
+      <c r="F235" s="151"/>
       <c r="G235" s="64" t="s">
         <v>943</v>
       </c>
@@ -19258,7 +19282,7 @@
         <v>228</v>
       </c>
       <c r="D236" s="64"/>
-      <c r="E236" s="161" t="s">
+      <c r="E236" s="160" t="s">
         <v>946</v>
       </c>
       <c r="F236" s="66"/>
@@ -19279,7 +19303,7 @@
       <c r="B237" s="67" t="s">
         <v>955</v>
       </c>
-      <c r="C237" s="147" t="s">
+      <c r="C237" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D237" s="64"/>
@@ -19311,7 +19335,7 @@
       <c r="G238" s="66" t="s">
         <v>961</v>
       </c>
-      <c r="H238" s="162" t="s">
+      <c r="H238" s="161" t="s">
         <v>962</v>
       </c>
       <c r="I238" s="7"/>
@@ -19442,10 +19466,10 @@
       <c r="K243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="130" t="s">
+      <c r="A244" s="128" t="s">
         <v>989</v>
       </c>
-      <c r="B244" s="163" t="s">
+      <c r="B244" s="162" t="s">
         <v>990</v>
       </c>
       <c r="C244" s="7"/>
@@ -19467,8 +19491,8 @@
       </c>
       <c r="C245" s="100"/>
       <c r="D245" s="85"/>
-      <c r="E245" s="134"/>
-      <c r="F245" s="155"/>
+      <c r="E245" s="132"/>
+      <c r="F245" s="152"/>
       <c r="G245" s="66"/>
       <c r="H245" s="66"/>
       <c r="I245" s="7"/>
@@ -19486,10 +19510,10 @@
         <v>995</v>
       </c>
       <c r="D246" s="85"/>
-      <c r="E246" s="134" t="s">
+      <c r="E246" s="132" t="s">
         <v>996</v>
       </c>
-      <c r="F246" s="155"/>
+      <c r="F246" s="152"/>
       <c r="G246" s="7" t="s">
         <v>997</v>
       </c>
@@ -19511,10 +19535,10 @@
         <v>1001</v>
       </c>
       <c r="D247" s="85"/>
-      <c r="E247" s="134" t="s">
+      <c r="E247" s="132" t="s">
         <v>1002</v>
       </c>
-      <c r="F247" s="155"/>
+      <c r="F247" s="152"/>
       <c r="G247" s="7" t="s">
         <v>997</v>
       </c>
@@ -19536,10 +19560,10 @@
         <v>1006</v>
       </c>
       <c r="D248" s="85"/>
-      <c r="E248" s="134" t="s">
+      <c r="E248" s="132" t="s">
         <v>1007</v>
       </c>
-      <c r="F248" s="155"/>
+      <c r="F248" s="152"/>
       <c r="G248" s="7" t="s">
         <v>997</v>
       </c>
@@ -19551,7 +19575,7 @@
       <c r="K248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="131" t="s">
+      <c r="A249" s="129" t="s">
         <v>1009</v>
       </c>
       <c r="B249" s="63" t="s">
@@ -19563,14 +19587,14 @@
       <c r="D249" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E249" s="154" t="s">
+      <c r="E249" s="151" t="s">
         <v>1010</v>
       </c>
-      <c r="F249" s="154"/>
-      <c r="G249" s="164" t="s">
+      <c r="F249" s="151"/>
+      <c r="G249" s="163" t="s">
         <v>358</v>
       </c>
-      <c r="H249" s="165" t="s">
+      <c r="H249" s="164" t="s">
         <v>1011</v>
       </c>
       <c r="I249" s="7"/>
@@ -19578,18 +19602,18 @@
       <c r="K249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="131" t="s">
+      <c r="A250" s="129" t="s">
         <v>1012</v>
       </c>
       <c r="B250" s="63" t="s">
         <v>1013</v>
       </c>
-      <c r="C250" s="147" t="s">
+      <c r="C250" s="144" t="s">
         <v>800</v>
       </c>
       <c r="D250" s="7"/>
-      <c r="E250" s="155"/>
-      <c r="F250" s="155"/>
+      <c r="E250" s="152"/>
+      <c r="F250" s="152"/>
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
@@ -19603,7 +19627,7 @@
       <c r="B251" s="67" t="s">
         <v>1015</v>
       </c>
-      <c r="C251" s="166" t="s">
+      <c r="C251" s="165" t="s">
         <v>800</v>
       </c>
       <c r="D251" s="7"/>
@@ -19776,7 +19800,7 @@
       <c r="G257" s="66" t="s">
         <v>896</v>
       </c>
-      <c r="H257" s="160" t="s">
+      <c r="H257" s="153" t="s">
         <v>897</v>
       </c>
       <c r="I257" s="7"/>
@@ -19803,7 +19827,7 @@
       <c r="G258" s="66" t="s">
         <v>900</v>
       </c>
-      <c r="H258" s="160" t="s">
+      <c r="H258" s="153" t="s">
         <v>901</v>
       </c>
       <c r="I258" s="7"/>
@@ -19871,10 +19895,10 @@
       <c r="B261" s="67" t="s">
         <v>1043</v>
       </c>
-      <c r="C261" s="166" t="s">
+      <c r="C261" s="165" t="s">
         <v>800</v>
       </c>
-      <c r="D261" s="167"/>
+      <c r="D261" s="166"/>
       <c r="E261" s="90" t="s">
         <v>1044</v>
       </c>
@@ -19909,7 +19933,7 @@
       <c r="G262" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="H262" s="168" t="s">
+      <c r="H262" s="167" t="s">
         <v>1048</v>
       </c>
       <c r="I262" s="7"/>
@@ -19936,7 +19960,7 @@
       <c r="G263" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="H263" s="168" t="s">
+      <c r="H263" s="167" t="s">
         <v>1051</v>
       </c>
       <c r="I263" s="7"/>
@@ -19990,7 +20014,7 @@
       <c r="G265" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="H265" s="168" t="s">
+      <c r="H265" s="167" t="s">
         <v>1057</v>
       </c>
       <c r="I265" s="7"/>
@@ -20017,7 +20041,7 @@
       <c r="G266" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="H266" s="168" t="s">
+      <c r="H266" s="167" t="s">
         <v>1060</v>
       </c>
       <c r="I266" s="7"/>
@@ -20044,7 +20068,7 @@
       <c r="G267" s="66" t="s">
         <v>896</v>
       </c>
-      <c r="H267" s="160" t="s">
+      <c r="H267" s="66" t="s">
         <v>897</v>
       </c>
       <c r="I267" s="7"/>
@@ -20125,7 +20149,7 @@
       <c r="G270" s="66" t="s">
         <v>900</v>
       </c>
-      <c r="H270" s="160" t="s">
+      <c r="H270" s="66" t="s">
         <v>908</v>
       </c>
       <c r="I270" s="7"/>
@@ -20149,10 +20173,10 @@
         <v>1074</v>
       </c>
       <c r="F271" s="66"/>
-      <c r="G271" s="164" t="s">
+      <c r="G271" s="163" t="s">
         <v>1075</v>
       </c>
-      <c r="H271" s="169" t="s">
+      <c r="H271" s="164" t="s">
         <v>1076</v>
       </c>
       <c r="I271" s="7"/>
@@ -20202,7 +20226,7 @@
       <c r="G273" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="H273" s="168" t="s">
+      <c r="H273" s="90" t="s">
         <v>1082</v>
       </c>
       <c r="I273" s="7"/>
@@ -20229,7 +20253,7 @@
       <c r="G274" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="H274" s="168" t="s">
+      <c r="H274" s="167" t="s">
         <v>1085</v>
       </c>
       <c r="I274" s="7"/>
@@ -20256,7 +20280,7 @@
       <c r="G275" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="H275" s="168" t="s">
+      <c r="H275" s="167" t="s">
         <v>1088</v>
       </c>
       <c r="I275" s="7"/>
@@ -20283,7 +20307,7 @@
       <c r="G276" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="H276" s="168" t="s">
+      <c r="H276" s="167" t="s">
         <v>1091</v>
       </c>
       <c r="I276" s="7"/>
@@ -20310,7 +20334,7 @@
       <c r="G277" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="H277" s="160" t="s">
+      <c r="H277" s="153" t="s">
         <v>1094</v>
       </c>
       <c r="I277" s="7"/>
@@ -20364,7 +20388,7 @@
       <c r="G279" s="66" t="s">
         <v>900</v>
       </c>
-      <c r="H279" s="160" t="s">
+      <c r="H279" s="153" t="s">
         <v>901</v>
       </c>
       <c r="I279" s="7"/>
@@ -20391,7 +20415,7 @@
       <c r="G280" s="62" t="s">
         <v>896</v>
       </c>
-      <c r="H280" s="170" t="s">
+      <c r="H280" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="I280" s="7"/>
@@ -20418,7 +20442,7 @@
       <c r="G281" s="66" t="s">
         <v>900</v>
       </c>
-      <c r="H281" s="160" t="s">
+      <c r="H281" s="66" t="s">
         <v>908</v>
       </c>
       <c r="I281" s="7"/>
@@ -20426,26 +20450,26 @@
       <c r="K281" s="7"/>
     </row>
     <row r="282">
-      <c r="A282" s="131" t="s">
+      <c r="A282" s="129" t="s">
         <v>1104</v>
       </c>
       <c r="B282" s="63" t="s">
         <v>1105</v>
       </c>
-      <c r="C282" s="171" t="s">
+      <c r="C282" s="168" t="s">
         <v>1106</v>
       </c>
-      <c r="D282" s="171" t="s">
+      <c r="D282" s="168" t="s">
         <v>1107</v>
       </c>
-      <c r="E282" s="172" t="s">
+      <c r="E282" s="169" t="s">
         <v>1108</v>
       </c>
-      <c r="F282" s="172"/>
+      <c r="F282" s="169"/>
       <c r="G282" s="90" t="s">
         <v>1109</v>
       </c>
-      <c r="H282" s="173" t="s">
+      <c r="H282" s="170" t="s">
         <v>1110</v>
       </c>
       <c r="I282" s="7"/>
@@ -20453,7 +20477,7 @@
       <c r="K282" s="7"/>
     </row>
     <row r="283">
-      <c r="A283" s="174" t="s">
+      <c r="A283" s="171" t="s">
         <v>1111</v>
       </c>
       <c r="B283" s="100" t="s">
@@ -20470,17 +20494,17 @@
       <c r="K283" s="7"/>
     </row>
     <row r="284">
-      <c r="A284" s="174" t="s">
+      <c r="A284" s="171" t="s">
         <v>1113</v>
       </c>
       <c r="B284" s="100" t="s">
         <v>1114</v>
       </c>
-      <c r="C284" s="175" t="s">
+      <c r="C284" s="172" t="s">
         <v>800</v>
       </c>
       <c r="D284" s="100"/>
-      <c r="E284" s="161" t="s">
+      <c r="E284" s="160" t="s">
         <v>1115</v>
       </c>
       <c r="F284" s="100"/>
@@ -20491,7 +20515,7 @@
       <c r="K284" s="7"/>
     </row>
     <row r="285">
-      <c r="A285" s="174" t="s">
+      <c r="A285" s="171" t="s">
         <v>1116</v>
       </c>
       <c r="B285" s="100" t="s">
@@ -20510,7 +20534,7 @@
       <c r="G285" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H285" s="176" t="s">
+      <c r="H285" s="173" t="s">
         <v>1122</v>
       </c>
       <c r="I285" s="7"/>
@@ -20518,7 +20542,7 @@
       <c r="K285" s="7"/>
     </row>
     <row r="286">
-      <c r="A286" s="174" t="s">
+      <c r="A286" s="171" t="s">
         <v>1123</v>
       </c>
       <c r="B286" s="100" t="s">
@@ -20537,7 +20561,7 @@
       <c r="G286" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H286" s="176" t="s">
+      <c r="H286" s="173" t="s">
         <v>1126</v>
       </c>
       <c r="I286" s="7"/>
@@ -20545,7 +20569,7 @@
       <c r="K286" s="7"/>
     </row>
     <row r="287">
-      <c r="A287" s="174" t="s">
+      <c r="A287" s="171" t="s">
         <v>1127</v>
       </c>
       <c r="B287" s="100" t="s">
@@ -20562,7 +20586,7 @@
       <c r="K287" s="7"/>
     </row>
     <row r="288">
-      <c r="A288" s="174" t="s">
+      <c r="A288" s="171" t="s">
         <v>1129</v>
       </c>
       <c r="B288" s="100" t="s">
@@ -20574,14 +20598,14 @@
       <c r="D288" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E288" s="161" t="s">
+      <c r="E288" s="160" t="s">
         <v>1131</v>
       </c>
       <c r="F288" s="100"/>
       <c r="G288" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H288" s="176" t="s">
+      <c r="H288" s="173" t="s">
         <v>1132</v>
       </c>
       <c r="I288" s="7"/>
@@ -20589,7 +20613,7 @@
       <c r="K288" s="7"/>
     </row>
     <row r="289">
-      <c r="A289" s="174" t="s">
+      <c r="A289" s="171" t="s">
         <v>1133</v>
       </c>
       <c r="B289" s="100" t="s">
@@ -20601,14 +20625,14 @@
       <c r="D289" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E289" s="161" t="s">
+      <c r="E289" s="160" t="s">
         <v>1135</v>
       </c>
       <c r="F289" s="100"/>
       <c r="G289" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H289" s="176" t="s">
+      <c r="H289" s="173" t="s">
         <v>1136</v>
       </c>
       <c r="I289" s="7"/>
@@ -20616,7 +20640,7 @@
       <c r="K289" s="7"/>
     </row>
     <row r="290">
-      <c r="A290" s="174" t="s">
+      <c r="A290" s="171" t="s">
         <v>1137</v>
       </c>
       <c r="B290" s="100" t="s">
@@ -20628,14 +20652,14 @@
       <c r="D290" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E290" s="161" t="s">
+      <c r="E290" s="160" t="s">
         <v>1139</v>
       </c>
       <c r="F290" s="100"/>
       <c r="G290" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H290" s="176" t="s">
+      <c r="H290" s="173" t="s">
         <v>1140</v>
       </c>
       <c r="I290" s="7"/>
@@ -20643,26 +20667,26 @@
       <c r="K290" s="7"/>
     </row>
     <row r="291">
-      <c r="A291" s="174" t="s">
+      <c r="A291" s="171" t="s">
         <v>1141</v>
       </c>
       <c r="B291" s="100" t="s">
         <v>1142</v>
       </c>
-      <c r="C291" s="175" t="s">
+      <c r="C291" s="172" t="s">
         <v>1118</v>
       </c>
       <c r="D291" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E291" s="161" t="s">
+      <c r="E291" s="160" t="s">
         <v>1143</v>
       </c>
       <c r="F291" s="100"/>
       <c r="G291" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H291" s="176" t="s">
+      <c r="H291" s="173" t="s">
         <v>1144</v>
       </c>
       <c r="I291" s="7"/>
@@ -20670,26 +20694,26 @@
       <c r="K291" s="7"/>
     </row>
     <row r="292">
-      <c r="A292" s="174" t="s">
+      <c r="A292" s="171" t="s">
         <v>1145</v>
       </c>
       <c r="B292" s="100" t="s">
         <v>1146</v>
       </c>
-      <c r="C292" s="175" t="s">
+      <c r="C292" s="172" t="s">
         <v>1118</v>
       </c>
       <c r="D292" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E292" s="161" t="s">
+      <c r="E292" s="160" t="s">
         <v>1147</v>
       </c>
       <c r="F292" s="100"/>
       <c r="G292" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H292" s="176" t="s">
+      <c r="H292" s="173" t="s">
         <v>1148</v>
       </c>
       <c r="I292" s="7"/>
@@ -20697,13 +20721,13 @@
       <c r="K292" s="7"/>
     </row>
     <row r="293">
-      <c r="A293" s="174" t="s">
+      <c r="A293" s="171" t="s">
         <v>1149</v>
       </c>
       <c r="B293" s="100" t="s">
         <v>1150</v>
       </c>
-      <c r="C293" s="175" t="s">
+      <c r="C293" s="172" t="s">
         <v>800</v>
       </c>
       <c r="D293" s="100"/>
@@ -20716,7 +20740,7 @@
       <c r="K293" s="7"/>
     </row>
     <row r="294">
-      <c r="A294" s="174" t="s">
+      <c r="A294" s="171" t="s">
         <v>1151</v>
       </c>
       <c r="B294" s="100" t="s">
@@ -20728,14 +20752,14 @@
       <c r="D294" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E294" s="161" t="s">
+      <c r="E294" s="160" t="s">
         <v>1153</v>
       </c>
       <c r="F294" s="100"/>
       <c r="G294" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H294" s="176" t="s">
+      <c r="H294" s="173" t="s">
         <v>1154</v>
       </c>
       <c r="I294" s="7"/>
@@ -20743,7 +20767,7 @@
       <c r="K294" s="7"/>
     </row>
     <row r="295">
-      <c r="A295" s="174" t="s">
+      <c r="A295" s="171" t="s">
         <v>1155</v>
       </c>
       <c r="B295" s="100" t="s">
@@ -20755,14 +20779,14 @@
       <c r="D295" s="100" t="s">
         <v>1119</v>
       </c>
-      <c r="E295" s="161" t="s">
+      <c r="E295" s="160" t="s">
         <v>1157</v>
       </c>
       <c r="F295" s="100"/>
       <c r="G295" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H295" s="176" t="s">
+      <c r="H295" s="173" t="s">
         <v>1158</v>
       </c>
       <c r="I295" s="7"/>
@@ -20770,7 +20794,7 @@
       <c r="K295" s="7"/>
     </row>
     <row r="296">
-      <c r="A296" s="174" t="s">
+      <c r="A296" s="171" t="s">
         <v>1159</v>
       </c>
       <c r="B296" s="100" t="s">
@@ -20789,7 +20813,7 @@
       <c r="G296" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H296" s="176" t="s">
+      <c r="H296" s="173" t="s">
         <v>1162</v>
       </c>
       <c r="I296" s="7"/>
@@ -20797,7 +20821,7 @@
       <c r="K296" s="7"/>
     </row>
     <row r="297">
-      <c r="A297" s="174" t="s">
+      <c r="A297" s="171" t="s">
         <v>1163</v>
       </c>
       <c r="B297" s="100" t="s">
@@ -20814,24 +20838,24 @@
       <c r="K297" s="7"/>
     </row>
     <row r="298">
-      <c r="A298" s="174" t="s">
+      <c r="A298" s="171" t="s">
         <v>1165</v>
       </c>
       <c r="B298" s="100" t="s">
         <v>1166</v>
       </c>
-      <c r="C298" s="177" t="s">
+      <c r="C298" s="174" t="s">
         <v>655</v>
       </c>
       <c r="D298" s="100"/>
-      <c r="E298" s="161" t="s">
+      <c r="E298" s="160" t="s">
         <v>1167</v>
       </c>
       <c r="F298" s="100"/>
       <c r="G298" s="100" t="s">
         <v>1121</v>
       </c>
-      <c r="H298" s="176" t="s">
+      <c r="H298" s="173" t="s">
         <v>1168</v>
       </c>
       <c r="I298" s="7"/>
@@ -20839,7 +20863,7 @@
       <c r="K298" s="7"/>
     </row>
     <row r="299">
-      <c r="A299" s="174" t="s">
+      <c r="A299" s="171" t="s">
         <v>1169</v>
       </c>
       <c r="B299" s="100" t="s">
@@ -20856,19 +20880,19 @@
       <c r="K299" s="7"/>
     </row>
     <row r="300">
-      <c r="A300" s="174" t="s">
+      <c r="A300" s="171" t="s">
         <v>1171</v>
       </c>
       <c r="B300" s="100" t="s">
         <v>1172</v>
       </c>
-      <c r="C300" s="175" t="s">
+      <c r="C300" s="172" t="s">
         <v>1173</v>
       </c>
       <c r="D300" s="100" t="s">
         <v>1174</v>
       </c>
-      <c r="E300" s="178" t="s">
+      <c r="E300" s="175" t="s">
         <v>1175</v>
       </c>
       <c r="F300" s="100"/>
@@ -20913,59 +20937,55 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="H133"/>
-    <hyperlink r:id="rId3" ref="H134"/>
-    <hyperlink r:id="rId4" ref="H140"/>
-    <hyperlink r:id="rId5" ref="H148"/>
-    <hyperlink r:id="rId6" ref="H149"/>
-    <hyperlink r:id="rId7" ref="H150"/>
-    <hyperlink r:id="rId8" ref="H152"/>
-    <hyperlink r:id="rId9" ref="H165"/>
-    <hyperlink r:id="rId10" ref="H166"/>
-    <hyperlink r:id="rId11" ref="H168"/>
-    <hyperlink r:id="rId12" ref="H173"/>
-    <hyperlink r:id="rId13" ref="H174"/>
-    <hyperlink r:id="rId14" ref="H178"/>
-    <hyperlink r:id="rId15" ref="H179"/>
-    <hyperlink r:id="rId16" ref="H183"/>
-    <hyperlink r:id="rId17" ref="H193"/>
-    <hyperlink r:id="rId18" ref="H194"/>
-    <hyperlink r:id="rId19" ref="H198"/>
-    <hyperlink r:id="rId20" ref="H199"/>
-    <hyperlink r:id="rId21" ref="H209"/>
-    <hyperlink r:id="rId22" ref="H224"/>
-    <hyperlink r:id="rId23" ref="H234"/>
-    <hyperlink r:id="rId24" ref="H257"/>
-    <hyperlink r:id="rId25" ref="H258"/>
-    <hyperlink r:id="rId26" ref="H262"/>
-    <hyperlink r:id="rId27" ref="H263"/>
-    <hyperlink r:id="rId28" ref="H265"/>
-    <hyperlink r:id="rId29" ref="H266"/>
-    <hyperlink r:id="rId30" ref="H267"/>
-    <hyperlink r:id="rId31" ref="H270"/>
-    <hyperlink r:id="rId32" ref="H271"/>
-    <hyperlink r:id="rId33" ref="H273"/>
-    <hyperlink r:id="rId34" ref="H274"/>
-    <hyperlink r:id="rId35" ref="H275"/>
-    <hyperlink r:id="rId36" ref="H276"/>
-    <hyperlink r:id="rId37" ref="H277"/>
-    <hyperlink r:id="rId38" ref="H279"/>
-    <hyperlink r:id="rId39" ref="H280"/>
-    <hyperlink r:id="rId40" ref="H281"/>
-    <hyperlink r:id="rId41" ref="H285"/>
-    <hyperlink r:id="rId42" ref="H286"/>
-    <hyperlink r:id="rId43" ref="H288"/>
-    <hyperlink r:id="rId44" ref="H289"/>
-    <hyperlink r:id="rId45" ref="H290"/>
-    <hyperlink r:id="rId46" ref="H291"/>
-    <hyperlink r:id="rId47" ref="H292"/>
-    <hyperlink r:id="rId48" ref="H294"/>
-    <hyperlink r:id="rId49" ref="H295"/>
-    <hyperlink r:id="rId50" ref="H296"/>
-    <hyperlink r:id="rId51" ref="H298"/>
+    <hyperlink r:id="rId2" ref="H134"/>
+    <hyperlink r:id="rId3" ref="H148"/>
+    <hyperlink r:id="rId4" ref="H149"/>
+    <hyperlink r:id="rId5" ref="H150"/>
+    <hyperlink r:id="rId6" ref="H152"/>
+    <hyperlink r:id="rId7" ref="H165"/>
+    <hyperlink r:id="rId8" ref="H166"/>
+    <hyperlink r:id="rId9" ref="H168"/>
+    <hyperlink r:id="rId10" ref="H174"/>
+    <hyperlink r:id="rId11" ref="H178"/>
+    <hyperlink r:id="rId12" ref="H179"/>
+    <hyperlink r:id="rId13" ref="H188"/>
+    <hyperlink r:id="rId14" ref="H189"/>
+    <hyperlink r:id="rId15" ref="H190"/>
+    <hyperlink r:id="rId16" ref="H193"/>
+    <hyperlink r:id="rId17" ref="H194"/>
+    <hyperlink r:id="rId18" ref="H198"/>
+    <hyperlink r:id="rId19" ref="H209"/>
+    <hyperlink r:id="rId20" ref="H218"/>
+    <hyperlink r:id="rId21" ref="H221"/>
+    <hyperlink r:id="rId22" ref="H222"/>
+    <hyperlink r:id="rId23" ref="H224"/>
+    <hyperlink r:id="rId24" ref="H225"/>
+    <hyperlink r:id="rId25" ref="H234"/>
+    <hyperlink r:id="rId26" ref="H257"/>
+    <hyperlink r:id="rId27" ref="H258"/>
+    <hyperlink r:id="rId28" ref="H262"/>
+    <hyperlink r:id="rId29" ref="H263"/>
+    <hyperlink r:id="rId30" ref="H265"/>
+    <hyperlink r:id="rId31" ref="H266"/>
+    <hyperlink r:id="rId32" ref="H274"/>
+    <hyperlink r:id="rId33" ref="H275"/>
+    <hyperlink r:id="rId34" ref="H276"/>
+    <hyperlink r:id="rId35" ref="H277"/>
+    <hyperlink r:id="rId36" ref="H279"/>
+    <hyperlink r:id="rId37" ref="H285"/>
+    <hyperlink r:id="rId38" ref="H286"/>
+    <hyperlink r:id="rId39" ref="H288"/>
+    <hyperlink r:id="rId40" ref="H289"/>
+    <hyperlink r:id="rId41" ref="H290"/>
+    <hyperlink r:id="rId42" ref="H291"/>
+    <hyperlink r:id="rId43" ref="H292"/>
+    <hyperlink r:id="rId44" ref="H294"/>
+    <hyperlink r:id="rId45" ref="H295"/>
+    <hyperlink r:id="rId46" ref="H296"/>
+    <hyperlink r:id="rId47" ref="H298"/>
   </hyperlinks>
-  <drawing r:id="rId52"/>
-  <legacyDrawing r:id="rId53"/>
+  <drawing r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -20987,27 +21007,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="177" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="133" t="s">
         <v>411</v>
       </c>
       <c r="B2" s="90" t="s">
@@ -21025,7 +21045,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>411</v>
       </c>
       <c r="B3" s="90" t="s">
@@ -21043,7 +21063,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="133" t="s">
         <v>1183</v>
       </c>
       <c r="B4" s="90" t="s">
@@ -21089,7 +21109,7 @@
       <c r="B6" s="90" t="s">
         <v>864</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="178" t="s">
         <v>865</v>
       </c>
       <c r="D6" s="7"/>
@@ -21140,7 +21160,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="179" t="s">
         <v>1194</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -21148,7 +21168,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="180" t="s">
         <v>1196</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -21156,12 +21176,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="181" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="182" t="s">
         <v>1199</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -21180,53 +21200,53 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="182" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="182" t="s">
         <v>1203</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="183" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="184" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="188"/>
-      <c r="B13" s="189" t="s">
+      <c r="A13" s="185"/>
+      <c r="B13" s="186" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="187" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="188" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="189" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="185"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="182" t="s">
         <v>1210</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="190" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -21237,10 +21257,10 @@
       <c r="B19" s="84"/>
     </row>
     <row r="21">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="182" t="s">
         <v>1213</v>
       </c>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="191" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -21266,57 +21286,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="182" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="192" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="193" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="192" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="193" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="193" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="193" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="192" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="193" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="193" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="193" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -21345,12 +21365,12 @@
       <c r="A1" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="194" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="193" t="s">
         <v>1227</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -21358,47 +21378,47 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="193" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="193" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="193" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="193" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="193" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="193" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="193" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="193" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="195" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -21418,7 +21438,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="186"/>
+      <c r="A1" s="183"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21442,12 +21462,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="196" t="s">
         <v>1238</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="197" t="s">
         <v>1239</v>
       </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -21462,12 +21504,34 @@
       <c r="D2" s="2" t="s">
         <v>1243</v>
       </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>1244</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>1245</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -21477,21 +21541,65 @@
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>1247</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>1245</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>ADDRESS_CONTRACTING_BODY_ADDITIONAL</v>
       </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
@@ -21504,6 +21612,28 @@
         <v>1246</v>
       </c>
       <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -21515,9 +21645,31 @@
       <c r="C6" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="7" t="s">
         <v>1252</v>
       </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -21529,9 +21681,31 @@
       <c r="C7" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="198" t="s">
         <v>1255</v>
       </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -21546,12 +21720,34 @@
       <c r="D8" s="7" t="s">
         <v>1258</v>
       </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="90" t="s">
         <v>1259</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="7" t="s">
         <v>1260</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -21560,6 +21756,208 @@
       <c r="D9" s="7" t="s">
         <v>1261</v>
       </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="90" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="90" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="90" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="199" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C13" s="200" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="200"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="199" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14" s="199" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C14" s="200" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21587,10 +21985,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="196" t="s">
         <v>1238</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="197" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -21604,42 +22002,42 @@
       <c r="C2" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="194" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="C5" s="201" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1286">
+  <si>
+    <t>Field</t>
+  </si>
   <si>
     <t>Value examples</t>
   </si>
@@ -9715,76 +9718,78 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -9796,62 +9801,62 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -12811,7 +12816,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -12819,7 +12824,7 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
@@ -12843,37 +12848,37 @@
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
@@ -12893,20 +12898,20 @@
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -12921,10 +12926,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -12945,22 +12950,22 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -12975,26 +12980,26 @@
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -13009,26 +13014,26 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -13043,26 +13048,26 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13077,26 +13082,26 @@
     </row>
     <row r="9">
       <c r="A9" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -13111,28 +13116,28 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -13147,26 +13152,26 @@
     </row>
     <row r="11">
       <c r="A11" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -13181,26 +13186,26 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -13215,26 +13220,26 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -13249,26 +13254,26 @@
     </row>
     <row r="14">
       <c r="A14" s="49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -13283,26 +13288,26 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -13317,26 +13322,26 @@
     </row>
     <row r="16">
       <c r="A16" s="49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -13351,10 +13356,10 @@
     </row>
     <row r="17">
       <c r="A17" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -13375,26 +13380,26 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -13409,26 +13414,26 @@
     </row>
     <row r="19">
       <c r="A19" s="55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -13443,10 +13448,10 @@
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -13467,20 +13472,20 @@
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -13495,22 +13500,22 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -13525,26 +13530,26 @@
     </row>
     <row r="23">
       <c r="A23" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
@@ -13567,26 +13572,26 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="46"/>
       <c r="G24" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -13609,26 +13614,26 @@
     </row>
     <row r="25">
       <c r="A25" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -13643,26 +13648,26 @@
     </row>
     <row r="26">
       <c r="A26" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -13677,28 +13682,28 @@
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -13713,26 +13718,26 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -13747,26 +13752,26 @@
     </row>
     <row r="29">
       <c r="A29" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -13789,26 +13794,26 @@
     </row>
     <row r="30">
       <c r="A30" s="49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -13823,26 +13828,26 @@
     </row>
     <row r="31">
       <c r="A31" s="49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -13857,26 +13862,26 @@
     </row>
     <row r="32">
       <c r="A32" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -13891,26 +13896,26 @@
     </row>
     <row r="33">
       <c r="A33" s="49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -13925,10 +13930,10 @@
     </row>
     <row r="34">
       <c r="A34" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -13949,26 +13954,26 @@
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -13991,26 +13996,26 @@
     </row>
     <row r="36">
       <c r="A36" s="55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -14025,10 +14030,10 @@
     </row>
     <row r="37">
       <c r="A37" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -14049,22 +14054,22 @@
     </row>
     <row r="38">
       <c r="A38" s="47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -14079,26 +14084,26 @@
     </row>
     <row r="39">
       <c r="A39" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -14113,22 +14118,22 @@
     </row>
     <row r="40">
       <c r="A40" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -14151,24 +14156,24 @@
     </row>
     <row r="41">
       <c r="A41" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -14183,24 +14188,24 @@
     </row>
     <row r="42">
       <c r="A42" s="47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D42" s="65"/>
       <c r="E42" s="50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -14215,26 +14220,26 @@
     </row>
     <row r="43">
       <c r="A43" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -14249,24 +14254,24 @@
     </row>
     <row r="44">
       <c r="A44" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F44" s="65"/>
       <c r="G44" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -14281,26 +14286,26 @@
     </row>
     <row r="45">
       <c r="A45" s="55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -14315,10 +14320,10 @@
     </row>
     <row r="46">
       <c r="A46" s="47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="65"/>
@@ -14339,24 +14344,24 @@
     </row>
     <row r="47">
       <c r="A47" s="55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -14371,24 +14376,24 @@
     </row>
     <row r="48">
       <c r="A48" s="68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B48" s="69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -14403,24 +14408,24 @@
     </row>
     <row r="49">
       <c r="A49" s="55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H49" s="74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -14443,26 +14448,26 @@
     </row>
     <row r="50">
       <c r="A50" s="75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H50" s="77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -14477,26 +14482,26 @@
     </row>
     <row r="51">
       <c r="A51" s="75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H51" s="77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -14511,26 +14516,26 @@
     </row>
     <row r="52">
       <c r="A52" s="75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" s="77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -14545,26 +14550,26 @@
     </row>
     <row r="53">
       <c r="A53" s="75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H53" s="77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -14579,28 +14584,28 @@
     </row>
     <row r="54">
       <c r="A54" s="75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G54" s="73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" s="77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -14615,26 +14620,26 @@
     </row>
     <row r="55">
       <c r="A55" s="75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H55" s="77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -14649,26 +14654,26 @@
     </row>
     <row r="56">
       <c r="A56" s="75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" s="77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -14683,26 +14688,26 @@
     </row>
     <row r="57">
       <c r="A57" s="75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" s="77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -14717,26 +14722,26 @@
     </row>
     <row r="58">
       <c r="A58" s="75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H58" s="77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -14751,26 +14756,26 @@
     </row>
     <row r="59">
       <c r="A59" s="75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H59" s="77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -14785,26 +14790,26 @@
     </row>
     <row r="60">
       <c r="A60" s="75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H60" s="77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -14819,10 +14824,10 @@
     </row>
     <row r="61">
       <c r="A61" s="75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -14843,26 +14848,26 @@
     </row>
     <row r="62">
       <c r="A62" s="78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62" s="79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F62" s="44"/>
       <c r="G62" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H62" s="80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I62" s="58"/>
       <c r="J62" s="58"/>
@@ -14877,26 +14882,26 @@
     </row>
     <row r="63">
       <c r="A63" s="81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -14911,10 +14916,10 @@
     </row>
     <row r="64">
       <c r="A64" s="47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -14935,24 +14940,24 @@
     </row>
     <row r="65">
       <c r="A65" s="55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C65" s="82" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D65" s="83"/>
       <c r="E65" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F65" s="41"/>
       <c r="G65" s="41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -14967,24 +14972,24 @@
     </row>
     <row r="66">
       <c r="A66" s="55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C66" s="84" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D66" s="83"/>
       <c r="E66" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F66" s="41"/>
       <c r="G66" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -14999,27 +15004,27 @@
     </row>
     <row r="67">
       <c r="A67" s="85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" s="86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F67" s="41"/>
       <c r="G67" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -15031,24 +15036,24 @@
     </row>
     <row r="68">
       <c r="A68" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D68" s="90"/>
       <c r="E68" s="41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F68" s="41"/>
       <c r="G68" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -15063,26 +15068,26 @@
     </row>
     <row r="69">
       <c r="A69" s="75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" s="41"/>
       <c r="G69" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -15097,26 +15102,26 @@
     </row>
     <row r="70">
       <c r="A70" s="75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F70" s="41"/>
       <c r="G70" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -15131,26 +15136,26 @@
     </row>
     <row r="71">
       <c r="A71" s="75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -15165,26 +15170,26 @@
     </row>
     <row r="72">
       <c r="A72" s="75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F72" s="67"/>
       <c r="G72" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -15199,28 +15204,28 @@
     </row>
     <row r="73">
       <c r="A73" s="75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D73" s="56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -15235,26 +15240,26 @@
     </row>
     <row r="74">
       <c r="A74" s="75" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" s="56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -15269,26 +15274,26 @@
     </row>
     <row r="75">
       <c r="A75" s="75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D75" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E75" s="67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F75" s="67"/>
       <c r="G75" s="67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H75" s="67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -15303,26 +15308,26 @@
     </row>
     <row r="76">
       <c r="A76" s="75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -15337,26 +15342,26 @@
     </row>
     <row r="77">
       <c r="A77" s="75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F77" s="41"/>
       <c r="G77" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -15371,26 +15376,26 @@
     </row>
     <row r="78">
       <c r="A78" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C78" s="82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78" s="67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F78" s="67"/>
       <c r="G78" s="67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H78" s="67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -15405,26 +15410,26 @@
     </row>
     <row r="79">
       <c r="A79" s="75" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -15439,10 +15444,10 @@
     </row>
     <row r="80">
       <c r="A80" s="75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C80" s="82"/>
       <c r="D80" s="90"/>
@@ -15463,26 +15468,26 @@
     </row>
     <row r="81">
       <c r="A81" s="81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -15497,26 +15502,26 @@
     </row>
     <row r="82">
       <c r="A82" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F82" s="41"/>
       <c r="G82" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -15531,24 +15536,24 @@
     </row>
     <row r="83">
       <c r="A83" s="47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F83" s="50"/>
       <c r="G83" s="50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -15563,26 +15568,26 @@
     </row>
     <row r="84">
       <c r="A84" s="38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E84" s="92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -15597,20 +15602,20 @@
     </row>
     <row r="85">
       <c r="A85" s="47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B85" s="93"/>
       <c r="C85" s="67"/>
       <c r="D85" s="67"/>
       <c r="E85" s="41" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F85" s="67"/>
       <c r="G85" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -15625,10 +15630,10 @@
     </row>
     <row r="86">
       <c r="A86" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B86" s="94" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -15649,10 +15654,10 @@
     </row>
     <row r="87">
       <c r="A87" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -15673,32 +15678,32 @@
     </row>
     <row r="88">
       <c r="A88" s="47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="29"/>
@@ -15711,26 +15716,26 @@
     </row>
     <row r="89">
       <c r="A89" s="52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D89" s="46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E89" s="46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F89" s="46"/>
       <c r="G89" s="46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H89" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I89" s="58"/>
       <c r="J89" s="58"/>
@@ -15745,26 +15750,26 @@
     </row>
     <row r="90">
       <c r="A90" s="49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -15779,26 +15784,26 @@
     </row>
     <row r="91">
       <c r="A91" s="55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -15813,26 +15818,26 @@
     </row>
     <row r="92">
       <c r="A92" s="47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -15847,26 +15852,26 @@
     </row>
     <row r="93">
       <c r="A93" s="47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F93" s="63"/>
       <c r="G93" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -15881,10 +15886,10 @@
     </row>
     <row r="94">
       <c r="A94" s="49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C94" s="95"/>
       <c r="D94" s="95"/>
@@ -15905,26 +15910,26 @@
     </row>
     <row r="95">
       <c r="A95" s="96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C95" s="95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D95" s="95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E95" s="92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F95" s="92"/>
       <c r="G95" s="95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H95" s="95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -15939,22 +15944,22 @@
     </row>
     <row r="96">
       <c r="A96" s="96" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C96" s="95"/>
       <c r="D96" s="95"/>
       <c r="E96" s="92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F96" s="92"/>
       <c r="G96" s="95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H96" s="92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -15969,10 +15974,10 @@
     </row>
     <row r="97">
       <c r="A97" s="96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C97" s="97"/>
       <c r="D97" s="97"/>
@@ -15986,10 +15991,10 @@
     </row>
     <row r="98">
       <c r="A98" s="47" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -16003,10 +16008,10 @@
     </row>
     <row r="99">
       <c r="A99" s="55" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B99" s="56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -16020,24 +16025,24 @@
     </row>
     <row r="100">
       <c r="A100" s="75" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E100" s="99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -16045,24 +16050,24 @@
     </row>
     <row r="101">
       <c r="A101" s="75" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B101" s="76" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -16070,24 +16075,24 @@
     </row>
     <row r="102">
       <c r="A102" s="75" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B102" s="76" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -16095,24 +16100,24 @@
     </row>
     <row r="103">
       <c r="A103" s="55" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B103" s="56" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -16120,24 +16125,24 @@
     </row>
     <row r="104">
       <c r="A104" s="55" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B104" s="56" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -16145,22 +16150,22 @@
     </row>
     <row r="105">
       <c r="A105" s="47" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="37" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H105" s="37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -16168,10 +16173,10 @@
     </row>
     <row r="106">
       <c r="A106" s="55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B106" s="56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C106" s="97"/>
       <c r="D106" s="97"/>
@@ -16182,31 +16187,31 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B107" s="56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -16214,26 +16219,26 @@
     </row>
     <row r="108">
       <c r="A108" s="55" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B108" s="56" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H108" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -16241,26 +16246,26 @@
     </row>
     <row r="109">
       <c r="A109" s="55" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -16268,22 +16273,22 @@
     </row>
     <row r="110">
       <c r="A110" s="55" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B110" s="56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="37" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H110" s="101" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -16291,22 +16296,22 @@
     </row>
     <row r="111">
       <c r="A111" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -16314,22 +16319,22 @@
     </row>
     <row r="112">
       <c r="A112" s="102" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B112" s="103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="41" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H112" s="41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -16337,26 +16342,26 @@
     </row>
     <row r="113">
       <c r="A113" s="47" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E113" s="50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F113" s="65"/>
       <c r="G113" s="37" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H113" s="50" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
@@ -16364,26 +16369,26 @@
     </row>
     <row r="114">
       <c r="A114" s="55" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B114" s="56" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D114" s="50" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E114" s="50" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F114" s="50"/>
       <c r="G114" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H114" s="50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -16391,10 +16396,10 @@
     </row>
     <row r="115">
       <c r="A115" s="47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -16408,26 +16413,26 @@
     </row>
     <row r="116">
       <c r="A116" s="55" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B116" s="56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -16435,26 +16440,26 @@
     </row>
     <row r="117">
       <c r="A117" s="55" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B117" s="56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -16462,10 +16467,10 @@
     </row>
     <row r="118">
       <c r="A118" s="47" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -16479,28 +16484,28 @@
     </row>
     <row r="119">
       <c r="A119" s="55" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B119" s="56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G119" s="63" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H119" s="101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -16508,26 +16513,26 @@
     </row>
     <row r="120">
       <c r="A120" s="55" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B120" s="56" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="37" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -16535,26 +16540,26 @@
     </row>
     <row r="121">
       <c r="A121" s="47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D121" s="63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H121" s="104" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -16562,10 +16567,10 @@
     </row>
     <row r="122">
       <c r="A122" s="47" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C122" s="98"/>
       <c r="D122" s="98"/>
@@ -16579,26 +16584,26 @@
     </row>
     <row r="123">
       <c r="A123" s="55" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B123" s="56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C123" s="98" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="41" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H123" s="41" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -16606,24 +16611,24 @@
     </row>
     <row r="124">
       <c r="A124" s="55" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B124" s="56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H124" s="41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
@@ -16631,10 +16636,10 @@
     </row>
     <row r="125">
       <c r="A125" s="47" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -16648,26 +16653,26 @@
     </row>
     <row r="126">
       <c r="A126" s="96" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C126" s="105" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D126" s="106" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E126" s="95" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F126" s="95"/>
       <c r="G126" s="95" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H126" s="95" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I126" s="106"/>
       <c r="J126" s="106"/>
@@ -16675,22 +16680,22 @@
     </row>
     <row r="127">
       <c r="A127" s="108" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B127" s="109"/>
       <c r="C127" s="105"/>
       <c r="D127" s="106"/>
       <c r="E127" s="106" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F127" s="95" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G127" s="95" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H127" s="95" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I127" s="106"/>
       <c r="J127" s="106"/>
@@ -16698,22 +16703,22 @@
     </row>
     <row r="128">
       <c r="A128" s="108" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B128" s="109"/>
       <c r="C128" s="105"/>
       <c r="D128" s="106"/>
       <c r="E128" s="110" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F128" s="95" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G128" s="95" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H128" s="95" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I128" s="106"/>
       <c r="J128" s="106"/>
@@ -16721,26 +16726,26 @@
     </row>
     <row r="129">
       <c r="A129" s="96" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C129" s="105" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D129" s="106" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E129" s="95" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F129" s="95"/>
       <c r="G129" s="95" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H129" s="95" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I129" s="106"/>
       <c r="J129" s="106"/>
@@ -16748,26 +16753,26 @@
     </row>
     <row r="130">
       <c r="A130" s="96" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B130" s="56" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C130" s="105" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D130" s="106" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E130" s="95" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F130" s="95"/>
       <c r="G130" s="95" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H130" s="95" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -16775,10 +16780,10 @@
     </row>
     <row r="131">
       <c r="A131" s="47" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C131" s="98"/>
       <c r="D131" s="83"/>
@@ -16792,24 +16797,24 @@
     </row>
     <row r="132">
       <c r="A132" s="55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C132" s="98" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D132" s="83"/>
       <c r="E132" s="83" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="67" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H132" s="67" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -16817,24 +16822,24 @@
     </row>
     <row r="133">
       <c r="A133" s="55" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B133" s="56" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C133" s="98" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D133" s="83"/>
       <c r="E133" s="90" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -16842,24 +16847,24 @@
     </row>
     <row r="134">
       <c r="A134" s="55" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B134" s="56" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C134" s="82" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D134" s="83"/>
       <c r="E134" s="90" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H134" s="111" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -16867,15 +16872,15 @@
     </row>
     <row r="135">
       <c r="A135" s="55" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B135" s="56" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C135" s="98"/>
       <c r="D135" s="83"/>
       <c r="E135" s="90" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -16883,27 +16888,27 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="55" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B136" s="112" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C136" s="98"/>
       <c r="D136" s="83"/>
       <c r="E136" s="90" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H136" s="104" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -16911,10 +16916,10 @@
     </row>
     <row r="137">
       <c r="A137" s="49" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -16928,26 +16933,26 @@
     </row>
     <row r="138">
       <c r="A138" s="96" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C138" s="63" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="50" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H138" s="51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -16955,26 +16960,26 @@
     </row>
     <row r="139">
       <c r="A139" s="113" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B139" s="69" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C139" s="114" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D139" s="115" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="50" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H139" s="51" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -16982,26 +16987,26 @@
     </row>
     <row r="140">
       <c r="A140" s="96" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B140" s="56" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C140" s="63" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D140" s="65" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F140" s="50"/>
       <c r="G140" s="50" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H140" s="116" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -17009,26 +17014,26 @@
     </row>
     <row r="141">
       <c r="A141" s="49" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H141" s="117" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -17036,10 +17041,10 @@
     </row>
     <row r="142">
       <c r="A142" s="34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B142" s="94" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
@@ -17053,10 +17058,10 @@
     </row>
     <row r="143">
       <c r="A143" s="38" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="63"/>
@@ -17070,10 +17075,10 @@
     </row>
     <row r="144">
       <c r="A144" s="47" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
@@ -17087,24 +17092,24 @@
     </row>
     <row r="145">
       <c r="A145" s="55" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B145" s="56" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C145" s="118" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D145" s="63"/>
       <c r="E145" s="50" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="50" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -17112,10 +17117,10 @@
     </row>
     <row r="146">
       <c r="A146" s="47" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
@@ -17129,26 +17134,26 @@
     </row>
     <row r="147">
       <c r="A147" s="55" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B147" s="56" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C147" s="63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D147" s="63"/>
       <c r="E147" s="50" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F147" s="37" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G147" s="50" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H147" s="119" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -17156,26 +17161,26 @@
     </row>
     <row r="148">
       <c r="A148" s="55" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B148" s="56" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D148" s="63"/>
       <c r="E148" s="50" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G148" s="50" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H148" s="119" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -17183,26 +17188,26 @@
     </row>
     <row r="149">
       <c r="A149" s="55" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B149" s="56" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D149" s="63"/>
       <c r="E149" s="50" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G149" s="50" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H149" s="120" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -17210,15 +17215,15 @@
     </row>
     <row r="150">
       <c r="A150" s="47" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C150" s="83"/>
       <c r="D150" s="98"/>
       <c r="E150" s="82" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -17229,22 +17234,22 @@
     </row>
     <row r="151">
       <c r="A151" s="55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B151" s="56" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C151" s="83"/>
       <c r="D151" s="98"/>
       <c r="E151" s="82" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -17252,22 +17257,22 @@
     </row>
     <row r="152">
       <c r="A152" s="55" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B152" s="56" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C152" s="90"/>
       <c r="D152" s="98"/>
       <c r="E152" s="82" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H152" s="111" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -17275,10 +17280,10 @@
     </row>
     <row r="153">
       <c r="A153" s="38" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
@@ -17292,10 +17297,10 @@
     </row>
     <row r="154">
       <c r="A154" s="47" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
@@ -17309,26 +17314,26 @@
     </row>
     <row r="155">
       <c r="A155" s="55" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B155" s="56" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C155" s="98" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D155" s="98"/>
       <c r="E155" s="82" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F155" s="97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H155" s="40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -17336,24 +17341,24 @@
     </row>
     <row r="156">
       <c r="A156" s="55" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B156" s="56" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C156" s="83" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D156" s="98"/>
       <c r="E156" s="82" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F156" s="97"/>
       <c r="G156" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -17361,24 +17366,24 @@
     </row>
     <row r="157">
       <c r="A157" s="47" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="83" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D157" s="98"/>
       <c r="E157" s="84" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F157" s="98"/>
       <c r="G157" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H157" s="40" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -17386,10 +17391,10 @@
     </row>
     <row r="158">
       <c r="A158" s="47" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
@@ -17403,26 +17408,26 @@
     </row>
     <row r="159">
       <c r="A159" s="55" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B159" s="56" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C159" s="98" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D159" s="98"/>
       <c r="E159" s="82" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F159" s="97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H159" s="40" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -17430,26 +17435,26 @@
     </row>
     <row r="160">
       <c r="A160" s="55" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C160" s="98" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D160" s="98"/>
       <c r="E160" s="57" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H160" s="40" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -17457,15 +17462,15 @@
     </row>
     <row r="161">
       <c r="A161" s="121" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B161" s="94" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="40" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="41"/>
@@ -17476,10 +17481,10 @@
     </row>
     <row r="162">
       <c r="A162" s="122" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -17493,10 +17498,10 @@
     </row>
     <row r="163">
       <c r="A163" s="49" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -17510,26 +17515,26 @@
     </row>
     <row r="164">
       <c r="A164" s="96" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B164" s="56" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D164" s="63" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E164" s="65" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F164" s="65"/>
       <c r="G164" s="63" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H164" s="123" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -17537,26 +17542,26 @@
     </row>
     <row r="165">
       <c r="A165" s="96" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B165" s="56" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D165" s="63" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E165" s="50" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F165" s="50"/>
       <c r="G165" s="63" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H165" s="123" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -17564,26 +17569,26 @@
     </row>
     <row r="166">
       <c r="A166" s="96" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B166" s="56" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D166" s="63" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F166" s="7"/>
       <c r="G166" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H166" s="124" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -17591,26 +17596,26 @@
     </row>
     <row r="167">
       <c r="A167" s="96" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B167" s="56" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E167" s="50" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F167" s="50"/>
       <c r="G167" s="37" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H167" s="125" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -17618,10 +17623,10 @@
     </row>
     <row r="168">
       <c r="A168" s="47" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C168" s="63"/>
       <c r="D168" s="63"/>
@@ -17635,26 +17640,26 @@
     </row>
     <row r="169">
       <c r="A169" s="96" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B169" s="56" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D169" s="63" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E169" s="50" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F169" s="50"/>
       <c r="G169" s="37" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -17662,24 +17667,24 @@
     </row>
     <row r="170">
       <c r="A170" s="55" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B170" s="56" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C170" s="84" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D170" s="84"/>
       <c r="E170" s="82" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F170" s="50"/>
       <c r="G170" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -17687,10 +17692,10 @@
     </row>
     <row r="171">
       <c r="A171" s="47" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C171" s="98"/>
       <c r="D171" s="84"/>
@@ -17704,24 +17709,24 @@
     </row>
     <row r="172">
       <c r="A172" s="55" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B172" s="56" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D172" s="82"/>
       <c r="E172" s="127" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F172" s="128"/>
       <c r="G172" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H172" s="104" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -17729,24 +17734,24 @@
     </row>
     <row r="173">
       <c r="A173" s="47" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C173" s="98" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D173" s="84"/>
       <c r="E173" s="127" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F173" s="128"/>
       <c r="G173" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -17754,10 +17759,10 @@
     </row>
     <row r="174">
       <c r="A174" s="122" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -17771,22 +17776,22 @@
     </row>
     <row r="175">
       <c r="A175" s="49" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B175" s="48"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="57" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F175" s="40" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
@@ -17794,22 +17799,22 @@
     </row>
     <row r="176">
       <c r="A176" s="49" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C176" s="63"/>
       <c r="D176" s="63"/>
       <c r="E176" s="50" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="50" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H176" s="101" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -17817,24 +17822,24 @@
     </row>
     <row r="177">
       <c r="A177" s="47" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -17842,24 +17847,24 @@
     </row>
     <row r="178">
       <c r="A178" s="55" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B178" s="56" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H178" s="124" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -17867,24 +17872,24 @@
     </row>
     <row r="179">
       <c r="A179" s="47" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="40" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H179" s="124" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -17892,24 +17897,24 @@
     </row>
     <row r="180">
       <c r="A180" s="47" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="40" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H180" s="40" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -17917,10 +17922,10 @@
     </row>
     <row r="181">
       <c r="A181" s="49" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -17934,26 +17939,26 @@
     </row>
     <row r="182">
       <c r="A182" s="96" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C182" s="63" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D182" s="63" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E182" s="50" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="37" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -17961,24 +17966,24 @@
     </row>
     <row r="183">
       <c r="A183" s="121" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="40" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F183" s="50" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -17986,49 +17991,49 @@
     </row>
     <row r="184">
       <c r="A184" s="129" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B184" s="130" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C184" s="131"/>
       <c r="D184" s="131"/>
       <c r="E184" s="57" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F184" s="67" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G184" s="41" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H184" s="132" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="129" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B185" s="130" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C185" s="63"/>
       <c r="D185" s="63"/>
       <c r="E185" s="133" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -18036,28 +18041,28 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D186" s="63" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E186" s="50" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F186" s="50" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -18065,28 +18070,28 @@
     </row>
     <row r="187">
       <c r="A187" s="49" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B187" s="48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D187" s="63" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F187" s="50" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H187" s="104" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -18094,26 +18099,26 @@
     </row>
     <row r="188">
       <c r="A188" s="49" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D188" s="63" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E188" s="40" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H188" s="124" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -18121,26 +18126,26 @@
     </row>
     <row r="189">
       <c r="A189" s="134" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B189" s="135" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C189" s="115" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D189" s="115" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E189" s="40" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H189" s="124" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -18148,13 +18153,13 @@
     </row>
     <row r="190">
       <c r="A190" s="122" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C190" s="136" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D190" s="63"/>
       <c r="E190" s="4"/>
@@ -18167,13 +18172,13 @@
     </row>
     <row r="191">
       <c r="A191" s="49" t="s">
+        <v>801</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="C191" s="137" t="s">
         <v>800</v>
-      </c>
-      <c r="B191" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="C191" s="137" t="s">
-        <v>799</v>
       </c>
       <c r="D191" s="63"/>
       <c r="E191" s="37"/>
@@ -18186,26 +18191,26 @@
     </row>
     <row r="192">
       <c r="A192" s="96" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B192" s="56" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D192" s="63" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="37" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H192" s="120" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -18213,26 +18218,26 @@
     </row>
     <row r="193">
       <c r="A193" s="96" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B193" s="56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H193" s="124" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -18240,24 +18245,24 @@
     </row>
     <row r="194">
       <c r="A194" s="96" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B194" s="56" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C194" s="138" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D194" s="63"/>
       <c r="E194" s="41" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F194" s="41"/>
       <c r="G194" s="41" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H194" s="139" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -18265,13 +18270,13 @@
     </row>
     <row r="195">
       <c r="A195" s="122" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C195" s="137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D195" s="63"/>
       <c r="E195" s="37"/>
@@ -18284,20 +18289,20 @@
     </row>
     <row r="196">
       <c r="A196" s="96" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B196" s="56"/>
       <c r="C196" s="63"/>
       <c r="D196" s="7"/>
       <c r="E196" s="57" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="37" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -18305,49 +18310,49 @@
     </row>
     <row r="197">
       <c r="A197" s="96" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B197" s="90"/>
       <c r="C197" s="63"/>
       <c r="D197" s="7"/>
       <c r="E197" s="57" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F197" s="50"/>
       <c r="G197" s="37" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="49" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D198" s="63" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H198" s="124" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -18355,22 +18360,22 @@
     </row>
     <row r="199">
       <c r="A199" s="49" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="57" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F199" s="141"/>
       <c r="G199" s="50" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H199" s="37" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -18378,10 +18383,10 @@
     </row>
     <row r="200">
       <c r="A200" s="96" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B200" s="56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C200" s="98"/>
       <c r="D200" s="98"/>
@@ -18392,31 +18397,31 @@
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="96" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B201" s="56" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D201" s="63" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="37" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H201" s="37" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -18424,22 +18429,22 @@
     </row>
     <row r="202">
       <c r="A202" s="96" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B202" s="56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C202" s="63"/>
       <c r="D202" s="63"/>
       <c r="E202" s="50" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H202" s="40" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -18447,22 +18452,22 @@
     </row>
     <row r="203">
       <c r="A203" s="96" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B203" s="56" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C203" s="63"/>
       <c r="D203" s="63"/>
       <c r="E203" s="50" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H203" s="40" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -18470,22 +18475,22 @@
     </row>
     <row r="204">
       <c r="A204" s="96" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B204" s="56" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C204" s="63"/>
       <c r="D204" s="63"/>
       <c r="E204" s="50" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H204" s="40" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -18493,22 +18498,22 @@
     </row>
     <row r="205">
       <c r="A205" s="96" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C205" s="142"/>
       <c r="D205" s="142"/>
       <c r="E205" s="50" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F205" s="50"/>
       <c r="G205" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -18516,24 +18521,24 @@
     </row>
     <row r="206">
       <c r="A206" s="96" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B206" s="56" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C206" s="143" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D206" s="63"/>
       <c r="E206" s="65" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F206" s="89"/>
       <c r="G206" s="63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H206" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -18541,13 +18546,13 @@
     </row>
     <row r="207">
       <c r="A207" s="49" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C207" s="137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="40"/>
@@ -18560,10 +18565,10 @@
     </row>
     <row r="208">
       <c r="A208" s="96" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B208" s="56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C208" s="98"/>
       <c r="D208" s="98"/>
@@ -18574,31 +18579,31 @@
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="96" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B209" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C209" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D209" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F209" s="65"/>
       <c r="G209" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H209" s="144" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -18606,26 +18611,26 @@
     </row>
     <row r="210">
       <c r="A210" s="96" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B210" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C210" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D210" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F210" s="65"/>
       <c r="G210" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H210" s="46" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
@@ -18633,26 +18638,26 @@
     </row>
     <row r="211">
       <c r="A211" s="96" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B211" s="56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C211" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D211" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F211" s="65"/>
       <c r="G211" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H211" s="40" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -18660,26 +18665,26 @@
     </row>
     <row r="212">
       <c r="A212" s="96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B212" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C212" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D212" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E212" s="65" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F212" s="65"/>
       <c r="G212" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H212" s="89" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -18687,28 +18692,28 @@
     </row>
     <row r="213">
       <c r="A213" s="96" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B213" s="56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C213" s="63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D213" s="63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F213" s="89" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G213" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H213" s="50" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -18716,26 +18721,26 @@
     </row>
     <row r="214">
       <c r="A214" s="96" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B214" s="56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C214" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D214" s="63" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E214" s="145" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F214" s="145"/>
       <c r="G214" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H214" s="40" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -18743,26 +18748,26 @@
     </row>
     <row r="215">
       <c r="A215" s="96" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B215" s="56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C215" s="146" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D215" s="146" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E215" s="145" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F215" s="145"/>
       <c r="G215" s="44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H215" s="44" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -18770,26 +18775,26 @@
     </row>
     <row r="216">
       <c r="A216" s="96" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B216" s="56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C216" s="146" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D216" s="146" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E216" s="145" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F216" s="145"/>
       <c r="G216" s="50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H216" s="50" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -18797,26 +18802,26 @@
     </row>
     <row r="217">
       <c r="A217" s="96" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B217" s="56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C217" s="146" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D217" s="146" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E217" s="145" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F217" s="145"/>
       <c r="G217" s="50" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H217" s="50" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -18824,26 +18829,26 @@
     </row>
     <row r="218">
       <c r="A218" s="96" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B218" s="56" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C218" s="146" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D218" s="146" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E218" s="145" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F218" s="145"/>
       <c r="G218" s="46" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H218" s="147" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18851,26 +18856,26 @@
     </row>
     <row r="219">
       <c r="A219" s="96" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B219" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C219" s="146" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D219" s="146" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E219" s="145" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F219" s="145"/>
       <c r="G219" s="50" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H219" s="50" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18878,26 +18883,26 @@
     </row>
     <row r="220">
       <c r="A220" s="96" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B220" s="56" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C220" s="146" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D220" s="146" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E220" s="145" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F220" s="81"/>
       <c r="G220" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H220" s="148" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -18909,14 +18914,14 @@
       <c r="C221" s="63"/>
       <c r="D221" s="63"/>
       <c r="E221" s="149" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F221" s="81"/>
       <c r="G221" s="79" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H221" s="150" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -18924,13 +18929,13 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B222" s="66" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C222" s="137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D222" s="63"/>
       <c r="E222" s="146"/>
@@ -18943,10 +18948,10 @@
     </row>
     <row r="223">
       <c r="A223" s="96" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B223" s="91" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C223" s="98"/>
       <c r="D223" s="98"/>
@@ -18957,31 +18962,31 @@
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
       <c r="K223" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="96" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B224" s="91" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C224" s="63" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D224" s="63" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E224" s="145" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F224" s="145"/>
       <c r="G224" s="63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H224" s="152" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -18989,24 +18994,24 @@
     </row>
     <row r="225">
       <c r="A225" s="108" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B225" s="153" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C225" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D225" s="63"/>
       <c r="E225" s="145" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F225" s="145"/>
       <c r="G225" s="37" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H225" s="120" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -19014,26 +19019,26 @@
     </row>
     <row r="226">
       <c r="A226" s="96" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B226" s="91" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C226" s="63" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D226" s="63" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E226" s="145" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F226" s="145"/>
       <c r="G226" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H226" s="89" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -19041,24 +19046,24 @@
     </row>
     <row r="227">
       <c r="A227" s="108" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B227" s="153" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C227" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D227" s="63"/>
       <c r="E227" s="145" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F227" s="145"/>
       <c r="G227" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H227" s="40" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -19066,26 +19071,26 @@
     </row>
     <row r="228">
       <c r="A228" s="96" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B228" s="91" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C228" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D228" s="63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E228" s="65" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F228" s="65"/>
       <c r="G228" s="63" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H228" s="65" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -19093,24 +19098,24 @@
     </row>
     <row r="229">
       <c r="A229" s="108" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B229" s="153" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C229" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="65" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F229" s="65"/>
       <c r="G229" s="63" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H229" s="65" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -19118,26 +19123,26 @@
     </row>
     <row r="230">
       <c r="A230" s="96" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B230" s="91" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C230" s="63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D230" s="63" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E230" s="145" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F230" s="145"/>
       <c r="G230" s="63" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H230" s="65" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -19145,24 +19150,24 @@
     </row>
     <row r="231">
       <c r="A231" s="108" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B231" s="153" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C231" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D231" s="63"/>
       <c r="E231" s="149" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F231" s="145"/>
       <c r="G231" s="37" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H231" s="50" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -19170,13 +19175,13 @@
     </row>
     <row r="232">
       <c r="A232" s="49" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B232" s="66" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C232" s="137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D232" s="63"/>
       <c r="E232" s="146"/>
@@ -19189,26 +19194,26 @@
     </row>
     <row r="233">
       <c r="A233" s="96" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B233" s="91" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C233" s="63" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D233" s="63" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E233" s="145" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F233" s="145"/>
       <c r="G233" s="50" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H233" s="101" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -19216,10 +19221,10 @@
     </row>
     <row r="234">
       <c r="A234" s="96" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B234" s="91" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
@@ -19233,26 +19238,26 @@
     </row>
     <row r="235">
       <c r="A235" s="96" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B235" s="91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C235" s="65" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D235" s="65" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E235" s="145" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F235" s="145"/>
       <c r="G235" s="63" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H235" s="65" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -19260,24 +19265,24 @@
     </row>
     <row r="236">
       <c r="A236" s="96" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B236" s="91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C236" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D236" s="63"/>
       <c r="E236" s="65" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F236" s="65"/>
       <c r="G236" s="65" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H236" s="63" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -19285,26 +19290,26 @@
     </row>
     <row r="237">
       <c r="A237" s="96" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B237" s="91" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C237" s="63" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D237" s="63" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E237" s="65" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F237" s="65"/>
       <c r="G237" s="65" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H237" s="65" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -19312,26 +19317,26 @@
     </row>
     <row r="238">
       <c r="A238" s="96" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B238" s="91" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C238" s="63" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D238" s="63" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E238" s="65" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F238" s="65"/>
       <c r="G238" s="65" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H238" s="65" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
@@ -19339,10 +19344,10 @@
     </row>
     <row r="239">
       <c r="A239" s="121" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B239" s="155" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
@@ -19356,10 +19361,10 @@
     </row>
     <row r="240">
       <c r="A240" s="38" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B240" s="62" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C240" s="98"/>
       <c r="D240" s="84"/>
@@ -19373,24 +19378,24 @@
     </row>
     <row r="241">
       <c r="A241" s="47" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B241" s="66" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C241" s="98" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D241" s="84"/>
       <c r="E241" s="151" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F241" s="146"/>
       <c r="G241" s="7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H241" s="33" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -19398,24 +19403,24 @@
     </row>
     <row r="242">
       <c r="A242" s="47" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B242" s="66" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C242" s="98" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D242" s="84"/>
       <c r="E242" s="151" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F242" s="146"/>
       <c r="G242" s="7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H242" s="33" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -19423,24 +19428,24 @@
     </row>
     <row r="243">
       <c r="A243" s="47" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B243" s="66" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C243" s="98" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D243" s="84"/>
       <c r="E243" s="151" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F243" s="146"/>
       <c r="G243" s="7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H243" s="33" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -19448,26 +19453,26 @@
     </row>
     <row r="244">
       <c r="A244" s="122" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B244" s="62" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C244" s="63" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E244" s="145" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F244" s="145"/>
       <c r="G244" s="156" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H244" s="157" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -19475,13 +19480,13 @@
     </row>
     <row r="245">
       <c r="A245" s="122" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B245" s="62" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C245" s="137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D245" s="7"/>
       <c r="E245" s="146"/>
@@ -19494,24 +19499,24 @@
     </row>
     <row r="246">
       <c r="A246" s="49" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B246" s="66" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C246" s="158" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="81" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F246" s="145"/>
       <c r="G246" s="63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H246" s="63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -19519,26 +19524,26 @@
     </row>
     <row r="247">
       <c r="A247" s="96" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B247" s="91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C247" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D247" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E247" s="145" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F247" s="145"/>
       <c r="G247" s="89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H247" s="89" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
@@ -19546,26 +19551,26 @@
     </row>
     <row r="248">
       <c r="A248" s="96" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B248" s="91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C248" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D248" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E248" s="145" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F248" s="145"/>
       <c r="G248" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H248" s="89" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -19573,26 +19578,26 @@
     </row>
     <row r="249">
       <c r="A249" s="96" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B249" s="91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C249" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D249" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E249" s="145" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F249" s="145"/>
       <c r="G249" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H249" s="89" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -19600,26 +19605,26 @@
     </row>
     <row r="250">
       <c r="A250" s="96" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B250" s="91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C250" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D250" s="63" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E250" s="145" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F250" s="145"/>
       <c r="G250" s="89" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H250" s="89" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19627,26 +19632,26 @@
     </row>
     <row r="251">
       <c r="A251" s="96" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B251" s="91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C251" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D251" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E251" s="65" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F251" s="65"/>
       <c r="G251" s="65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H251" s="65" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19654,26 +19659,26 @@
     </row>
     <row r="252">
       <c r="A252" s="96" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B252" s="91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C252" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D252" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E252" s="65" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H252" s="65" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
@@ -19681,26 +19686,26 @@
     </row>
     <row r="253">
       <c r="A253" s="96" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B253" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C253" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D253" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E253" s="65" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F253" s="65"/>
       <c r="G253" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H253" s="65" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
@@ -19708,26 +19713,26 @@
     </row>
     <row r="254">
       <c r="A254" s="96" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B254" s="91" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C254" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D254" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E254" s="65" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F254" s="65"/>
       <c r="G254" s="61" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H254" s="61" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
@@ -19735,26 +19740,26 @@
     </row>
     <row r="255">
       <c r="A255" s="96" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B255" s="91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C255" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D255" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E255" s="65" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F255" s="65"/>
       <c r="G255" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H255" s="65" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
@@ -19762,24 +19767,24 @@
     </row>
     <row r="256">
       <c r="A256" s="49" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B256" s="66" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C256" s="158" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D256" s="159"/>
       <c r="E256" s="89" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F256" s="63"/>
       <c r="G256" s="63" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H256" s="63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
@@ -19787,26 +19792,26 @@
     </row>
     <row r="257">
       <c r="A257" s="96" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B257" s="91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C257" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D257" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E257" s="65" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F257" s="65"/>
       <c r="G257" s="89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H257" s="160" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
@@ -19814,26 +19819,26 @@
     </row>
     <row r="258">
       <c r="A258" s="96" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B258" s="91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C258" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D258" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E258" s="65" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F258" s="65"/>
       <c r="G258" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H258" s="160" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -19841,26 +19846,26 @@
     </row>
     <row r="259">
       <c r="A259" s="96" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B259" s="91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C259" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D259" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E259" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F259" s="65"/>
       <c r="G259" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H259" s="89" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -19868,26 +19873,26 @@
     </row>
     <row r="260">
       <c r="A260" s="96" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B260" s="91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C260" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D260" s="63" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E260" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F260" s="65"/>
       <c r="G260" s="89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H260" s="89" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -19895,26 +19900,26 @@
     </row>
     <row r="261">
       <c r="A261" s="96" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B261" s="91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C261" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D261" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E261" s="65" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F261" s="65"/>
       <c r="G261" s="89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H261" s="89" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
@@ -19922,26 +19927,26 @@
     </row>
     <row r="262">
       <c r="A262" s="96" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B262" s="91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C262" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D262" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E262" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F262" s="65"/>
       <c r="G262" s="65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H262" s="152" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
@@ -19949,26 +19954,26 @@
     </row>
     <row r="263">
       <c r="A263" s="96" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B263" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C263" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D263" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E263" s="65" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F263" s="65"/>
       <c r="G263" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H263" s="152" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
@@ -19976,26 +19981,26 @@
     </row>
     <row r="264">
       <c r="A264" s="96" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B264" s="91" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C264" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D264" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E264" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F264" s="65"/>
       <c r="G264" s="61" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H264" s="61" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -20003,26 +20008,26 @@
     </row>
     <row r="265">
       <c r="A265" s="96" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B265" s="91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C265" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D265" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E265" s="65" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F265" s="65"/>
       <c r="G265" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H265" s="152" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
@@ -20030,26 +20035,26 @@
     </row>
     <row r="266">
       <c r="A266" s="49" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B266" s="66" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C266" s="63" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D266" s="63" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E266" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F266" s="65"/>
       <c r="G266" s="156" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H266" s="161" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
@@ -20057,22 +20062,22 @@
     </row>
     <row r="267">
       <c r="A267" s="49" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B267" s="66" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="89" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F267" s="63"/>
       <c r="G267" s="63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H267" s="63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
@@ -20080,26 +20085,26 @@
     </row>
     <row r="268">
       <c r="A268" s="96" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B268" s="91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C268" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D268" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E268" s="65" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F268" s="65"/>
       <c r="G268" s="89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H268" s="89" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
@@ -20107,26 +20112,26 @@
     </row>
     <row r="269">
       <c r="A269" s="96" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B269" s="91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C269" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D269" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E269" s="65" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F269" s="65"/>
       <c r="G269" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H269" s="89" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
@@ -20134,26 +20139,26 @@
     </row>
     <row r="270">
       <c r="A270" s="96" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B270" s="91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C270" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D270" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E270" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F270" s="65"/>
       <c r="G270" s="89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H270" s="89" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -20161,26 +20166,26 @@
     </row>
     <row r="271">
       <c r="A271" s="96" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B271" s="91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C271" s="63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D271" s="63" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E271" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F271" s="65"/>
       <c r="G271" s="89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H271" s="89" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -20188,26 +20193,26 @@
     </row>
     <row r="272">
       <c r="A272" s="96" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B272" s="91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C272" s="63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D272" s="63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E272" s="65" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F272" s="65"/>
       <c r="G272" s="65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H272" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
@@ -20215,26 +20220,26 @@
     </row>
     <row r="273">
       <c r="A273" s="96" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B273" s="91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C273" s="65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D273" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E273" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F273" s="65"/>
       <c r="G273" s="65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H273" s="65" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
@@ -20242,26 +20247,26 @@
     </row>
     <row r="274">
       <c r="A274" s="96" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B274" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C274" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D274" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E274" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F274" s="65"/>
       <c r="G274" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H274" s="152" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
@@ -20269,26 +20274,26 @@
     </row>
     <row r="275">
       <c r="A275" s="96" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B275" s="91" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C275" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D275" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E275" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F275" s="65"/>
       <c r="G275" s="61" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H275" s="162" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -20296,26 +20301,26 @@
     </row>
     <row r="276">
       <c r="A276" s="96" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B276" s="91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C276" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D276" s="63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E276" s="65" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F276" s="65"/>
       <c r="G276" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H276" s="152" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
@@ -20323,26 +20328,26 @@
     </row>
     <row r="277">
       <c r="A277" s="122" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B277" s="62" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C277" s="163" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D277" s="163" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E277" s="164" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F277" s="164"/>
       <c r="G277" s="89" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H277" s="165" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
@@ -20350,10 +20355,10 @@
     </row>
     <row r="278">
       <c r="A278" s="127" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B278" s="98" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C278" s="98"/>
       <c r="D278" s="98"/>
@@ -20367,17 +20372,17 @@
     </row>
     <row r="279">
       <c r="A279" s="127" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B279" s="98" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C279" s="166" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D279" s="98"/>
       <c r="E279" s="110" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F279" s="98"/>
       <c r="G279" s="98"/>
@@ -20388,26 +20393,26 @@
     </row>
     <row r="280">
       <c r="A280" s="127" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B280" s="98" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C280" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D280" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E280" s="98" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F280" s="98"/>
       <c r="G280" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H280" s="167" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
@@ -20415,26 +20420,26 @@
     </row>
     <row r="281">
       <c r="A281" s="127" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B281" s="98" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C281" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D281" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E281" s="98" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F281" s="98"/>
       <c r="G281" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H281" s="167" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
@@ -20442,10 +20447,10 @@
     </row>
     <row r="282">
       <c r="A282" s="127" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B282" s="98" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C282" s="98"/>
       <c r="D282" s="98"/>
@@ -20459,26 +20464,26 @@
     </row>
     <row r="283">
       <c r="A283" s="127" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B283" s="98" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C283" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D283" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E283" s="110" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F283" s="98"/>
       <c r="G283" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H283" s="167" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
@@ -20486,26 +20491,26 @@
     </row>
     <row r="284">
       <c r="A284" s="127" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B284" s="98" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C284" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D284" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E284" s="110" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F284" s="98"/>
       <c r="G284" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H284" s="167" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
@@ -20513,26 +20518,26 @@
     </row>
     <row r="285">
       <c r="A285" s="127" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B285" s="98" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C285" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D285" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E285" s="110" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F285" s="98"/>
       <c r="G285" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H285" s="167" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
@@ -20540,26 +20545,26 @@
     </row>
     <row r="286">
       <c r="A286" s="127" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B286" s="98" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C286" s="166" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D286" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E286" s="110" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F286" s="98"/>
       <c r="G286" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H286" s="167" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
@@ -20567,26 +20572,26 @@
     </row>
     <row r="287">
       <c r="A287" s="127" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B287" s="98" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C287" s="166" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D287" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E287" s="110" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F287" s="98"/>
       <c r="G287" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H287" s="167" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
@@ -20594,13 +20599,13 @@
     </row>
     <row r="288">
       <c r="A288" s="127" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B288" s="98" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C288" s="166" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D288" s="98"/>
       <c r="E288" s="98"/>
@@ -20613,26 +20618,26 @@
     </row>
     <row r="289">
       <c r="A289" s="127" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B289" s="98" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C289" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D289" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E289" s="110" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F289" s="98"/>
       <c r="G289" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H289" s="167" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
@@ -20640,26 +20645,26 @@
     </row>
     <row r="290">
       <c r="A290" s="127" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B290" s="98" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C290" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D290" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E290" s="110" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F290" s="98"/>
       <c r="G290" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H290" s="167" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
@@ -20667,26 +20672,26 @@
     </row>
     <row r="291">
       <c r="A291" s="127" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B291" s="98" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C291" s="98" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D291" s="98" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E291" s="98" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F291" s="98"/>
       <c r="G291" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H291" s="167" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
@@ -20694,10 +20699,10 @@
     </row>
     <row r="292">
       <c r="A292" s="127" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B292" s="98" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C292" s="98"/>
       <c r="D292" s="98"/>
@@ -20711,24 +20716,24 @@
     </row>
     <row r="293">
       <c r="A293" s="127" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B293" s="98" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C293" s="168" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D293" s="98"/>
       <c r="E293" s="110" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F293" s="98"/>
       <c r="G293" s="98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H293" s="167" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
@@ -20736,10 +20741,10 @@
     </row>
     <row r="294">
       <c r="A294" s="127" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B294" s="98" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C294" s="98"/>
       <c r="D294" s="98"/>
@@ -20753,26 +20758,26 @@
     </row>
     <row r="295">
       <c r="A295" s="127" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B295" s="98" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C295" s="166" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D295" s="98" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E295" s="169" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F295" s="98"/>
       <c r="G295" s="98" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H295" s="170" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
@@ -20879,216 +20884,216 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="172" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="89" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="89" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F3" s="89" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="173" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
       <c r="E4" s="67" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="174" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="81" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="89"/>
       <c r="E5" s="89" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C8" s="175" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="89" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="173" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
       <c r="E9" s="67" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F9" s="174" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="131" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C10" s="131"/>
       <c r="D10" s="131"/>
       <c r="E10" s="67" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F10" s="174" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F11" s="89" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="131" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>
       <c r="E12" s="67" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -21112,36 +21117,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="176" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="177" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="178" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="179" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="8">
@@ -21152,41 +21157,41 @@
     </row>
     <row r="10">
       <c r="A10" s="179" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="179" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B11" s="180" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="181" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="182"/>
       <c r="B13" s="183" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="184" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="185" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="186" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="17">
@@ -21195,24 +21200,24 @@
     </row>
     <row r="18">
       <c r="A18" s="179" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B18" s="187" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B19" s="83"/>
     </row>
     <row r="21">
       <c r="A21" s="179" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B21" s="188" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -21238,57 +21243,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="179" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="189" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="190" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="189" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="190" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="190" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="190" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="189" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="190" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="190" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="190" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -21314,63 +21319,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B1" s="191" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="190" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="190" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="190" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="190" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="190" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="190" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="190" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="190" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="192" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="193" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
@@ -21414,10 +21419,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="194" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C1" s="195" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -21444,16 +21449,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -21480,13 +21485,13 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -21517,13 +21522,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1252</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1251</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21554,13 +21559,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21588,16 +21593,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -21624,16 +21629,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -21660,16 +21665,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -21696,16 +21701,16 @@
     </row>
     <row r="9">
       <c r="A9" s="89" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -21732,16 +21737,16 @@
     </row>
     <row r="10">
       <c r="A10" s="89" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -21768,16 +21773,16 @@
     </row>
     <row r="11">
       <c r="A11" s="89" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -21804,16 +21809,16 @@
     </row>
     <row r="12">
       <c r="A12" s="89" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -21840,16 +21845,16 @@
     </row>
     <row r="13">
       <c r="A13" s="197" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B13" s="197" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C13" s="198" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D13" s="198" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E13" s="198"/>
       <c r="F13" s="198"/>
@@ -21876,16 +21881,16 @@
     </row>
     <row r="14">
       <c r="A14" s="197" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B14" s="197" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C14" s="198" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D14" s="198" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E14" s="198"/>
       <c r="F14" s="198"/>
@@ -21937,58 +21942,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="194" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C1" s="195" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="191" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C5" s="199" t="s">
         <v>1282</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C5" s="199" t="s">
-        <v>1281</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -5219,10 +5219,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.0</t>
@@ -20050,7 +20050,7 @@
         <v>1071</v>
       </c>
       <c r="F266" s="65"/>
-      <c r="G266" s="156" t="s">
+      <c r="G266" s="89" t="s">
         <v>1072</v>
       </c>
       <c r="H266" s="161" t="s">

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -5186,7 +5186,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -5271,7 +5271,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -5286,7 +5287,8 @@
     <t>Number of tenders received from SMEs</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -5330,7 +5332,8 @@
     <t>Number of tenders received from tenderers from other EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -5371,7 +5374,8 @@
     <t>Number of tenders received from tenderers from non-EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_NON_EU</t>
   </si>
   <si>
     <r>
@@ -5412,7 +5416,8 @@
     <t>Number of tenders received by electronic means</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_EMEANS</t>
   </si>
   <si>
     <t>?this epo:hasElectronicTenders ?value .</t>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <r>
@@ -8322,7 +8322,7 @@
     <t>s2_object.rml.ttl</t>
   </si>
   <si>
-    <t>s3_ legal_economic_financia.rml.ttl</t>
+    <t>s3_legal_economic_financial.rml.ttl</t>
   </si>
   <si>
     <t>s4_procedure.rml.ttl</t>
@@ -8340,7 +8340,7 @@
     <t>notice.rml.ttl</t>
   </si>
   <si>
-    <t>confidentiality.ttl</t>
+    <t>confidentiality.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -9471,7 +9471,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="19" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -21500,7 +21500,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="21" t="s">
         <v>1242</v>
       </c>
     </row>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1289">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -1047,7 +1047,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1070,7 +1070,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1634,7 +1634,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -2545,7 +2545,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -2768,7 +2768,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/URL_BUYER</t>
   </si>
   <si>
-    <t>?this epo:hasBuyerProfile / epo:hasURL ?value .</t>
+    <t>?this epo:hasBuyerProfile ?value .</t>
   </si>
   <si>
     <t>I.3.5</t>
@@ -2843,7 +2843,7 @@
     <t>org:Organization / at-voc:main-activity (from main_activity.csv)</t>
   </si>
   <si>
-    <t>?this epo:hasMainActivityType ?value .</t>
+    <t>?this epo:hasMainActivity ?value .</t>
   </si>
   <si>
     <t>I.6.1</t>
@@ -2996,7 +2996,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -3035,6 +3035,21 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
+  </si>
+  <si>
+    <t>II.1.4</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <t>BT-24</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -3055,7 +3070,252 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
+      <t xml:space="preserve"> epo:hasDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.1.5</t>
+  </si>
+  <si>
+    <t>Estimated total value</t>
+  </si>
+  <si>
+    <t>II.1.5.1</t>
+  </si>
+  <si>
+    <t>Value excluding VAT</t>
+  </si>
+  <si>
+    <t>BT-161</t>
+  </si>
+  <si>
+    <t>Estimated Value</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:MonetaryValue / xsd:decimal</t>
+  </si>
+  <si>
+    <t>?this epo:hasEstimatedValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.5.2</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.1.5.3b</t>
+  </si>
+  <si>
+    <t>estimated total maximum value for the entire duration of the framework agreement</t>
+  </si>
+  <si>
+    <t>II.1.6</t>
+  </si>
+  <si>
+    <t>Information about lots</t>
+  </si>
+  <si>
+    <t>II.1.6.1</t>
+  </si>
+  <si>
+    <t>This contract is divided into lots</t>
+  </si>
+  <si>
+    <t>II.1.6.1.1</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for all lots</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ALL</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isSubmissionForAllLotsAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.1.2</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for maximum number of lots</t>
+  </si>
+  <si>
+    <t>nb_lot</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_NUMBER</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumLotSubmissionAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.1.3</t>
+  </si>
+  <si>
+    <t>Tenders may be submitted for one lot only</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ONE_ONLY</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isOneLotOnlyAllowed ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.2</t>
+  </si>
+  <si>
+    <t>Maximum number of lots that may be awarded to one tenderer</t>
+  </si>
+  <si>
+    <t>BT-33</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumNumberOfLotsToBeAwarded ?value</t>
+  </si>
+  <si>
+    <t>II.1.6.3</t>
+  </si>
+  <si>
+    <t>The contracting authority reserves the right to award contracts combining the following lots or groups of lots</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_COMBINING_CONTRACT_RIGHT</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasLotAwardCombination ?value</t>
+  </si>
+  <si>
+    <t>II.1.7</t>
+  </si>
+  <si>
+    <t>Total value of the procurement (Excluding VAT)</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.0</t>
+  </si>
+  <si>
+    <t>Agree to publish</t>
+  </si>
+  <si>
+    <t>See comment in the "Mapping Remarks" sheet.</t>
+  </si>
+  <si>
+    <t>II.1.7.1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_TOTAL</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.2</t>
+  </si>
+  <si>
+    <t>Lowest offer</t>
+  </si>
+  <si>
+    <t>BT-710</t>
+  </si>
+  <si>
+    <t>Tender Value Lowest</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -3074,16 +3334,89 @@
     </r>
   </si>
   <si>
-    <t>II.1.4</t>
-  </si>
-  <si>
-    <t>Short description</t>
-  </si>
-  <si>
-    <t>BT-24</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
+    <t>II.1.7.3</t>
+  </si>
+  <si>
+    <t>Highest offer</t>
+  </si>
+  <si>
+    <t>BT-711</t>
+  </si>
+  <si>
+    <t>Tender Value Highest</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
+  </si>
+  <si>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
+  </si>
+  <si>
+    <t>II.1.7.4</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasCurrency </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } </t>
+    </r>
+  </si>
+  <si>
+    <t>II.2</t>
+  </si>
+  <si>
+    <t>epo:Notice / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:refersToLot ?value .</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot ?value</t>
+  </si>
+  <si>
+    <t>II.2.1</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/TITLE</t>
+  </si>
+  <si>
+    <t>epo:Lot / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -3106,55 +3439,41 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.1.5</t>
-  </si>
-  <si>
-    <t>Estimated total value</t>
-  </si>
-  <si>
-    <t>II.1.5.1</t>
-  </si>
-  <si>
-    <t>Value excluding VAT</t>
-  </si>
-  <si>
-    <t>BT-161</t>
-  </si>
-  <si>
-    <t>Estimated Value</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:hasEstimatedValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.5.2</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
-  </si>
-  <si>
-    <t>epo:Procedure / MonetaryValue /at-voc:currency (from currency.json)</t>
+      <t xml:space="preserve"> epo:hasTitle ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.1.1</t>
+  </si>
+  <si>
+    <t>Lot no</t>
+  </si>
+  <si>
+    <t>BT-137</t>
+  </si>
+  <si>
+    <t>Purpose Lot Identifier</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Identifier / xsd:string</t>
   </si>
   <si>
     <r>
@@ -3177,158 +3496,174 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.1.5.3b</t>
-  </si>
-  <si>
-    <t>estimated total maximum value for the entire duration of the framework agreement</t>
-  </si>
-  <si>
-    <t>II.1.6</t>
-  </si>
-  <si>
-    <t>Information about lots</t>
-  </si>
-  <si>
-    <t>II.1.6.1</t>
-  </si>
-  <si>
-    <t>This contract is divided into lots</t>
-  </si>
-  <si>
-    <t>II.1.6.1.1</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for all lots</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ALL</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / xsd:boolean</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isSubmissionForAllLotsAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.1.2</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for maximum number of lots</t>
-  </si>
-  <si>
-    <t>nb_lot</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_NUMBER</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / xsd:integer</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumLotSubmissionAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.1.3</t>
-  </si>
-  <si>
-    <t>Tenders may be submitted for one lot only</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_ONE_ONLY</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:isOneLotOnlyAllowed ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.2</t>
-  </si>
-  <si>
-    <t>Maximum number of lots that may be awarded to one tenderer</t>
-  </si>
-  <si>
-    <t>BT-33</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumNumberOfLotsToBeAwarded ?value</t>
-  </si>
-  <si>
-    <t>II.1.6.3</t>
-  </si>
-  <si>
-    <t>The contracting authority reserves the right to award contracts combining the following lots or groups of lots</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_COMBINING_CONTRACT_RIGHT</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasLotAwardCombination ?value</t>
-  </si>
-  <si>
-    <t>II.1.7</t>
-  </si>
-  <si>
-    <t>Total value of the procurement (Excluding VAT)</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.0</t>
-  </si>
-  <si>
-    <t>Agree to publish</t>
-  </si>
-  <si>
-    <t>See comment in the "Mapping Remarks" sheet.</t>
-  </si>
-  <si>
-    <t>II.1.7.1</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_TOTAL</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.2</t>
-  </si>
-  <si>
-    <t>Lowest offer</t>
-  </si>
-  <si>
-    <t>BT-710</t>
-  </si>
-  <si>
-    <t>Tender Value Lowest</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
+      <t xml:space="preserve"> epo:hasID / epo:hasIdentifierValue ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.2</t>
+  </si>
+  <si>
+    <t>Additional CPV code(s)</t>
+  </si>
+  <si>
+    <t>II.2.2.1</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Purpose / at-voc:cpv (from cpv.json)</t>
+  </si>
+  <si>
+    <t>?this epo:hasPurpose / epo:hasAdditionalClassification ?value .</t>
+  </si>
+  <si>
+    <t>II.2.2.2</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_SUPPLEMENTARY_CODE/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)</t>
+  </si>
+  <si>
+    <t>II.2.3</t>
+  </si>
+  <si>
+    <t>Place of performance</t>
+  </si>
+  <si>
+    <t>II.2.3.1</t>
+  </si>
+  <si>
+    <t>BT-5071</t>
+  </si>
+  <si>
+    <t>Place Performance Country Subdivision</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/*:NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:ContractTerm / dct:Location / at-voc:nuts (from nuts.json)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.3.2</t>
+  </si>
+  <si>
+    <t>Main site or place of performance</t>
+  </si>
+  <si>
+    <t>BT-728</t>
+  </si>
+  <si>
+    <t>Place Performance Additional Information</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
+  </si>
+  <si>
+    <t>II.2.4</t>
+  </si>
+  <si>
+    <t>Description of the procurement</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasDescription </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.6</t>
+  </si>
+  <si>
+    <t>Estimated value</t>
+  </si>
+  <si>
+    <t>II.2.6.1</t>
+  </si>
+  <si>
+    <t>BT-27</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -3351,7 +3686,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -3370,384 +3705,13 @@
     </r>
   </si>
   <si>
-    <t>II.1.7.3</t>
-  </si>
-  <si>
-    <t>Highest offer</t>
-  </si>
-  <si>
-    <t>BT-711</t>
-  </si>
-  <si>
-    <t>Tender Value Highest</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
-  </si>
-  <si>
-    <t>?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
-  </si>
-  <si>
-    <t>II.1.7.4</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasCurrency </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } </t>
-    </r>
-  </si>
-  <si>
-    <t>II.2</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:refersToLot ?value .</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot ?value</t>
-  </si>
-  <si>
-    <t>II.2.1</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/TITLE</t>
-  </si>
-  <si>
-    <t>epo:Lot / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasTitle ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.1.1</t>
-  </si>
-  <si>
-    <t>Lot no</t>
-  </si>
-  <si>
-    <t>BT-137</t>
-  </si>
-  <si>
-    <t>Purpose Lot Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasID / epo:hasIdentifierValue ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.2</t>
-  </si>
-  <si>
-    <t>Additional CPV code(s)</t>
-  </si>
-  <si>
-    <t>II.2.2.1</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Purpose / at-voc:cpv (from cpv.json)</t>
-  </si>
-  <si>
-    <t>?this epo:hasPurpose / epo:hasAdditionalClassification ?value .</t>
-  </si>
-  <si>
-    <t>II.2.2.2</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_SUPPLEMENTARY_CODE/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Purpose / at-voc:cpvsuppl (from cpvsuppl.json)</t>
-  </si>
-  <si>
-    <t>II.2.3</t>
-  </si>
-  <si>
-    <t>Place of performance</t>
-  </si>
-  <si>
-    <t>II.2.3.1</t>
-  </si>
-  <si>
-    <t>BT-5071</t>
-  </si>
-  <si>
-    <t>Place Performance Country Subdivision</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/*:NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / dct:Location / at-voc:nuts (from nuts.json)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.3.2</t>
-  </si>
-  <si>
-    <t>Main site or place of performance</t>
-  </si>
-  <si>
-    <t>BT-728</t>
-  </si>
-  <si>
-    <t>Place Performance Additional Information</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
-  </si>
-  <si>
-    <t>II.2.4</t>
-  </si>
-  <si>
-    <t>Description of the procurement</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.6</t>
-  </si>
-  <si>
-    <t>Estimated value</t>
-  </si>
-  <si>
-    <t>II.2.6.1</t>
-  </si>
-  <si>
-    <t>BT-27</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasEstimatedValue / epo:hasAmountValue ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
     <t>II.2.6.2</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Lot / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Lot / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <t>?this epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
@@ -3820,7 +3784,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:datetime</t>
+    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:dateTime</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasBeginning ?value .</t>
@@ -3859,7 +3823,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/QS/INDEFINITE_DURATION</t>
   </si>
   <si>
-    <t>epo:Lot / epo:MupltipleStageProcedureTerm / epo:IndefiniteDuration</t>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / epo:IndefiniteDuration</t>
   </si>
   <si>
     <t>?this epo:isSubjectToLotSpecificTerm / epo:hasQualificationSystemDuration ?value</t>
@@ -3871,7 +3835,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/QS/DATE_START</t>
   </si>
   <si>
-    <t>epo:Lot / epo:MupltipleStageProcedureTerm / epo:Period / xsd:datetime</t>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / epo:Period / xsd:dateTime</t>
   </si>
   <si>
     <t>?this epo:isSubjectToLotSpecificTerm / epo:hasQualificationSystemPeriod  / epo:hasBeginning ?value</t>
@@ -3904,7 +3868,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL_DESC</t>
   </si>
   <si>
-    <t>epo:Lot / epo:MupltipleStageProcedureTerm / rdf:langString</t>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -4706,7 +4670,7 @@
     <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:datetime</t>
+    <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
   </si>
   <si>
     <r>
@@ -4777,7 +4741,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionsDeadline ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptExpressionDeadline ?</t>
     </r>
     <r>
       <rPr>
@@ -5031,31 +4995,7 @@
     <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
   </si>
   <si>
     <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
@@ -6089,7 +6029,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / xsd:decimal</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -6139,7 +6079,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -6318,7 +6258,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <t>?this epo:foreseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrency ?value .</t>
@@ -6766,9 +6706,6 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -8296,9 +8233,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -8889,7 +8823,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9461,9 +9395,6 @@
     <xf borderId="10" fillId="6" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -15694,7 +15625,7 @@
       <c r="G84" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="H84" s="40" t="s">
+      <c r="H84" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I84" s="7"/>
@@ -15944,7 +15875,7 @@
       <c r="G92" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H92" s="40" t="s">
+      <c r="H92" s="4" t="s">
         <v>390</v>
       </c>
       <c r="I92" s="7"/>
@@ -16065,7 +15996,7 @@
         <v>407</v>
       </c>
       <c r="F96" s="93"/>
-      <c r="G96" s="96" t="s">
+      <c r="G96" s="93" t="s">
         <v>408</v>
       </c>
       <c r="H96" s="93" t="s">
@@ -16859,7 +16790,7 @@
         <v>548</v>
       </c>
       <c r="F129" s="96"/>
-      <c r="G129" s="96" t="s">
+      <c r="G129" s="93" t="s">
         <v>549</v>
       </c>
       <c r="H129" s="96" t="s">
@@ -16886,7 +16817,7 @@
         <v>555</v>
       </c>
       <c r="F130" s="96"/>
-      <c r="G130" s="96" t="s">
+      <c r="G130" s="93" t="s">
         <v>549</v>
       </c>
       <c r="H130" s="96" t="s">
@@ -17969,7 +17900,7 @@
         <v>739</v>
       </c>
       <c r="F177" s="4"/>
-      <c r="G177" s="4" t="s">
+      <c r="G177" s="40" t="s">
         <v>740</v>
       </c>
       <c r="H177" s="40" t="s">
@@ -17994,7 +17925,7 @@
         <v>745</v>
       </c>
       <c r="F178" s="4"/>
-      <c r="G178" s="4" t="s">
+      <c r="G178" s="40" t="s">
         <v>740</v>
       </c>
       <c r="H178" s="124" t="s">
@@ -19771,10 +19702,10 @@
       </c>
       <c r="F250" s="145"/>
       <c r="G250" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="H250" s="90" t="s">
         <v>1029</v>
-      </c>
-      <c r="H250" s="90" t="s">
-        <v>1030</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19782,7 +19713,7 @@
     </row>
     <row r="251">
       <c r="A251" s="97" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B251" s="92" t="s">
         <v>101</v>
@@ -19794,14 +19725,14 @@
         <v>103</v>
       </c>
       <c r="E251" s="65" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F251" s="65"/>
       <c r="G251" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H251" s="65" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19809,7 +19740,7 @@
     </row>
     <row r="252">
       <c r="A252" s="97" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B252" s="92" t="s">
         <v>121</v>
@@ -19821,7 +19752,7 @@
         <v>123</v>
       </c>
       <c r="E252" s="65" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65" t="s">
@@ -19836,7 +19767,7 @@
     </row>
     <row r="253">
       <c r="A253" s="97" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B253" s="92" t="s">
         <v>115</v>
@@ -19848,7 +19779,7 @@
         <v>117</v>
       </c>
       <c r="E253" s="65" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F253" s="65"/>
       <c r="G253" s="65" t="s">
@@ -19863,7 +19794,7 @@
     </row>
     <row r="254">
       <c r="A254" s="97" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B254" s="92" t="s">
         <v>905</v>
@@ -19875,14 +19806,14 @@
         <v>138</v>
       </c>
       <c r="E254" s="65" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F254" s="65"/>
       <c r="G254" s="61" t="s">
         <v>898</v>
       </c>
       <c r="H254" s="61" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
@@ -19890,7 +19821,7 @@
     </row>
     <row r="255">
       <c r="A255" s="97" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B255" s="92" t="s">
         <v>128</v>
@@ -19902,7 +19833,7 @@
         <v>130</v>
       </c>
       <c r="E255" s="65" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F255" s="65"/>
       <c r="G255" s="65" t="s">
@@ -19917,21 +19848,21 @@
     </row>
     <row r="256">
       <c r="A256" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B256" s="66" t="s">
         <v>1043</v>
-      </c>
-      <c r="B256" s="66" t="s">
-        <v>1044</v>
       </c>
       <c r="C256" s="158" t="s">
         <v>803</v>
       </c>
       <c r="D256" s="159"/>
       <c r="E256" s="90" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F256" s="63"/>
       <c r="G256" s="63" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H256" s="63" t="s">
         <v>234</v>
@@ -19942,7 +19873,7 @@
     </row>
     <row r="257">
       <c r="A257" s="97" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B257" s="92" t="s">
         <v>57</v>
@@ -19954,14 +19885,14 @@
         <v>59</v>
       </c>
       <c r="E257" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F257" s="65"/>
       <c r="G257" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H257" s="160" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>63</v>
@@ -19971,7 +19902,7 @@
     </row>
     <row r="258">
       <c r="A258" s="97" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B258" s="92" t="s">
         <v>73</v>
@@ -19983,14 +19914,14 @@
         <v>75</v>
       </c>
       <c r="E258" s="65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F258" s="65"/>
       <c r="G258" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H258" s="160" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -19998,7 +19929,7 @@
     </row>
     <row r="259">
       <c r="A259" s="97" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B259" s="92" t="s">
         <v>80</v>
@@ -20010,14 +19941,14 @@
         <v>82</v>
       </c>
       <c r="E259" s="65" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F259" s="65"/>
       <c r="G259" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H259" s="90" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -20025,7 +19956,7 @@
     </row>
     <row r="260">
       <c r="A260" s="97" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B260" s="92" t="s">
         <v>94</v>
@@ -20037,14 +19968,14 @@
         <v>890</v>
       </c>
       <c r="E260" s="65" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F260" s="65"/>
       <c r="G260" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H260" s="90" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -20052,7 +19983,7 @@
     </row>
     <row r="261">
       <c r="A261" s="97" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B261" s="92" t="s">
         <v>101</v>
@@ -20064,14 +19995,14 @@
         <v>103</v>
       </c>
       <c r="E261" s="65" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F261" s="65"/>
       <c r="G261" s="90" t="s">
         <v>105</v>
       </c>
       <c r="H261" s="90" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
@@ -20079,7 +20010,7 @@
     </row>
     <row r="262">
       <c r="A262" s="97" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B262" s="92" t="s">
         <v>121</v>
@@ -20091,7 +20022,7 @@
         <v>123</v>
       </c>
       <c r="E262" s="65" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F262" s="65"/>
       <c r="G262" s="65" t="s">
@@ -20106,7 +20037,7 @@
     </row>
     <row r="263">
       <c r="A263" s="97" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B263" s="92" t="s">
         <v>115</v>
@@ -20118,7 +20049,7 @@
         <v>117</v>
       </c>
       <c r="E263" s="65" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F263" s="65"/>
       <c r="G263" s="65" t="s">
@@ -20133,7 +20064,7 @@
     </row>
     <row r="264">
       <c r="A264" s="97" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B264" s="92" t="s">
         <v>905</v>
@@ -20145,14 +20076,14 @@
         <v>138</v>
       </c>
       <c r="E264" s="65" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F264" s="65"/>
       <c r="G264" s="61" t="s">
         <v>898</v>
       </c>
       <c r="H264" s="61" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -20160,7 +20091,7 @@
     </row>
     <row r="265">
       <c r="A265" s="97" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B265" s="92" t="s">
         <v>128</v>
@@ -20172,7 +20103,7 @@
         <v>130</v>
       </c>
       <c r="E265" s="65" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F265" s="65"/>
       <c r="G265" s="65" t="s">
@@ -20187,26 +20118,26 @@
     </row>
     <row r="266">
       <c r="A266" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B266" s="66" t="s">
         <v>1071</v>
       </c>
-      <c r="B266" s="66" t="s">
+      <c r="C266" s="63" t="s">
         <v>1072</v>
       </c>
-      <c r="C266" s="63" t="s">
+      <c r="D266" s="63" t="s">
         <v>1073</v>
       </c>
-      <c r="D266" s="63" t="s">
+      <c r="E266" s="65" t="s">
         <v>1074</v>
-      </c>
-      <c r="E266" s="65" t="s">
-        <v>1075</v>
       </c>
       <c r="F266" s="65"/>
       <c r="G266" s="90" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H266" s="161" t="s">
         <v>1076</v>
-      </c>
-      <c r="H266" s="161" t="s">
-        <v>1077</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
@@ -20214,15 +20145,15 @@
     </row>
     <row r="267">
       <c r="A267" s="49" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B267" s="66" t="s">
         <v>1078</v>
-      </c>
-      <c r="B267" s="66" t="s">
-        <v>1079</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="90" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F267" s="63"/>
       <c r="G267" s="63" t="s">
@@ -20237,7 +20168,7 @@
     </row>
     <row r="268">
       <c r="A268" s="97" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B268" s="92" t="s">
         <v>57</v>
@@ -20249,14 +20180,14 @@
         <v>59</v>
       </c>
       <c r="E268" s="65" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F268" s="65"/>
       <c r="G268" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H268" s="90" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I268" s="7" t="s">
         <v>63</v>
@@ -20266,7 +20197,7 @@
     </row>
     <row r="269">
       <c r="A269" s="97" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B269" s="92" t="s">
         <v>73</v>
@@ -20278,14 +20209,14 @@
         <v>75</v>
       </c>
       <c r="E269" s="65" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F269" s="65"/>
       <c r="G269" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H269" s="90" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
@@ -20293,7 +20224,7 @@
     </row>
     <row r="270">
       <c r="A270" s="97" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="92" t="s">
         <v>80</v>
@@ -20305,14 +20236,14 @@
         <v>82</v>
       </c>
       <c r="E270" s="65" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F270" s="65"/>
       <c r="G270" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H270" s="90" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -20320,7 +20251,7 @@
     </row>
     <row r="271">
       <c r="A271" s="97" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B271" s="92" t="s">
         <v>94</v>
@@ -20332,14 +20263,14 @@
         <v>890</v>
       </c>
       <c r="E271" s="65" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F271" s="65"/>
       <c r="G271" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H271" s="90" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -20347,7 +20278,7 @@
     </row>
     <row r="272">
       <c r="A272" s="97" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B272" s="92" t="s">
         <v>101</v>
@@ -20359,14 +20290,14 @@
         <v>103</v>
       </c>
       <c r="E272" s="65" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F272" s="65"/>
       <c r="G272" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H272" s="65" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
@@ -20374,7 +20305,7 @@
     </row>
     <row r="273">
       <c r="A273" s="97" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B273" s="92" t="s">
         <v>121</v>
@@ -20386,7 +20317,7 @@
         <v>123</v>
       </c>
       <c r="E273" s="65" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F273" s="65"/>
       <c r="G273" s="65" t="s">
@@ -20401,7 +20332,7 @@
     </row>
     <row r="274">
       <c r="A274" s="97" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B274" s="92" t="s">
         <v>115</v>
@@ -20413,7 +20344,7 @@
         <v>117</v>
       </c>
       <c r="E274" s="65" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F274" s="65"/>
       <c r="G274" s="65" t="s">
@@ -20428,7 +20359,7 @@
     </row>
     <row r="275">
       <c r="A275" s="97" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B275" s="92" t="s">
         <v>905</v>
@@ -20440,14 +20371,14 @@
         <v>138</v>
       </c>
       <c r="E275" s="65" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F275" s="65"/>
       <c r="G275" s="61" t="s">
         <v>898</v>
       </c>
       <c r="H275" s="162" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -20455,7 +20386,7 @@
     </row>
     <row r="276">
       <c r="A276" s="97" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B276" s="92" t="s">
         <v>128</v>
@@ -20467,7 +20398,7 @@
         <v>130</v>
       </c>
       <c r="E276" s="65" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F276" s="65"/>
       <c r="G276" s="65" t="s">
@@ -20482,26 +20413,26 @@
     </row>
     <row r="277">
       <c r="A277" s="122" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B277" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="B277" s="62" t="s">
+      <c r="C277" s="163" t="s">
         <v>1106</v>
       </c>
-      <c r="C277" s="163" t="s">
+      <c r="D277" s="163" t="s">
         <v>1107</v>
       </c>
-      <c r="D277" s="163" t="s">
+      <c r="E277" s="164" t="s">
         <v>1108</v>
-      </c>
-      <c r="E277" s="164" t="s">
-        <v>1109</v>
       </c>
       <c r="F277" s="164"/>
       <c r="G277" s="90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H277" s="165" t="s">
         <v>1110</v>
-      </c>
-      <c r="H277" s="165" t="s">
-        <v>1111</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
@@ -20509,10 +20440,10 @@
     </row>
     <row r="278">
       <c r="A278" s="34" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B278" s="166" t="s">
         <v>1112</v>
-      </c>
-      <c r="B278" s="166" t="s">
-        <v>1113</v>
       </c>
       <c r="C278" s="99"/>
       <c r="D278" s="99"/>
@@ -20526,17 +20457,17 @@
     </row>
     <row r="279">
       <c r="A279" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B279" s="62" t="s">
         <v>1114</v>
-      </c>
-      <c r="B279" s="62" t="s">
-        <v>1115</v>
       </c>
       <c r="C279" s="167" t="s">
         <v>803</v>
       </c>
       <c r="D279" s="99"/>
       <c r="E279" s="110" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F279" s="99"/>
       <c r="G279" s="99"/>
@@ -20547,26 +20478,26 @@
     </row>
     <row r="280">
       <c r="A280" s="47" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B280" s="66" t="s">
         <v>1117</v>
       </c>
-      <c r="B280" s="66" t="s">
+      <c r="C280" s="99" t="s">
         <v>1118</v>
       </c>
-      <c r="C280" s="99" t="s">
+      <c r="D280" s="99" t="s">
         <v>1119</v>
       </c>
-      <c r="D280" s="99" t="s">
+      <c r="E280" s="99" t="s">
         <v>1120</v>
-      </c>
-      <c r="E280" s="99" t="s">
-        <v>1121</v>
       </c>
       <c r="F280" s="99"/>
       <c r="G280" s="99" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H280" s="168" t="s">
         <v>1122</v>
-      </c>
-      <c r="H280" s="168" t="s">
-        <v>1123</v>
       </c>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
@@ -20574,26 +20505,26 @@
     </row>
     <row r="281">
       <c r="A281" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B281" s="66" t="s">
         <v>1124</v>
       </c>
-      <c r="B281" s="66" t="s">
+      <c r="C281" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D281" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E281" s="99" t="s">
         <v>1125</v>
-      </c>
-      <c r="C281" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D281" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E281" s="99" t="s">
-        <v>1126</v>
       </c>
       <c r="F281" s="99"/>
       <c r="G281" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H281" s="168" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
@@ -20601,10 +20532,10 @@
     </row>
     <row r="282">
       <c r="A282" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B282" s="66" t="s">
         <v>1128</v>
-      </c>
-      <c r="B282" s="66" t="s">
-        <v>1129</v>
       </c>
       <c r="C282" s="99"/>
       <c r="D282" s="99"/>
@@ -20618,26 +20549,26 @@
     </row>
     <row r="283">
       <c r="A283" s="55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B283" s="92" t="s">
         <v>1130</v>
       </c>
-      <c r="B283" s="92" t="s">
+      <c r="C283" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D283" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E283" s="110" t="s">
         <v>1131</v>
-      </c>
-      <c r="C283" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D283" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E283" s="110" t="s">
-        <v>1132</v>
       </c>
       <c r="F283" s="99"/>
       <c r="G283" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H283" s="168" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
@@ -20645,26 +20576,26 @@
     </row>
     <row r="284">
       <c r="A284" s="55" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B284" s="92" t="s">
         <v>1134</v>
       </c>
-      <c r="B284" s="92" t="s">
+      <c r="C284" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D284" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E284" s="110" t="s">
         <v>1135</v>
-      </c>
-      <c r="C284" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D284" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E284" s="110" t="s">
-        <v>1136</v>
       </c>
       <c r="F284" s="99"/>
       <c r="G284" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H284" s="168" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
@@ -20672,26 +20603,26 @@
     </row>
     <row r="285">
       <c r="A285" s="55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B285" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="B285" s="92" t="s">
+      <c r="C285" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D285" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E285" s="110" t="s">
         <v>1139</v>
-      </c>
-      <c r="C285" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D285" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E285" s="110" t="s">
-        <v>1140</v>
       </c>
       <c r="F285" s="99"/>
       <c r="G285" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H285" s="168" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
@@ -20699,26 +20630,26 @@
     </row>
     <row r="286">
       <c r="A286" s="47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B286" s="66" t="s">
         <v>1142</v>
       </c>
-      <c r="B286" s="66" t="s">
+      <c r="C286" s="167" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D286" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E286" s="110" t="s">
         <v>1143</v>
-      </c>
-      <c r="C286" s="167" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D286" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E286" s="110" t="s">
-        <v>1144</v>
       </c>
       <c r="F286" s="99"/>
       <c r="G286" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H286" s="168" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
@@ -20726,26 +20657,26 @@
     </row>
     <row r="287">
       <c r="A287" s="47" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B287" s="66" t="s">
         <v>1146</v>
       </c>
-      <c r="B287" s="66" t="s">
+      <c r="C287" s="167" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D287" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E287" s="110" t="s">
         <v>1147</v>
-      </c>
-      <c r="C287" s="167" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D287" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E287" s="110" t="s">
-        <v>1148</v>
       </c>
       <c r="F287" s="99"/>
       <c r="G287" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H287" s="168" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
@@ -20753,10 +20684,10 @@
     </row>
     <row r="288">
       <c r="A288" s="47" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B288" s="66" t="s">
         <v>1150</v>
-      </c>
-      <c r="B288" s="66" t="s">
-        <v>1151</v>
       </c>
       <c r="C288" s="167" t="s">
         <v>803</v>
@@ -20772,26 +20703,26 @@
     </row>
     <row r="289">
       <c r="A289" s="55" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B289" s="92" t="s">
         <v>1152</v>
       </c>
-      <c r="B289" s="92" t="s">
+      <c r="C289" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D289" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E289" s="110" t="s">
         <v>1153</v>
-      </c>
-      <c r="C289" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D289" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E289" s="110" t="s">
-        <v>1154</v>
       </c>
       <c r="F289" s="99"/>
       <c r="G289" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H289" s="168" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
@@ -20799,26 +20730,26 @@
     </row>
     <row r="290">
       <c r="A290" s="55" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B290" s="92" t="s">
         <v>1156</v>
       </c>
-      <c r="B290" s="92" t="s">
+      <c r="C290" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D290" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E290" s="110" t="s">
         <v>1157</v>
-      </c>
-      <c r="C290" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D290" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E290" s="110" t="s">
-        <v>1158</v>
       </c>
       <c r="F290" s="99"/>
       <c r="G290" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H290" s="168" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
@@ -20826,26 +20757,26 @@
     </row>
     <row r="291">
       <c r="A291" s="47" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B291" s="66" t="s">
         <v>1160</v>
       </c>
-      <c r="B291" s="66" t="s">
+      <c r="C291" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D291" s="99" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E291" s="99" t="s">
         <v>1161</v>
-      </c>
-      <c r="C291" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D291" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E291" s="99" t="s">
-        <v>1162</v>
       </c>
       <c r="F291" s="99"/>
       <c r="G291" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H291" s="168" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
@@ -20853,10 +20784,10 @@
     </row>
     <row r="292">
       <c r="A292" s="38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B292" s="62" t="s">
         <v>1164</v>
-      </c>
-      <c r="B292" s="62" t="s">
-        <v>1165</v>
       </c>
       <c r="C292" s="99"/>
       <c r="D292" s="99"/>
@@ -20870,24 +20801,24 @@
     </row>
     <row r="293">
       <c r="A293" s="47" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B293" s="66" t="s">
         <v>1166</v>
-      </c>
-      <c r="B293" s="66" t="s">
-        <v>1167</v>
       </c>
       <c r="C293" s="169" t="s">
         <v>655</v>
       </c>
       <c r="D293" s="99"/>
       <c r="E293" s="110" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F293" s="99"/>
       <c r="G293" s="99" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H293" s="168" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
@@ -20895,10 +20826,10 @@
     </row>
     <row r="294">
       <c r="A294" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B294" s="62" t="s">
         <v>1170</v>
-      </c>
-      <c r="B294" s="62" t="s">
-        <v>1171</v>
       </c>
       <c r="C294" s="99"/>
       <c r="D294" s="99"/>
@@ -20912,29 +20843,29 @@
     </row>
     <row r="295">
       <c r="A295" s="47" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B295" s="66" t="s">
         <v>1172</v>
       </c>
-      <c r="B295" s="66" t="s">
+      <c r="C295" s="167" t="s">
         <v>1173</v>
       </c>
-      <c r="C295" s="167" t="s">
+      <c r="D295" s="99" t="s">
         <v>1174</v>
       </c>
-      <c r="D295" s="99" t="s">
+      <c r="E295" s="170" t="s">
         <v>1175</v>
-      </c>
-      <c r="E295" s="170" t="s">
-        <v>1176</v>
       </c>
       <c r="F295" s="99"/>
       <c r="G295" s="99" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H295" s="171" t="s">
         <v>1177</v>
       </c>
-      <c r="H295" s="171" t="s">
+      <c r="I295" s="7" t="s">
         <v>1178</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>1179</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -21066,14 +20997,14 @@
         <v>415</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="90" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F2" s="90" t="s">
         <v>1181</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="3">
@@ -21084,14 +21015,14 @@
         <v>415</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="90" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F3" s="90" t="s">
         <v>1183</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="4">
@@ -21104,10 +21035,10 @@
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
       <c r="E4" s="68" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F4" s="175" t="s">
         <v>1185</v>
-      </c>
-      <c r="F4" s="175" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="5">
@@ -21123,27 +21054,27 @@
         <v>573</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>1188</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="C6" s="65" t="s">
         <v>1189</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="65" t="s">
         <v>1190</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="90" t="s">
         <v>1191</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="F6" s="90" t="s">
         <v>1192</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="7">
@@ -21163,7 +21094,7 @@
         <v>798</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8">
@@ -21178,10 +21109,10 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="90" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>1195</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="9">
@@ -21194,10 +21125,10 @@
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
       <c r="E9" s="68" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F9" s="175" t="s">
         <v>1197</v>
-      </c>
-      <c r="F9" s="175" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="10">
@@ -21210,10 +21141,10 @@
       <c r="C10" s="131"/>
       <c r="D10" s="131"/>
       <c r="E10" s="68" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F10" s="175" t="s">
         <v>1199</v>
-      </c>
-      <c r="F10" s="175" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="11">
@@ -21230,10 +21161,10 @@
         <v>914</v>
       </c>
       <c r="E11" s="90" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>1201</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="12">
@@ -21246,10 +21177,10 @@
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>
       <c r="E12" s="68" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>1203</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -21273,36 +21204,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="177" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1205</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="178" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1207</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="179" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="180" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1210</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="8">
@@ -21313,41 +21244,41 @@
     </row>
     <row r="10">
       <c r="A10" s="180" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="180" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B11" s="181" t="s">
         <v>1214</v>
-      </c>
-      <c r="B11" s="181" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="182" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="183"/>
       <c r="B13" s="184" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="185" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="186" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="187" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="17">
@@ -21356,24 +21287,24 @@
     </row>
     <row r="18">
       <c r="A18" s="180" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B18" s="188" t="s">
         <v>1221</v>
-      </c>
-      <c r="B18" s="188" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B19" s="84"/>
     </row>
     <row r="21">
       <c r="A21" s="180" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B21" s="189" t="s">
         <v>1224</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -21399,57 +21330,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="180" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="190" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="191" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="190" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="191" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="191" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="191" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="192" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="191" t="s">
         <v>1233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="193" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="191" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="191" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -21475,63 +21401,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B1" s="194" t="s">
-        <v>1237</v>
+        <v>1225</v>
+      </c>
+      <c r="B1" s="193" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="191" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="191" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="191" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="191" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="191" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="191" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="191" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="194" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="195" t="s">
         <v>1246</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="195" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="196" t="s">
-        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -21574,11 +21500,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1" s="198" t="s">
-        <v>1250</v>
+      <c r="A1" s="196" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>1248</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -21605,16 +21531,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1254</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -21641,13 +21567,13 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1257</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -21678,13 +21604,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21715,13 +21641,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21749,16 +21675,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>1261</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1263</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -21785,16 +21711,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D7" s="198" t="s">
         <v>1264</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D7" s="199" t="s">
-        <v>1266</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -21821,16 +21747,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1267</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1269</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -21857,16 +21783,16 @@
     </row>
     <row r="9">
       <c r="A9" s="90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1272</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -21893,16 +21819,16 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -21929,16 +21855,16 @@
     </row>
     <row r="11">
       <c r="A11" s="90" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1275</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1277</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -21965,16 +21891,16 @@
     </row>
     <row r="12">
       <c r="A12" s="90" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -22000,76 +21926,76 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="199" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C13" s="200" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="200"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="199" t="s">
         <v>1280</v>
       </c>
-      <c r="B13" s="200" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C13" s="201" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D13" s="201" t="s">
+      <c r="B14" s="199" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C14" s="200" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D14" s="200" t="s">
         <v>1281</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
-      <c r="U13" s="201"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="201"/>
-      <c r="Z13" s="201"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="200" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B14" s="200" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C14" s="201" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D14" s="201" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201"/>
-      <c r="U14" s="201"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="201"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="201"/>
-      <c r="Z14" s="201"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22097,59 +22023,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1" s="198" t="s">
-        <v>1250</v>
+      <c r="A1" s="196" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="193" t="s">
         <v>1252</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D2" s="194" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C5" s="201" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>1288</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C5" s="202" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1290</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1288">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.3.0</t>
   </si>
   <si>
     <r>
@@ -270,7 +270,7 @@
     <t>R2.0.9.S05.E01</t>
   </si>
   <si>
-    <t>Conceptual mapping</t>
+    <t>072058-2016,131762-2021,131772-2021,152614-2021</t>
   </si>
   <si>
     <t>ePO mapping</t>
@@ -4667,7 +4667,11 @@
     <t>Time limit for receipt of tenders or requests to participate (Date/Time)</t>
   </si>
   <si>
-    <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS
+PROCEDURE/TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>if(../NOTICE/@TYPE='CONTRACT' or ../NOTICE/@TYPE='PRI' or ../NOTICE/@TYPE='QSU_ONLY' or ../NOTICE/@TYPE='QSU_CALL_COMPETITION' or ../NOTICE/@TYPE='PER_ONLY')</t>
   </si>
   <si>
     <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
@@ -4712,16 +4716,10 @@
     </r>
   </si>
   <si>
-    <t>IV.2.2.1</t>
-  </si>
-  <si>
-    <t>Time limit for receipt of expressions of interest (Date/Time)</t>
-  </si>
-  <si>
-    <t>BT-630</t>
-  </si>
-  <si>
-    <t>PROCEDURE/TIME_RECEIPT_TENDERS</t>
+    <t>IV.2.3</t>
+  </si>
+  <si>
+    <t>if(../NOTICE/@TYPE='PRI_CALL_COMPETITION' or ../NOTICE/@TYPE='PER_CALL_COMPETITION')</t>
   </si>
   <si>
     <r>
@@ -8823,7 +8821,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8895,7 +8893,7 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -9202,6 +9200,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -17896,40 +17897,44 @@
         <v>655</v>
       </c>
       <c r="D177" s="7"/>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="F177" s="4"/>
+      <c r="F177" s="129" t="s">
+        <v>740</v>
+      </c>
       <c r="G177" s="40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="B178" s="56" t="s">
+      <c r="A178" s="47" t="s">
         <v>743</v>
       </c>
+      <c r="B178" s="48" t="s">
+        <v>738</v>
+      </c>
       <c r="C178" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="57" t="s">
+        <v>739</v>
+      </c>
+      <c r="F178" s="129" t="s">
         <v>744</v>
       </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="4" t="s">
+      <c r="G178" s="40" t="s">
+        <v>741</v>
+      </c>
+      <c r="H178" s="124" t="s">
         <v>745</v>
-      </c>
-      <c r="F178" s="4"/>
-      <c r="G178" s="40" t="s">
-        <v>740</v>
-      </c>
-      <c r="H178" s="124" t="s">
-        <v>746</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -17937,24 +17942,24 @@
     </row>
     <row r="179">
       <c r="A179" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="B179" s="48" t="s">
         <v>747</v>
       </c>
-      <c r="B179" s="48" t="s">
+      <c r="C179" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>749</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H179" s="124" t="s">
         <v>751</v>
-      </c>
-      <c r="H179" s="124" t="s">
-        <v>752</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -17962,24 +17967,24 @@
     </row>
     <row r="180">
       <c r="A180" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="B180" s="48" t="s">
         <v>753</v>
-      </c>
-      <c r="B180" s="48" t="s">
-        <v>754</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>655</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="H180" s="40" t="s">
         <v>756</v>
-      </c>
-      <c r="H180" s="40" t="s">
-        <v>757</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -17987,10 +17992,10 @@
     </row>
     <row r="181">
       <c r="A181" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="B181" s="48" t="s">
         <v>758</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>759</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -18004,26 +18009,26 @@
     </row>
     <row r="182">
       <c r="A182" s="97" t="s">
+        <v>759</v>
+      </c>
+      <c r="B182" s="56" t="s">
         <v>760</v>
       </c>
-      <c r="B182" s="56" t="s">
+      <c r="C182" s="63" t="s">
         <v>761</v>
       </c>
-      <c r="C182" s="63" t="s">
+      <c r="D182" s="63" t="s">
         <v>762</v>
       </c>
-      <c r="D182" s="63" t="s">
+      <c r="E182" s="50" t="s">
         <v>763</v>
-      </c>
-      <c r="E182" s="50" t="s">
-        <v>764</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="H182" s="37" t="s">
         <v>765</v>
-      </c>
-      <c r="H182" s="37" t="s">
-        <v>766</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -18031,74 +18036,74 @@
     </row>
     <row r="183">
       <c r="A183" s="121" t="s">
+        <v>766</v>
+      </c>
+      <c r="B183" s="35" t="s">
         <v>767</v>
-      </c>
-      <c r="B183" s="35" t="s">
-        <v>768</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="40" t="s">
+        <v>768</v>
+      </c>
+      <c r="F183" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="F183" s="50" t="s">
+      <c r="G183" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="G183" s="4" t="s">
+      <c r="H183" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="129" t="s">
+      <c r="A184" s="130" t="s">
+        <v>766</v>
+      </c>
+      <c r="B184" s="131" t="s">
         <v>767</v>
       </c>
-      <c r="B184" s="130" t="s">
+      <c r="C184" s="132"/>
+      <c r="D184" s="132"/>
+      <c r="E184" s="57" t="s">
         <v>768</v>
       </c>
-      <c r="C184" s="131"/>
-      <c r="D184" s="131"/>
-      <c r="E184" s="57" t="s">
+      <c r="F184" s="68" t="s">
         <v>769</v>
       </c>
-      <c r="F184" s="68" t="s">
-        <v>770</v>
-      </c>
       <c r="G184" s="41" t="s">
+        <v>772</v>
+      </c>
+      <c r="H184" s="133" t="s">
         <v>773</v>
-      </c>
-      <c r="H184" s="132" t="s">
-        <v>774</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="129" t="s">
+      <c r="A185" s="130" t="s">
+        <v>766</v>
+      </c>
+      <c r="B185" s="131" t="s">
         <v>767</v>
-      </c>
-      <c r="B185" s="130" t="s">
-        <v>768</v>
       </c>
       <c r="C185" s="63"/>
       <c r="D185" s="63"/>
-      <c r="E185" s="133" t="s">
-        <v>769</v>
+      <c r="E185" s="134" t="s">
+        <v>768</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="H185" s="37" t="s">
         <v>776</v>
-      </c>
-      <c r="H185" s="37" t="s">
-        <v>777</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -18106,28 +18111,28 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="B186" s="48" t="s">
         <v>778</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="C186" s="63" t="s">
         <v>779</v>
       </c>
-      <c r="C186" s="63" t="s">
+      <c r="D186" s="63" t="s">
         <v>780</v>
       </c>
-      <c r="D186" s="63" t="s">
+      <c r="E186" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="E186" s="50" t="s">
+      <c r="F186" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="G186" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="F186" s="50" t="s">
-        <v>770</v>
-      </c>
-      <c r="G186" s="4" t="s">
+      <c r="H186" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="I186" s="7" t="s">
         <v>71</v>
@@ -18137,28 +18142,28 @@
     </row>
     <row r="187">
       <c r="A187" s="49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="D187" s="63" t="s">
         <v>786</v>
       </c>
-      <c r="D187" s="63" t="s">
+      <c r="E187" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="E187" s="50" t="s">
+      <c r="F187" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F187" s="50" t="s">
-        <v>770</v>
-      </c>
-      <c r="G187" s="4" t="s">
+      <c r="H187" s="104" t="s">
         <v>789</v>
-      </c>
-      <c r="H187" s="104" t="s">
-        <v>790</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>63</v>
@@ -18168,53 +18173,53 @@
     </row>
     <row r="188">
       <c r="A188" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="B188" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="B188" s="48" t="s">
+      <c r="C188" s="63" t="s">
         <v>792</v>
       </c>
-      <c r="C188" s="63" t="s">
+      <c r="D188" s="63" t="s">
         <v>793</v>
       </c>
-      <c r="D188" s="63" t="s">
+      <c r="E188" s="40" t="s">
         <v>794</v>
-      </c>
-      <c r="E188" s="40" t="s">
-        <v>795</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H188" s="124" t="s">
         <v>796</v>
-      </c>
-      <c r="H188" s="124" t="s">
-        <v>797</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="134" t="s">
+      <c r="A189" s="135" t="s">
+        <v>790</v>
+      </c>
+      <c r="B189" s="136" t="s">
         <v>791</v>
       </c>
-      <c r="B189" s="135" t="s">
+      <c r="C189" s="116" t="s">
         <v>792</v>
       </c>
-      <c r="C189" s="116" t="s">
+      <c r="D189" s="116" t="s">
         <v>793</v>
       </c>
-      <c r="D189" s="116" t="s">
-        <v>794</v>
-      </c>
       <c r="E189" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H189" s="124" t="s">
         <v>799</v>
-      </c>
-      <c r="H189" s="124" t="s">
-        <v>800</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -18222,13 +18227,13 @@
     </row>
     <row r="190">
       <c r="A190" s="122" t="s">
+        <v>800</v>
+      </c>
+      <c r="B190" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="B190" s="39" t="s">
+      <c r="C190" s="137" t="s">
         <v>802</v>
-      </c>
-      <c r="C190" s="136" t="s">
-        <v>803</v>
       </c>
       <c r="D190" s="63"/>
       <c r="E190" s="4"/>
@@ -18241,13 +18246,13 @@
     </row>
     <row r="191">
       <c r="A191" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="B191" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="B191" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="C191" s="137" t="s">
-        <v>803</v>
+      <c r="C191" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D191" s="63"/>
       <c r="E191" s="37"/>
@@ -18260,26 +18265,26 @@
     </row>
     <row r="192">
       <c r="A192" s="97" t="s">
+        <v>805</v>
+      </c>
+      <c r="B192" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="B192" s="56" t="s">
+      <c r="C192" s="63" t="s">
         <v>807</v>
       </c>
-      <c r="C192" s="63" t="s">
+      <c r="D192" s="63" t="s">
         <v>808</v>
       </c>
-      <c r="D192" s="63" t="s">
+      <c r="E192" s="50" t="s">
         <v>809</v>
-      </c>
-      <c r="E192" s="50" t="s">
-        <v>810</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="H192" s="120" t="s">
         <v>811</v>
-      </c>
-      <c r="H192" s="120" t="s">
-        <v>812</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -18287,26 +18292,26 @@
     </row>
     <row r="193">
       <c r="A193" s="97" t="s">
+        <v>812</v>
+      </c>
+      <c r="B193" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="B193" s="56" t="s">
+      <c r="C193" s="63" t="s">
+        <v>807</v>
+      </c>
+      <c r="D193" s="63" t="s">
+        <v>808</v>
+      </c>
+      <c r="E193" s="50" t="s">
         <v>814</v>
-      </c>
-      <c r="C193" s="63" t="s">
-        <v>808</v>
-      </c>
-      <c r="D193" s="63" t="s">
-        <v>809</v>
-      </c>
-      <c r="E193" s="50" t="s">
-        <v>815</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H193" s="124" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -18314,24 +18319,24 @@
     </row>
     <row r="194">
       <c r="A194" s="97" t="s">
+        <v>816</v>
+      </c>
+      <c r="B194" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="B194" s="56" t="s">
-        <v>818</v>
-      </c>
-      <c r="C194" s="138" t="s">
+      <c r="C194" s="139" t="s">
         <v>655</v>
       </c>
       <c r="D194" s="63"/>
       <c r="E194" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F194" s="41"/>
       <c r="G194" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="H194" s="140" t="s">
         <v>820</v>
-      </c>
-      <c r="H194" s="139" t="s">
-        <v>821</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -18339,13 +18344,13 @@
     </row>
     <row r="195">
       <c r="A195" s="122" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>768</v>
-      </c>
-      <c r="C195" s="137" t="s">
-        <v>803</v>
+        <v>767</v>
+      </c>
+      <c r="C195" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D195" s="63"/>
       <c r="E195" s="37"/>
@@ -18358,20 +18363,20 @@
     </row>
     <row r="196">
       <c r="A196" s="97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B196" s="56"/>
       <c r="C196" s="63"/>
       <c r="D196" s="7"/>
       <c r="E196" s="57" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="H196" s="50" t="s">
         <v>824</v>
-      </c>
-      <c r="H196" s="50" t="s">
-        <v>825</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -18379,49 +18384,49 @@
     </row>
     <row r="197">
       <c r="A197" s="97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B197" s="91"/>
       <c r="C197" s="63"/>
       <c r="D197" s="7"/>
       <c r="E197" s="57" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F197" s="50"/>
       <c r="G197" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="H197" s="50" t="s">
         <v>826</v>
-      </c>
-      <c r="H197" s="50" t="s">
-        <v>827</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="49" t="s">
+        <v>828</v>
+      </c>
+      <c r="B198" s="48" t="s">
         <v>829</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="C198" s="63" t="s">
         <v>830</v>
       </c>
-      <c r="C198" s="63" t="s">
+      <c r="D198" s="63" t="s">
         <v>831</v>
       </c>
-      <c r="D198" s="63" t="s">
+      <c r="E198" s="50" t="s">
         <v>832</v>
-      </c>
-      <c r="E198" s="50" t="s">
-        <v>833</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="H198" s="124" t="s">
         <v>834</v>
-      </c>
-      <c r="H198" s="124" t="s">
-        <v>835</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -18429,32 +18434,32 @@
     </row>
     <row r="199">
       <c r="A199" s="49" t="s">
+        <v>835</v>
+      </c>
+      <c r="B199" s="48" t="s">
         <v>836</v>
       </c>
-      <c r="B199" s="48" t="s">
+      <c r="C199" s="141"/>
+      <c r="D199" s="141"/>
+      <c r="E199" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="F199" s="142"/>
+      <c r="G199" s="50" t="s">
         <v>837</v>
       </c>
-      <c r="C199" s="140"/>
-      <c r="D199" s="140"/>
-      <c r="E199" s="57" t="s">
-        <v>795</v>
-      </c>
-      <c r="F199" s="141"/>
-      <c r="G199" s="50" t="s">
+      <c r="H199" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="H199" s="37" t="s">
+      <c r="I199" s="7" t="s">
         <v>839</v>
-      </c>
-      <c r="I199" s="7" t="s">
-        <v>840</v>
       </c>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
       <c r="A200" s="97" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>448</v>
@@ -18473,26 +18478,26 @@
     </row>
     <row r="201">
       <c r="A201" s="97" t="s">
+        <v>841</v>
+      </c>
+      <c r="B201" s="56" t="s">
         <v>842</v>
       </c>
-      <c r="B201" s="56" t="s">
+      <c r="C201" s="37" t="s">
         <v>843</v>
       </c>
-      <c r="C201" s="37" t="s">
+      <c r="D201" s="63" t="s">
         <v>844</v>
       </c>
-      <c r="D201" s="63" t="s">
+      <c r="E201" s="50" t="s">
         <v>845</v>
-      </c>
-      <c r="E201" s="50" t="s">
-        <v>846</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="H201" s="37" t="s">
         <v>847</v>
-      </c>
-      <c r="H201" s="37" t="s">
-        <v>848</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -18500,22 +18505,22 @@
     </row>
     <row r="202">
       <c r="A202" s="97" t="s">
+        <v>848</v>
+      </c>
+      <c r="B202" s="56" t="s">
         <v>849</v>
-      </c>
-      <c r="B202" s="56" t="s">
-        <v>850</v>
       </c>
       <c r="C202" s="63"/>
       <c r="D202" s="63"/>
       <c r="E202" s="50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="H202" s="40" t="s">
         <v>852</v>
-      </c>
-      <c r="H202" s="40" t="s">
-        <v>853</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -18523,22 +18528,22 @@
     </row>
     <row r="203">
       <c r="A203" s="97" t="s">
+        <v>853</v>
+      </c>
+      <c r="B203" s="56" t="s">
         <v>854</v>
-      </c>
-      <c r="B203" s="56" t="s">
-        <v>855</v>
       </c>
       <c r="C203" s="63"/>
       <c r="D203" s="63"/>
       <c r="E203" s="50" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H203" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -18546,22 +18551,22 @@
     </row>
     <row r="204">
       <c r="A204" s="97" t="s">
+        <v>857</v>
+      </c>
+      <c r="B204" s="56" t="s">
         <v>858</v>
-      </c>
-      <c r="B204" s="56" t="s">
-        <v>859</v>
       </c>
       <c r="C204" s="63"/>
       <c r="D204" s="63"/>
       <c r="E204" s="50" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H204" s="40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -18569,22 +18574,22 @@
     </row>
     <row r="205">
       <c r="A205" s="97" t="s">
+        <v>861</v>
+      </c>
+      <c r="B205" s="56" t="s">
         <v>862</v>
       </c>
-      <c r="B205" s="56" t="s">
+      <c r="C205" s="143"/>
+      <c r="D205" s="143"/>
+      <c r="E205" s="50" t="s">
         <v>863</v>
-      </c>
-      <c r="C205" s="142"/>
-      <c r="D205" s="142"/>
-      <c r="E205" s="50" t="s">
-        <v>864</v>
       </c>
       <c r="F205" s="50"/>
       <c r="G205" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -18592,17 +18597,17 @@
     </row>
     <row r="206">
       <c r="A206" s="97" t="s">
+        <v>865</v>
+      </c>
+      <c r="B206" s="56" t="s">
         <v>866</v>
       </c>
-      <c r="B206" s="56" t="s">
+      <c r="C206" s="144" t="s">
         <v>867</v>
-      </c>
-      <c r="C206" s="143" t="s">
-        <v>868</v>
       </c>
       <c r="D206" s="63"/>
       <c r="E206" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F206" s="90"/>
       <c r="G206" s="63" t="s">
@@ -18617,13 +18622,13 @@
     </row>
     <row r="207">
       <c r="A207" s="49" t="s">
+        <v>869</v>
+      </c>
+      <c r="B207" s="48" t="s">
         <v>870</v>
       </c>
-      <c r="B207" s="48" t="s">
-        <v>871</v>
-      </c>
-      <c r="C207" s="137" t="s">
-        <v>803</v>
+      <c r="C207" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="40"/>
@@ -18636,7 +18641,7 @@
     </row>
     <row r="208">
       <c r="A208" s="97" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B208" s="56" t="s">
         <v>448</v>
@@ -18655,7 +18660,7 @@
     </row>
     <row r="209">
       <c r="A209" s="97" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>57</v>
@@ -18667,14 +18672,14 @@
         <v>59</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F209" s="65"/>
       <c r="G209" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H209" s="144" t="s">
-        <v>875</v>
+      <c r="H209" s="145" t="s">
+        <v>874</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>63</v>
@@ -18684,7 +18689,7 @@
     </row>
     <row r="210">
       <c r="A210" s="97" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B210" s="56" t="s">
         <v>65</v>
@@ -18696,14 +18701,14 @@
         <v>67</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F210" s="65"/>
       <c r="G210" s="46" t="s">
         <v>69</v>
       </c>
       <c r="H210" s="46" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I210" s="7" t="s">
         <v>71</v>
@@ -18713,7 +18718,7 @@
     </row>
     <row r="211">
       <c r="A211" s="97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>73</v>
@@ -18725,14 +18730,14 @@
         <v>75</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F211" s="65"/>
       <c r="G211" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H211" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -18740,7 +18745,7 @@
     </row>
     <row r="212">
       <c r="A212" s="97" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B212" s="56" t="s">
         <v>80</v>
@@ -18752,14 +18757,14 @@
         <v>82</v>
       </c>
       <c r="E212" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F212" s="65"/>
       <c r="G212" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H212" s="90" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -18767,7 +18772,7 @@
     </row>
     <row r="213">
       <c r="A213" s="97" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B213" s="56" t="s">
         <v>86</v>
@@ -18779,16 +18784,16 @@
         <v>88</v>
       </c>
       <c r="E213" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="F213" s="90" t="s">
         <v>886</v>
-      </c>
-      <c r="F213" s="90" t="s">
-        <v>887</v>
       </c>
       <c r="G213" s="37" t="s">
         <v>91</v>
       </c>
       <c r="H213" s="50" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -18796,7 +18801,7 @@
     </row>
     <row r="214">
       <c r="A214" s="97" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>94</v>
@@ -18805,17 +18810,17 @@
         <v>95</v>
       </c>
       <c r="D214" s="63" t="s">
+        <v>889</v>
+      </c>
+      <c r="E214" s="146" t="s">
         <v>890</v>
       </c>
-      <c r="E214" s="145" t="s">
-        <v>891</v>
-      </c>
-      <c r="F214" s="145"/>
+      <c r="F214" s="146"/>
       <c r="G214" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H214" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -18823,26 +18828,26 @@
     </row>
     <row r="215">
       <c r="A215" s="97" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B215" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C215" s="146" t="s">
+      <c r="C215" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="D215" s="146" t="s">
+      <c r="D215" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="E215" s="145" t="s">
-        <v>894</v>
-      </c>
-      <c r="F215" s="145"/>
+      <c r="E215" s="146" t="s">
+        <v>893</v>
+      </c>
+      <c r="F215" s="146"/>
       <c r="G215" s="44" t="s">
         <v>105</v>
       </c>
       <c r="H215" s="44" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -18850,26 +18855,26 @@
     </row>
     <row r="216">
       <c r="A216" s="97" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B216" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C216" s="146" t="s">
+      <c r="C216" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="D216" s="146" t="s">
+      <c r="D216" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="E216" s="145" t="s">
+      <c r="E216" s="146" t="s">
+        <v>896</v>
+      </c>
+      <c r="F216" s="146"/>
+      <c r="G216" s="50" t="s">
         <v>897</v>
       </c>
-      <c r="F216" s="145"/>
-      <c r="G216" s="50" t="s">
+      <c r="H216" s="50" t="s">
         <v>898</v>
-      </c>
-      <c r="H216" s="50" t="s">
-        <v>899</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -18877,26 +18882,26 @@
     </row>
     <row r="217">
       <c r="A217" s="97" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B217" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C217" s="146" t="s">
+      <c r="C217" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="146" t="s">
+      <c r="D217" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="E217" s="145" t="s">
+      <c r="E217" s="146" t="s">
+        <v>900</v>
+      </c>
+      <c r="F217" s="146"/>
+      <c r="G217" s="50" t="s">
         <v>901</v>
       </c>
-      <c r="F217" s="145"/>
-      <c r="G217" s="50" t="s">
+      <c r="H217" s="50" t="s">
         <v>902</v>
-      </c>
-      <c r="H217" s="50" t="s">
-        <v>903</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -18904,26 +18909,26 @@
     </row>
     <row r="218">
       <c r="A218" s="97" t="s">
+        <v>903</v>
+      </c>
+      <c r="B218" s="56" t="s">
         <v>904</v>
       </c>
-      <c r="B218" s="56" t="s">
+      <c r="C218" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="D218" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="E218" s="146" t="s">
         <v>905</v>
       </c>
-      <c r="C218" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="D218" s="146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E218" s="145" t="s">
+      <c r="F218" s="146"/>
+      <c r="G218" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="H218" s="148" t="s">
         <v>906</v>
-      </c>
-      <c r="F218" s="145"/>
-      <c r="G218" s="46" t="s">
-        <v>898</v>
-      </c>
-      <c r="H218" s="147" t="s">
-        <v>907</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18931,26 +18936,26 @@
     </row>
     <row r="219">
       <c r="A219" s="97" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B219" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C219" s="146" t="s">
+      <c r="C219" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="D219" s="146" t="s">
+      <c r="D219" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="E219" s="145" t="s">
+      <c r="E219" s="146" t="s">
+        <v>908</v>
+      </c>
+      <c r="F219" s="146"/>
+      <c r="G219" s="50" t="s">
+        <v>901</v>
+      </c>
+      <c r="H219" s="50" t="s">
         <v>909</v>
-      </c>
-      <c r="F219" s="145"/>
-      <c r="G219" s="50" t="s">
-        <v>902</v>
-      </c>
-      <c r="H219" s="50" t="s">
-        <v>910</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18958,26 +18963,26 @@
     </row>
     <row r="220">
       <c r="A220" s="97" t="s">
+        <v>910</v>
+      </c>
+      <c r="B220" s="56" t="s">
         <v>911</v>
       </c>
-      <c r="B220" s="56" t="s">
+      <c r="C220" s="147" t="s">
         <v>912</v>
       </c>
-      <c r="C220" s="146" t="s">
+      <c r="D220" s="147" t="s">
         <v>913</v>
       </c>
-      <c r="D220" s="146" t="s">
+      <c r="E220" s="146" t="s">
         <v>914</v>
-      </c>
-      <c r="E220" s="145" t="s">
-        <v>915</v>
       </c>
       <c r="F220" s="82"/>
       <c r="G220" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="H220" s="149" t="s">
         <v>916</v>
-      </c>
-      <c r="H220" s="148" t="s">
-        <v>917</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -18988,15 +18993,15 @@
       <c r="B221" s="4"/>
       <c r="C221" s="63"/>
       <c r="D221" s="63"/>
-      <c r="E221" s="149" t="s">
-        <v>915</v>
+      <c r="E221" s="150" t="s">
+        <v>914</v>
       </c>
       <c r="F221" s="82"/>
       <c r="G221" s="80" t="s">
+        <v>917</v>
+      </c>
+      <c r="H221" s="151" t="s">
         <v>918</v>
-      </c>
-      <c r="H221" s="150" t="s">
-        <v>919</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -19004,17 +19009,17 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="B222" s="66" t="s">
         <v>920</v>
       </c>
-      <c r="B222" s="66" t="s">
-        <v>921</v>
-      </c>
-      <c r="C222" s="137" t="s">
-        <v>803</v>
+      <c r="C222" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D222" s="63"/>
-      <c r="E222" s="146"/>
-      <c r="F222" s="146"/>
+      <c r="E222" s="147"/>
+      <c r="F222" s="147"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
@@ -19023,15 +19028,15 @@
     </row>
     <row r="223">
       <c r="A223" s="97" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B223" s="92" t="s">
         <v>448</v>
       </c>
       <c r="C223" s="99"/>
       <c r="D223" s="99"/>
-      <c r="E223" s="151"/>
-      <c r="F223" s="151"/>
+      <c r="E223" s="152"/>
+      <c r="F223" s="152"/>
       <c r="G223" s="98"/>
       <c r="H223" s="98"/>
       <c r="I223" s="7"/>
@@ -19042,10 +19047,10 @@
     </row>
     <row r="224">
       <c r="A224" s="97" t="s">
+        <v>922</v>
+      </c>
+      <c r="B224" s="92" t="s">
         <v>923</v>
-      </c>
-      <c r="B224" s="92" t="s">
-        <v>924</v>
       </c>
       <c r="C224" s="63" t="s">
         <v>519</v>
@@ -19053,15 +19058,15 @@
       <c r="D224" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="E224" s="145" t="s">
-        <v>925</v>
-      </c>
-      <c r="F224" s="145"/>
+      <c r="E224" s="146" t="s">
+        <v>924</v>
+      </c>
+      <c r="F224" s="146"/>
       <c r="G224" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="H224" s="152" t="s">
-        <v>926</v>
+      <c r="H224" s="153" t="s">
+        <v>925</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -19069,24 +19074,24 @@
     </row>
     <row r="225">
       <c r="A225" s="108" t="s">
+        <v>926</v>
+      </c>
+      <c r="B225" s="154" t="s">
+        <v>406</v>
+      </c>
+      <c r="C225" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D225" s="63"/>
+      <c r="E225" s="146" t="s">
         <v>927</v>
       </c>
-      <c r="B225" s="153" t="s">
-        <v>406</v>
-      </c>
-      <c r="C225" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="D225" s="63"/>
-      <c r="E225" s="145" t="s">
+      <c r="F225" s="146"/>
+      <c r="G225" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="F225" s="145"/>
-      <c r="G225" s="37" t="s">
+      <c r="H225" s="120" t="s">
         <v>929</v>
-      </c>
-      <c r="H225" s="120" t="s">
-        <v>930</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -19094,26 +19099,26 @@
     </row>
     <row r="226">
       <c r="A226" s="97" t="s">
+        <v>930</v>
+      </c>
+      <c r="B226" s="92" t="s">
         <v>931</v>
       </c>
-      <c r="B226" s="92" t="s">
+      <c r="C226" s="63" t="s">
         <v>932</v>
       </c>
-      <c r="C226" s="63" t="s">
+      <c r="D226" s="63" t="s">
         <v>933</v>
       </c>
-      <c r="D226" s="63" t="s">
+      <c r="E226" s="146" t="s">
         <v>934</v>
       </c>
-      <c r="E226" s="145" t="s">
+      <c r="F226" s="146"/>
+      <c r="G226" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="F226" s="145"/>
-      <c r="G226" s="7" t="s">
+      <c r="H226" s="90" t="s">
         <v>936</v>
-      </c>
-      <c r="H226" s="90" t="s">
-        <v>937</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -19121,24 +19126,24 @@
     </row>
     <row r="227">
       <c r="A227" s="108" t="s">
+        <v>937</v>
+      </c>
+      <c r="B227" s="154" t="s">
+        <v>406</v>
+      </c>
+      <c r="C227" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" s="63"/>
+      <c r="E227" s="146" t="s">
         <v>938</v>
       </c>
-      <c r="B227" s="153" t="s">
-        <v>406</v>
-      </c>
-      <c r="C227" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="D227" s="63"/>
-      <c r="E227" s="145" t="s">
+      <c r="F227" s="146"/>
+      <c r="G227" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="F227" s="145"/>
-      <c r="G227" s="4" t="s">
+      <c r="H227" s="40" t="s">
         <v>940</v>
-      </c>
-      <c r="H227" s="40" t="s">
-        <v>941</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -19146,7 +19151,7 @@
     </row>
     <row r="228">
       <c r="A228" s="97" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B228" s="92" t="s">
         <v>456</v>
@@ -19158,14 +19163,14 @@
         <v>458</v>
       </c>
       <c r="E228" s="65" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F228" s="65"/>
       <c r="G228" s="63" t="s">
+        <v>943</v>
+      </c>
+      <c r="H228" s="65" t="s">
         <v>944</v>
-      </c>
-      <c r="H228" s="65" t="s">
-        <v>945</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -19173,24 +19178,24 @@
     </row>
     <row r="229">
       <c r="A229" s="108" t="s">
-        <v>946</v>
-      </c>
-      <c r="B229" s="153" t="s">
+        <v>945</v>
+      </c>
+      <c r="B229" s="154" t="s">
         <v>406</v>
       </c>
-      <c r="C229" s="154" t="s">
+      <c r="C229" s="155" t="s">
         <v>232</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F229" s="65"/>
       <c r="G229" s="63" t="s">
+        <v>947</v>
+      </c>
+      <c r="H229" s="65" t="s">
         <v>948</v>
-      </c>
-      <c r="H229" s="65" t="s">
-        <v>949</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -19198,7 +19203,7 @@
     </row>
     <row r="230">
       <c r="A230" s="97" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B230" s="92" t="s">
         <v>462</v>
@@ -19209,15 +19214,15 @@
       <c r="D230" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="E230" s="145" t="s">
+      <c r="E230" s="146" t="s">
+        <v>950</v>
+      </c>
+      <c r="F230" s="146"/>
+      <c r="G230" s="63" t="s">
+        <v>943</v>
+      </c>
+      <c r="H230" s="65" t="s">
         <v>951</v>
-      </c>
-      <c r="F230" s="145"/>
-      <c r="G230" s="63" t="s">
-        <v>944</v>
-      </c>
-      <c r="H230" s="65" t="s">
-        <v>952</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -19225,24 +19230,24 @@
     </row>
     <row r="231">
       <c r="A231" s="108" t="s">
+        <v>952</v>
+      </c>
+      <c r="B231" s="154" t="s">
+        <v>406</v>
+      </c>
+      <c r="C231" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="63"/>
+      <c r="E231" s="150" t="s">
+        <v>946</v>
+      </c>
+      <c r="F231" s="146"/>
+      <c r="G231" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="H231" s="50" t="s">
         <v>953</v>
-      </c>
-      <c r="B231" s="153" t="s">
-        <v>406</v>
-      </c>
-      <c r="C231" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="D231" s="63"/>
-      <c r="E231" s="149" t="s">
-        <v>947</v>
-      </c>
-      <c r="F231" s="145"/>
-      <c r="G231" s="37" t="s">
-        <v>948</v>
-      </c>
-      <c r="H231" s="50" t="s">
-        <v>954</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -19250,17 +19255,17 @@
     </row>
     <row r="232">
       <c r="A232" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="B232" s="66" t="s">
         <v>955</v>
       </c>
-      <c r="B232" s="66" t="s">
-        <v>956</v>
-      </c>
-      <c r="C232" s="137" t="s">
-        <v>803</v>
+      <c r="C232" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D232" s="63"/>
-      <c r="E232" s="146"/>
-      <c r="F232" s="146"/>
+      <c r="E232" s="147"/>
+      <c r="F232" s="147"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="7"/>
@@ -19269,26 +19274,26 @@
     </row>
     <row r="233">
       <c r="A233" s="97" t="s">
+        <v>956</v>
+      </c>
+      <c r="B233" s="92" t="s">
         <v>957</v>
       </c>
-      <c r="B233" s="92" t="s">
+      <c r="C233" s="63" t="s">
         <v>958</v>
       </c>
-      <c r="C233" s="63" t="s">
+      <c r="D233" s="63" t="s">
         <v>959</v>
       </c>
-      <c r="D233" s="63" t="s">
+      <c r="E233" s="146" t="s">
         <v>960</v>
       </c>
-      <c r="E233" s="145" t="s">
+      <c r="F233" s="146"/>
+      <c r="G233" s="50" t="s">
         <v>961</v>
       </c>
-      <c r="F233" s="145"/>
-      <c r="G233" s="50" t="s">
+      <c r="H233" s="67" t="s">
         <v>962</v>
-      </c>
-      <c r="H233" s="67" t="s">
-        <v>963</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -19296,10 +19301,10 @@
     </row>
     <row r="234">
       <c r="A234" s="97" t="s">
+        <v>963</v>
+      </c>
+      <c r="B234" s="92" t="s">
         <v>964</v>
-      </c>
-      <c r="B234" s="92" t="s">
-        <v>965</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
@@ -19313,26 +19318,26 @@
     </row>
     <row r="235">
       <c r="A235" s="97" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B235" s="92" t="s">
         <v>399</v>
       </c>
       <c r="C235" s="65" t="s">
+        <v>966</v>
+      </c>
+      <c r="D235" s="65" t="s">
         <v>967</v>
       </c>
-      <c r="D235" s="65" t="s">
+      <c r="E235" s="146" t="s">
         <v>968</v>
       </c>
-      <c r="E235" s="145" t="s">
+      <c r="F235" s="146"/>
+      <c r="G235" s="63" t="s">
         <v>969</v>
       </c>
-      <c r="F235" s="145"/>
-      <c r="G235" s="63" t="s">
+      <c r="H235" s="65" t="s">
         <v>970</v>
-      </c>
-      <c r="H235" s="65" t="s">
-        <v>971</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -19340,24 +19345,24 @@
     </row>
     <row r="236">
       <c r="A236" s="97" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B236" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="C236" s="154" t="s">
+      <c r="C236" s="155" t="s">
         <v>232</v>
       </c>
       <c r="D236" s="63"/>
       <c r="E236" s="65" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F236" s="65"/>
       <c r="G236" s="65" t="s">
+        <v>973</v>
+      </c>
+      <c r="H236" s="63" t="s">
         <v>974</v>
-      </c>
-      <c r="H236" s="63" t="s">
-        <v>975</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -19365,26 +19370,26 @@
     </row>
     <row r="237">
       <c r="A237" s="97" t="s">
+        <v>975</v>
+      </c>
+      <c r="B237" s="92" t="s">
         <v>976</v>
       </c>
-      <c r="B237" s="92" t="s">
+      <c r="C237" s="63" t="s">
         <v>977</v>
       </c>
-      <c r="C237" s="63" t="s">
+      <c r="D237" s="63" t="s">
         <v>978</v>
       </c>
-      <c r="D237" s="63" t="s">
+      <c r="E237" s="65" t="s">
         <v>979</v>
-      </c>
-      <c r="E237" s="65" t="s">
-        <v>980</v>
       </c>
       <c r="F237" s="65"/>
       <c r="G237" s="65" t="s">
+        <v>980</v>
+      </c>
+      <c r="H237" s="65" t="s">
         <v>981</v>
-      </c>
-      <c r="H237" s="65" t="s">
-        <v>982</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -19392,26 +19397,26 @@
     </row>
     <row r="238">
       <c r="A238" s="97" t="s">
+        <v>982</v>
+      </c>
+      <c r="B238" s="92" t="s">
         <v>983</v>
       </c>
-      <c r="B238" s="92" t="s">
+      <c r="C238" s="63" t="s">
         <v>984</v>
       </c>
-      <c r="C238" s="63" t="s">
+      <c r="D238" s="63" t="s">
         <v>985</v>
       </c>
-      <c r="D238" s="63" t="s">
+      <c r="E238" s="65" t="s">
         <v>986</v>
-      </c>
-      <c r="E238" s="65" t="s">
-        <v>987</v>
       </c>
       <c r="F238" s="65"/>
       <c r="G238" s="65" t="s">
+        <v>987</v>
+      </c>
+      <c r="H238" s="65" t="s">
         <v>988</v>
-      </c>
-      <c r="H238" s="65" t="s">
-        <v>989</v>
       </c>
       <c r="I238" s="7" t="s">
         <v>63</v>
@@ -19421,10 +19426,10 @@
     </row>
     <row r="239">
       <c r="A239" s="121" t="s">
+        <v>989</v>
+      </c>
+      <c r="B239" s="156" t="s">
         <v>990</v>
-      </c>
-      <c r="B239" s="155" t="s">
-        <v>991</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
@@ -19438,15 +19443,15 @@
     </row>
     <row r="240">
       <c r="A240" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="B240" s="62" t="s">
         <v>992</v>
-      </c>
-      <c r="B240" s="62" t="s">
-        <v>993</v>
       </c>
       <c r="C240" s="99"/>
       <c r="D240" s="85"/>
-      <c r="E240" s="151"/>
-      <c r="F240" s="146"/>
+      <c r="E240" s="152"/>
+      <c r="F240" s="147"/>
       <c r="G240" s="65"/>
       <c r="H240" s="65"/>
       <c r="I240" s="7"/>
@@ -19455,24 +19460,24 @@
     </row>
     <row r="241">
       <c r="A241" s="47" t="s">
+        <v>993</v>
+      </c>
+      <c r="B241" s="66" t="s">
         <v>994</v>
       </c>
-      <c r="B241" s="66" t="s">
+      <c r="C241" s="99" t="s">
         <v>995</v>
       </c>
-      <c r="C241" s="99" t="s">
+      <c r="D241" s="85"/>
+      <c r="E241" s="152" t="s">
         <v>996</v>
       </c>
-      <c r="D241" s="85"/>
-      <c r="E241" s="151" t="s">
+      <c r="F241" s="147"/>
+      <c r="G241" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="F241" s="146"/>
-      <c r="G241" s="7" t="s">
+      <c r="H241" s="33" t="s">
         <v>998</v>
-      </c>
-      <c r="H241" s="33" t="s">
-        <v>999</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -19480,24 +19485,24 @@
     </row>
     <row r="242">
       <c r="A242" s="47" t="s">
+        <v>999</v>
+      </c>
+      <c r="B242" s="66" t="s">
         <v>1000</v>
       </c>
-      <c r="B242" s="66" t="s">
+      <c r="C242" s="99" t="s">
         <v>1001</v>
       </c>
-      <c r="C242" s="99" t="s">
+      <c r="D242" s="85"/>
+      <c r="E242" s="152" t="s">
         <v>1002</v>
       </c>
-      <c r="D242" s="85"/>
-      <c r="E242" s="151" t="s">
+      <c r="F242" s="147"/>
+      <c r="G242" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="H242" s="33" t="s">
         <v>1003</v>
-      </c>
-      <c r="F242" s="146"/>
-      <c r="G242" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="H242" s="33" t="s">
-        <v>1004</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -19505,24 +19510,24 @@
     </row>
     <row r="243">
       <c r="A243" s="47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B243" s="66" t="s">
         <v>1005</v>
       </c>
-      <c r="B243" s="66" t="s">
+      <c r="C243" s="99" t="s">
         <v>1006</v>
       </c>
-      <c r="C243" s="99" t="s">
+      <c r="D243" s="85"/>
+      <c r="E243" s="152" t="s">
         <v>1007</v>
       </c>
-      <c r="D243" s="85"/>
-      <c r="E243" s="151" t="s">
+      <c r="F243" s="147"/>
+      <c r="G243" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="H243" s="33" t="s">
         <v>1008</v>
-      </c>
-      <c r="F243" s="146"/>
-      <c r="G243" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="H243" s="33" t="s">
-        <v>1009</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -19530,7 +19535,7 @@
     </row>
     <row r="244">
       <c r="A244" s="122" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B244" s="62" t="s">
         <v>597</v>
@@ -19541,15 +19546,15 @@
       <c r="D244" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E244" s="145" t="s">
+      <c r="E244" s="146" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F244" s="146"/>
+      <c r="G244" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="H244" s="158" t="s">
         <v>1011</v>
-      </c>
-      <c r="F244" s="145"/>
-      <c r="G244" s="156" t="s">
-        <v>362</v>
-      </c>
-      <c r="H244" s="157" t="s">
-        <v>1012</v>
       </c>
       <c r="I244" s="7" t="s">
         <v>63</v>
@@ -19559,17 +19564,17 @@
     </row>
     <row r="245">
       <c r="A245" s="122" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B245" s="62" t="s">
         <v>1013</v>
       </c>
-      <c r="B245" s="62" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C245" s="137" t="s">
-        <v>803</v>
+      <c r="C245" s="138" t="s">
+        <v>802</v>
       </c>
       <c r="D245" s="7"/>
-      <c r="E245" s="146"/>
-      <c r="F245" s="146"/>
+      <c r="E245" s="147"/>
+      <c r="F245" s="147"/>
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
@@ -19578,19 +19583,19 @@
     </row>
     <row r="246">
       <c r="A246" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B246" s="66" t="s">
         <v>1015</v>
       </c>
-      <c r="B246" s="66" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C246" s="158" t="s">
-        <v>803</v>
+      <c r="C246" s="159" t="s">
+        <v>802</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="82" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F246" s="145"/>
+        <v>1016</v>
+      </c>
+      <c r="F246" s="146"/>
       <c r="G246" s="63" t="s">
         <v>54</v>
       </c>
@@ -19603,7 +19608,7 @@
     </row>
     <row r="247">
       <c r="A247" s="97" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B247" s="92" t="s">
         <v>57</v>
@@ -19614,15 +19619,15 @@
       <c r="D247" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E247" s="145" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F247" s="145"/>
+      <c r="E247" s="146" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F247" s="146"/>
       <c r="G247" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H247" s="90" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>63</v>
@@ -19632,7 +19637,7 @@
     </row>
     <row r="248">
       <c r="A248" s="97" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B248" s="92" t="s">
         <v>73</v>
@@ -19643,15 +19648,15 @@
       <c r="D248" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E248" s="145" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F248" s="145"/>
+      <c r="E248" s="146" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F248" s="146"/>
       <c r="G248" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H248" s="90" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -19659,7 +19664,7 @@
     </row>
     <row r="249">
       <c r="A249" s="97" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B249" s="92" t="s">
         <v>80</v>
@@ -19670,15 +19675,15 @@
       <c r="D249" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E249" s="145" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F249" s="145"/>
+      <c r="E249" s="146" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F249" s="146"/>
       <c r="G249" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H249" s="90" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -19686,7 +19691,7 @@
     </row>
     <row r="250">
       <c r="A250" s="97" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B250" s="92" t="s">
         <v>94</v>
@@ -19695,17 +19700,17 @@
         <v>95</v>
       </c>
       <c r="D250" s="63" t="s">
-        <v>890</v>
-      </c>
-      <c r="E250" s="145" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F250" s="145"/>
+        <v>889</v>
+      </c>
+      <c r="E250" s="146" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F250" s="146"/>
       <c r="G250" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H250" s="90" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19713,7 +19718,7 @@
     </row>
     <row r="251">
       <c r="A251" s="97" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B251" s="92" t="s">
         <v>101</v>
@@ -19725,14 +19730,14 @@
         <v>103</v>
       </c>
       <c r="E251" s="65" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F251" s="65"/>
       <c r="G251" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H251" s="65" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19740,7 +19745,7 @@
     </row>
     <row r="252">
       <c r="A252" s="97" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B252" s="92" t="s">
         <v>121</v>
@@ -19752,14 +19757,14 @@
         <v>123</v>
       </c>
       <c r="E252" s="65" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65" t="s">
+        <v>897</v>
+      </c>
+      <c r="H252" s="65" t="s">
         <v>898</v>
-      </c>
-      <c r="H252" s="65" t="s">
-        <v>899</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
@@ -19767,7 +19772,7 @@
     </row>
     <row r="253">
       <c r="A253" s="97" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B253" s="92" t="s">
         <v>115</v>
@@ -19779,14 +19784,14 @@
         <v>117</v>
       </c>
       <c r="E253" s="65" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F253" s="65"/>
       <c r="G253" s="65" t="s">
+        <v>901</v>
+      </c>
+      <c r="H253" s="65" t="s">
         <v>902</v>
-      </c>
-      <c r="H253" s="65" t="s">
-        <v>903</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
@@ -19794,10 +19799,10 @@
     </row>
     <row r="254">
       <c r="A254" s="97" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B254" s="92" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C254" s="63" t="s">
         <v>137</v>
@@ -19806,14 +19811,14 @@
         <v>138</v>
       </c>
       <c r="E254" s="65" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F254" s="65"/>
       <c r="G254" s="61" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H254" s="61" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
@@ -19821,7 +19826,7 @@
     </row>
     <row r="255">
       <c r="A255" s="97" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B255" s="92" t="s">
         <v>128</v>
@@ -19833,14 +19838,14 @@
         <v>130</v>
       </c>
       <c r="E255" s="65" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F255" s="65"/>
       <c r="G255" s="65" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H255" s="65" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
@@ -19848,21 +19853,21 @@
     </row>
     <row r="256">
       <c r="A256" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B256" s="66" t="s">
         <v>1042</v>
       </c>
-      <c r="B256" s="66" t="s">
+      <c r="C256" s="159" t="s">
+        <v>802</v>
+      </c>
+      <c r="D256" s="160"/>
+      <c r="E256" s="90" t="s">
         <v>1043</v>
-      </c>
-      <c r="C256" s="158" t="s">
-        <v>803</v>
-      </c>
-      <c r="D256" s="159"/>
-      <c r="E256" s="90" t="s">
-        <v>1044</v>
       </c>
       <c r="F256" s="63"/>
       <c r="G256" s="63" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H256" s="63" t="s">
         <v>234</v>
@@ -19873,7 +19878,7 @@
     </row>
     <row r="257">
       <c r="A257" s="97" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B257" s="92" t="s">
         <v>57</v>
@@ -19885,14 +19890,14 @@
         <v>59</v>
       </c>
       <c r="E257" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F257" s="65"/>
       <c r="G257" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="H257" s="160" t="s">
-        <v>1048</v>
+      <c r="H257" s="161" t="s">
+        <v>1047</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>63</v>
@@ -19902,7 +19907,7 @@
     </row>
     <row r="258">
       <c r="A258" s="97" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B258" s="92" t="s">
         <v>73</v>
@@ -19914,14 +19919,14 @@
         <v>75</v>
       </c>
       <c r="E258" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F258" s="65"/>
       <c r="G258" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H258" s="160" t="s">
-        <v>1051</v>
+      <c r="H258" s="161" t="s">
+        <v>1050</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -19929,7 +19934,7 @@
     </row>
     <row r="259">
       <c r="A259" s="97" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B259" s="92" t="s">
         <v>80</v>
@@ -19941,14 +19946,14 @@
         <v>82</v>
       </c>
       <c r="E259" s="65" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F259" s="65"/>
       <c r="G259" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H259" s="90" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -19956,7 +19961,7 @@
     </row>
     <row r="260">
       <c r="A260" s="97" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B260" s="92" t="s">
         <v>94</v>
@@ -19965,17 +19970,17 @@
         <v>95</v>
       </c>
       <c r="D260" s="63" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E260" s="65" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F260" s="65"/>
       <c r="G260" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H260" s="90" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -19983,7 +19988,7 @@
     </row>
     <row r="261">
       <c r="A261" s="97" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B261" s="92" t="s">
         <v>101</v>
@@ -19995,14 +20000,14 @@
         <v>103</v>
       </c>
       <c r="E261" s="65" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F261" s="65"/>
       <c r="G261" s="90" t="s">
         <v>105</v>
       </c>
       <c r="H261" s="90" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
@@ -20010,7 +20015,7 @@
     </row>
     <row r="262">
       <c r="A262" s="97" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B262" s="92" t="s">
         <v>121</v>
@@ -20022,14 +20027,14 @@
         <v>123</v>
       </c>
       <c r="E262" s="65" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F262" s="65"/>
       <c r="G262" s="65" t="s">
+        <v>897</v>
+      </c>
+      <c r="H262" s="153" t="s">
         <v>898</v>
-      </c>
-      <c r="H262" s="152" t="s">
-        <v>899</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
@@ -20037,7 +20042,7 @@
     </row>
     <row r="263">
       <c r="A263" s="97" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B263" s="92" t="s">
         <v>115</v>
@@ -20049,14 +20054,14 @@
         <v>117</v>
       </c>
       <c r="E263" s="65" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F263" s="65"/>
       <c r="G263" s="65" t="s">
+        <v>901</v>
+      </c>
+      <c r="H263" s="153" t="s">
         <v>902</v>
-      </c>
-      <c r="H263" s="152" t="s">
-        <v>903</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
@@ -20064,10 +20069,10 @@
     </row>
     <row r="264">
       <c r="A264" s="97" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B264" s="92" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C264" s="63" t="s">
         <v>137</v>
@@ -20076,14 +20081,14 @@
         <v>138</v>
       </c>
       <c r="E264" s="65" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F264" s="65"/>
       <c r="G264" s="61" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H264" s="61" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -20091,7 +20096,7 @@
     </row>
     <row r="265">
       <c r="A265" s="97" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B265" s="92" t="s">
         <v>128</v>
@@ -20103,14 +20108,14 @@
         <v>130</v>
       </c>
       <c r="E265" s="65" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F265" s="65"/>
       <c r="G265" s="65" t="s">
-        <v>902</v>
-      </c>
-      <c r="H265" s="152" t="s">
-        <v>910</v>
+        <v>901</v>
+      </c>
+      <c r="H265" s="153" t="s">
+        <v>909</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
@@ -20118,26 +20123,26 @@
     </row>
     <row r="266">
       <c r="A266" s="49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B266" s="66" t="s">
         <v>1070</v>
       </c>
-      <c r="B266" s="66" t="s">
+      <c r="C266" s="63" t="s">
         <v>1071</v>
       </c>
-      <c r="C266" s="63" t="s">
+      <c r="D266" s="63" t="s">
         <v>1072</v>
       </c>
-      <c r="D266" s="63" t="s">
+      <c r="E266" s="65" t="s">
         <v>1073</v>
-      </c>
-      <c r="E266" s="65" t="s">
-        <v>1074</v>
       </c>
       <c r="F266" s="65"/>
       <c r="G266" s="90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H266" s="162" t="s">
         <v>1075</v>
-      </c>
-      <c r="H266" s="161" t="s">
-        <v>1076</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
@@ -20145,15 +20150,15 @@
     </row>
     <row r="267">
       <c r="A267" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B267" s="66" t="s">
         <v>1077</v>
-      </c>
-      <c r="B267" s="66" t="s">
-        <v>1078</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="90" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F267" s="63"/>
       <c r="G267" s="63" t="s">
@@ -20168,7 +20173,7 @@
     </row>
     <row r="268">
       <c r="A268" s="97" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B268" s="92" t="s">
         <v>57</v>
@@ -20180,14 +20185,14 @@
         <v>59</v>
       </c>
       <c r="E268" s="65" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F268" s="65"/>
       <c r="G268" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H268" s="90" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I268" s="7" t="s">
         <v>63</v>
@@ -20197,7 +20202,7 @@
     </row>
     <row r="269">
       <c r="A269" s="97" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B269" s="92" t="s">
         <v>73</v>
@@ -20209,14 +20214,14 @@
         <v>75</v>
       </c>
       <c r="E269" s="65" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F269" s="65"/>
       <c r="G269" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H269" s="90" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
@@ -20224,7 +20229,7 @@
     </row>
     <row r="270">
       <c r="A270" s="97" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B270" s="92" t="s">
         <v>80</v>
@@ -20236,14 +20241,14 @@
         <v>82</v>
       </c>
       <c r="E270" s="65" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F270" s="65"/>
       <c r="G270" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H270" s="90" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -20251,7 +20256,7 @@
     </row>
     <row r="271">
       <c r="A271" s="97" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B271" s="92" t="s">
         <v>94</v>
@@ -20260,17 +20265,17 @@
         <v>95</v>
       </c>
       <c r="D271" s="63" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E271" s="65" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F271" s="65"/>
       <c r="G271" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H271" s="90" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -20278,7 +20283,7 @@
     </row>
     <row r="272">
       <c r="A272" s="97" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B272" s="92" t="s">
         <v>101</v>
@@ -20290,14 +20295,14 @@
         <v>103</v>
       </c>
       <c r="E272" s="65" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F272" s="65"/>
       <c r="G272" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H272" s="65" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
@@ -20305,7 +20310,7 @@
     </row>
     <row r="273">
       <c r="A273" s="97" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B273" s="92" t="s">
         <v>121</v>
@@ -20317,14 +20322,14 @@
         <v>123</v>
       </c>
       <c r="E273" s="65" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F273" s="65"/>
       <c r="G273" s="65" t="s">
+        <v>897</v>
+      </c>
+      <c r="H273" s="65" t="s">
         <v>898</v>
-      </c>
-      <c r="H273" s="65" t="s">
-        <v>899</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
@@ -20332,7 +20337,7 @@
     </row>
     <row r="274">
       <c r="A274" s="97" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B274" s="92" t="s">
         <v>115</v>
@@ -20344,14 +20349,14 @@
         <v>117</v>
       </c>
       <c r="E274" s="65" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F274" s="65"/>
       <c r="G274" s="65" t="s">
+        <v>901</v>
+      </c>
+      <c r="H274" s="153" t="s">
         <v>902</v>
-      </c>
-      <c r="H274" s="152" t="s">
-        <v>903</v>
       </c>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
@@ -20359,10 +20364,10 @@
     </row>
     <row r="275">
       <c r="A275" s="97" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B275" s="92" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C275" s="63" t="s">
         <v>137</v>
@@ -20371,14 +20376,14 @@
         <v>138</v>
       </c>
       <c r="E275" s="65" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F275" s="65"/>
       <c r="G275" s="61" t="s">
-        <v>898</v>
-      </c>
-      <c r="H275" s="162" t="s">
-        <v>1101</v>
+        <v>897</v>
+      </c>
+      <c r="H275" s="163" t="s">
+        <v>1100</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -20386,7 +20391,7 @@
     </row>
     <row r="276">
       <c r="A276" s="97" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B276" s="92" t="s">
         <v>128</v>
@@ -20398,14 +20403,14 @@
         <v>130</v>
       </c>
       <c r="E276" s="65" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F276" s="65"/>
       <c r="G276" s="65" t="s">
-        <v>902</v>
-      </c>
-      <c r="H276" s="152" t="s">
-        <v>910</v>
+        <v>901</v>
+      </c>
+      <c r="H276" s="153" t="s">
+        <v>909</v>
       </c>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
@@ -20413,26 +20418,26 @@
     </row>
     <row r="277">
       <c r="A277" s="122" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B277" s="62" t="s">
         <v>1104</v>
       </c>
-      <c r="B277" s="62" t="s">
+      <c r="C277" s="164" t="s">
         <v>1105</v>
       </c>
-      <c r="C277" s="163" t="s">
+      <c r="D277" s="164" t="s">
         <v>1106</v>
       </c>
-      <c r="D277" s="163" t="s">
+      <c r="E277" s="165" t="s">
         <v>1107</v>
       </c>
-      <c r="E277" s="164" t="s">
+      <c r="F277" s="165"/>
+      <c r="G277" s="90" t="s">
         <v>1108</v>
       </c>
-      <c r="F277" s="164"/>
-      <c r="G277" s="90" t="s">
+      <c r="H277" s="166" t="s">
         <v>1109</v>
-      </c>
-      <c r="H277" s="165" t="s">
-        <v>1110</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
@@ -20440,10 +20445,10 @@
     </row>
     <row r="278">
       <c r="A278" s="34" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B278" s="167" t="s">
         <v>1111</v>
-      </c>
-      <c r="B278" s="166" t="s">
-        <v>1112</v>
       </c>
       <c r="C278" s="99"/>
       <c r="D278" s="99"/>
@@ -20457,17 +20462,17 @@
     </row>
     <row r="279">
       <c r="A279" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B279" s="62" t="s">
         <v>1113</v>
       </c>
-      <c r="B279" s="62" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C279" s="167" t="s">
-        <v>803</v>
+      <c r="C279" s="168" t="s">
+        <v>802</v>
       </c>
       <c r="D279" s="99"/>
       <c r="E279" s="110" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F279" s="99"/>
       <c r="G279" s="99"/>
@@ -20478,26 +20483,26 @@
     </row>
     <row r="280">
       <c r="A280" s="47" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B280" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="B280" s="66" t="s">
+      <c r="C280" s="99" t="s">
         <v>1117</v>
       </c>
-      <c r="C280" s="99" t="s">
+      <c r="D280" s="99" t="s">
         <v>1118</v>
       </c>
-      <c r="D280" s="99" t="s">
+      <c r="E280" s="99" t="s">
         <v>1119</v>
-      </c>
-      <c r="E280" s="99" t="s">
-        <v>1120</v>
       </c>
       <c r="F280" s="99"/>
       <c r="G280" s="99" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H280" s="169" t="s">
         <v>1121</v>
-      </c>
-      <c r="H280" s="168" t="s">
-        <v>1122</v>
       </c>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
@@ -20505,26 +20510,26 @@
     </row>
     <row r="281">
       <c r="A281" s="47" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B281" s="66" t="s">
         <v>1123</v>
       </c>
-      <c r="B281" s="66" t="s">
+      <c r="C281" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D281" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E281" s="99" t="s">
         <v>1124</v>
-      </c>
-      <c r="C281" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D281" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E281" s="99" t="s">
-        <v>1125</v>
       </c>
       <c r="F281" s="99"/>
       <c r="G281" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H281" s="168" t="s">
-        <v>1126</v>
+        <v>1120</v>
+      </c>
+      <c r="H281" s="169" t="s">
+        <v>1125</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
@@ -20532,10 +20537,10 @@
     </row>
     <row r="282">
       <c r="A282" s="47" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B282" s="66" t="s">
         <v>1127</v>
-      </c>
-      <c r="B282" s="66" t="s">
-        <v>1128</v>
       </c>
       <c r="C282" s="99"/>
       <c r="D282" s="99"/>
@@ -20549,26 +20554,26 @@
     </row>
     <row r="283">
       <c r="A283" s="55" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B283" s="92" t="s">
         <v>1129</v>
       </c>
-      <c r="B283" s="92" t="s">
+      <c r="C283" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D283" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E283" s="110" t="s">
         <v>1130</v>
-      </c>
-      <c r="C283" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D283" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E283" s="110" t="s">
-        <v>1131</v>
       </c>
       <c r="F283" s="99"/>
       <c r="G283" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H283" s="168" t="s">
-        <v>1132</v>
+        <v>1120</v>
+      </c>
+      <c r="H283" s="169" t="s">
+        <v>1131</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
@@ -20576,26 +20581,26 @@
     </row>
     <row r="284">
       <c r="A284" s="55" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B284" s="92" t="s">
         <v>1133</v>
       </c>
-      <c r="B284" s="92" t="s">
+      <c r="C284" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D284" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E284" s="110" t="s">
         <v>1134</v>
-      </c>
-      <c r="C284" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D284" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E284" s="110" t="s">
-        <v>1135</v>
       </c>
       <c r="F284" s="99"/>
       <c r="G284" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H284" s="168" t="s">
-        <v>1136</v>
+        <v>1120</v>
+      </c>
+      <c r="H284" s="169" t="s">
+        <v>1135</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
@@ -20603,26 +20608,26 @@
     </row>
     <row r="285">
       <c r="A285" s="55" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B285" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="B285" s="92" t="s">
+      <c r="C285" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D285" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E285" s="110" t="s">
         <v>1138</v>
-      </c>
-      <c r="C285" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D285" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E285" s="110" t="s">
-        <v>1139</v>
       </c>
       <c r="F285" s="99"/>
       <c r="G285" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H285" s="168" t="s">
-        <v>1140</v>
+        <v>1120</v>
+      </c>
+      <c r="H285" s="169" t="s">
+        <v>1139</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
@@ -20630,26 +20635,26 @@
     </row>
     <row r="286">
       <c r="A286" s="47" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B286" s="66" t="s">
         <v>1141</v>
       </c>
-      <c r="B286" s="66" t="s">
+      <c r="C286" s="168" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D286" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E286" s="110" t="s">
         <v>1142</v>
-      </c>
-      <c r="C286" s="167" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D286" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E286" s="110" t="s">
-        <v>1143</v>
       </c>
       <c r="F286" s="99"/>
       <c r="G286" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H286" s="168" t="s">
-        <v>1144</v>
+        <v>1120</v>
+      </c>
+      <c r="H286" s="169" t="s">
+        <v>1143</v>
       </c>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
@@ -20657,26 +20662,26 @@
     </row>
     <row r="287">
       <c r="A287" s="47" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B287" s="66" t="s">
         <v>1145</v>
       </c>
-      <c r="B287" s="66" t="s">
+      <c r="C287" s="168" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D287" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E287" s="110" t="s">
         <v>1146</v>
-      </c>
-      <c r="C287" s="167" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D287" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E287" s="110" t="s">
-        <v>1147</v>
       </c>
       <c r="F287" s="99"/>
       <c r="G287" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H287" s="168" t="s">
-        <v>1148</v>
+        <v>1120</v>
+      </c>
+      <c r="H287" s="169" t="s">
+        <v>1147</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
@@ -20684,13 +20689,13 @@
     </row>
     <row r="288">
       <c r="A288" s="47" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B288" s="66" t="s">
         <v>1149</v>
       </c>
-      <c r="B288" s="66" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C288" s="167" t="s">
-        <v>803</v>
+      <c r="C288" s="168" t="s">
+        <v>802</v>
       </c>
       <c r="D288" s="99"/>
       <c r="E288" s="99"/>
@@ -20703,26 +20708,26 @@
     </row>
     <row r="289">
       <c r="A289" s="55" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B289" s="92" t="s">
         <v>1151</v>
       </c>
-      <c r="B289" s="92" t="s">
+      <c r="C289" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D289" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E289" s="110" t="s">
         <v>1152</v>
-      </c>
-      <c r="C289" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D289" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E289" s="110" t="s">
-        <v>1153</v>
       </c>
       <c r="F289" s="99"/>
       <c r="G289" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H289" s="168" t="s">
-        <v>1154</v>
+        <v>1120</v>
+      </c>
+      <c r="H289" s="169" t="s">
+        <v>1153</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
@@ -20730,26 +20735,26 @@
     </row>
     <row r="290">
       <c r="A290" s="55" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B290" s="92" t="s">
         <v>1155</v>
       </c>
-      <c r="B290" s="92" t="s">
+      <c r="C290" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D290" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E290" s="110" t="s">
         <v>1156</v>
-      </c>
-      <c r="C290" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D290" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E290" s="110" t="s">
-        <v>1157</v>
       </c>
       <c r="F290" s="99"/>
       <c r="G290" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H290" s="168" t="s">
-        <v>1158</v>
+        <v>1120</v>
+      </c>
+      <c r="H290" s="169" t="s">
+        <v>1157</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
@@ -20757,26 +20762,26 @@
     </row>
     <row r="291">
       <c r="A291" s="47" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B291" s="66" t="s">
         <v>1159</v>
       </c>
-      <c r="B291" s="66" t="s">
+      <c r="C291" s="99" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D291" s="99" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E291" s="99" t="s">
         <v>1160</v>
-      </c>
-      <c r="C291" s="99" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D291" s="99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E291" s="99" t="s">
-        <v>1161</v>
       </c>
       <c r="F291" s="99"/>
       <c r="G291" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H291" s="168" t="s">
-        <v>1162</v>
+        <v>1120</v>
+      </c>
+      <c r="H291" s="169" t="s">
+        <v>1161</v>
       </c>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
@@ -20784,10 +20789,10 @@
     </row>
     <row r="292">
       <c r="A292" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B292" s="62" t="s">
         <v>1163</v>
-      </c>
-      <c r="B292" s="62" t="s">
-        <v>1164</v>
       </c>
       <c r="C292" s="99"/>
       <c r="D292" s="99"/>
@@ -20801,24 +20806,24 @@
     </row>
     <row r="293">
       <c r="A293" s="47" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B293" s="66" t="s">
         <v>1165</v>
       </c>
-      <c r="B293" s="66" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C293" s="169" t="s">
+      <c r="C293" s="170" t="s">
         <v>655</v>
       </c>
       <c r="D293" s="99"/>
       <c r="E293" s="110" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F293" s="99"/>
       <c r="G293" s="99" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H293" s="168" t="s">
-        <v>1168</v>
+        <v>1120</v>
+      </c>
+      <c r="H293" s="169" t="s">
+        <v>1167</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
@@ -20826,10 +20831,10 @@
     </row>
     <row r="294">
       <c r="A294" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B294" s="62" t="s">
         <v>1169</v>
-      </c>
-      <c r="B294" s="62" t="s">
-        <v>1170</v>
       </c>
       <c r="C294" s="99"/>
       <c r="D294" s="99"/>
@@ -20843,29 +20848,29 @@
     </row>
     <row r="295">
       <c r="A295" s="47" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B295" s="66" t="s">
         <v>1171</v>
       </c>
-      <c r="B295" s="66" t="s">
+      <c r="C295" s="168" t="s">
         <v>1172</v>
       </c>
-      <c r="C295" s="167" t="s">
+      <c r="D295" s="99" t="s">
         <v>1173</v>
       </c>
-      <c r="D295" s="99" t="s">
+      <c r="E295" s="171" t="s">
         <v>1174</v>
-      </c>
-      <c r="E295" s="170" t="s">
-        <v>1175</v>
       </c>
       <c r="F295" s="99"/>
       <c r="G295" s="99" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H295" s="172" t="s">
         <v>1176</v>
       </c>
-      <c r="H295" s="171" t="s">
+      <c r="I295" s="7" t="s">
         <v>1177</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>1178</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -20970,22 +20975,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="174" t="s">
         <v>2</v>
       </c>
     </row>
@@ -20997,14 +21002,14 @@
         <v>415</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="90" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F2" s="90" t="s">
         <v>1180</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="3">
@@ -21015,30 +21020,30 @@
         <v>415</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="90" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F3" s="90" t="s">
         <v>1182</v>
       </c>
-      <c r="F3" s="90" t="s">
-        <v>1183</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="175" t="s">
         <v>447</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="68" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F4" s="176" t="s">
         <v>1184</v>
-      </c>
-      <c r="F4" s="175" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="5">
@@ -21054,133 +21059,133 @@
         <v>573</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>1187</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="C6" s="65" t="s">
         <v>1188</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="65" t="s">
         <v>1189</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="90" t="s">
         <v>1190</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="F6" s="90" t="s">
         <v>1191</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>791</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="C7" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>794</v>
-      </c>
       <c r="E7" s="90" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B8" s="90" t="s">
         <v>866</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="C8" s="177" t="s">
         <v>867</v>
-      </c>
-      <c r="C8" s="176" t="s">
-        <v>868</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="90" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>1194</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>1195</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="174" t="s">
-        <v>841</v>
+      <c r="A9" s="175" t="s">
+        <v>840</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="68" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F9" s="176" t="s">
         <v>1196</v>
       </c>
-      <c r="F9" s="175" t="s">
-        <v>1197</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="131" t="s">
-        <v>872</v>
+      <c r="A10" s="132" t="s">
+        <v>871</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="68" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F10" s="176" t="s">
         <v>1198</v>
-      </c>
-      <c r="F10" s="175" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" s="90" t="s">
         <v>911</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="C11" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>914</v>
-      </c>
       <c r="E11" s="90" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>1200</v>
       </c>
-      <c r="F11" s="90" t="s">
-        <v>1201</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="131" t="s">
-        <v>922</v>
+      <c r="A12" s="132" t="s">
+        <v>921</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="68" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>1202</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -21203,37 +21208,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1204</v>
       </c>
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="179" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="178" t="s">
+      <c r="B3" s="21" t="s">
         <v>1206</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="180" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="179" t="s">
+    <row r="6">
+      <c r="A6" s="181" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="180" t="s">
+      <c r="B6" s="21" t="s">
         <v>1209</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="8">
@@ -21243,68 +21248,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="181" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="181" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="180" t="s">
+      <c r="B11" s="182" t="s">
         <v>1213</v>
       </c>
-      <c r="B11" s="181" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="183" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="182" t="s">
+    <row r="13">
+      <c r="A13" s="184"/>
+      <c r="B13" s="185" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="183"/>
-      <c r="B13" s="184" t="s">
+    <row r="14">
+      <c r="B14" s="186" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="185" t="s">
+    <row r="15">
+      <c r="B15" s="187" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="186" t="s">
+    <row r="16">
+      <c r="B16" s="188" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="187" t="s">
+    <row r="17">
+      <c r="A17" s="181"/>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="181" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="180"/>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="180" t="s">
+      <c r="B18" s="189" t="s">
         <v>1220</v>
-      </c>
-      <c r="B18" s="188" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B19" s="84"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="181" t="s">
         <v>1222</v>
       </c>
-      <c r="B19" s="84"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="180" t="s">
+      <c r="B21" s="190" t="s">
         <v>1223</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -21329,53 +21334,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="191" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="190" t="s">
+    <row r="3">
+      <c r="A3" s="192" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="191" t="s">
+    <row r="4">
+      <c r="A4" s="191" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="190" t="s">
+    <row r="5">
+      <c r="A5" s="192" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="191" t="s">
+    <row r="6">
+      <c r="A6" s="192" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="191" t="s">
+    <row r="7">
+      <c r="A7" s="192" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="191" t="s">
+    <row r="8">
+      <c r="A8" s="193" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="192" t="s">
+    <row r="9">
+      <c r="A9" s="192" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="191" t="s">
+    <row r="10">
+      <c r="A10" s="192" t="s">
         <v>1233</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="191" t="s">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -21401,63 +21406,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B1" s="193" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1" s="194" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="192" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="191" t="s">
+      <c r="B2" s="19" t="s">
         <v>1236</v>
       </c>
-      <c r="B2" s="19" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="192" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="191" t="s">
+    <row r="4">
+      <c r="A4" s="192" t="s">
         <v>1238</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="191" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="192" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="191" t="s">
+    <row r="7">
+      <c r="A7" s="192" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="191" t="s">
+    <row r="8">
+      <c r="A8" s="192" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="191" t="s">
+    <row r="9">
+      <c r="A9" s="192" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="191" t="s">
+    <row r="10">
+      <c r="A10" s="195" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="194" t="s">
+    <row r="11">
+      <c r="A11" s="196" t="s">
         <v>1245</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="195" t="s">
-        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -21476,7 +21481,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="181"/>
+      <c r="A1" s="182"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21500,11 +21505,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1" s="198" t="s">
         <v>1247</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1248</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -21531,16 +21536,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1252</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -21567,13 +21572,13 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>1253</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1255</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -21604,13 +21609,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1255</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21641,13 +21646,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>1257</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>1258</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21675,16 +21680,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>1260</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1261</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -21711,16 +21716,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D7" s="199" t="s">
         <v>1263</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D7" s="198" t="s">
-        <v>1264</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -21747,16 +21752,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1266</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1267</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -21783,16 +21788,16 @@
     </row>
     <row r="9">
       <c r="A9" s="90" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1269</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1270</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -21819,16 +21824,16 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1271</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1272</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -21855,16 +21860,16 @@
     </row>
     <row r="11">
       <c r="A11" s="90" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1274</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1275</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -21891,16 +21896,16 @@
     </row>
     <row r="12">
       <c r="A12" s="90" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>1276</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1277</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -21926,76 +21931,76 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="200" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B13" s="200" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C13" s="201" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D13" s="201" t="s">
         <v>1278</v>
       </c>
-      <c r="B13" s="199" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C13" s="200" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D13" s="200" t="s">
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="201"/>
+      <c r="T13" s="201"/>
+      <c r="U13" s="201"/>
+      <c r="V13" s="201"/>
+      <c r="W13" s="201"/>
+      <c r="X13" s="201"/>
+      <c r="Y13" s="201"/>
+      <c r="Z13" s="201"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="200" t="s">
         <v>1279</v>
       </c>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="200"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="200"/>
-      <c r="Z13" s="200"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="199" t="s">
+      <c r="B14" s="200" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C14" s="201" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D14" s="201" t="s">
         <v>1280</v>
       </c>
-      <c r="B14" s="199" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C14" s="200" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D14" s="200" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="200"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="200"/>
-      <c r="Z14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="201"/>
+      <c r="S14" s="201"/>
+      <c r="T14" s="201"/>
+      <c r="U14" s="201"/>
+      <c r="V14" s="201"/>
+      <c r="W14" s="201"/>
+      <c r="X14" s="201"/>
+      <c r="Y14" s="201"/>
+      <c r="Z14" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22023,59 +22028,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1" s="198" t="s">
         <v>1247</v>
-      </c>
-      <c r="C1" s="197" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="194" t="s">
         <v>1251</v>
-      </c>
-      <c r="D2" s="193" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1282</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1283</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1284</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1285</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="202" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>1287</v>
-      </c>
-      <c r="C5" s="201" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1288</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1289">
   <si>
     <t>Field</t>
   </si>
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.3.0</t>
+    <t>6.3.1</t>
   </si>
   <si>
     <r>
@@ -4714,6 +4714,11 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>In the XPATH condition, we likely don't need to add the conditions for notice types:
+- "PRI", as in case of F23 this information will only appear in the "PRI notices (and should not appear in "CONCESSION_AWARD_CONTRACT" notices
+- "QSU_ONLY" and "PER_ONLY", as for those type of notices we should not have this type of infomration specified; however, in case they are (by mistake/oversight), we will map it to this property</t>
   </si>
   <si>
     <t>IV.2.3</t>
@@ -8821,7 +8826,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9203,6 +9208,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -17911,11 +17919,13 @@
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
+      <c r="K177" s="130" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="47" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>738</v>
@@ -17928,13 +17938,13 @@
         <v>739</v>
       </c>
       <c r="F178" s="129" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G178" s="40" t="s">
         <v>741</v>
       </c>
       <c r="H178" s="124" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -17942,24 +17952,24 @@
     </row>
     <row r="179">
       <c r="A179" s="47" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="40" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H179" s="124" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -17967,24 +17977,24 @@
     </row>
     <row r="180">
       <c r="A180" s="47" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>655</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="40" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H180" s="40" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -17992,10 +18002,10 @@
     </row>
     <row r="181">
       <c r="A181" s="49" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -18009,26 +18019,26 @@
     </row>
     <row r="182">
       <c r="A182" s="97" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C182" s="63" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D182" s="63" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E182" s="50" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="37" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -18036,74 +18046,74 @@
     </row>
     <row r="183">
       <c r="A183" s="121" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="40" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F183" s="50" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="130" t="s">
-        <v>766</v>
-      </c>
-      <c r="B184" s="131" t="s">
+      <c r="A184" s="131" t="s">
         <v>767</v>
       </c>
-      <c r="C184" s="132"/>
-      <c r="D184" s="132"/>
+      <c r="B184" s="132" t="s">
+        <v>768</v>
+      </c>
+      <c r="C184" s="133"/>
+      <c r="D184" s="133"/>
       <c r="E184" s="57" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F184" s="68" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G184" s="41" t="s">
-        <v>772</v>
-      </c>
-      <c r="H184" s="133" t="s">
         <v>773</v>
+      </c>
+      <c r="H184" s="134" t="s">
+        <v>774</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="130" t="s">
-        <v>766</v>
-      </c>
-      <c r="B185" s="131" t="s">
+      <c r="A185" s="131" t="s">
         <v>767</v>
+      </c>
+      <c r="B185" s="132" t="s">
+        <v>768</v>
       </c>
       <c r="C185" s="63"/>
       <c r="D185" s="63"/>
-      <c r="E185" s="134" t="s">
-        <v>768</v>
+      <c r="E185" s="135" t="s">
+        <v>769</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -18111,28 +18121,28 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D186" s="63" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E186" s="50" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F186" s="50" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I186" s="7" t="s">
         <v>71</v>
@@ -18142,28 +18152,28 @@
     </row>
     <row r="187">
       <c r="A187" s="49" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D187" s="63" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F187" s="50" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H187" s="104" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>63</v>
@@ -18173,53 +18183,53 @@
     </row>
     <row r="188">
       <c r="A188" s="49" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D188" s="63" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E188" s="40" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H188" s="124" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="135" t="s">
-        <v>790</v>
-      </c>
-      <c r="B189" s="136" t="s">
+      <c r="A189" s="136" t="s">
         <v>791</v>
       </c>
+      <c r="B189" s="137" t="s">
+        <v>792</v>
+      </c>
       <c r="C189" s="116" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D189" s="116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E189" s="40" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H189" s="124" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -18227,13 +18237,13 @@
     </row>
     <row r="190">
       <c r="A190" s="122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>801</v>
-      </c>
-      <c r="C190" s="137" t="s">
         <v>802</v>
+      </c>
+      <c r="C190" s="138" t="s">
+        <v>803</v>
       </c>
       <c r="D190" s="63"/>
       <c r="E190" s="4"/>
@@ -18246,13 +18256,13 @@
     </row>
     <row r="191">
       <c r="A191" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="C191" s="139" t="s">
         <v>803</v>
-      </c>
-      <c r="B191" s="48" t="s">
-        <v>804</v>
-      </c>
-      <c r="C191" s="138" t="s">
-        <v>802</v>
       </c>
       <c r="D191" s="63"/>
       <c r="E191" s="37"/>
@@ -18265,26 +18275,26 @@
     </row>
     <row r="192">
       <c r="A192" s="97" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B192" s="56" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D192" s="63" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="37" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H192" s="120" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -18292,26 +18302,26 @@
     </row>
     <row r="193">
       <c r="A193" s="97" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B193" s="56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H193" s="124" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -18319,24 +18329,24 @@
     </row>
     <row r="194">
       <c r="A194" s="97" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B194" s="56" t="s">
-        <v>817</v>
-      </c>
-      <c r="C194" s="139" t="s">
+        <v>818</v>
+      </c>
+      <c r="C194" s="140" t="s">
         <v>655</v>
       </c>
       <c r="D194" s="63"/>
       <c r="E194" s="41" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F194" s="41"/>
       <c r="G194" s="41" t="s">
-        <v>819</v>
-      </c>
-      <c r="H194" s="140" t="s">
         <v>820</v>
+      </c>
+      <c r="H194" s="141" t="s">
+        <v>821</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -18344,13 +18354,13 @@
     </row>
     <row r="195">
       <c r="A195" s="122" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>767</v>
-      </c>
-      <c r="C195" s="138" t="s">
-        <v>802</v>
+        <v>768</v>
+      </c>
+      <c r="C195" s="139" t="s">
+        <v>803</v>
       </c>
       <c r="D195" s="63"/>
       <c r="E195" s="37"/>
@@ -18363,20 +18373,20 @@
     </row>
     <row r="196">
       <c r="A196" s="97" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B196" s="56"/>
       <c r="C196" s="63"/>
       <c r="D196" s="7"/>
       <c r="E196" s="57" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="37" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -18384,49 +18394,49 @@
     </row>
     <row r="197">
       <c r="A197" s="97" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B197" s="91"/>
       <c r="C197" s="63"/>
       <c r="D197" s="7"/>
       <c r="E197" s="57" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F197" s="50"/>
       <c r="G197" s="37" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="49" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D198" s="63" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H198" s="124" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -18434,32 +18444,32 @@
     </row>
     <row r="199">
       <c r="A199" s="49" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>836</v>
-      </c>
-      <c r="C199" s="141"/>
-      <c r="D199" s="141"/>
+        <v>837</v>
+      </c>
+      <c r="C199" s="142"/>
+      <c r="D199" s="142"/>
       <c r="E199" s="57" t="s">
-        <v>794</v>
-      </c>
-      <c r="F199" s="142"/>
+        <v>795</v>
+      </c>
+      <c r="F199" s="143"/>
       <c r="G199" s="50" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H199" s="37" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I199" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
       <c r="A200" s="97" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>448</v>
@@ -18478,26 +18488,26 @@
     </row>
     <row r="201">
       <c r="A201" s="97" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B201" s="56" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D201" s="63" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="37" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H201" s="37" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -18505,22 +18515,22 @@
     </row>
     <row r="202">
       <c r="A202" s="97" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B202" s="56" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C202" s="63"/>
       <c r="D202" s="63"/>
       <c r="E202" s="50" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H202" s="40" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -18528,22 +18538,22 @@
     </row>
     <row r="203">
       <c r="A203" s="97" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B203" s="56" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C203" s="63"/>
       <c r="D203" s="63"/>
       <c r="E203" s="50" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H203" s="40" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -18551,22 +18561,22 @@
     </row>
     <row r="204">
       <c r="A204" s="97" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B204" s="56" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C204" s="63"/>
       <c r="D204" s="63"/>
       <c r="E204" s="50" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H204" s="40" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -18574,22 +18584,22 @@
     </row>
     <row r="205">
       <c r="A205" s="97" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>862</v>
-      </c>
-      <c r="C205" s="143"/>
-      <c r="D205" s="143"/>
+        <v>863</v>
+      </c>
+      <c r="C205" s="144"/>
+      <c r="D205" s="144"/>
       <c r="E205" s="50" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F205" s="50"/>
       <c r="G205" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -18597,17 +18607,17 @@
     </row>
     <row r="206">
       <c r="A206" s="97" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B206" s="56" t="s">
-        <v>866</v>
-      </c>
-      <c r="C206" s="144" t="s">
         <v>867</v>
+      </c>
+      <c r="C206" s="145" t="s">
+        <v>868</v>
       </c>
       <c r="D206" s="63"/>
       <c r="E206" s="65" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F206" s="90"/>
       <c r="G206" s="63" t="s">
@@ -18622,13 +18632,13 @@
     </row>
     <row r="207">
       <c r="A207" s="49" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>870</v>
-      </c>
-      <c r="C207" s="138" t="s">
-        <v>802</v>
+        <v>871</v>
+      </c>
+      <c r="C207" s="139" t="s">
+        <v>803</v>
       </c>
       <c r="D207" s="63"/>
       <c r="E207" s="40"/>
@@ -18641,7 +18651,7 @@
     </row>
     <row r="208">
       <c r="A208" s="97" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B208" s="56" t="s">
         <v>448</v>
@@ -18660,7 +18670,7 @@
     </row>
     <row r="209">
       <c r="A209" s="97" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>57</v>
@@ -18672,14 +18682,14 @@
         <v>59</v>
       </c>
       <c r="E209" s="50" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F209" s="65"/>
       <c r="G209" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H209" s="145" t="s">
-        <v>874</v>
+      <c r="H209" s="146" t="s">
+        <v>875</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>63</v>
@@ -18689,7 +18699,7 @@
     </row>
     <row r="210">
       <c r="A210" s="97" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B210" s="56" t="s">
         <v>65</v>
@@ -18701,14 +18711,14 @@
         <v>67</v>
       </c>
       <c r="E210" s="50" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F210" s="65"/>
       <c r="G210" s="46" t="s">
         <v>69</v>
       </c>
       <c r="H210" s="46" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I210" s="7" t="s">
         <v>71</v>
@@ -18718,7 +18728,7 @@
     </row>
     <row r="211">
       <c r="A211" s="97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>73</v>
@@ -18730,14 +18740,14 @@
         <v>75</v>
       </c>
       <c r="E211" s="50" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F211" s="65"/>
       <c r="G211" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H211" s="40" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -18745,7 +18755,7 @@
     </row>
     <row r="212">
       <c r="A212" s="97" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B212" s="56" t="s">
         <v>80</v>
@@ -18757,14 +18767,14 @@
         <v>82</v>
       </c>
       <c r="E212" s="65" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F212" s="65"/>
       <c r="G212" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H212" s="90" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -18772,7 +18782,7 @@
     </row>
     <row r="213">
       <c r="A213" s="97" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B213" s="56" t="s">
         <v>86</v>
@@ -18784,16 +18794,16 @@
         <v>88</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F213" s="90" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G213" s="37" t="s">
         <v>91</v>
       </c>
       <c r="H213" s="50" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -18801,7 +18811,7 @@
     </row>
     <row r="214">
       <c r="A214" s="97" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B214" s="56" t="s">
         <v>94</v>
@@ -18810,17 +18820,17 @@
         <v>95</v>
       </c>
       <c r="D214" s="63" t="s">
-        <v>889</v>
-      </c>
-      <c r="E214" s="146" t="s">
         <v>890</v>
       </c>
-      <c r="F214" s="146"/>
+      <c r="E214" s="147" t="s">
+        <v>891</v>
+      </c>
+      <c r="F214" s="147"/>
       <c r="G214" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H214" s="40" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -18828,26 +18838,26 @@
     </row>
     <row r="215">
       <c r="A215" s="97" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B215" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C215" s="147" t="s">
+      <c r="C215" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="D215" s="147" t="s">
+      <c r="D215" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="E215" s="146" t="s">
-        <v>893</v>
-      </c>
-      <c r="F215" s="146"/>
+      <c r="E215" s="147" t="s">
+        <v>894</v>
+      </c>
+      <c r="F215" s="147"/>
       <c r="G215" s="44" t="s">
         <v>105</v>
       </c>
       <c r="H215" s="44" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -18855,26 +18865,26 @@
     </row>
     <row r="216">
       <c r="A216" s="97" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B216" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C216" s="147" t="s">
+      <c r="C216" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="D216" s="147" t="s">
+      <c r="D216" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="E216" s="146" t="s">
-        <v>896</v>
-      </c>
-      <c r="F216" s="146"/>
+      <c r="E216" s="147" t="s">
+        <v>897</v>
+      </c>
+      <c r="F216" s="147"/>
       <c r="G216" s="50" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H216" s="50" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -18882,26 +18892,26 @@
     </row>
     <row r="217">
       <c r="A217" s="97" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B217" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C217" s="147" t="s">
+      <c r="C217" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="147" t="s">
+      <c r="D217" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="E217" s="146" t="s">
-        <v>900</v>
-      </c>
-      <c r="F217" s="146"/>
+      <c r="E217" s="147" t="s">
+        <v>901</v>
+      </c>
+      <c r="F217" s="147"/>
       <c r="G217" s="50" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H217" s="50" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -18909,26 +18919,26 @@
     </row>
     <row r="218">
       <c r="A218" s="97" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B218" s="56" t="s">
-        <v>904</v>
-      </c>
-      <c r="C218" s="147" t="s">
+        <v>905</v>
+      </c>
+      <c r="C218" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="D218" s="147" t="s">
+      <c r="D218" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="E218" s="146" t="s">
-        <v>905</v>
-      </c>
-      <c r="F218" s="146"/>
+      <c r="E218" s="147" t="s">
+        <v>906</v>
+      </c>
+      <c r="F218" s="147"/>
       <c r="G218" s="46" t="s">
-        <v>897</v>
-      </c>
-      <c r="H218" s="148" t="s">
-        <v>906</v>
+        <v>898</v>
+      </c>
+      <c r="H218" s="149" t="s">
+        <v>907</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18936,26 +18946,26 @@
     </row>
     <row r="219">
       <c r="A219" s="97" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B219" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C219" s="147" t="s">
+      <c r="C219" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="D219" s="147" t="s">
+      <c r="D219" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="E219" s="146" t="s">
-        <v>908</v>
-      </c>
-      <c r="F219" s="146"/>
+      <c r="E219" s="147" t="s">
+        <v>909</v>
+      </c>
+      <c r="F219" s="147"/>
       <c r="G219" s="50" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H219" s="50" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18963,26 +18973,26 @@
     </row>
     <row r="220">
       <c r="A220" s="97" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B220" s="56" t="s">
-        <v>911</v>
-      </c>
-      <c r="C220" s="147" t="s">
         <v>912</v>
       </c>
-      <c r="D220" s="147" t="s">
+      <c r="C220" s="148" t="s">
         <v>913</v>
       </c>
-      <c r="E220" s="146" t="s">
+      <c r="D220" s="148" t="s">
         <v>914</v>
+      </c>
+      <c r="E220" s="147" t="s">
+        <v>915</v>
       </c>
       <c r="F220" s="82"/>
       <c r="G220" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="H220" s="149" t="s">
         <v>916</v>
+      </c>
+      <c r="H220" s="150" t="s">
+        <v>917</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -18993,15 +19003,15 @@
       <c r="B221" s="4"/>
       <c r="C221" s="63"/>
       <c r="D221" s="63"/>
-      <c r="E221" s="150" t="s">
-        <v>914</v>
+      <c r="E221" s="151" t="s">
+        <v>915</v>
       </c>
       <c r="F221" s="82"/>
       <c r="G221" s="80" t="s">
-        <v>917</v>
-      </c>
-      <c r="H221" s="151" t="s">
         <v>918</v>
+      </c>
+      <c r="H221" s="152" t="s">
+        <v>919</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -19009,17 +19019,17 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B222" s="66" t="s">
-        <v>920</v>
-      </c>
-      <c r="C222" s="138" t="s">
-        <v>802</v>
+        <v>921</v>
+      </c>
+      <c r="C222" s="139" t="s">
+        <v>803</v>
       </c>
       <c r="D222" s="63"/>
-      <c r="E222" s="147"/>
-      <c r="F222" s="147"/>
+      <c r="E222" s="148"/>
+      <c r="F222" s="148"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7"/>
@@ -19028,15 +19038,15 @@
     </row>
     <row r="223">
       <c r="A223" s="97" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B223" s="92" t="s">
         <v>448</v>
       </c>
       <c r="C223" s="99"/>
       <c r="D223" s="99"/>
-      <c r="E223" s="152"/>
-      <c r="F223" s="152"/>
+      <c r="E223" s="153"/>
+      <c r="F223" s="153"/>
       <c r="G223" s="98"/>
       <c r="H223" s="98"/>
       <c r="I223" s="7"/>
@@ -19047,10 +19057,10 @@
     </row>
     <row r="224">
       <c r="A224" s="97" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B224" s="92" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C224" s="63" t="s">
         <v>519</v>
@@ -19058,15 +19068,15 @@
       <c r="D224" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="E224" s="146" t="s">
-        <v>924</v>
-      </c>
-      <c r="F224" s="146"/>
+      <c r="E224" s="147" t="s">
+        <v>925</v>
+      </c>
+      <c r="F224" s="147"/>
       <c r="G224" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="H224" s="153" t="s">
-        <v>925</v>
+      <c r="H224" s="154" t="s">
+        <v>926</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -19074,24 +19084,24 @@
     </row>
     <row r="225">
       <c r="A225" s="108" t="s">
-        <v>926</v>
-      </c>
-      <c r="B225" s="154" t="s">
+        <v>927</v>
+      </c>
+      <c r="B225" s="155" t="s">
         <v>406</v>
       </c>
-      <c r="C225" s="155" t="s">
+      <c r="C225" s="156" t="s">
         <v>232</v>
       </c>
       <c r="D225" s="63"/>
-      <c r="E225" s="146" t="s">
-        <v>927</v>
-      </c>
-      <c r="F225" s="146"/>
+      <c r="E225" s="147" t="s">
+        <v>928</v>
+      </c>
+      <c r="F225" s="147"/>
       <c r="G225" s="37" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H225" s="120" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -19099,26 +19109,26 @@
     </row>
     <row r="226">
       <c r="A226" s="97" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B226" s="92" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C226" s="63" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D226" s="63" t="s">
-        <v>933</v>
-      </c>
-      <c r="E226" s="146" t="s">
         <v>934</v>
       </c>
-      <c r="F226" s="146"/>
+      <c r="E226" s="147" t="s">
+        <v>935</v>
+      </c>
+      <c r="F226" s="147"/>
       <c r="G226" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H226" s="90" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -19126,24 +19136,24 @@
     </row>
     <row r="227">
       <c r="A227" s="108" t="s">
-        <v>937</v>
-      </c>
-      <c r="B227" s="154" t="s">
+        <v>938</v>
+      </c>
+      <c r="B227" s="155" t="s">
         <v>406</v>
       </c>
-      <c r="C227" s="155" t="s">
+      <c r="C227" s="156" t="s">
         <v>232</v>
       </c>
       <c r="D227" s="63"/>
-      <c r="E227" s="146" t="s">
-        <v>938</v>
-      </c>
-      <c r="F227" s="146"/>
+      <c r="E227" s="147" t="s">
+        <v>939</v>
+      </c>
+      <c r="F227" s="147"/>
       <c r="G227" s="4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H227" s="40" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -19151,7 +19161,7 @@
     </row>
     <row r="228">
       <c r="A228" s="97" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B228" s="92" t="s">
         <v>456</v>
@@ -19163,14 +19173,14 @@
         <v>458</v>
       </c>
       <c r="E228" s="65" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F228" s="65"/>
       <c r="G228" s="63" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H228" s="65" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -19178,24 +19188,24 @@
     </row>
     <row r="229">
       <c r="A229" s="108" t="s">
-        <v>945</v>
-      </c>
-      <c r="B229" s="154" t="s">
+        <v>946</v>
+      </c>
+      <c r="B229" s="155" t="s">
         <v>406</v>
       </c>
-      <c r="C229" s="155" t="s">
+      <c r="C229" s="156" t="s">
         <v>232</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="65" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F229" s="65"/>
       <c r="G229" s="63" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H229" s="65" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -19203,7 +19213,7 @@
     </row>
     <row r="230">
       <c r="A230" s="97" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B230" s="92" t="s">
         <v>462</v>
@@ -19214,15 +19224,15 @@
       <c r="D230" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="E230" s="146" t="s">
-        <v>950</v>
-      </c>
-      <c r="F230" s="146"/>
+      <c r="E230" s="147" t="s">
+        <v>951</v>
+      </c>
+      <c r="F230" s="147"/>
       <c r="G230" s="63" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H230" s="65" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -19230,24 +19240,24 @@
     </row>
     <row r="231">
       <c r="A231" s="108" t="s">
-        <v>952</v>
-      </c>
-      <c r="B231" s="154" t="s">
+        <v>953</v>
+      </c>
+      <c r="B231" s="155" t="s">
         <v>406</v>
       </c>
-      <c r="C231" s="155" t="s">
+      <c r="C231" s="156" t="s">
         <v>232</v>
       </c>
       <c r="D231" s="63"/>
-      <c r="E231" s="150" t="s">
-        <v>946</v>
-      </c>
-      <c r="F231" s="146"/>
+      <c r="E231" s="151" t="s">
+        <v>947</v>
+      </c>
+      <c r="F231" s="147"/>
       <c r="G231" s="37" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H231" s="50" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -19255,17 +19265,17 @@
     </row>
     <row r="232">
       <c r="A232" s="49" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B232" s="66" t="s">
-        <v>955</v>
-      </c>
-      <c r="C232" s="138" t="s">
-        <v>802</v>
+        <v>956</v>
+      </c>
+      <c r="C232" s="139" t="s">
+        <v>803</v>
       </c>
       <c r="D232" s="63"/>
-      <c r="E232" s="147"/>
-      <c r="F232" s="147"/>
+      <c r="E232" s="148"/>
+      <c r="F232" s="148"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="7"/>
@@ -19274,26 +19284,26 @@
     </row>
     <row r="233">
       <c r="A233" s="97" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B233" s="92" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C233" s="63" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D233" s="63" t="s">
-        <v>959</v>
-      </c>
-      <c r="E233" s="146" t="s">
         <v>960</v>
       </c>
-      <c r="F233" s="146"/>
+      <c r="E233" s="147" t="s">
+        <v>961</v>
+      </c>
+      <c r="F233" s="147"/>
       <c r="G233" s="50" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H233" s="67" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -19301,10 +19311,10 @@
     </row>
     <row r="234">
       <c r="A234" s="97" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B234" s="92" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
@@ -19318,26 +19328,26 @@
     </row>
     <row r="235">
       <c r="A235" s="97" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B235" s="92" t="s">
         <v>399</v>
       </c>
       <c r="C235" s="65" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D235" s="65" t="s">
-        <v>967</v>
-      </c>
-      <c r="E235" s="146" t="s">
         <v>968</v>
       </c>
-      <c r="F235" s="146"/>
+      <c r="E235" s="147" t="s">
+        <v>969</v>
+      </c>
+      <c r="F235" s="147"/>
       <c r="G235" s="63" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H235" s="65" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -19345,24 +19355,24 @@
     </row>
     <row r="236">
       <c r="A236" s="97" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B236" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="C236" s="155" t="s">
+      <c r="C236" s="156" t="s">
         <v>232</v>
       </c>
       <c r="D236" s="63"/>
       <c r="E236" s="65" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F236" s="65"/>
       <c r="G236" s="65" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H236" s="63" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -19370,26 +19380,26 @@
     </row>
     <row r="237">
       <c r="A237" s="97" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B237" s="92" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C237" s="63" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D237" s="63" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E237" s="65" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F237" s="65"/>
       <c r="G237" s="65" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H237" s="65" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -19397,26 +19407,26 @@
     </row>
     <row r="238">
       <c r="A238" s="97" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B238" s="92" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C238" s="63" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D238" s="63" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E238" s="65" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F238" s="65"/>
       <c r="G238" s="65" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H238" s="65" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I238" s="7" t="s">
         <v>63</v>
@@ -19426,10 +19436,10 @@
     </row>
     <row r="239">
       <c r="A239" s="121" t="s">
-        <v>989</v>
-      </c>
-      <c r="B239" s="156" t="s">
         <v>990</v>
+      </c>
+      <c r="B239" s="157" t="s">
+        <v>991</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
@@ -19443,15 +19453,15 @@
     </row>
     <row r="240">
       <c r="A240" s="38" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B240" s="62" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C240" s="99"/>
       <c r="D240" s="85"/>
-      <c r="E240" s="152"/>
-      <c r="F240" s="147"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="148"/>
       <c r="G240" s="65"/>
       <c r="H240" s="65"/>
       <c r="I240" s="7"/>
@@ -19460,24 +19470,24 @@
     </row>
     <row r="241">
       <c r="A241" s="47" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B241" s="66" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C241" s="99" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D241" s="85"/>
-      <c r="E241" s="152" t="s">
-        <v>996</v>
-      </c>
-      <c r="F241" s="147"/>
+      <c r="E241" s="153" t="s">
+        <v>997</v>
+      </c>
+      <c r="F241" s="148"/>
       <c r="G241" s="7" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H241" s="33" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -19485,24 +19495,24 @@
     </row>
     <row r="242">
       <c r="A242" s="47" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B242" s="66" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C242" s="99" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D242" s="85"/>
-      <c r="E242" s="152" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F242" s="147"/>
+      <c r="E242" s="153" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F242" s="148"/>
       <c r="G242" s="7" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H242" s="33" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -19510,24 +19520,24 @@
     </row>
     <row r="243">
       <c r="A243" s="47" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B243" s="66" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C243" s="99" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D243" s="85"/>
-      <c r="E243" s="152" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F243" s="147"/>
+      <c r="E243" s="153" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F243" s="148"/>
       <c r="G243" s="7" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H243" s="33" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -19535,7 +19545,7 @@
     </row>
     <row r="244">
       <c r="A244" s="122" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B244" s="62" t="s">
         <v>597</v>
@@ -19546,15 +19556,15 @@
       <c r="D244" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E244" s="146" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F244" s="146"/>
-      <c r="G244" s="157" t="s">
+      <c r="E244" s="147" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F244" s="147"/>
+      <c r="G244" s="158" t="s">
         <v>362</v>
       </c>
-      <c r="H244" s="158" t="s">
-        <v>1011</v>
+      <c r="H244" s="159" t="s">
+        <v>1012</v>
       </c>
       <c r="I244" s="7" t="s">
         <v>63</v>
@@ -19564,17 +19574,17 @@
     </row>
     <row r="245">
       <c r="A245" s="122" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B245" s="62" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C245" s="138" t="s">
-        <v>802</v>
+        <v>1014</v>
+      </c>
+      <c r="C245" s="139" t="s">
+        <v>803</v>
       </c>
       <c r="D245" s="7"/>
-      <c r="E245" s="147"/>
-      <c r="F245" s="147"/>
+      <c r="E245" s="148"/>
+      <c r="F245" s="148"/>
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
@@ -19583,19 +19593,19 @@
     </row>
     <row r="246">
       <c r="A246" s="49" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B246" s="66" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C246" s="159" t="s">
-        <v>802</v>
+        <v>1016</v>
+      </c>
+      <c r="C246" s="160" t="s">
+        <v>803</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="82" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F246" s="146"/>
+        <v>1017</v>
+      </c>
+      <c r="F246" s="147"/>
       <c r="G246" s="63" t="s">
         <v>54</v>
       </c>
@@ -19608,7 +19618,7 @@
     </row>
     <row r="247">
       <c r="A247" s="97" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B247" s="92" t="s">
         <v>57</v>
@@ -19619,15 +19629,15 @@
       <c r="D247" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E247" s="146" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F247" s="146"/>
+      <c r="E247" s="147" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F247" s="147"/>
       <c r="G247" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H247" s="90" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>63</v>
@@ -19637,7 +19647,7 @@
     </row>
     <row r="248">
       <c r="A248" s="97" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B248" s="92" t="s">
         <v>73</v>
@@ -19648,15 +19658,15 @@
       <c r="D248" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E248" s="146" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F248" s="146"/>
+      <c r="E248" s="147" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F248" s="147"/>
       <c r="G248" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H248" s="90" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -19664,7 +19674,7 @@
     </row>
     <row r="249">
       <c r="A249" s="97" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B249" s="92" t="s">
         <v>80</v>
@@ -19675,15 +19685,15 @@
       <c r="D249" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E249" s="146" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F249" s="146"/>
+      <c r="E249" s="147" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F249" s="147"/>
       <c r="G249" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H249" s="90" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -19691,7 +19701,7 @@
     </row>
     <row r="250">
       <c r="A250" s="97" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B250" s="92" t="s">
         <v>94</v>
@@ -19700,17 +19710,17 @@
         <v>95</v>
       </c>
       <c r="D250" s="63" t="s">
-        <v>889</v>
-      </c>
-      <c r="E250" s="146" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F250" s="146"/>
+        <v>890</v>
+      </c>
+      <c r="E250" s="147" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F250" s="147"/>
       <c r="G250" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H250" s="90" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -19718,7 +19728,7 @@
     </row>
     <row r="251">
       <c r="A251" s="97" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B251" s="92" t="s">
         <v>101</v>
@@ -19730,14 +19740,14 @@
         <v>103</v>
       </c>
       <c r="E251" s="65" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F251" s="65"/>
       <c r="G251" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H251" s="65" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -19745,7 +19755,7 @@
     </row>
     <row r="252">
       <c r="A252" s="97" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B252" s="92" t="s">
         <v>121</v>
@@ -19757,14 +19767,14 @@
         <v>123</v>
       </c>
       <c r="E252" s="65" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H252" s="65" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
@@ -19772,7 +19782,7 @@
     </row>
     <row r="253">
       <c r="A253" s="97" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B253" s="92" t="s">
         <v>115</v>
@@ -19784,14 +19794,14 @@
         <v>117</v>
       </c>
       <c r="E253" s="65" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F253" s="65"/>
       <c r="G253" s="65" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H253" s="65" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
@@ -19799,10 +19809,10 @@
     </row>
     <row r="254">
       <c r="A254" s="97" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B254" s="92" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C254" s="63" t="s">
         <v>137</v>
@@ -19811,14 +19821,14 @@
         <v>138</v>
       </c>
       <c r="E254" s="65" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F254" s="65"/>
       <c r="G254" s="61" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H254" s="61" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
@@ -19826,7 +19836,7 @@
     </row>
     <row r="255">
       <c r="A255" s="97" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B255" s="92" t="s">
         <v>128</v>
@@ -19838,14 +19848,14 @@
         <v>130</v>
       </c>
       <c r="E255" s="65" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F255" s="65"/>
       <c r="G255" s="65" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H255" s="65" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
@@ -19853,21 +19863,21 @@
     </row>
     <row r="256">
       <c r="A256" s="49" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B256" s="66" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C256" s="159" t="s">
-        <v>802</v>
-      </c>
-      <c r="D256" s="160"/>
+        <v>1043</v>
+      </c>
+      <c r="C256" s="160" t="s">
+        <v>803</v>
+      </c>
+      <c r="D256" s="161"/>
       <c r="E256" s="90" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F256" s="63"/>
       <c r="G256" s="63" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H256" s="63" t="s">
         <v>234</v>
@@ -19878,7 +19888,7 @@
     </row>
     <row r="257">
       <c r="A257" s="97" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B257" s="92" t="s">
         <v>57</v>
@@ -19890,14 +19900,14 @@
         <v>59</v>
       </c>
       <c r="E257" s="65" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F257" s="65"/>
       <c r="G257" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="H257" s="161" t="s">
-        <v>1047</v>
+      <c r="H257" s="162" t="s">
+        <v>1048</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>63</v>
@@ -19907,7 +19917,7 @@
     </row>
     <row r="258">
       <c r="A258" s="97" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B258" s="92" t="s">
         <v>73</v>
@@ -19919,14 +19929,14 @@
         <v>75</v>
       </c>
       <c r="E258" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F258" s="65"/>
       <c r="G258" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H258" s="161" t="s">
-        <v>1050</v>
+      <c r="H258" s="162" t="s">
+        <v>1051</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -19934,7 +19944,7 @@
     </row>
     <row r="259">
       <c r="A259" s="97" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B259" s="92" t="s">
         <v>80</v>
@@ -19946,14 +19956,14 @@
         <v>82</v>
       </c>
       <c r="E259" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F259" s="65"/>
       <c r="G259" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H259" s="90" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -19961,7 +19971,7 @@
     </row>
     <row r="260">
       <c r="A260" s="97" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B260" s="92" t="s">
         <v>94</v>
@@ -19970,17 +19980,17 @@
         <v>95</v>
       </c>
       <c r="D260" s="63" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E260" s="65" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F260" s="65"/>
       <c r="G260" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H260" s="90" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
@@ -19988,7 +19998,7 @@
     </row>
     <row r="261">
       <c r="A261" s="97" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B261" s="92" t="s">
         <v>101</v>
@@ -20000,14 +20010,14 @@
         <v>103</v>
       </c>
       <c r="E261" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F261" s="65"/>
       <c r="G261" s="90" t="s">
         <v>105</v>
       </c>
       <c r="H261" s="90" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
@@ -20015,7 +20025,7 @@
     </row>
     <row r="262">
       <c r="A262" s="97" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B262" s="92" t="s">
         <v>121</v>
@@ -20027,14 +20037,14 @@
         <v>123</v>
       </c>
       <c r="E262" s="65" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F262" s="65"/>
       <c r="G262" s="65" t="s">
-        <v>897</v>
-      </c>
-      <c r="H262" s="153" t="s">
         <v>898</v>
+      </c>
+      <c r="H262" s="154" t="s">
+        <v>899</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
@@ -20042,7 +20052,7 @@
     </row>
     <row r="263">
       <c r="A263" s="97" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B263" s="92" t="s">
         <v>115</v>
@@ -20054,14 +20064,14 @@
         <v>117</v>
       </c>
       <c r="E263" s="65" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F263" s="65"/>
       <c r="G263" s="65" t="s">
-        <v>901</v>
-      </c>
-      <c r="H263" s="153" t="s">
         <v>902</v>
+      </c>
+      <c r="H263" s="154" t="s">
+        <v>903</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
@@ -20069,10 +20079,10 @@
     </row>
     <row r="264">
       <c r="A264" s="97" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B264" s="92" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C264" s="63" t="s">
         <v>137</v>
@@ -20081,14 +20091,14 @@
         <v>138</v>
       </c>
       <c r="E264" s="65" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F264" s="65"/>
       <c r="G264" s="61" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H264" s="61" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -20096,7 +20106,7 @@
     </row>
     <row r="265">
       <c r="A265" s="97" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B265" s="92" t="s">
         <v>128</v>
@@ -20108,14 +20118,14 @@
         <v>130</v>
       </c>
       <c r="E265" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F265" s="65"/>
       <c r="G265" s="65" t="s">
-        <v>901</v>
-      </c>
-      <c r="H265" s="153" t="s">
-        <v>909</v>
+        <v>902</v>
+      </c>
+      <c r="H265" s="154" t="s">
+        <v>910</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
@@ -20123,26 +20133,26 @@
     </row>
     <row r="266">
       <c r="A266" s="49" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B266" s="66" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C266" s="63" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D266" s="63" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E266" s="65" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F266" s="65"/>
       <c r="G266" s="90" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H266" s="162" t="s">
         <v>1075</v>
+      </c>
+      <c r="H266" s="163" t="s">
+        <v>1076</v>
       </c>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
@@ -20150,15 +20160,15 @@
     </row>
     <row r="267">
       <c r="A267" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B267" s="66" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="90" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F267" s="63"/>
       <c r="G267" s="63" t="s">
@@ -20173,7 +20183,7 @@
     </row>
     <row r="268">
       <c r="A268" s="97" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B268" s="92" t="s">
         <v>57</v>
@@ -20185,14 +20195,14 @@
         <v>59</v>
       </c>
       <c r="E268" s="65" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F268" s="65"/>
       <c r="G268" s="90" t="s">
         <v>61</v>
       </c>
       <c r="H268" s="90" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="I268" s="7" t="s">
         <v>63</v>
@@ -20202,7 +20212,7 @@
     </row>
     <row r="269">
       <c r="A269" s="97" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B269" s="92" t="s">
         <v>73</v>
@@ -20214,14 +20224,14 @@
         <v>75</v>
       </c>
       <c r="E269" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F269" s="65"/>
       <c r="G269" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H269" s="90" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
@@ -20229,7 +20239,7 @@
     </row>
     <row r="270">
       <c r="A270" s="97" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="92" t="s">
         <v>80</v>
@@ -20241,14 +20251,14 @@
         <v>82</v>
       </c>
       <c r="E270" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F270" s="65"/>
       <c r="G270" s="90" t="s">
         <v>77</v>
       </c>
       <c r="H270" s="90" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -20256,7 +20266,7 @@
     </row>
     <row r="271">
       <c r="A271" s="97" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B271" s="92" t="s">
         <v>94</v>
@@ -20265,17 +20275,17 @@
         <v>95</v>
       </c>
       <c r="D271" s="63" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E271" s="65" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F271" s="65"/>
       <c r="G271" s="90" t="s">
         <v>98</v>
       </c>
       <c r="H271" s="90" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -20283,7 +20293,7 @@
     </row>
     <row r="272">
       <c r="A272" s="97" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B272" s="92" t="s">
         <v>101</v>
@@ -20295,14 +20305,14 @@
         <v>103</v>
       </c>
       <c r="E272" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F272" s="65"/>
       <c r="G272" s="65" t="s">
         <v>105</v>
       </c>
       <c r="H272" s="65" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
@@ -20310,7 +20320,7 @@
     </row>
     <row r="273">
       <c r="A273" s="97" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B273" s="92" t="s">
         <v>121</v>
@@ -20322,14 +20332,14 @@
         <v>123</v>
       </c>
       <c r="E273" s="65" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F273" s="65"/>
       <c r="G273" s="65" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H273" s="65" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
@@ -20337,7 +20347,7 @@
     </row>
     <row r="274">
       <c r="A274" s="97" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B274" s="92" t="s">
         <v>115</v>
@@ -20349,14 +20359,14 @@
         <v>117</v>
       </c>
       <c r="E274" s="65" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F274" s="65"/>
       <c r="G274" s="65" t="s">
-        <v>901</v>
-      </c>
-      <c r="H274" s="153" t="s">
         <v>902</v>
+      </c>
+      <c r="H274" s="154" t="s">
+        <v>903</v>
       </c>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
@@ -20364,10 +20374,10 @@
     </row>
     <row r="275">
       <c r="A275" s="97" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B275" s="92" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C275" s="63" t="s">
         <v>137</v>
@@ -20376,14 +20386,14 @@
         <v>138</v>
       </c>
       <c r="E275" s="65" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F275" s="65"/>
       <c r="G275" s="61" t="s">
-        <v>897</v>
-      </c>
-      <c r="H275" s="163" t="s">
-        <v>1100</v>
+        <v>898</v>
+      </c>
+      <c r="H275" s="164" t="s">
+        <v>1101</v>
       </c>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
@@ -20391,7 +20401,7 @@
     </row>
     <row r="276">
       <c r="A276" s="97" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B276" s="92" t="s">
         <v>128</v>
@@ -20403,14 +20413,14 @@
         <v>130</v>
       </c>
       <c r="E276" s="65" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F276" s="65"/>
       <c r="G276" s="65" t="s">
-        <v>901</v>
-      </c>
-      <c r="H276" s="153" t="s">
-        <v>909</v>
+        <v>902</v>
+      </c>
+      <c r="H276" s="154" t="s">
+        <v>910</v>
       </c>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
@@ -20418,26 +20428,26 @@
     </row>
     <row r="277">
       <c r="A277" s="122" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B277" s="62" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C277" s="164" t="s">
         <v>1105</v>
       </c>
-      <c r="D277" s="164" t="s">
+      <c r="C277" s="165" t="s">
         <v>1106</v>
       </c>
-      <c r="E277" s="165" t="s">
+      <c r="D277" s="165" t="s">
         <v>1107</v>
       </c>
-      <c r="F277" s="165"/>
+      <c r="E277" s="166" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F277" s="166"/>
       <c r="G277" s="90" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H277" s="166" t="s">
         <v>1109</v>
+      </c>
+      <c r="H277" s="167" t="s">
+        <v>1110</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
@@ -20445,10 +20455,10 @@
     </row>
     <row r="278">
       <c r="A278" s="34" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B278" s="167" t="s">
         <v>1111</v>
+      </c>
+      <c r="B278" s="168" t="s">
+        <v>1112</v>
       </c>
       <c r="C278" s="99"/>
       <c r="D278" s="99"/>
@@ -20462,17 +20472,17 @@
     </row>
     <row r="279">
       <c r="A279" s="38" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B279" s="62" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C279" s="168" t="s">
-        <v>802</v>
+        <v>1114</v>
+      </c>
+      <c r="C279" s="169" t="s">
+        <v>803</v>
       </c>
       <c r="D279" s="99"/>
       <c r="E279" s="110" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F279" s="99"/>
       <c r="G279" s="99"/>
@@ -20483,26 +20493,26 @@
     </row>
     <row r="280">
       <c r="A280" s="47" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B280" s="66" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C280" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D280" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E280" s="99" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F280" s="99"/>
       <c r="G280" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H280" s="169" t="s">
         <v>1121</v>
+      </c>
+      <c r="H280" s="170" t="s">
+        <v>1122</v>
       </c>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
@@ -20510,26 +20520,26 @@
     </row>
     <row r="281">
       <c r="A281" s="47" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B281" s="66" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C281" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D281" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E281" s="99" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F281" s="99"/>
       <c r="G281" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H281" s="169" t="s">
-        <v>1125</v>
+        <v>1121</v>
+      </c>
+      <c r="H281" s="170" t="s">
+        <v>1126</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
@@ -20537,10 +20547,10 @@
     </row>
     <row r="282">
       <c r="A282" s="47" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B282" s="66" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C282" s="99"/>
       <c r="D282" s="99"/>
@@ -20554,26 +20564,26 @@
     </row>
     <row r="283">
       <c r="A283" s="55" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B283" s="92" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C283" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D283" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E283" s="110" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F283" s="99"/>
       <c r="G283" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H283" s="169" t="s">
-        <v>1131</v>
+        <v>1121</v>
+      </c>
+      <c r="H283" s="170" t="s">
+        <v>1132</v>
       </c>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
@@ -20581,26 +20591,26 @@
     </row>
     <row r="284">
       <c r="A284" s="55" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B284" s="92" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C284" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D284" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E284" s="110" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F284" s="99"/>
       <c r="G284" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H284" s="169" t="s">
-        <v>1135</v>
+        <v>1121</v>
+      </c>
+      <c r="H284" s="170" t="s">
+        <v>1136</v>
       </c>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
@@ -20608,26 +20618,26 @@
     </row>
     <row r="285">
       <c r="A285" s="55" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B285" s="92" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C285" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D285" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E285" s="110" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F285" s="99"/>
       <c r="G285" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H285" s="169" t="s">
-        <v>1139</v>
+        <v>1121</v>
+      </c>
+      <c r="H285" s="170" t="s">
+        <v>1140</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
@@ -20635,26 +20645,26 @@
     </row>
     <row r="286">
       <c r="A286" s="47" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B286" s="66" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C286" s="168" t="s">
-        <v>1117</v>
+        <v>1142</v>
+      </c>
+      <c r="C286" s="169" t="s">
+        <v>1118</v>
       </c>
       <c r="D286" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E286" s="110" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F286" s="99"/>
       <c r="G286" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H286" s="169" t="s">
-        <v>1143</v>
+        <v>1121</v>
+      </c>
+      <c r="H286" s="170" t="s">
+        <v>1144</v>
       </c>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
@@ -20662,26 +20672,26 @@
     </row>
     <row r="287">
       <c r="A287" s="47" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B287" s="66" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C287" s="168" t="s">
-        <v>1117</v>
+        <v>1146</v>
+      </c>
+      <c r="C287" s="169" t="s">
+        <v>1118</v>
       </c>
       <c r="D287" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E287" s="110" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F287" s="99"/>
       <c r="G287" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H287" s="169" t="s">
-        <v>1147</v>
+        <v>1121</v>
+      </c>
+      <c r="H287" s="170" t="s">
+        <v>1148</v>
       </c>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
@@ -20689,13 +20699,13 @@
     </row>
     <row r="288">
       <c r="A288" s="47" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B288" s="66" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C288" s="168" t="s">
-        <v>802</v>
+        <v>1150</v>
+      </c>
+      <c r="C288" s="169" t="s">
+        <v>803</v>
       </c>
       <c r="D288" s="99"/>
       <c r="E288" s="99"/>
@@ -20708,26 +20718,26 @@
     </row>
     <row r="289">
       <c r="A289" s="55" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B289" s="92" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C289" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D289" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E289" s="110" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F289" s="99"/>
       <c r="G289" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H289" s="169" t="s">
-        <v>1153</v>
+        <v>1121</v>
+      </c>
+      <c r="H289" s="170" t="s">
+        <v>1154</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
@@ -20735,26 +20745,26 @@
     </row>
     <row r="290">
       <c r="A290" s="55" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B290" s="92" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C290" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D290" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E290" s="110" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F290" s="99"/>
       <c r="G290" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H290" s="169" t="s">
-        <v>1157</v>
+        <v>1121</v>
+      </c>
+      <c r="H290" s="170" t="s">
+        <v>1158</v>
       </c>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
@@ -20762,26 +20772,26 @@
     </row>
     <row r="291">
       <c r="A291" s="47" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B291" s="66" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C291" s="99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D291" s="99" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E291" s="99" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F291" s="99"/>
       <c r="G291" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H291" s="169" t="s">
-        <v>1161</v>
+        <v>1121</v>
+      </c>
+      <c r="H291" s="170" t="s">
+        <v>1162</v>
       </c>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
@@ -20789,10 +20799,10 @@
     </row>
     <row r="292">
       <c r="A292" s="38" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B292" s="62" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C292" s="99"/>
       <c r="D292" s="99"/>
@@ -20806,24 +20816,24 @@
     </row>
     <row r="293">
       <c r="A293" s="47" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B293" s="66" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C293" s="170" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C293" s="171" t="s">
         <v>655</v>
       </c>
       <c r="D293" s="99"/>
       <c r="E293" s="110" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F293" s="99"/>
       <c r="G293" s="99" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H293" s="169" t="s">
-        <v>1167</v>
+        <v>1121</v>
+      </c>
+      <c r="H293" s="170" t="s">
+        <v>1168</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
@@ -20831,10 +20841,10 @@
     </row>
     <row r="294">
       <c r="A294" s="38" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B294" s="62" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C294" s="99"/>
       <c r="D294" s="99"/>
@@ -20848,29 +20858,29 @@
     </row>
     <row r="295">
       <c r="A295" s="47" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B295" s="66" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C295" s="168" t="s">
         <v>1172</v>
       </c>
+      <c r="C295" s="169" t="s">
+        <v>1173</v>
+      </c>
       <c r="D295" s="99" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E295" s="171" t="s">
         <v>1174</v>
+      </c>
+      <c r="E295" s="172" t="s">
+        <v>1175</v>
       </c>
       <c r="F295" s="99"/>
       <c r="G295" s="99" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H295" s="172" t="s">
         <v>1176</v>
       </c>
+      <c r="H295" s="173" t="s">
+        <v>1177</v>
+      </c>
       <c r="I295" s="7" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -20975,22 +20985,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="175" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21002,14 +21012,14 @@
         <v>415</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="90" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3">
@@ -21020,30 +21030,30 @@
         <v>415</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="90" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="176" t="s">
         <v>447</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
       <c r="E4" s="68" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F4" s="176" t="s">
         <v>1184</v>
+      </c>
+      <c r="F4" s="177" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="5">
@@ -21059,133 +21069,133 @@
         <v>573</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="128" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>866</v>
-      </c>
-      <c r="C8" s="177" t="s">
         <v>867</v>
+      </c>
+      <c r="C8" s="178" t="s">
+        <v>868</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="90" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="175" t="s">
-        <v>840</v>
+      <c r="A9" s="176" t="s">
+        <v>841</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="68" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F9" s="176" t="s">
         <v>1196</v>
       </c>
+      <c r="F9" s="177" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="132" t="s">
-        <v>871</v>
+      <c r="A10" s="133" t="s">
+        <v>872</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="68" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F10" s="176" t="s">
         <v>1198</v>
+      </c>
+      <c r="F10" s="177" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="132" t="s">
-        <v>921</v>
+      <c r="A12" s="133" t="s">
+        <v>922</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="68" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -21208,37 +21218,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="178" t="s">
-        <v>1203</v>
+      <c r="A2" s="179" t="s">
+        <v>1204</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="179" t="s">
-        <v>1205</v>
+      <c r="A3" s="180" t="s">
+        <v>1206</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="180" t="s">
-        <v>1207</v>
+      <c r="A4" s="181" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="181" t="s">
-        <v>1208</v>
+      <c r="A6" s="182" t="s">
+        <v>1209</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="8">
@@ -21248,68 +21258,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="181" t="s">
-        <v>1211</v>
+      <c r="A10" s="182" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="181" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B11" s="182" t="s">
+      <c r="A11" s="182" t="s">
         <v>1213</v>
       </c>
+      <c r="B11" s="183" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="183" t="s">
-        <v>1214</v>
+      <c r="B12" s="184" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="184"/>
-      <c r="B13" s="185" t="s">
-        <v>1215</v>
+      <c r="A13" s="185"/>
+      <c r="B13" s="186" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="186" t="s">
-        <v>1216</v>
+      <c r="B14" s="187" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="187" t="s">
-        <v>1217</v>
+      <c r="B15" s="188" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="188" t="s">
-        <v>1218</v>
+      <c r="B16" s="189" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="181"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="181" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B18" s="189" t="s">
+      <c r="A18" s="182" t="s">
         <v>1220</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B19" s="84"/>
     </row>
     <row r="21">
-      <c r="A21" s="181" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B21" s="190" t="s">
+      <c r="A21" s="182" t="s">
         <v>1223</v>
+      </c>
+      <c r="B21" s="191" t="s">
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -21334,53 +21344,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="181" t="s">
-        <v>1224</v>
+      <c r="A1" s="182" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="191" t="s">
-        <v>1225</v>
+      <c r="A2" s="192" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="192" t="s">
-        <v>1226</v>
+      <c r="A3" s="193" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="191" t="s">
-        <v>1227</v>
+      <c r="A4" s="192" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="192" t="s">
-        <v>1228</v>
+      <c r="A5" s="193" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="192" t="s">
-        <v>1229</v>
+      <c r="A6" s="193" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="192" t="s">
-        <v>1230</v>
+      <c r="A7" s="193" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="193" t="s">
-        <v>1231</v>
+      <c r="A8" s="194" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="192" t="s">
-        <v>1232</v>
+      <c r="A9" s="193" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="192" t="s">
-        <v>1233</v>
+      <c r="A10" s="193" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -21406,63 +21416,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B1" s="194" t="s">
-        <v>1234</v>
+        <v>1225</v>
+      </c>
+      <c r="B1" s="195" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="192" t="s">
-        <v>1235</v>
+      <c r="A2" s="193" t="s">
+        <v>1236</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="192" t="s">
-        <v>1237</v>
+      <c r="A3" s="193" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="192" t="s">
-        <v>1238</v>
+      <c r="A4" s="193" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="192" t="s">
-        <v>1240</v>
+      <c r="A6" s="193" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="192" t="s">
-        <v>1241</v>
+      <c r="A7" s="193" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="192" t="s">
-        <v>1242</v>
+      <c r="A8" s="193" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="192" t="s">
-        <v>1243</v>
+      <c r="A9" s="193" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="195" t="s">
-        <v>1244</v>
+      <c r="A10" s="196" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="196" t="s">
-        <v>1245</v>
+      <c r="A11" s="197" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21491,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="182"/>
+      <c r="A1" s="183"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21505,11 +21515,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1" s="198" t="s">
+      <c r="A1" s="198" t="s">
         <v>1247</v>
+      </c>
+      <c r="C1" s="199" t="s">
+        <v>1248</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -21536,16 +21546,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -21572,13 +21582,13 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -21609,13 +21619,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1254</v>
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -21646,13 +21656,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21680,16 +21690,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -21716,16 +21726,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D7" s="199" t="s">
-        <v>1263</v>
+        <v>1255</v>
+      </c>
+      <c r="D7" s="200" t="s">
+        <v>1264</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -21752,16 +21762,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -21788,16 +21798,16 @@
     </row>
     <row r="9">
       <c r="A9" s="90" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -21824,16 +21834,16 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -21860,16 +21870,16 @@
     </row>
     <row r="11">
       <c r="A11" s="90" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -21896,16 +21906,16 @@
     </row>
     <row r="12">
       <c r="A12" s="90" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -21931,76 +21941,76 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="200" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B13" s="200" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C13" s="201" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D13" s="201" t="s">
+      <c r="A13" s="201" t="s">
         <v>1278</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
-      <c r="U13" s="201"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="201"/>
-      <c r="Z13" s="201"/>
+      <c r="B13" s="201" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C13" s="202" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D13" s="202" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
     </row>
     <row r="14">
-      <c r="A14" s="200" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B14" s="200" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C14" s="201" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D14" s="201" t="s">
+      <c r="A14" s="201" t="s">
         <v>1280</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201"/>
-      <c r="U14" s="201"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="201"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="201"/>
-      <c r="Z14" s="201"/>
+      <c r="B14" s="201" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C14" s="202" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D14" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22028,59 +22038,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1" s="198" t="s">
+      <c r="A1" s="198" t="s">
         <v>1247</v>
+      </c>
+      <c r="C1" s="199" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D2" s="194" t="s">
         <v>1251</v>
+      </c>
+      <c r="D2" s="195" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C5" s="203" t="s">
         <v>1285</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C5" s="202" t="s">
-        <v>1284</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.3.2</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -503,7 +503,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +557,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -617,7 +617,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -674,7 +674,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -731,7 +731,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1211,7 +1211,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1253,7 +1253,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1298,7 +1298,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1382,7 +1382,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2089,7 +2089,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -2134,7 +2134,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -2182,7 +2182,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2227,7 +2227,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2272,7 +2272,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2627,7 +2627,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/ADDRESS</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:thoroughfare ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:thoroughfare ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.4</t>
@@ -2636,7 +2636,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/TOWN</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postName ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postName ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.5</t>
@@ -2648,7 +2648,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/*:NUTS/@CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.6</t>
@@ -2657,7 +2657,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/POSTAL_CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.7</t>
@@ -2666,7 +2666,7 @@
     <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/COUNTRY</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?value .</t>
   </si>
   <si>
     <t>I.3.4.3.8</t>
@@ -5462,7 +5462,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5506,7 +5506,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5556,7 +5556,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5605,7 +5605,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5651,7 +5651,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6604,7 +6604,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6649,7 +6649,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6694,7 +6694,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6739,7 +6739,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6889,7 +6889,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6931,7 +6931,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6971,7 +6971,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -7014,7 +7014,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -7174,7 +7174,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -7219,7 +7219,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -7264,7 +7264,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -7309,7 +7309,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>

--- a/mappings/package_F22/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F22/transformation/conceptual_mappings.xlsx
@@ -167,7 +167,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
